--- a/data.xlsx
+++ b/data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3423" uniqueCount="1076">
   <si>
     <t>questName</t>
   </si>
@@ -1951,847 +1951,928 @@
     <t>孤島の研究対象</t>
   </si>
   <si>
+    <t>고도의 연구대상</t>
+  </si>
+  <si>
     <t>마을★5</t>
   </si>
   <si>
+    <t>모든 대형몬스터 수렵</t>
+  </si>
+  <si>
+    <t>용역원(龍歴院)포인트 700pts 입수</t>
+  </si>
+  <si>
+    <t>雪獅子、二重の咆哮</t>
+  </si>
+  <si>
+    <t>설사자, 이중의 포효</t>
+  </si>
+  <si>
+    <t>도도블랑고(ドドブランゴ) 2마리 수렵</t>
+  </si>
+  <si>
+    <t>砂漠を喰らう</t>
+  </si>
+  <si>
+    <t>사막을 먹다</t>
+  </si>
+  <si>
+    <t>하플봇카(ハプルボッカ) 3마리 수렵</t>
+  </si>
+  <si>
+    <t>砂漠でサバイバルバトル</t>
+  </si>
+  <si>
+    <t>사막에서 서바이벌 배틀</t>
+  </si>
+  <si>
+    <t>魔球！火山のナックルボール</t>
+  </si>
+  <si>
+    <t>마구! 화산의 너클볼</t>
+  </si>
+  <si>
+    <t>랑그로토라(ラングロトラ) 2마리 수렵</t>
+  </si>
+  <si>
+    <t>赤いおひさまアッチッチ</t>
+  </si>
+  <si>
+    <t>빨간 해님 아뜨뜨</t>
+  </si>
+  <si>
+    <t>리오레우스(リオレウス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>白昼のブルファンゴ討伐</t>
+  </si>
+  <si>
+    <t>대낮의 블루팡고 토벌</t>
+  </si>
+  <si>
+    <t>블루팡고(ブルファンゴ)를 10마리 이상 토벌하고 타임업 혹은 고양이택시티켓(ネコタクチケット) 납품</t>
+  </si>
+  <si>
+    <t>噴煙まとう王者</t>
+  </si>
+  <si>
+    <t>분연을 감은 왕</t>
+  </si>
+  <si>
+    <t>리오레우스(リオレウス)의 꼬리 절단</t>
+  </si>
+  <si>
+    <t>再びキノコ探しで大もうけ！？</t>
+  </si>
+  <si>
+    <t>다시한번 버섯을 찾아서 큰 벌이!?</t>
+  </si>
+  <si>
+    <t>특산 버섯(特産キノコ) 10개 이상 납품 혹은 고양이택시티켓(ネコタクチケット) 납품</t>
+  </si>
+  <si>
+    <t>赤く染まる沼地</t>
+  </si>
+  <si>
+    <t>붉게 물들은 늪지</t>
+  </si>
+  <si>
+    <t>翠玉の閃電</t>
+  </si>
+  <si>
+    <t>취옥의 섬전</t>
+  </si>
+  <si>
+    <t>라이젝스(ライゼクス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>라이젝스(ライゼクス)의 볏 파괴</t>
+  </si>
+  <si>
+    <t>エレクトリカル・バトル</t>
+  </si>
+  <si>
+    <t>일렉트리컬・배틀</t>
+  </si>
+  <si>
+    <t>라기아크루스(ラギアクルス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>ゲリョスな季節</t>
+  </si>
+  <si>
+    <t>게료스한 계절</t>
+  </si>
+  <si>
+    <t>게료스(ゲリョス)를 2마리 이상 수렵하고 타임업 혹은 고양이택시티켓(ネコタクチケット) 납품</t>
+  </si>
+  <si>
+    <t>怪鳥の頭部破壊に挑戦！</t>
+  </si>
+  <si>
+    <t>괴조의 머리파괴에 도전!</t>
+  </si>
+  <si>
+    <t>淡紅の泡狐がたゆたうか</t>
+  </si>
+  <si>
+    <t>담홍의 호호가 흔들거리는가</t>
+  </si>
+  <si>
+    <t>타마미츠네(タマミツネ) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>타마미츠네(タマミツネ)의 머리 파괴</t>
+  </si>
+  <si>
+    <t>災厄の使者</t>
+  </si>
+  <si>
+    <t>재앙의 사자</t>
+  </si>
+  <si>
+    <t>가프라스(ガブラス) 10마리 토벌</t>
+  </si>
+  <si>
+    <t>一匹狼に捧ぐ挽歌</t>
+  </si>
+  <si>
+    <t>한 마리 늑대에게 바치는 만가</t>
+  </si>
+  <si>
+    <t>얀가루루가(イャンガルルガ) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>3900z</t>
+  </si>
+  <si>
+    <t>暗雲立ち込める火山帯</t>
+  </si>
+  <si>
+    <t>암운이 자욱하게 낀 화산대</t>
+  </si>
+  <si>
+    <t>가브라스(ガブラス) 8마리 토벌</t>
+  </si>
+  <si>
+    <t>ビリビリするらしいです×？？</t>
+  </si>
+  <si>
+    <t>찌릿찌릿하는듯합니다×??</t>
+  </si>
+  <si>
+    <t>푸르푸르(フルフル)를 2마리 이상 수렵하고 타임업 혹은 고양이택시티켓(ネコタクチケット) 납품</t>
+  </si>
+  <si>
+    <t>アブナイお仕事</t>
+  </si>
+  <si>
+    <t>위험한 일</t>
+  </si>
+  <si>
+    <t>용의 알(竜の卵) 1개 납품</t>
+  </si>
+  <si>
+    <t>大海の王・ラギアクルス！</t>
+  </si>
+  <si>
+    <t>대해의 왕 라기아크루스</t>
+  </si>
+  <si>
+    <t>라기아크루스(ラギアクルス)의 머리 파괴</t>
+  </si>
+  <si>
+    <t>脅威！火山の鉄槌！</t>
+  </si>
+  <si>
+    <t>위협! 화산의 철퇴!</t>
+  </si>
+  <si>
+    <t>우라간킨(ウラガンキン) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>우라간킨(ウラガンキン)의 턱 파괴</t>
+  </si>
+  <si>
+    <t>黒き禍</t>
+  </si>
+  <si>
+    <t>검은 재앙</t>
+  </si>
+  <si>
+    <t>ウロコトルと隠れんぼ</t>
+  </si>
+  <si>
+    <t>우로코토루와 숨바꼭질</t>
+  </si>
+  <si>
+    <t>峨々たる巨獣</t>
+  </si>
+  <si>
+    <t>우뚝 솟은 거수</t>
+  </si>
+  <si>
+    <t>가무토(ガムート) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>가무토(ガムート)의 다리 파괴</t>
+  </si>
+  <si>
+    <t>ドス来い！真夜中の古代林</t>
+  </si>
+  <si>
+    <t>도스와라! 한밤중의 고대림</t>
+  </si>
+  <si>
+    <t>混乱のホロロロホルルル</t>
+  </si>
+  <si>
+    <t>혼란의 호로로로호루루루</t>
+  </si>
+  <si>
+    <t>호로로호루루(ホロロホルル) 2마리 수렵</t>
+  </si>
+  <si>
+    <t>ドスイーオスのリーダー争い</t>
+  </si>
+  <si>
+    <t>도스이오스의 리더 쟁탈전</t>
+  </si>
+  <si>
+    <t>도스이오스(ドスイーオス)를 2마리 이상 수렵하고 타임업 혹은 고양이택시티켓(ネコタクチケット) 납품</t>
+  </si>
+  <si>
+    <t>이오스(イーオス) 20마리 토벌</t>
+  </si>
+  <si>
+    <t>雷電</t>
+  </si>
+  <si>
+    <t>마을★6</t>
+  </si>
+  <si>
+    <t>キリンの討伐</t>
+  </si>
+  <si>
+    <t>700z</t>
+  </si>
+  <si>
+    <t>6600z</t>
+  </si>
+  <si>
+    <t>白き霊獣</t>
+  </si>
+  <si>
+    <t>ギルドフラッグを山頂に設置</t>
+  </si>
+  <si>
+    <t>高難度：一対の巨影</t>
+  </si>
+  <si>
+    <t>リオレウス1頭とリオレイア1頭の狩猟</t>
+  </si>
+  <si>
+    <t>高難度：最後の招待状</t>
+  </si>
+  <si>
+    <t>ラージャン2頭の狩猟</t>
+  </si>
+  <si>
+    <t>廻り集いて回帰せん</t>
+  </si>
+  <si>
+    <t>シャガルマガラ1頭の討伐</t>
+  </si>
+  <si>
+    <t>シャガルマガラの角破壊</t>
+  </si>
+  <si>
+    <t>800z</t>
+  </si>
+  <si>
+    <t>7200z</t>
+  </si>
+  <si>
+    <t>ハンティングナイト！</t>
+  </si>
+  <si>
     <t>龍歴院ポイント700pts入手</t>
   </si>
   <si>
-    <t>雪獅子、二重の咆哮</t>
-  </si>
-  <si>
-    <t>ドドブランゴ2頭の狩猟</t>
+    <t>高難度：吹雪の召還者</t>
+  </si>
+  <si>
+    <t>高難度：食は渓流にあり！</t>
+  </si>
+  <si>
+    <t>特産キノコ20個の納品</t>
+  </si>
+  <si>
+    <t>高難度：四天王の凱歌</t>
+  </si>
+  <si>
+    <t>27000z</t>
+  </si>
+  <si>
+    <t>轟竜ティガレックス</t>
+  </si>
+  <si>
+    <t>ティガレックス1頭の狩猟</t>
   </si>
   <si>
     <t>乗りによるダウンを2回成功</t>
   </si>
   <si>
-    <t>砂漠を喰らう</t>
-  </si>
-  <si>
-    <t>ハブルポッカ3頭の狩猟</t>
-  </si>
-  <si>
-    <t>砂漠でサバイバルバトル</t>
-  </si>
-  <si>
-    <t>魔球！火山のナックルボール</t>
-  </si>
-  <si>
-    <t>ラングロトラ2頭の狩猟</t>
-  </si>
-  <si>
-    <t>赤いおひさまアッチッチ</t>
-  </si>
-  <si>
-    <t>リオレウス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>白昼のブルファンゴ討伐</t>
-  </si>
-  <si>
-    <t>ブルファンゴを10頭以上討伐してタイムアップもしくはネコタクチケットの納品</t>
-  </si>
-  <si>
-    <t>ガララアジャラ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>噴煙まとう王者</t>
-  </si>
-  <si>
-    <t>リオレウスの尻尾切断</t>
-  </si>
-  <si>
-    <t>再びキノコ探しで大もうけ！？</t>
-  </si>
-  <si>
-    <t>特産キノコ10個以上納品もしくはネコタクチケットの納品</t>
+    <t>剛拳爆砕！ブラキディオス！</t>
+  </si>
+  <si>
+    <t>ブラキディオス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ブラキディオスの尻尾切断</t>
+  </si>
+  <si>
+    <t>縄張りに進入するべからず</t>
+  </si>
+  <si>
+    <t>ジンオウガ1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ジンオウガの背中破壊</t>
+  </si>
+  <si>
+    <t>4800z</t>
+  </si>
+  <si>
+    <t>英雄への道</t>
+  </si>
+  <si>
+    <t>ティガレックスの頭部破壊</t>
+  </si>
+  <si>
+    <t>盾蟹のヤド破壊に挑戦！</t>
+  </si>
+  <si>
+    <t>ダイミョウザザミのヤド破壊</t>
+  </si>
+  <si>
+    <t>高難度：炎王の帰還</t>
+  </si>
+  <si>
+    <t>牙と毒の沼地</t>
+  </si>
+  <si>
+    <t>ドスファンゴ1頭とドスイーオス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>高難度：渾身のドボルベルク</t>
+  </si>
+  <si>
+    <t>ドボルベルク1頭の狩猟</t>
+  </si>
+  <si>
+    <t>高難度：異常震域</t>
+  </si>
+  <si>
+    <t>ティガレックス2頭の狩猟</t>
+  </si>
+  <si>
+    <t>14700z</t>
+  </si>
+  <si>
+    <t>高難度：赤の猛攻！</t>
+  </si>
+  <si>
+    <t>宿命の四天王</t>
+  </si>
+  <si>
+    <t>高難度：黒狼鳥は舞い降りた</t>
+  </si>
+  <si>
+    <t>イャンガルルガ1頭の狩猟</t>
+  </si>
+  <si>
+    <t>剛毛フカフカの牙獣達</t>
+  </si>
+  <si>
+    <t>粉骨砕竜！</t>
+  </si>
+  <si>
+    <t>ブラキディオス1頭の捕獲</t>
+  </si>
+  <si>
+    <t>竜のナミダ1個の納品</t>
+  </si>
+  <si>
+    <t>砂漠の彼方から</t>
+  </si>
+  <si>
+    <t>ディノバルド1頭の狩猟</t>
+  </si>
+  <si>
+    <t>高難度：青の連撃！</t>
+  </si>
+  <si>
+    <t>雷狼竜はかく吠えり</t>
+  </si>
+  <si>
+    <t>恐るべき火山の魔球</t>
+  </si>
+  <si>
+    <t>青と緑の波状包囲網</t>
+  </si>
+  <si>
+    <t>ドスランポス、ドスマッカォの狩猟</t>
+  </si>
+  <si>
+    <t>高難度：天と地の怒り</t>
+  </si>
+  <si>
+    <t>リオレウス希少種1頭とリオレイア希少種1頭の狩猟</t>
+  </si>
+  <si>
+    <t>2300z</t>
+  </si>
+  <si>
+    <t>22800z</t>
+  </si>
+  <si>
+    <t>千刃、襲来</t>
+  </si>
+  <si>
+    <t>セルレギオス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>天下分け目の大合戦</t>
+  </si>
+  <si>
+    <t>ショウグンギザミ2匹の狩猟</t>
+  </si>
+  <si>
+    <t>高難度：対霞龍防衛作戦！</t>
+  </si>
+  <si>
+    <t>渓流の覇権争いニャ！！</t>
+  </si>
+  <si>
+    <t>8400z</t>
+  </si>
+  <si>
+    <t>灼熱の刃</t>
+  </si>
+  <si>
+    <t>ディノバルドの尻尾切断</t>
+  </si>
+  <si>
+    <t>黒き衣を纏う竜</t>
+  </si>
+  <si>
+    <t>ゴア・マガラ1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ゴア･マガラの触角破壊</t>
+  </si>
+  <si>
+    <t>高難度：強者たちの祭典！</t>
+  </si>
+  <si>
+    <t>30000z</t>
+  </si>
+  <si>
+    <t>高難度：廻帰せし災厄の古龍</t>
+  </si>
+  <si>
+    <t>予想外！つがいの妨害！</t>
+  </si>
+  <si>
+    <t>高難度：重甲虫と腕試し！</t>
+  </si>
+  <si>
+    <t>ゲネル・セルタス1匹の狩猟</t>
+  </si>
+  <si>
+    <t>高難度：終焉を喰らう者</t>
+  </si>
+  <si>
+    <t>2200z</t>
+  </si>
+  <si>
+    <t>21600z</t>
+  </si>
+  <si>
+    <t>紅葉に散るは、熊か猫か</t>
+  </si>
+  <si>
+    <t>アオアシラ1頭の狩猟</t>
+  </si>
+  <si>
+    <t>毒まみれの沼地</t>
+  </si>
+  <si>
+    <t>高難度：非情に波状な状態異常</t>
+  </si>
+  <si>
+    <t>32400z</t>
+  </si>
+  <si>
+    <t>高難度：天地征服せし強者</t>
+  </si>
+  <si>
+    <t>20100z</t>
+  </si>
+  <si>
+    <t>高難度：古代林のトレジャー！</t>
+  </si>
+  <si>
+    <t>7500z</t>
+  </si>
+  <si>
+    <t>挑発上手の跳狗竜</t>
+  </si>
+  <si>
+    <t>마을★7</t>
+  </si>
+  <si>
+    <t>ドスマッカォ1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ドスマッカォの頭部破壊</t>
+  </si>
+  <si>
+    <t>タイムアップもしくはネコタクチケットの納品</t>
+  </si>
+  <si>
+    <t>ぱっくん！テツカブラ</t>
+  </si>
+  <si>
+    <t>テツカブラ１頭の狩猟</t>
+  </si>
+  <si>
+    <t>古代木の実３個の納品</t>
+  </si>
+  <si>
+    <t>友に迫る土砂竜</t>
+  </si>
+  <si>
+    <t>ボルボロス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>砂漠の採集ツアー</t>
+  </si>
+  <si>
+    <t>疾走するドスランポス</t>
+  </si>
+  <si>
+    <t>ドスランポス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>青熊獣、出没中につき</t>
+  </si>
+  <si>
+    <t>アオアシラの前脚破壊</t>
+  </si>
+  <si>
+    <t>これが本当のダイミョウ行列？</t>
+  </si>
+  <si>
+    <t>ダイミョウザザミ１匹の狩猟</t>
+  </si>
+  <si>
+    <t>ボルボロスを捕獲せよ！</t>
+  </si>
+  <si>
+    <t>ボルボロス１頭の捕獲</t>
+  </si>
+  <si>
+    <t>6300z</t>
+  </si>
+  <si>
+    <t>原生林の採集ツアー</t>
+  </si>
+  <si>
+    <t>不潔ものの大集会</t>
+  </si>
+  <si>
+    <t>コンガ10頭の討伐</t>
+  </si>
+  <si>
+    <t>ババコンガ１頭の狩猟</t>
+  </si>
+  <si>
+    <t>遺群嶺の採集ツアー</t>
+  </si>
+  <si>
+    <t>ババコンガを狩猟せよ</t>
+  </si>
+  <si>
+    <t>ババコンガのトサカ破壊</t>
+  </si>
+  <si>
+    <t>ニャンター、お使い再び</t>
+  </si>
+  <si>
+    <t>高層エリンギ9個の納品</t>
+  </si>
+  <si>
+    <t>彗星のカケラはどこに？</t>
+  </si>
+  <si>
+    <t>灼けた甲殻５個の納品</t>
+  </si>
+  <si>
+    <t>森丘の怪</t>
+  </si>
+  <si>
+    <t>イャンクック１頭とゲリョス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>ゲネポス行進曲</t>
+  </si>
+  <si>
+    <t>ゲネポス１２頭の討伐</t>
+  </si>
+  <si>
+    <t>ドスゲネポス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>氷雪に舞う白うさぎ</t>
+  </si>
+  <si>
+    <t>ウルクスス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>ガウシカ５頭の討伐</t>
+  </si>
+  <si>
+    <t>調査隊初陣！遺群嶺の桃毛獣</t>
+  </si>
+  <si>
+    <t>ババコンガ1頭の狩猟</t>
+  </si>
+  <si>
+    <t>怪鳥の憂鬱</t>
+  </si>
+  <si>
+    <t>イャンクック1頭の狩猟</t>
+  </si>
+  <si>
+    <t>遺群嶺の不思議な石</t>
+  </si>
+  <si>
+    <t>赫星石１０個の納品</t>
+  </si>
+  <si>
+    <t>商売ガタキのドスギアノス</t>
+  </si>
+  <si>
+    <t>ドスギアノス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>ギアノス８頭の討伐</t>
+  </si>
+  <si>
+    <t>竜の卵の納品・モーニング</t>
+  </si>
+  <si>
+    <t>竜の卵2個の納品</t>
+  </si>
+  <si>
+    <t>ロアルドロス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>熱帯イチゴはカネの味？</t>
+  </si>
+  <si>
+    <t>熱帯イチゴ１０個の納品</t>
+  </si>
+  <si>
+    <t>ヤオザミ６匹の討伐</t>
+  </si>
+  <si>
+    <t>珍味アルセルタスをもう一度</t>
+  </si>
+  <si>
+    <t>アルセルタス１匹の狩猟</t>
+  </si>
+  <si>
+    <t>アルセルタスの角破壊</t>
+  </si>
+  <si>
+    <t>旬な食材を採らせておくれ！</t>
+  </si>
+  <si>
+    <t>アオアシラ２頭の狩猟</t>
+  </si>
+  <si>
+    <t>牙獣の大粒ナミダ１個の納品</t>
+  </si>
+  <si>
+    <t>イタズラ猿に制裁を</t>
+  </si>
+  <si>
+    <t>ケチャワチャ1頭の狩猟</t>
+  </si>
+  <si>
+    <t>遺跡平原の採集ツアー</t>
+  </si>
+  <si>
+    <t>旧砂漠横断のお荷物</t>
+  </si>
+  <si>
+    <t>ダイミョウザザミ１匹とボルボロス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>龍歴院ポイント５００pts入手</t>
+  </si>
+  <si>
+    <t>芳香せしコンガ</t>
+  </si>
+  <si>
+    <t>コンガ１１頭の討伐</t>
+  </si>
+  <si>
+    <t>20z</t>
+  </si>
+  <si>
+    <t>180z</t>
+  </si>
+  <si>
+    <t>毒怪鳥活用計画</t>
+  </si>
+  <si>
+    <t>ゲリョス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>渓流に棲む水獣</t>
+  </si>
+  <si>
+    <t>砂中から忍び寄る影</t>
+  </si>
+  <si>
+    <t>ガレオス５頭の討伐</t>
+  </si>
+  <si>
+    <t>ドスガレオス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>마을★8</t>
+  </si>
+  <si>
+    <t>竜の卵の納品・ランチ</t>
+  </si>
+  <si>
+    <t>竜の卵２個の納品</t>
+  </si>
+  <si>
+    <t>リオレイア１頭の狩猟</t>
+  </si>
+  <si>
+    <t>氷海の採集ツアー</t>
+  </si>
+  <si>
+    <t>龍識船強化！【溶岩竜編】</t>
+  </si>
+  <si>
+    <t>ヴォルガノス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>珍肥料を手に入れるのニャ！</t>
+  </si>
+  <si>
+    <t>不老蛾１０匹の納品</t>
+  </si>
+  <si>
+    <t>久遠の化石１個の納品</t>
+  </si>
+  <si>
+    <t>ナイショのお仕事</t>
+  </si>
+  <si>
+    <t>たまには釣りでもいかが？</t>
+  </si>
+  <si>
+    <t>黄金魚３匹の納品</t>
+  </si>
+  <si>
+    <t>ガノトトス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>宣伝ネコの受難</t>
+  </si>
+  <si>
+    <t>ガララアジャラ１頭の狩猟</t>
+  </si>
+  <si>
+    <t>ガララアジャラの頭部破壊</t>
+  </si>
+  <si>
+    <t>7800z</t>
+  </si>
+  <si>
+    <t>なんと、黒狼鳥でした！</t>
+  </si>
+  <si>
+    <t>イャンガルルガ１頭の狩猟</t>
+  </si>
+  <si>
+    <t>イャンガルルガの頭部破壊</t>
+  </si>
+  <si>
+    <t>冷血なるドスギアノス！</t>
+  </si>
+  <si>
+    <t>ドスギアノス２頭の狩猟</t>
+  </si>
+  <si>
+    <t>龍識船強化！【迅竜編】</t>
+  </si>
+  <si>
+    <t>ナルガクルガ１頭の狩猟</t>
+  </si>
+  <si>
+    <t>密林の採集ツアー</t>
+  </si>
+  <si>
+    <t>火山の厄介者たち</t>
+  </si>
+  <si>
+    <t>バサルモス１頭とドスイーオス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>道化師は斯く嘲る</t>
+  </si>
+  <si>
+    <t>ホロロホルル１頭の狩猟</t>
+  </si>
+  <si>
+    <t>ホロロホルルの尻尾破壊</t>
+  </si>
+  <si>
+    <t>熱地に現る、ウラガンキン！</t>
+  </si>
+  <si>
+    <t>ウラガンキン１頭の狩猟</t>
+  </si>
+  <si>
+    <t>ウラガンキンの尻尾切断</t>
+  </si>
+  <si>
+    <t>ものぐさには爆鎚竜で喝！</t>
+  </si>
+  <si>
+    <t>でっかい岩だと思ったら…？</t>
+  </si>
+  <si>
+    <t>バサルモス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>飛んで跳ねて無我夢中</t>
+  </si>
+  <si>
+    <t>ケチャワチャ１頭とドスマッカォ１頭の狩猟</t>
+  </si>
+  <si>
+    <t>砂まみれですな</t>
+  </si>
+  <si>
+    <t>ハプルボッカ１頭とドスガレオス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>沼地の恐怖体験</t>
+  </si>
+  <si>
+    <t>ショウグンギザミ１匹とババコンガ１頭の狩猟</t>
+  </si>
+  <si>
+    <t>陸の女王、捕獲作戦！</t>
+  </si>
+  <si>
+    <t>リオレイア１頭の捕獲</t>
+  </si>
+  <si>
+    <t>喰われる前にヤレ！</t>
+  </si>
+  <si>
+    <t>ハプルボッカ１頭の狩猟</t>
+  </si>
+  <si>
+    <t>ハプルボッカのエラ破壊</t>
+  </si>
+  <si>
+    <t>狩人のための舞台～氷海～</t>
+  </si>
+  <si>
+    <t>フルフル１頭の狩猟</t>
+  </si>
+  <si>
+    <t>スクアギル６頭の討伐</t>
+  </si>
+  <si>
+    <t>山嶺を舞うリオレイア</t>
   </si>
   <si>
     <t>リオレイアの尻尾切断</t>
-  </si>
-  <si>
-    <t>赤く染まる沼地</t>
-  </si>
-  <si>
-    <t>イーオス10頭の討伐</t>
-  </si>
-  <si>
-    <t>翠玉の閃電</t>
-  </si>
-  <si>
-    <t>ライゼクス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ライゼクスのトサカ破壊</t>
-  </si>
-  <si>
-    <t>エレクトリカル・バトル</t>
-  </si>
-  <si>
-    <t>ラギアクルス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ゲリョスな季節</t>
-  </si>
-  <si>
-    <t>ゲリョスを2頭以上狩猟してタイムアップもしくはネコタクチケットの納品</t>
-  </si>
-  <si>
-    <t>怪鳥の頭部破壊に挑戦！</t>
-  </si>
-  <si>
-    <t>イャンクックの頭部破壊</t>
-  </si>
-  <si>
-    <t>淡紅の泡狐がたゆたうか</t>
-  </si>
-  <si>
-    <t>タマミツネ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>タマミツネの頭部破壊</t>
-  </si>
-  <si>
-    <t>災厄の使者</t>
-  </si>
-  <si>
-    <t>ガプラス10頭の討伐</t>
-  </si>
-  <si>
-    <t>一匹狼に捧ぐ挽歌</t>
-  </si>
-  <si>
-    <t>イャンガルルガ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>3900z</t>
-  </si>
-  <si>
-    <t>暗雲立ち込める火山帯</t>
-  </si>
-  <si>
-    <t>ガブラス8頭の討伐</t>
-  </si>
-  <si>
-    <t>ビリビリするらしいです×？？</t>
-  </si>
-  <si>
-    <t>フルフルを2頭以上狩猟してタイムアップもしくはネコタクチケットの納品</t>
-  </si>
-  <si>
-    <t>アブナイお仕事</t>
-  </si>
-  <si>
-    <t>竜の卵1個の納品</t>
-  </si>
-  <si>
-    <t>大海の王・ラギアクルス！</t>
-  </si>
-  <si>
-    <t>ラギアクルスの頭部破壊</t>
-  </si>
-  <si>
-    <t>脅威！火山の鉄槌！</t>
-  </si>
-  <si>
-    <t>ウラガンキン1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ウラガンキンの顎破壊</t>
-  </si>
-  <si>
-    <t>黒き禍</t>
-  </si>
-  <si>
-    <t>竜のナミダ1個の納品</t>
-  </si>
-  <si>
-    <t>ウロコトルと隠れんぼ</t>
-  </si>
-  <si>
-    <t>ウロコトル10頭の討伐</t>
-  </si>
-  <si>
-    <t>峨々たる巨獣</t>
-  </si>
-  <si>
-    <t>ガムート1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ガムートの脚破壊</t>
-  </si>
-  <si>
-    <t>ドス来い！真夜中の古代林</t>
-  </si>
-  <si>
-    <t>混乱のホロロロホルルル</t>
-  </si>
-  <si>
-    <t>ホロロホルル2頭の狩猟</t>
-  </si>
-  <si>
-    <t>ドスイーオスのリーダー争い</t>
-  </si>
-  <si>
-    <t>ドスイーオスを2頭以上狩猟してタイムアップもしくはネコタクチケットの納品</t>
-  </si>
-  <si>
-    <t>イーオス20頭の討伐</t>
-  </si>
-  <si>
-    <t>雷電</t>
-  </si>
-  <si>
-    <t>마을★6</t>
-  </si>
-  <si>
-    <t>キリンの討伐</t>
-  </si>
-  <si>
-    <t>700z</t>
-  </si>
-  <si>
-    <t>6600z</t>
-  </si>
-  <si>
-    <t>白き霊獣</t>
-  </si>
-  <si>
-    <t>ギルドフラッグを山頂に設置</t>
-  </si>
-  <si>
-    <t>高難度：一対の巨影</t>
-  </si>
-  <si>
-    <t>リオレウス1頭とリオレイア1頭の狩猟</t>
-  </si>
-  <si>
-    <t>高難度：最後の招待状</t>
-  </si>
-  <si>
-    <t>ラージャン2頭の狩猟</t>
-  </si>
-  <si>
-    <t>廻り集いて回帰せん</t>
-  </si>
-  <si>
-    <t>シャガルマガラ1頭の討伐</t>
-  </si>
-  <si>
-    <t>シャガルマガラの角破壊</t>
-  </si>
-  <si>
-    <t>800z</t>
-  </si>
-  <si>
-    <t>7200z</t>
-  </si>
-  <si>
-    <t>ハンティングナイト！</t>
-  </si>
-  <si>
-    <t>高難度：吹雪の召還者</t>
-  </si>
-  <si>
-    <t>高難度：食は渓流にあり！</t>
-  </si>
-  <si>
-    <t>特産キノコ20個の納品</t>
-  </si>
-  <si>
-    <t>高難度：四天王の凱歌</t>
-  </si>
-  <si>
-    <t>27000z</t>
-  </si>
-  <si>
-    <t>轟竜ティガレックス</t>
-  </si>
-  <si>
-    <t>ティガレックス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>剛拳爆砕！ブラキディオス！</t>
-  </si>
-  <si>
-    <t>ブラキディオス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ブラキディオスの尻尾切断</t>
-  </si>
-  <si>
-    <t>縄張りに進入するべからず</t>
-  </si>
-  <si>
-    <t>ジンオウガ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ジンオウガの背中破壊</t>
-  </si>
-  <si>
-    <t>4800z</t>
-  </si>
-  <si>
-    <t>英雄への道</t>
-  </si>
-  <si>
-    <t>ティガレックスの頭部破壊</t>
-  </si>
-  <si>
-    <t>盾蟹のヤド破壊に挑戦！</t>
-  </si>
-  <si>
-    <t>ダイミョウザザミのヤド破壊</t>
-  </si>
-  <si>
-    <t>高難度：炎王の帰還</t>
-  </si>
-  <si>
-    <t>牙と毒の沼地</t>
-  </si>
-  <si>
-    <t>ドスファンゴ1頭とドスイーオス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>高難度：渾身のドボルベルク</t>
-  </si>
-  <si>
-    <t>ドボルベルク1頭の狩猟</t>
-  </si>
-  <si>
-    <t>高難度：異常震域</t>
-  </si>
-  <si>
-    <t>ティガレックス2頭の狩猟</t>
-  </si>
-  <si>
-    <t>14700z</t>
-  </si>
-  <si>
-    <t>高難度：赤の猛攻！</t>
-  </si>
-  <si>
-    <t>宿命の四天王</t>
-  </si>
-  <si>
-    <t>高難度：黒狼鳥は舞い降りた</t>
-  </si>
-  <si>
-    <t>剛毛フカフカの牙獣達</t>
-  </si>
-  <si>
-    <t>粉骨砕竜！</t>
-  </si>
-  <si>
-    <t>ブラキディオス1頭の捕獲</t>
-  </si>
-  <si>
-    <t>砂漠の彼方から</t>
-  </si>
-  <si>
-    <t>ディノバルド1頭の狩猟</t>
-  </si>
-  <si>
-    <t>高難度：青の連撃！</t>
-  </si>
-  <si>
-    <t>雷狼竜はかく吠えり</t>
-  </si>
-  <si>
-    <t>恐るべき火山の魔球</t>
-  </si>
-  <si>
-    <t>青と緑の波状包囲網</t>
-  </si>
-  <si>
-    <t>ドスランポス、ドスマッカォの狩猟</t>
-  </si>
-  <si>
-    <t>高難度：天と地の怒り</t>
-  </si>
-  <si>
-    <t>リオレウス希少種1頭とリオレイア希少種1頭の狩猟</t>
-  </si>
-  <si>
-    <t>2300z</t>
-  </si>
-  <si>
-    <t>22800z</t>
-  </si>
-  <si>
-    <t>千刃、襲来</t>
-  </si>
-  <si>
-    <t>セルレギオス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>天下分け目の大合戦</t>
-  </si>
-  <si>
-    <t>ショウグンギザミ2匹の狩猟</t>
-  </si>
-  <si>
-    <t>高難度：対霞龍防衛作戦！</t>
-  </si>
-  <si>
-    <t>渓流の覇権争いニャ！！</t>
-  </si>
-  <si>
-    <t>8400z</t>
-  </si>
-  <si>
-    <t>灼熱の刃</t>
-  </si>
-  <si>
-    <t>ディノバルドの尻尾切断</t>
-  </si>
-  <si>
-    <t>黒き衣を纏う竜</t>
-  </si>
-  <si>
-    <t>ゴア・マガラ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ゴア･マガラの触角破壊</t>
-  </si>
-  <si>
-    <t>高難度：強者たちの祭典！</t>
-  </si>
-  <si>
-    <t>30000z</t>
-  </si>
-  <si>
-    <t>高難度：廻帰せし災厄の古龍</t>
-  </si>
-  <si>
-    <t>予想外！つがいの妨害！</t>
-  </si>
-  <si>
-    <t>高難度：重甲虫と腕試し！</t>
-  </si>
-  <si>
-    <t>ゲネル・セルタス1匹の狩猟</t>
-  </si>
-  <si>
-    <t>高難度：終焉を喰らう者</t>
-  </si>
-  <si>
-    <t>2200z</t>
-  </si>
-  <si>
-    <t>21600z</t>
-  </si>
-  <si>
-    <t>紅葉に散るは、熊か猫か</t>
-  </si>
-  <si>
-    <t>アオアシラ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>毒まみれの沼地</t>
-  </si>
-  <si>
-    <t>高難度：非情に波状な状態異常</t>
-  </si>
-  <si>
-    <t>32400z</t>
-  </si>
-  <si>
-    <t>高難度：天地征服せし強者</t>
-  </si>
-  <si>
-    <t>20100z</t>
-  </si>
-  <si>
-    <t>高難度：古代林のトレジャー！</t>
-  </si>
-  <si>
-    <t>7500z</t>
-  </si>
-  <si>
-    <t>挑発上手の跳狗竜</t>
-  </si>
-  <si>
-    <t>마을★7</t>
-  </si>
-  <si>
-    <t>ドスマッカォ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ドスマッカォの頭部破壊</t>
-  </si>
-  <si>
-    <t>タイムアップもしくはネコタクチケットの納品</t>
-  </si>
-  <si>
-    <t>ぱっくん！テツカブラ</t>
-  </si>
-  <si>
-    <t>テツカブラ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>古代木の実３個の納品</t>
-  </si>
-  <si>
-    <t>友に迫る土砂竜</t>
-  </si>
-  <si>
-    <t>ボルボロス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>砂漠の採集ツアー</t>
-  </si>
-  <si>
-    <t>疾走するドスランポス</t>
-  </si>
-  <si>
-    <t>ドスランポス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>青熊獣、出没中につき</t>
-  </si>
-  <si>
-    <t>アオアシラの前脚破壊</t>
-  </si>
-  <si>
-    <t>これが本当のダイミョウ行列？</t>
-  </si>
-  <si>
-    <t>ダイミョウザザミ１匹の狩猟</t>
-  </si>
-  <si>
-    <t>ボルボロスを捕獲せよ！</t>
-  </si>
-  <si>
-    <t>ボルボロス１頭の捕獲</t>
-  </si>
-  <si>
-    <t>6300z</t>
-  </si>
-  <si>
-    <t>原生林の採集ツアー</t>
-  </si>
-  <si>
-    <t>不潔ものの大集会</t>
-  </si>
-  <si>
-    <t>コンガ10頭の討伐</t>
-  </si>
-  <si>
-    <t>ババコンガ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>遺群嶺の採集ツアー</t>
-  </si>
-  <si>
-    <t>ババコンガを狩猟せよ</t>
-  </si>
-  <si>
-    <t>ババコンガのトサカ破壊</t>
-  </si>
-  <si>
-    <t>ニャンター、お使い再び</t>
-  </si>
-  <si>
-    <t>高層エリンギ9個の納品</t>
-  </si>
-  <si>
-    <t>彗星のカケラはどこに？</t>
-  </si>
-  <si>
-    <t>灼けた甲殻５個の納品</t>
-  </si>
-  <si>
-    <t>森丘の怪</t>
-  </si>
-  <si>
-    <t>イャンクック１頭とゲリョス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ゲネポス行進曲</t>
-  </si>
-  <si>
-    <t>ゲネポス１２頭の討伐</t>
-  </si>
-  <si>
-    <t>ドスゲネポス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>氷雪に舞う白うさぎ</t>
-  </si>
-  <si>
-    <t>ウルクスス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ガウシカ５頭の討伐</t>
-  </si>
-  <si>
-    <t>調査隊初陣！遺群嶺の桃毛獣</t>
-  </si>
-  <si>
-    <t>ババコンガ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>怪鳥の憂鬱</t>
-  </si>
-  <si>
-    <t>イャンクック1頭の狩猟</t>
-  </si>
-  <si>
-    <t>遺群嶺の不思議な石</t>
-  </si>
-  <si>
-    <t>赫星石１０個の納品</t>
-  </si>
-  <si>
-    <t>商売ガタキのドスギアノス</t>
-  </si>
-  <si>
-    <t>ドスギアノス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ギアノス８頭の討伐</t>
-  </si>
-  <si>
-    <t>竜の卵の納品・モーニング</t>
-  </si>
-  <si>
-    <t>竜の卵2個の納品</t>
-  </si>
-  <si>
-    <t>ロアルドロス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>熱帯イチゴはカネの味？</t>
-  </si>
-  <si>
-    <t>熱帯イチゴ１０個の納品</t>
-  </si>
-  <si>
-    <t>ヤオザミ６匹の討伐</t>
-  </si>
-  <si>
-    <t>珍味アルセルタスをもう一度</t>
-  </si>
-  <si>
-    <t>アルセルタス１匹の狩猟</t>
-  </si>
-  <si>
-    <t>アルセルタスの角破壊</t>
-  </si>
-  <si>
-    <t>旬な食材を採らせておくれ！</t>
-  </si>
-  <si>
-    <t>アオアシラ２頭の狩猟</t>
-  </si>
-  <si>
-    <t>牙獣の大粒ナミダ１個の納品</t>
-  </si>
-  <si>
-    <t>イタズラ猿に制裁を</t>
-  </si>
-  <si>
-    <t>ケチャワチャ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>遺跡平原の採集ツアー</t>
-  </si>
-  <si>
-    <t>旧砂漠横断のお荷物</t>
-  </si>
-  <si>
-    <t>ダイミョウザザミ１匹とボルボロス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>龍歴院ポイント５００pts入手</t>
-  </si>
-  <si>
-    <t>芳香せしコンガ</t>
-  </si>
-  <si>
-    <t>コンガ１１頭の討伐</t>
-  </si>
-  <si>
-    <t>20z</t>
-  </si>
-  <si>
-    <t>180z</t>
-  </si>
-  <si>
-    <t>毒怪鳥活用計画</t>
-  </si>
-  <si>
-    <t>ゲリョス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>渓流に棲む水獣</t>
-  </si>
-  <si>
-    <t>砂中から忍び寄る影</t>
-  </si>
-  <si>
-    <t>ガレオス５頭の討伐</t>
-  </si>
-  <si>
-    <t>ドスガレオス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>마을★8</t>
-  </si>
-  <si>
-    <t>竜の卵の納品・ランチ</t>
-  </si>
-  <si>
-    <t>竜の卵２個の納品</t>
-  </si>
-  <si>
-    <t>リオレイア１頭の狩猟</t>
-  </si>
-  <si>
-    <t>氷海の採集ツアー</t>
-  </si>
-  <si>
-    <t>龍識船強化！【溶岩竜編】</t>
-  </si>
-  <si>
-    <t>ヴォルガノス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>珍肥料を手に入れるのニャ！</t>
-  </si>
-  <si>
-    <t>不老蛾１０匹の納品</t>
-  </si>
-  <si>
-    <t>久遠の化石１個の納品</t>
-  </si>
-  <si>
-    <t>ナイショのお仕事</t>
-  </si>
-  <si>
-    <t>たまには釣りでもいかが？</t>
-  </si>
-  <si>
-    <t>黄金魚３匹の納品</t>
-  </si>
-  <si>
-    <t>ガノトトス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>宣伝ネコの受難</t>
-  </si>
-  <si>
-    <t>ガララアジャラ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ガララアジャラの頭部破壊</t>
-  </si>
-  <si>
-    <t>7800z</t>
-  </si>
-  <si>
-    <t>なんと、黒狼鳥でした！</t>
-  </si>
-  <si>
-    <t>イャンガルルガ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>イャンガルルガの頭部破壊</t>
-  </si>
-  <si>
-    <t>冷血なるドスギアノス！</t>
-  </si>
-  <si>
-    <t>ドスギアノス２頭の狩猟</t>
-  </si>
-  <si>
-    <t>龍識船強化！【迅竜編】</t>
-  </si>
-  <si>
-    <t>ナルガクルガ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>密林の採集ツアー</t>
-  </si>
-  <si>
-    <t>火山の厄介者たち</t>
-  </si>
-  <si>
-    <t>バサルモス１頭とドスイーオス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>道化師は斯く嘲る</t>
-  </si>
-  <si>
-    <t>ホロロホルル１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ホロロホルルの尻尾破壊</t>
-  </si>
-  <si>
-    <t>熱地に現る、ウラガンキン！</t>
-  </si>
-  <si>
-    <t>ウラガンキン１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ウラガンキンの尻尾切断</t>
-  </si>
-  <si>
-    <t>ものぐさには爆鎚竜で喝！</t>
-  </si>
-  <si>
-    <t>でっかい岩だと思ったら…？</t>
-  </si>
-  <si>
-    <t>バサルモス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>飛んで跳ねて無我夢中</t>
-  </si>
-  <si>
-    <t>ケチャワチャ１頭とドスマッカォ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>砂まみれですな</t>
-  </si>
-  <si>
-    <t>ハプルボッカ１頭とドスガレオス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>沼地の恐怖体験</t>
-  </si>
-  <si>
-    <t>ショウグンギザミ１匹とババコンガ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>陸の女王、捕獲作戦！</t>
-  </si>
-  <si>
-    <t>リオレイア１頭の捕獲</t>
-  </si>
-  <si>
-    <t>喰われる前にヤレ！</t>
-  </si>
-  <si>
-    <t>ハプルボッカ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ハプルボッカのエラ破壊</t>
-  </si>
-  <si>
-    <t>狩人のための舞台～氷海～</t>
-  </si>
-  <si>
-    <t>フルフル１頭の狩猟</t>
-  </si>
-  <si>
-    <t>スクアギル６頭の討伐</t>
-  </si>
-  <si>
-    <t>山嶺を舞うリオレイア</t>
   </si>
   <si>
     <t>転がれ！転がせ！赤い牙獣</t>
@@ -3541,8 +3622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F164" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="G172" sqref="G172"/>
+    <sheetView tabSelected="1" topLeftCell="B176" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="G198" sqref="G198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8920,20 +9001,23 @@
       <c r="A173" t="s">
         <v>643</v>
       </c>
+      <c r="B173" t="s">
+        <v>644</v>
+      </c>
       <c r="C173" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D173" t="s">
-        <v>158</v>
+        <v>413</v>
       </c>
       <c r="E173" t="s">
         <v>14</v>
       </c>
       <c r="F173" t="s">
-        <v>54</v>
+        <v>646</v>
       </c>
       <c r="G173" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="H173" t="s">
         <v>23</v>
@@ -8947,22 +9031,25 @@
     </row>
     <row r="174" spans="1:10">
       <c r="A174" t="s">
-        <v>646</v>
+        <v>648</v>
+      </c>
+      <c r="B174" t="s">
+        <v>649</v>
       </c>
       <c r="C174" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D174" t="s">
-        <v>112</v>
+        <v>278</v>
       </c>
       <c r="E174" t="s">
         <v>14</v>
       </c>
       <c r="F174" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="G174" t="s">
-        <v>648</v>
+        <v>288</v>
       </c>
       <c r="H174" t="s">
         <v>23</v>
@@ -8976,19 +9063,22 @@
     </row>
     <row r="175" spans="1:10">
       <c r="A175" t="s">
-        <v>649</v>
+        <v>651</v>
+      </c>
+      <c r="B175" t="s">
+        <v>652</v>
       </c>
       <c r="C175" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D175" t="s">
-        <v>195</v>
+        <v>309</v>
       </c>
       <c r="E175" t="s">
         <v>14</v>
       </c>
       <c r="F175" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="G175" t="s">
         <v>27</v>
@@ -9002,22 +9092,25 @@
     </row>
     <row r="176" spans="1:10">
       <c r="A176" t="s">
-        <v>651</v>
+        <v>654</v>
+      </c>
+      <c r="B176" t="s">
+        <v>655</v>
       </c>
       <c r="C176" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D176" t="s">
-        <v>195</v>
+        <v>309</v>
       </c>
       <c r="E176" t="s">
         <v>14</v>
       </c>
       <c r="F176" t="s">
-        <v>54</v>
+        <v>646</v>
       </c>
       <c r="G176" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="H176" t="s">
         <v>23</v>
@@ -9031,19 +9124,22 @@
     </row>
     <row r="177" spans="1:10">
       <c r="A177" t="s">
-        <v>652</v>
+        <v>656</v>
+      </c>
+      <c r="B177" t="s">
+        <v>657</v>
       </c>
       <c r="C177" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D177" t="s">
-        <v>205</v>
+        <v>535</v>
       </c>
       <c r="E177" t="s">
         <v>14</v>
       </c>
       <c r="F177" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="G177" t="s">
         <v>27</v>
@@ -9057,19 +9153,22 @@
     </row>
     <row r="178" spans="1:10">
       <c r="A178" t="s">
-        <v>654</v>
+        <v>659</v>
+      </c>
+      <c r="B178" t="s">
+        <v>660</v>
       </c>
       <c r="C178" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D178" t="s">
-        <v>158</v>
+        <v>413</v>
       </c>
       <c r="E178" t="s">
         <v>14</v>
       </c>
       <c r="F178" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="G178" t="s">
         <v>27</v>
@@ -9083,22 +9182,25 @@
     </row>
     <row r="179" spans="1:10">
       <c r="A179" t="s">
-        <v>656</v>
+        <v>662</v>
+      </c>
+      <c r="B179" t="s">
+        <v>663</v>
       </c>
       <c r="C179" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D179" t="s">
-        <v>248</v>
+        <v>389</v>
       </c>
       <c r="E179" t="s">
         <v>14</v>
       </c>
       <c r="F179" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="G179" t="s">
-        <v>658</v>
+        <v>528</v>
       </c>
       <c r="H179" t="s">
         <v>18</v>
@@ -9112,22 +9214,25 @@
     </row>
     <row r="180" spans="1:10">
       <c r="A180" t="s">
-        <v>659</v>
+        <v>665</v>
+      </c>
+      <c r="B180" t="s">
+        <v>666</v>
       </c>
       <c r="C180" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D180" t="s">
-        <v>205</v>
+        <v>535</v>
       </c>
       <c r="E180" t="s">
         <v>14</v>
       </c>
       <c r="F180" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="G180" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="H180" t="s">
         <v>562</v>
@@ -9141,22 +9246,25 @@
     </row>
     <row r="181" spans="1:10">
       <c r="A181" t="s">
-        <v>661</v>
+        <v>668</v>
+      </c>
+      <c r="B181" t="s">
+        <v>669</v>
       </c>
       <c r="C181" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D181" t="s">
-        <v>184</v>
+        <v>267</v>
       </c>
       <c r="E181" t="s">
         <v>638</v>
       </c>
       <c r="F181" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="G181" t="s">
-        <v>663</v>
+        <v>603</v>
       </c>
       <c r="H181" t="s">
         <v>18</v>
@@ -9170,19 +9278,22 @@
     </row>
     <row r="182" spans="1:10">
       <c r="A182" t="s">
-        <v>664</v>
+        <v>671</v>
+      </c>
+      <c r="B182" t="s">
+        <v>672</v>
       </c>
       <c r="C182" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D182" t="s">
-        <v>248</v>
+        <v>389</v>
       </c>
       <c r="E182" t="s">
         <v>14</v>
       </c>
       <c r="F182" t="s">
-        <v>665</v>
+        <v>396</v>
       </c>
       <c r="G182" t="s">
         <v>27</v>
@@ -9196,22 +9307,25 @@
     </row>
     <row r="183" spans="1:10">
       <c r="A183" t="s">
-        <v>666</v>
+        <v>673</v>
+      </c>
+      <c r="B183" t="s">
+        <v>674</v>
       </c>
       <c r="C183" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D183" t="s">
-        <v>184</v>
+        <v>267</v>
       </c>
       <c r="E183" t="s">
         <v>14</v>
       </c>
       <c r="F183" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="G183" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="H183" t="s">
         <v>23</v>
@@ -9225,22 +9339,25 @@
     </row>
     <row r="184" spans="1:10">
       <c r="A184" t="s">
-        <v>669</v>
+        <v>677</v>
+      </c>
+      <c r="B184" t="s">
+        <v>678</v>
       </c>
       <c r="C184" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D184" t="s">
-        <v>53</v>
+        <v>286</v>
       </c>
       <c r="E184" t="s">
         <v>14</v>
       </c>
       <c r="F184" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="G184" t="s">
-        <v>648</v>
+        <v>288</v>
       </c>
       <c r="H184" t="s">
         <v>562</v>
@@ -9254,19 +9371,22 @@
     </row>
     <row r="185" spans="1:10">
       <c r="A185" t="s">
-        <v>671</v>
+        <v>680</v>
+      </c>
+      <c r="B185" t="s">
+        <v>681</v>
       </c>
       <c r="C185" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D185" t="s">
-        <v>248</v>
+        <v>389</v>
       </c>
       <c r="E185" t="s">
         <v>14</v>
       </c>
       <c r="F185" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="G185" t="s">
         <v>27</v>
@@ -9280,19 +9400,22 @@
     </row>
     <row r="186" spans="1:10">
       <c r="A186" t="s">
-        <v>673</v>
+        <v>683</v>
+      </c>
+      <c r="B186" t="s">
+        <v>684</v>
       </c>
       <c r="C186" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D186" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="E186" t="s">
         <v>14</v>
       </c>
       <c r="F186" t="s">
-        <v>674</v>
+        <v>489</v>
       </c>
       <c r="G186" t="s">
         <v>27</v>
@@ -9306,22 +9429,25 @@
     </row>
     <row r="187" spans="1:10">
       <c r="A187" t="s">
-        <v>675</v>
+        <v>685</v>
+      </c>
+      <c r="B187" t="s">
+        <v>686</v>
       </c>
       <c r="C187" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D187" t="s">
-        <v>53</v>
+        <v>286</v>
       </c>
       <c r="E187" t="s">
         <v>14</v>
       </c>
       <c r="F187" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="G187" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
       <c r="H187" t="s">
         <v>23</v>
@@ -9335,19 +9461,22 @@
     </row>
     <row r="188" spans="1:10">
       <c r="A188" t="s">
-        <v>678</v>
+        <v>689</v>
+      </c>
+      <c r="B188" t="s">
+        <v>690</v>
       </c>
       <c r="C188" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D188" t="s">
-        <v>205</v>
+        <v>535</v>
       </c>
       <c r="E188" t="s">
         <v>14</v>
       </c>
       <c r="F188" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="G188" t="s">
         <v>27</v>
@@ -9361,28 +9490,31 @@
     </row>
     <row r="189" spans="1:10">
       <c r="A189" t="s">
-        <v>680</v>
+        <v>692</v>
+      </c>
+      <c r="B189" t="s">
+        <v>693</v>
       </c>
       <c r="C189" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D189" t="s">
-        <v>184</v>
+        <v>267</v>
       </c>
       <c r="E189" t="s">
         <v>14</v>
       </c>
       <c r="F189" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="G189" t="s">
-        <v>648</v>
+        <v>288</v>
       </c>
       <c r="H189" t="s">
         <v>181</v>
       </c>
       <c r="I189" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="J189" t="s">
         <v>69</v>
@@ -9390,19 +9522,22 @@
     </row>
     <row r="190" spans="1:10">
       <c r="A190" t="s">
-        <v>683</v>
+        <v>696</v>
+      </c>
+      <c r="B190" t="s">
+        <v>697</v>
       </c>
       <c r="C190" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D190" t="s">
-        <v>205</v>
+        <v>535</v>
       </c>
       <c r="E190" t="s">
         <v>14</v>
       </c>
       <c r="F190" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
       <c r="G190" t="s">
         <v>27</v>
@@ -9416,19 +9551,22 @@
     </row>
     <row r="191" spans="1:10">
       <c r="A191" t="s">
-        <v>685</v>
+        <v>699</v>
+      </c>
+      <c r="B191" t="s">
+        <v>700</v>
       </c>
       <c r="C191" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D191" t="s">
-        <v>112</v>
+        <v>278</v>
       </c>
       <c r="E191" t="s">
         <v>14</v>
       </c>
       <c r="F191" t="s">
-        <v>686</v>
+        <v>701</v>
       </c>
       <c r="G191" t="s">
         <v>27</v>
@@ -9442,19 +9580,22 @@
     </row>
     <row r="192" spans="1:10">
       <c r="A192" t="s">
-        <v>687</v>
+        <v>702</v>
+      </c>
+      <c r="B192" t="s">
+        <v>703</v>
       </c>
       <c r="C192" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D192" t="s">
-        <v>184</v>
+        <v>267</v>
       </c>
       <c r="E192" t="s">
         <v>14</v>
       </c>
       <c r="F192" t="s">
-        <v>688</v>
+        <v>704</v>
       </c>
       <c r="G192" t="s">
         <v>27</v>
@@ -9468,22 +9609,25 @@
     </row>
     <row r="193" spans="1:10">
       <c r="A193" t="s">
-        <v>689</v>
+        <v>705</v>
+      </c>
+      <c r="B193" t="s">
+        <v>706</v>
       </c>
       <c r="C193" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D193" t="s">
-        <v>158</v>
+        <v>413</v>
       </c>
       <c r="E193" t="s">
         <v>14</v>
       </c>
       <c r="F193" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="G193" t="s">
-        <v>690</v>
+        <v>707</v>
       </c>
       <c r="H193" t="s">
         <v>562</v>
@@ -9497,22 +9641,25 @@
     </row>
     <row r="194" spans="1:10">
       <c r="A194" t="s">
-        <v>691</v>
+        <v>708</v>
+      </c>
+      <c r="B194" t="s">
+        <v>709</v>
       </c>
       <c r="C194" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D194" t="s">
-        <v>205</v>
+        <v>535</v>
       </c>
       <c r="E194" t="s">
         <v>14</v>
       </c>
       <c r="F194" t="s">
-        <v>692</v>
+        <v>710</v>
       </c>
       <c r="G194" t="s">
-        <v>693</v>
+        <v>711</v>
       </c>
       <c r="H194" t="s">
         <v>562</v>
@@ -9526,28 +9673,31 @@
     </row>
     <row r="195" spans="1:10">
       <c r="A195" t="s">
+        <v>712</v>
+      </c>
+      <c r="B195" t="s">
+        <v>713</v>
+      </c>
+      <c r="C195" t="s">
+        <v>645</v>
+      </c>
+      <c r="D195" t="s">
+        <v>13</v>
+      </c>
+      <c r="E195" t="s">
+        <v>14</v>
+      </c>
+      <c r="F195" t="s">
         <v>694</v>
       </c>
-      <c r="C195" t="s">
-        <v>644</v>
-      </c>
-      <c r="D195" t="s">
-        <v>171</v>
-      </c>
-      <c r="E195" t="s">
-        <v>14</v>
-      </c>
-      <c r="F195" t="s">
-        <v>681</v>
-      </c>
       <c r="G195" t="s">
-        <v>695</v>
+        <v>529</v>
       </c>
       <c r="H195" t="s">
         <v>181</v>
       </c>
       <c r="I195" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="J195" t="s">
         <v>23</v>
@@ -9555,19 +9705,22 @@
     </row>
     <row r="196" spans="1:10">
       <c r="A196" t="s">
-        <v>696</v>
+        <v>714</v>
+      </c>
+      <c r="B196" t="s">
+        <v>715</v>
       </c>
       <c r="C196" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D196" t="s">
-        <v>205</v>
+        <v>535</v>
       </c>
       <c r="E196" t="s">
         <v>14</v>
       </c>
       <c r="F196" t="s">
-        <v>697</v>
+        <v>642</v>
       </c>
       <c r="G196" t="s">
         <v>27</v>
@@ -9581,22 +9734,25 @@
     </row>
     <row r="197" spans="1:10">
       <c r="A197" t="s">
-        <v>698</v>
+        <v>716</v>
+      </c>
+      <c r="B197" t="s">
+        <v>717</v>
       </c>
       <c r="C197" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D197" t="s">
-        <v>112</v>
+        <v>278</v>
       </c>
       <c r="E197" t="s">
         <v>14</v>
       </c>
       <c r="F197" t="s">
-        <v>699</v>
+        <v>718</v>
       </c>
       <c r="G197" t="s">
-        <v>700</v>
+        <v>719</v>
       </c>
       <c r="H197" t="s">
         <v>23</v>
@@ -9610,22 +9766,25 @@
     </row>
     <row r="198" spans="1:10">
       <c r="A198" t="s">
-        <v>701</v>
+        <v>720</v>
+      </c>
+      <c r="B198" t="s">
+        <v>721</v>
       </c>
       <c r="C198" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D198" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="E198" t="s">
         <v>14</v>
       </c>
       <c r="F198" t="s">
-        <v>54</v>
+        <v>646</v>
       </c>
       <c r="G198" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="H198" t="s">
         <v>23</v>
@@ -9639,19 +9798,22 @@
     </row>
     <row r="199" spans="1:10">
       <c r="A199" t="s">
-        <v>702</v>
+        <v>722</v>
+      </c>
+      <c r="B199" t="s">
+        <v>723</v>
       </c>
       <c r="C199" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D199" t="s">
-        <v>158</v>
+        <v>413</v>
       </c>
       <c r="E199" t="s">
         <v>14</v>
       </c>
       <c r="F199" t="s">
-        <v>703</v>
+        <v>724</v>
       </c>
       <c r="G199" t="s">
         <v>27</v>
@@ -9665,22 +9827,25 @@
     </row>
     <row r="200" spans="1:10">
       <c r="A200" t="s">
-        <v>704</v>
+        <v>725</v>
+      </c>
+      <c r="B200" t="s">
+        <v>726</v>
       </c>
       <c r="C200" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D200" t="s">
-        <v>205</v>
+        <v>535</v>
       </c>
       <c r="E200" t="s">
         <v>14</v>
       </c>
       <c r="F200" t="s">
-        <v>705</v>
+        <v>727</v>
       </c>
       <c r="G200" t="s">
-        <v>706</v>
+        <v>728</v>
       </c>
       <c r="H200" t="s">
         <v>181</v>
@@ -9694,10 +9859,10 @@
     </row>
     <row r="201" spans="1:10">
       <c r="A201" t="s">
-        <v>707</v>
+        <v>729</v>
       </c>
       <c r="C201" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D201" t="s">
         <v>171</v>
@@ -9706,24 +9871,24 @@
         <v>14</v>
       </c>
       <c r="F201" t="s">
-        <v>709</v>
+        <v>731</v>
       </c>
       <c r="G201" t="s">
         <v>27</v>
       </c>
       <c r="H201" t="s">
-        <v>710</v>
+        <v>732</v>
       </c>
       <c r="I201" t="s">
-        <v>711</v>
+        <v>733</v>
       </c>
     </row>
     <row r="202" spans="1:10">
       <c r="A202" t="s">
-        <v>712</v>
+        <v>734</v>
       </c>
       <c r="C202" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D202" t="s">
         <v>112</v>
@@ -9732,16 +9897,16 @@
         <v>14</v>
       </c>
       <c r="F202" t="s">
-        <v>709</v>
+        <v>731</v>
       </c>
       <c r="G202" t="s">
-        <v>713</v>
+        <v>735</v>
       </c>
       <c r="H202" t="s">
-        <v>710</v>
+        <v>732</v>
       </c>
       <c r="I202" t="s">
-        <v>711</v>
+        <v>733</v>
       </c>
       <c r="J202" t="s">
         <v>229</v>
@@ -9749,10 +9914,10 @@
     </row>
     <row r="203" spans="1:10">
       <c r="A203" t="s">
-        <v>714</v>
+        <v>736</v>
       </c>
       <c r="C203" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D203" t="s">
         <v>184</v>
@@ -9761,7 +9926,7 @@
         <v>14</v>
       </c>
       <c r="F203" t="s">
-        <v>715</v>
+        <v>737</v>
       </c>
       <c r="G203" t="s">
         <v>27</v>
@@ -9775,10 +9940,10 @@
     </row>
     <row r="204" spans="1:10">
       <c r="A204" t="s">
-        <v>716</v>
+        <v>738</v>
       </c>
       <c r="C204" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D204" t="s">
         <v>74</v>
@@ -9787,7 +9952,7 @@
         <v>14</v>
       </c>
       <c r="F204" t="s">
-        <v>717</v>
+        <v>739</v>
       </c>
       <c r="G204" t="s">
         <v>27</v>
@@ -9801,10 +9966,10 @@
     </row>
     <row r="205" spans="1:10">
       <c r="A205" t="s">
-        <v>718</v>
+        <v>740</v>
       </c>
       <c r="C205" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D205" t="s">
         <v>118</v>
@@ -9813,16 +9978,16 @@
         <v>14</v>
       </c>
       <c r="F205" t="s">
-        <v>719</v>
+        <v>741</v>
       </c>
       <c r="G205" t="s">
-        <v>720</v>
+        <v>742</v>
       </c>
       <c r="H205" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="I205" t="s">
-        <v>722</v>
+        <v>744</v>
       </c>
       <c r="J205" t="s">
         <v>229</v>
@@ -9830,10 +9995,10 @@
     </row>
     <row r="206" spans="1:10">
       <c r="A206" t="s">
-        <v>723</v>
+        <v>745</v>
       </c>
       <c r="C206" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D206" t="s">
         <v>184</v>
@@ -9845,7 +10010,7 @@
         <v>54</v>
       </c>
       <c r="G206" t="s">
-        <v>645</v>
+        <v>746</v>
       </c>
       <c r="H206" t="s">
         <v>23</v>
@@ -9859,10 +10024,10 @@
     </row>
     <row r="207" spans="1:10">
       <c r="A207" t="s">
-        <v>724</v>
+        <v>747</v>
       </c>
       <c r="C207" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D207" t="s">
         <v>112</v>
@@ -9885,10 +10050,10 @@
     </row>
     <row r="208" spans="1:10">
       <c r="A208" t="s">
-        <v>725</v>
+        <v>748</v>
       </c>
       <c r="C208" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D208" t="s">
         <v>53</v>
@@ -9897,7 +10062,7 @@
         <v>14</v>
       </c>
       <c r="F208" t="s">
-        <v>726</v>
+        <v>749</v>
       </c>
       <c r="G208" t="s">
         <v>27</v>
@@ -9911,10 +10076,10 @@
     </row>
     <row r="209" spans="1:10">
       <c r="A209" t="s">
-        <v>727</v>
+        <v>750</v>
       </c>
       <c r="C209" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D209" t="s">
         <v>74</v>
@@ -9932,15 +10097,15 @@
         <v>50</v>
       </c>
       <c r="I209" t="s">
-        <v>728</v>
+        <v>751</v>
       </c>
     </row>
     <row r="210" spans="1:10">
       <c r="A210" t="s">
-        <v>729</v>
+        <v>752</v>
       </c>
       <c r="C210" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D210" t="s">
         <v>195</v>
@@ -9949,10 +10114,10 @@
         <v>14</v>
       </c>
       <c r="F210" t="s">
-        <v>730</v>
+        <v>753</v>
       </c>
       <c r="G210" t="s">
-        <v>648</v>
+        <v>754</v>
       </c>
       <c r="H210" t="s">
         <v>23</v>
@@ -9966,10 +10131,10 @@
     </row>
     <row r="211" spans="1:10">
       <c r="A211" t="s">
-        <v>731</v>
+        <v>755</v>
       </c>
       <c r="C211" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D211" t="s">
         <v>158</v>
@@ -9978,10 +10143,10 @@
         <v>14</v>
       </c>
       <c r="F211" t="s">
-        <v>732</v>
+        <v>756</v>
       </c>
       <c r="G211" t="s">
-        <v>733</v>
+        <v>757</v>
       </c>
       <c r="H211" t="s">
         <v>23</v>
@@ -9995,10 +10160,10 @@
     </row>
     <row r="212" spans="1:10">
       <c r="A212" t="s">
-        <v>734</v>
+        <v>758</v>
       </c>
       <c r="C212" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D212" t="s">
         <v>171</v>
@@ -10007,16 +10172,16 @@
         <v>14</v>
       </c>
       <c r="F212" t="s">
-        <v>735</v>
+        <v>759</v>
       </c>
       <c r="G212" t="s">
-        <v>736</v>
+        <v>760</v>
       </c>
       <c r="H212" t="s">
         <v>562</v>
       </c>
       <c r="I212" t="s">
-        <v>737</v>
+        <v>761</v>
       </c>
       <c r="J212" t="s">
         <v>229</v>
@@ -10024,10 +10189,10 @@
     </row>
     <row r="213" spans="1:10">
       <c r="A213" t="s">
-        <v>738</v>
+        <v>762</v>
       </c>
       <c r="C213" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D213" t="s">
         <v>112</v>
@@ -10036,10 +10201,10 @@
         <v>14</v>
       </c>
       <c r="F213" t="s">
-        <v>730</v>
+        <v>753</v>
       </c>
       <c r="G213" t="s">
-        <v>739</v>
+        <v>763</v>
       </c>
       <c r="H213" t="s">
         <v>23</v>
@@ -10053,10 +10218,10 @@
     </row>
     <row r="214" spans="1:10">
       <c r="A214" t="s">
-        <v>740</v>
+        <v>764</v>
       </c>
       <c r="C214" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D214" t="s">
         <v>195</v>
@@ -10065,7 +10230,7 @@
         <v>14</v>
       </c>
       <c r="F214" t="s">
-        <v>741</v>
+        <v>765</v>
       </c>
       <c r="G214" t="s">
         <v>27</v>
@@ -10079,10 +10244,10 @@
     </row>
     <row r="215" spans="1:10">
       <c r="A215" t="s">
-        <v>742</v>
+        <v>766</v>
       </c>
       <c r="C215" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D215" t="s">
         <v>205</v>
@@ -10105,10 +10270,10 @@
     </row>
     <row r="216" spans="1:10">
       <c r="A216" t="s">
-        <v>743</v>
+        <v>767</v>
       </c>
       <c r="C216" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D216" t="s">
         <v>248</v>
@@ -10117,7 +10282,7 @@
         <v>14</v>
       </c>
       <c r="F216" t="s">
-        <v>744</v>
+        <v>768</v>
       </c>
       <c r="G216" t="s">
         <v>27</v>
@@ -10131,10 +10296,10 @@
     </row>
     <row r="217" spans="1:10">
       <c r="A217" t="s">
-        <v>745</v>
+        <v>769</v>
       </c>
       <c r="C217" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D217" t="s">
         <v>53</v>
@@ -10143,7 +10308,7 @@
         <v>14</v>
       </c>
       <c r="F217" t="s">
-        <v>746</v>
+        <v>770</v>
       </c>
       <c r="G217" t="s">
         <v>27</v>
@@ -10157,10 +10322,10 @@
     </row>
     <row r="218" spans="1:10">
       <c r="A218" t="s">
-        <v>747</v>
+        <v>771</v>
       </c>
       <c r="C218" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D218" t="s">
         <v>112</v>
@@ -10169,7 +10334,7 @@
         <v>14</v>
       </c>
       <c r="F218" t="s">
-        <v>748</v>
+        <v>772</v>
       </c>
       <c r="G218" t="s">
         <v>27</v>
@@ -10178,15 +10343,15 @@
         <v>219</v>
       </c>
       <c r="I218" t="s">
-        <v>749</v>
+        <v>773</v>
       </c>
     </row>
     <row r="219" spans="1:10">
       <c r="A219" t="s">
-        <v>750</v>
+        <v>774</v>
       </c>
       <c r="C219" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D219" t="s">
         <v>74</v>
@@ -10209,10 +10374,10 @@
     </row>
     <row r="220" spans="1:10">
       <c r="A220" t="s">
-        <v>751</v>
+        <v>775</v>
       </c>
       <c r="C220" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D220" t="s">
         <v>103</v>
@@ -10235,10 +10400,10 @@
     </row>
     <row r="221" spans="1:10">
       <c r="A221" t="s">
-        <v>752</v>
+        <v>776</v>
       </c>
       <c r="C221" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D221" t="s">
         <v>184</v>
@@ -10247,7 +10412,7 @@
         <v>14</v>
       </c>
       <c r="F221" t="s">
-        <v>681</v>
+        <v>777</v>
       </c>
       <c r="G221" t="s">
         <v>27</v>
@@ -10261,10 +10426,10 @@
     </row>
     <row r="222" spans="1:10">
       <c r="A222" t="s">
-        <v>753</v>
+        <v>778</v>
       </c>
       <c r="C222" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D222" t="s">
         <v>112</v>
@@ -10276,7 +10441,7 @@
         <v>54</v>
       </c>
       <c r="G222" t="s">
-        <v>645</v>
+        <v>746</v>
       </c>
       <c r="H222" t="s">
         <v>23</v>
@@ -10290,10 +10455,10 @@
     </row>
     <row r="223" spans="1:10">
       <c r="A223" t="s">
-        <v>754</v>
+        <v>779</v>
       </c>
       <c r="C223" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D223" t="s">
         <v>205</v>
@@ -10302,10 +10467,10 @@
         <v>14</v>
       </c>
       <c r="F223" t="s">
-        <v>755</v>
+        <v>780</v>
       </c>
       <c r="G223" t="s">
-        <v>695</v>
+        <v>781</v>
       </c>
       <c r="H223" t="s">
         <v>69</v>
@@ -10319,10 +10484,10 @@
     </row>
     <row r="224" spans="1:10">
       <c r="A224" t="s">
-        <v>756</v>
+        <v>782</v>
       </c>
       <c r="C224" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D224" t="s">
         <v>195</v>
@@ -10331,10 +10496,10 @@
         <v>14</v>
       </c>
       <c r="F224" t="s">
-        <v>757</v>
+        <v>783</v>
       </c>
       <c r="G224" t="s">
-        <v>648</v>
+        <v>754</v>
       </c>
       <c r="H224" t="s">
         <v>23</v>
@@ -10348,10 +10513,10 @@
     </row>
     <row r="225" spans="1:10">
       <c r="A225" t="s">
-        <v>758</v>
+        <v>784</v>
       </c>
       <c r="C225" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D225" t="s">
         <v>74</v>
@@ -10374,10 +10539,10 @@
     </row>
     <row r="226" spans="1:10">
       <c r="A226" t="s">
-        <v>759</v>
+        <v>785</v>
       </c>
       <c r="C226" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D226" t="s">
         <v>53</v>
@@ -10386,16 +10551,16 @@
         <v>14</v>
       </c>
       <c r="F226" t="s">
-        <v>735</v>
+        <v>759</v>
       </c>
       <c r="G226" t="s">
-        <v>648</v>
+        <v>754</v>
       </c>
       <c r="H226" t="s">
         <v>562</v>
       </c>
       <c r="I226" t="s">
-        <v>737</v>
+        <v>761</v>
       </c>
       <c r="J226" t="s">
         <v>229</v>
@@ -10403,10 +10568,10 @@
     </row>
     <row r="227" spans="1:10">
       <c r="A227" t="s">
-        <v>760</v>
+        <v>786</v>
       </c>
       <c r="C227" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D227" t="s">
         <v>205</v>
@@ -10418,7 +10583,7 @@
         <v>54</v>
       </c>
       <c r="G227" t="s">
-        <v>645</v>
+        <v>746</v>
       </c>
       <c r="H227" t="s">
         <v>69</v>
@@ -10432,10 +10597,10 @@
     </row>
     <row r="228" spans="1:10">
       <c r="A228" t="s">
-        <v>761</v>
+        <v>787</v>
       </c>
       <c r="C228" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D228" t="s">
         <v>74</v>
@@ -10444,7 +10609,7 @@
         <v>14</v>
       </c>
       <c r="F228" t="s">
-        <v>762</v>
+        <v>788</v>
       </c>
       <c r="G228" t="s">
         <v>27</v>
@@ -10458,10 +10623,10 @@
     </row>
     <row r="229" spans="1:10">
       <c r="A229" t="s">
-        <v>763</v>
+        <v>789</v>
       </c>
       <c r="C229" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D229" t="s">
         <v>74</v>
@@ -10470,24 +10635,24 @@
         <v>14</v>
       </c>
       <c r="F229" t="s">
-        <v>764</v>
+        <v>790</v>
       </c>
       <c r="G229" t="s">
         <v>27</v>
       </c>
       <c r="H229" t="s">
-        <v>765</v>
+        <v>791</v>
       </c>
       <c r="I229" t="s">
-        <v>766</v>
+        <v>792</v>
       </c>
     </row>
     <row r="230" spans="1:10">
       <c r="A230" t="s">
-        <v>767</v>
+        <v>793</v>
       </c>
       <c r="C230" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D230" t="s">
         <v>195</v>
@@ -10496,10 +10661,10 @@
         <v>14</v>
       </c>
       <c r="F230" t="s">
-        <v>768</v>
+        <v>794</v>
       </c>
       <c r="G230" t="s">
-        <v>695</v>
+        <v>781</v>
       </c>
       <c r="H230" t="s">
         <v>23</v>
@@ -10513,10 +10678,10 @@
     </row>
     <row r="231" spans="1:10">
       <c r="A231" t="s">
-        <v>769</v>
+        <v>795</v>
       </c>
       <c r="C231" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D231" t="s">
         <v>248</v>
@@ -10525,7 +10690,7 @@
         <v>14</v>
       </c>
       <c r="F231" t="s">
-        <v>770</v>
+        <v>796</v>
       </c>
       <c r="G231" t="s">
         <v>27</v>
@@ -10539,10 +10704,10 @@
     </row>
     <row r="232" spans="1:10">
       <c r="A232" t="s">
-        <v>771</v>
+        <v>797</v>
       </c>
       <c r="C232" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D232" t="s">
         <v>184</v>
@@ -10565,10 +10730,10 @@
     </row>
     <row r="233" spans="1:10">
       <c r="A233" t="s">
-        <v>772</v>
+        <v>798</v>
       </c>
       <c r="C233" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D233" t="s">
         <v>53</v>
@@ -10580,13 +10745,13 @@
         <v>54</v>
       </c>
       <c r="G233" t="s">
-        <v>645</v>
+        <v>746</v>
       </c>
       <c r="H233" t="s">
         <v>69</v>
       </c>
       <c r="I233" t="s">
-        <v>773</v>
+        <v>799</v>
       </c>
       <c r="J233" t="s">
         <v>450</v>
@@ -10594,10 +10759,10 @@
     </row>
     <row r="234" spans="1:10">
       <c r="A234" t="s">
-        <v>774</v>
+        <v>800</v>
       </c>
       <c r="C234" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D234" t="s">
         <v>171</v>
@@ -10606,10 +10771,10 @@
         <v>14</v>
       </c>
       <c r="F234" t="s">
-        <v>757</v>
+        <v>783</v>
       </c>
       <c r="G234" t="s">
-        <v>775</v>
+        <v>801</v>
       </c>
       <c r="H234" t="s">
         <v>23</v>
@@ -10623,10 +10788,10 @@
     </row>
     <row r="235" spans="1:10">
       <c r="A235" t="s">
-        <v>776</v>
+        <v>802</v>
       </c>
       <c r="C235" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D235" t="s">
         <v>171</v>
@@ -10635,10 +10800,10 @@
         <v>14</v>
       </c>
       <c r="F235" t="s">
-        <v>777</v>
+        <v>803</v>
       </c>
       <c r="G235" t="s">
-        <v>778</v>
+        <v>804</v>
       </c>
       <c r="H235" t="s">
         <v>23</v>
@@ -10652,10 +10817,10 @@
     </row>
     <row r="236" spans="1:10">
       <c r="A236" t="s">
-        <v>779</v>
+        <v>805</v>
       </c>
       <c r="C236" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D236" t="s">
         <v>74</v>
@@ -10673,15 +10838,15 @@
         <v>71</v>
       </c>
       <c r="I236" t="s">
-        <v>780</v>
+        <v>806</v>
       </c>
     </row>
     <row r="237" spans="1:10">
       <c r="A237" t="s">
-        <v>781</v>
+        <v>807</v>
       </c>
       <c r="C237" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D237" t="s">
         <v>118</v>
@@ -10690,7 +10855,7 @@
         <v>14</v>
       </c>
       <c r="F237" t="s">
-        <v>719</v>
+        <v>741</v>
       </c>
       <c r="G237" t="s">
         <v>27</v>
@@ -10704,10 +10869,10 @@
     </row>
     <row r="238" spans="1:10">
       <c r="A238" t="s">
-        <v>782</v>
+        <v>808</v>
       </c>
       <c r="C238" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D238" t="s">
         <v>184</v>
@@ -10716,24 +10881,24 @@
         <v>14</v>
       </c>
       <c r="F238" t="s">
-        <v>715</v>
+        <v>737</v>
       </c>
       <c r="G238" t="s">
         <v>27</v>
       </c>
       <c r="H238" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="I238" t="s">
-        <v>722</v>
+        <v>744</v>
       </c>
     </row>
     <row r="239" spans="1:10">
       <c r="A239" t="s">
-        <v>783</v>
+        <v>809</v>
       </c>
       <c r="C239" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D239" t="s">
         <v>143</v>
@@ -10742,24 +10907,24 @@
         <v>14</v>
       </c>
       <c r="F239" t="s">
-        <v>784</v>
+        <v>810</v>
       </c>
       <c r="G239" t="s">
         <v>27</v>
       </c>
       <c r="H239" t="s">
-        <v>710</v>
+        <v>732</v>
       </c>
       <c r="I239" t="s">
-        <v>711</v>
+        <v>733</v>
       </c>
     </row>
     <row r="240" spans="1:10">
       <c r="A240" t="s">
-        <v>785</v>
+        <v>811</v>
       </c>
       <c r="C240" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D240" t="s">
         <v>74</v>
@@ -10774,18 +10939,18 @@
         <v>27</v>
       </c>
       <c r="H240" t="s">
-        <v>786</v>
+        <v>812</v>
       </c>
       <c r="I240" t="s">
-        <v>787</v>
+        <v>813</v>
       </c>
     </row>
     <row r="241" spans="1:10">
       <c r="A241" t="s">
-        <v>788</v>
+        <v>814</v>
       </c>
       <c r="C241" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D241" t="s">
         <v>53</v>
@@ -10794,7 +10959,7 @@
         <v>14</v>
       </c>
       <c r="F241" t="s">
-        <v>789</v>
+        <v>815</v>
       </c>
       <c r="G241" t="s">
         <v>27</v>
@@ -10808,10 +10973,10 @@
     </row>
     <row r="242" spans="1:10">
       <c r="A242" t="s">
-        <v>790</v>
+        <v>816</v>
       </c>
       <c r="C242" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D242" t="s">
         <v>248</v>
@@ -10823,13 +10988,13 @@
         <v>54</v>
       </c>
       <c r="G242" t="s">
-        <v>645</v>
+        <v>746</v>
       </c>
       <c r="H242" t="s">
-        <v>710</v>
+        <v>732</v>
       </c>
       <c r="I242" t="s">
-        <v>711</v>
+        <v>733</v>
       </c>
       <c r="J242" t="s">
         <v>450</v>
@@ -10837,10 +11002,10 @@
     </row>
     <row r="243" spans="1:10">
       <c r="A243" t="s">
-        <v>791</v>
+        <v>817</v>
       </c>
       <c r="C243" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D243" t="s">
         <v>74</v>
@@ -10858,15 +11023,15 @@
         <v>540</v>
       </c>
       <c r="I243" t="s">
-        <v>792</v>
+        <v>818</v>
       </c>
     </row>
     <row r="244" spans="1:10">
       <c r="A244" t="s">
-        <v>793</v>
+        <v>819</v>
       </c>
       <c r="C244" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D244" t="s">
         <v>171</v>
@@ -10878,13 +11043,13 @@
         <v>54</v>
       </c>
       <c r="G244" t="s">
-        <v>645</v>
+        <v>746</v>
       </c>
       <c r="H244" t="s">
         <v>58</v>
       </c>
       <c r="I244" t="s">
-        <v>794</v>
+        <v>820</v>
       </c>
       <c r="J244" t="s">
         <v>71</v>
@@ -10892,10 +11057,10 @@
     </row>
     <row r="245" spans="1:10">
       <c r="A245" t="s">
-        <v>795</v>
+        <v>821</v>
       </c>
       <c r="C245" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D245" t="s">
         <v>171</v>
@@ -10904,24 +11069,24 @@
         <v>14</v>
       </c>
       <c r="F245" t="s">
-        <v>757</v>
+        <v>783</v>
       </c>
       <c r="G245" t="s">
         <v>27</v>
       </c>
       <c r="H245" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="I245" t="s">
-        <v>796</v>
+        <v>822</v>
       </c>
     </row>
     <row r="246" spans="1:10">
       <c r="A246" t="s">
-        <v>797</v>
+        <v>823</v>
       </c>
       <c r="C246" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D246" t="s">
         <v>91</v>
@@ -10930,10 +11095,10 @@
         <v>14</v>
       </c>
       <c r="F246" t="s">
-        <v>799</v>
+        <v>825</v>
       </c>
       <c r="G246" t="s">
-        <v>800</v>
+        <v>826</v>
       </c>
       <c r="H246" t="s">
         <v>275</v>
@@ -10950,7 +11115,7 @@
         <v>335</v>
       </c>
       <c r="C247" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D247" t="s">
         <v>195</v>
@@ -10959,7 +11124,7 @@
         <v>14</v>
       </c>
       <c r="F247" t="s">
-        <v>801</v>
+        <v>827</v>
       </c>
       <c r="G247" t="s">
         <v>27</v>
@@ -10976,10 +11141,10 @@
     </row>
     <row r="248" spans="1:10">
       <c r="A248" t="s">
-        <v>802</v>
+        <v>828</v>
       </c>
       <c r="C248" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D248" t="s">
         <v>171</v>
@@ -10988,10 +11153,10 @@
         <v>14</v>
       </c>
       <c r="F248" t="s">
-        <v>803</v>
+        <v>829</v>
       </c>
       <c r="G248" t="s">
-        <v>804</v>
+        <v>830</v>
       </c>
       <c r="H248" t="s">
         <v>181</v>
@@ -11005,10 +11170,10 @@
     </row>
     <row r="249" spans="1:10">
       <c r="A249" t="s">
-        <v>805</v>
+        <v>831</v>
       </c>
       <c r="C249" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D249" t="s">
         <v>66</v>
@@ -11017,7 +11182,7 @@
         <v>14</v>
       </c>
       <c r="F249" t="s">
-        <v>806</v>
+        <v>832</v>
       </c>
       <c r="G249" t="s">
         <v>27</v>
@@ -11034,10 +11199,10 @@
     </row>
     <row r="250" spans="1:10">
       <c r="A250" t="s">
-        <v>807</v>
+        <v>833</v>
       </c>
       <c r="C250" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D250" t="s">
         <v>66</v>
@@ -11046,7 +11211,7 @@
         <v>14</v>
       </c>
       <c r="F250" t="s">
-        <v>801</v>
+        <v>827</v>
       </c>
       <c r="G250" t="s">
         <v>27</v>
@@ -11063,10 +11228,10 @@
     </row>
     <row r="251" spans="1:10">
       <c r="A251" t="s">
-        <v>808</v>
+        <v>834</v>
       </c>
       <c r="C251" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D251" t="s">
         <v>143</v>
@@ -11075,7 +11240,7 @@
         <v>14</v>
       </c>
       <c r="F251" t="s">
-        <v>809</v>
+        <v>835</v>
       </c>
       <c r="G251" t="s">
         <v>27</v>
@@ -11092,10 +11257,10 @@
     </row>
     <row r="252" spans="1:10">
       <c r="A252" t="s">
-        <v>810</v>
+        <v>836</v>
       </c>
       <c r="C252" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D252" t="s">
         <v>91</v>
@@ -11104,10 +11269,10 @@
         <v>14</v>
       </c>
       <c r="F252" t="s">
-        <v>789</v>
+        <v>815</v>
       </c>
       <c r="G252" t="s">
-        <v>811</v>
+        <v>837</v>
       </c>
       <c r="H252" t="s">
         <v>275</v>
@@ -11121,10 +11286,10 @@
     </row>
     <row r="253" spans="1:10">
       <c r="A253" t="s">
-        <v>812</v>
+        <v>838</v>
       </c>
       <c r="C253" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D253" t="s">
         <v>66</v>
@@ -11133,10 +11298,10 @@
         <v>14</v>
       </c>
       <c r="F253" t="s">
-        <v>813</v>
+        <v>839</v>
       </c>
       <c r="G253" t="s">
-        <v>741</v>
+        <v>765</v>
       </c>
       <c r="H253" t="s">
         <v>181</v>
@@ -11150,10 +11315,10 @@
     </row>
     <row r="254" spans="1:10">
       <c r="A254" t="s">
-        <v>814</v>
+        <v>840</v>
       </c>
       <c r="C254" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D254" t="s">
         <v>195</v>
@@ -11162,16 +11327,16 @@
         <v>14</v>
       </c>
       <c r="F254" t="s">
-        <v>815</v>
+        <v>841</v>
       </c>
       <c r="G254" t="s">
         <v>109</v>
       </c>
       <c r="H254" t="s">
-        <v>710</v>
+        <v>732</v>
       </c>
       <c r="I254" t="s">
-        <v>816</v>
+        <v>842</v>
       </c>
       <c r="J254" t="s">
         <v>219</v>
@@ -11182,7 +11347,7 @@
         <v>318</v>
       </c>
       <c r="C255" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D255" t="s">
         <v>112</v>
@@ -11191,7 +11356,7 @@
         <v>14</v>
       </c>
       <c r="F255" t="s">
-        <v>801</v>
+        <v>827</v>
       </c>
       <c r="G255" t="s">
         <v>27</v>
@@ -11208,10 +11373,10 @@
     </row>
     <row r="256" spans="1:10">
       <c r="A256" t="s">
-        <v>817</v>
+        <v>843</v>
       </c>
       <c r="C256" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D256" t="s">
         <v>143</v>
@@ -11220,7 +11385,7 @@
         <v>14</v>
       </c>
       <c r="F256" t="s">
-        <v>801</v>
+        <v>827</v>
       </c>
       <c r="G256" t="s">
         <v>27</v>
@@ -11237,10 +11402,10 @@
     </row>
     <row r="257" spans="1:10">
       <c r="A257" t="s">
-        <v>818</v>
+        <v>844</v>
       </c>
       <c r="C257" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D257" t="s">
         <v>91</v>
@@ -11249,10 +11414,10 @@
         <v>14</v>
       </c>
       <c r="F257" t="s">
-        <v>819</v>
+        <v>845</v>
       </c>
       <c r="G257" t="s">
-        <v>820</v>
+        <v>846</v>
       </c>
       <c r="H257" t="s">
         <v>275</v>
@@ -11266,10 +11431,10 @@
     </row>
     <row r="258" spans="1:10">
       <c r="A258" t="s">
-        <v>821</v>
+        <v>847</v>
       </c>
       <c r="C258" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D258" t="s">
         <v>91</v>
@@ -11278,7 +11443,7 @@
         <v>14</v>
       </c>
       <c r="F258" t="s">
-        <v>801</v>
+        <v>827</v>
       </c>
       <c r="G258" t="s">
         <v>27</v>
@@ -11295,10 +11460,10 @@
     </row>
     <row r="259" spans="1:10">
       <c r="A259" t="s">
-        <v>822</v>
+        <v>848</v>
       </c>
       <c r="C259" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D259" t="s">
         <v>171</v>
@@ -11307,10 +11472,10 @@
         <v>14</v>
       </c>
       <c r="F259" t="s">
-        <v>820</v>
+        <v>846</v>
       </c>
       <c r="G259" t="s">
-        <v>823</v>
+        <v>849</v>
       </c>
       <c r="H259" t="s">
         <v>181</v>
@@ -11324,10 +11489,10 @@
     </row>
     <row r="260" spans="1:10">
       <c r="A260" t="s">
+        <v>850</v>
+      </c>
+      <c r="C260" t="s">
         <v>824</v>
-      </c>
-      <c r="C260" t="s">
-        <v>798</v>
       </c>
       <c r="D260" t="s">
         <v>91</v>
@@ -11336,7 +11501,7 @@
         <v>14</v>
       </c>
       <c r="F260" t="s">
-        <v>825</v>
+        <v>851</v>
       </c>
       <c r="G260" t="s">
         <v>27</v>
@@ -11353,10 +11518,10 @@
     </row>
     <row r="261" spans="1:10">
       <c r="A261" t="s">
-        <v>826</v>
+        <v>852</v>
       </c>
       <c r="C261" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D261" t="s">
         <v>91</v>
@@ -11365,7 +11530,7 @@
         <v>14</v>
       </c>
       <c r="F261" t="s">
-        <v>827</v>
+        <v>853</v>
       </c>
       <c r="G261" t="s">
         <v>27</v>
@@ -11385,7 +11550,7 @@
         <v>303</v>
       </c>
       <c r="C262" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D262" t="s">
         <v>53</v>
@@ -11394,7 +11559,7 @@
         <v>14</v>
       </c>
       <c r="F262" t="s">
-        <v>801</v>
+        <v>827</v>
       </c>
       <c r="G262" t="s">
         <v>27</v>
@@ -11414,7 +11579,7 @@
         <v>354</v>
       </c>
       <c r="C263" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D263" t="s">
         <v>171</v>
@@ -11423,7 +11588,7 @@
         <v>14</v>
       </c>
       <c r="F263" t="s">
-        <v>801</v>
+        <v>827</v>
       </c>
       <c r="G263" t="s">
         <v>27</v>
@@ -11440,10 +11605,10 @@
     </row>
     <row r="264" spans="1:10">
       <c r="A264" t="s">
-        <v>828</v>
+        <v>854</v>
       </c>
       <c r="C264" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D264" t="s">
         <v>184</v>
@@ -11452,7 +11617,7 @@
         <v>14</v>
       </c>
       <c r="F264" t="s">
-        <v>829</v>
+        <v>855</v>
       </c>
       <c r="G264" t="s">
         <v>47</v>
@@ -11469,10 +11634,10 @@
     </row>
     <row r="265" spans="1:10">
       <c r="A265" t="s">
-        <v>830</v>
+        <v>856</v>
       </c>
       <c r="C265" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D265" t="s">
         <v>66</v>
@@ -11481,10 +11646,10 @@
         <v>14</v>
       </c>
       <c r="F265" t="s">
-        <v>831</v>
+        <v>857</v>
       </c>
       <c r="G265" t="s">
-        <v>832</v>
+        <v>858</v>
       </c>
       <c r="H265" t="s">
         <v>18</v>
@@ -11498,10 +11663,10 @@
     </row>
     <row r="266" spans="1:10">
       <c r="A266" t="s">
-        <v>833</v>
+        <v>859</v>
       </c>
       <c r="C266" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D266" t="s">
         <v>112</v>
@@ -11510,10 +11675,10 @@
         <v>14</v>
       </c>
       <c r="F266" t="s">
-        <v>834</v>
+        <v>860</v>
       </c>
       <c r="G266" t="s">
-        <v>835</v>
+        <v>861</v>
       </c>
       <c r="H266" t="s">
         <v>18</v>
@@ -11527,10 +11692,10 @@
     </row>
     <row r="267" spans="1:10">
       <c r="A267" t="s">
-        <v>836</v>
+        <v>862</v>
       </c>
       <c r="C267" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D267" t="s">
         <v>91</v>
@@ -11539,7 +11704,7 @@
         <v>14</v>
       </c>
       <c r="F267" t="s">
-        <v>837</v>
+        <v>863</v>
       </c>
       <c r="G267" t="s">
         <v>27</v>
@@ -11556,10 +11721,10 @@
     </row>
     <row r="268" spans="1:10">
       <c r="A268" t="s">
-        <v>838</v>
+        <v>864</v>
       </c>
       <c r="C268" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D268" t="s">
         <v>91</v>
@@ -11568,7 +11733,7 @@
         <v>14</v>
       </c>
       <c r="F268" t="s">
-        <v>839</v>
+        <v>865</v>
       </c>
       <c r="G268" t="s">
         <v>47</v>
@@ -11588,7 +11753,7 @@
         <v>333</v>
       </c>
       <c r="C269" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D269" t="s">
         <v>184</v>
@@ -11597,7 +11762,7 @@
         <v>14</v>
       </c>
       <c r="F269" t="s">
-        <v>801</v>
+        <v>827</v>
       </c>
       <c r="G269" t="s">
         <v>27</v>
@@ -11614,10 +11779,10 @@
     </row>
     <row r="270" spans="1:10">
       <c r="A270" t="s">
-        <v>840</v>
+        <v>866</v>
       </c>
       <c r="C270" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D270" t="s">
         <v>91</v>
@@ -11626,7 +11791,7 @@
         <v>14</v>
       </c>
       <c r="F270" t="s">
-        <v>841</v>
+        <v>867</v>
       </c>
       <c r="G270" t="s">
         <v>55</v>
@@ -11643,10 +11808,10 @@
     </row>
     <row r="271" spans="1:10">
       <c r="A271" t="s">
-        <v>842</v>
+        <v>868</v>
       </c>
       <c r="C271" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D271" t="s">
         <v>112</v>
@@ -11655,10 +11820,10 @@
         <v>14</v>
       </c>
       <c r="F271" t="s">
-        <v>843</v>
+        <v>869</v>
       </c>
       <c r="G271" t="s">
-        <v>844</v>
+        <v>870</v>
       </c>
       <c r="H271" t="s">
         <v>275</v>
@@ -11672,10 +11837,10 @@
     </row>
     <row r="272" spans="1:10">
       <c r="A272" t="s">
-        <v>845</v>
+        <v>871</v>
       </c>
       <c r="C272" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D272" t="s">
         <v>91</v>
@@ -11684,10 +11849,10 @@
         <v>14</v>
       </c>
       <c r="F272" t="s">
-        <v>846</v>
+        <v>872</v>
       </c>
       <c r="G272" t="s">
-        <v>847</v>
+        <v>873</v>
       </c>
       <c r="H272" t="s">
         <v>18</v>
@@ -11701,10 +11866,10 @@
     </row>
     <row r="273" spans="1:10">
       <c r="A273" t="s">
-        <v>848</v>
+        <v>874</v>
       </c>
       <c r="C273" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D273" t="s">
         <v>66</v>
@@ -11713,10 +11878,10 @@
         <v>14</v>
       </c>
       <c r="F273" t="s">
-        <v>849</v>
+        <v>875</v>
       </c>
       <c r="G273" t="s">
-        <v>850</v>
+        <v>876</v>
       </c>
       <c r="H273" t="s">
         <v>275</v>
@@ -11730,10 +11895,10 @@
     </row>
     <row r="274" spans="1:10">
       <c r="A274" t="s">
-        <v>851</v>
+        <v>877</v>
       </c>
       <c r="C274" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D274" t="s">
         <v>45</v>
@@ -11742,10 +11907,10 @@
         <v>14</v>
       </c>
       <c r="F274" t="s">
-        <v>852</v>
+        <v>878</v>
       </c>
       <c r="G274" t="s">
-        <v>853</v>
+        <v>879</v>
       </c>
       <c r="H274" t="s">
         <v>275</v>
@@ -11759,10 +11924,10 @@
     </row>
     <row r="275" spans="1:10">
       <c r="A275" t="s">
-        <v>854</v>
+        <v>880</v>
       </c>
       <c r="C275" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D275" t="s">
         <v>53</v>
@@ -11771,10 +11936,10 @@
         <v>14</v>
       </c>
       <c r="F275" t="s">
-        <v>855</v>
+        <v>881</v>
       </c>
       <c r="G275" t="s">
-        <v>856</v>
+        <v>882</v>
       </c>
       <c r="H275" t="s">
         <v>181</v>
@@ -11788,10 +11953,10 @@
     </row>
     <row r="276" spans="1:10">
       <c r="A276" t="s">
-        <v>857</v>
+        <v>883</v>
       </c>
       <c r="C276" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D276" t="s">
         <v>45</v>
@@ -11800,7 +11965,7 @@
         <v>14</v>
       </c>
       <c r="F276" t="s">
-        <v>858</v>
+        <v>884</v>
       </c>
       <c r="G276" t="s">
         <v>109</v>
@@ -11817,10 +11982,10 @@
     </row>
     <row r="277" spans="1:10">
       <c r="A277" t="s">
-        <v>859</v>
+        <v>885</v>
       </c>
       <c r="C277" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D277" t="s">
         <v>45</v>
@@ -11829,7 +11994,7 @@
         <v>14</v>
       </c>
       <c r="F277" t="s">
-        <v>801</v>
+        <v>827</v>
       </c>
       <c r="G277" t="s">
         <v>27</v>
@@ -11846,10 +12011,10 @@
     </row>
     <row r="278" spans="1:10">
       <c r="A278" t="s">
-        <v>860</v>
+        <v>886</v>
       </c>
       <c r="C278" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D278" t="s">
         <v>195</v>
@@ -11858,16 +12023,16 @@
         <v>14</v>
       </c>
       <c r="F278" t="s">
-        <v>861</v>
+        <v>887</v>
       </c>
       <c r="G278" t="s">
-        <v>862</v>
+        <v>888</v>
       </c>
       <c r="H278" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="I278" t="s">
-        <v>722</v>
+        <v>744</v>
       </c>
       <c r="J278" t="s">
         <v>229</v>
@@ -11875,10 +12040,10 @@
     </row>
     <row r="279" spans="1:10">
       <c r="A279" t="s">
-        <v>863</v>
+        <v>889</v>
       </c>
       <c r="C279" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D279" t="s">
         <v>171</v>
@@ -11887,16 +12052,16 @@
         <v>14</v>
       </c>
       <c r="F279" t="s">
-        <v>864</v>
+        <v>890</v>
       </c>
       <c r="G279" t="s">
         <v>27</v>
       </c>
       <c r="H279" t="s">
-        <v>865</v>
+        <v>891</v>
       </c>
       <c r="I279" t="s">
-        <v>866</v>
+        <v>892</v>
       </c>
       <c r="J279" t="s">
         <v>17</v>
@@ -11904,10 +12069,10 @@
     </row>
     <row r="280" spans="1:10">
       <c r="A280" t="s">
-        <v>867</v>
+        <v>893</v>
       </c>
       <c r="C280" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D280" t="s">
         <v>143</v>
@@ -11916,7 +12081,7 @@
         <v>14</v>
       </c>
       <c r="F280" t="s">
-        <v>868</v>
+        <v>894</v>
       </c>
       <c r="G280" t="s">
         <v>109</v>
@@ -11933,10 +12098,10 @@
     </row>
     <row r="281" spans="1:10">
       <c r="A281" t="s">
-        <v>869</v>
+        <v>895</v>
       </c>
       <c r="C281" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D281" t="s">
         <v>53</v>
@@ -11945,7 +12110,7 @@
         <v>14</v>
       </c>
       <c r="F281" t="s">
-        <v>847</v>
+        <v>873</v>
       </c>
       <c r="G281" t="s">
         <v>27</v>
@@ -11962,10 +12127,10 @@
     </row>
     <row r="282" spans="1:10">
       <c r="A282" t="s">
-        <v>870</v>
+        <v>896</v>
       </c>
       <c r="C282" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D282" t="s">
         <v>66</v>
@@ -11974,10 +12139,10 @@
         <v>14</v>
       </c>
       <c r="F282" t="s">
-        <v>871</v>
+        <v>897</v>
       </c>
       <c r="G282" t="s">
-        <v>872</v>
+        <v>898</v>
       </c>
       <c r="H282" t="s">
         <v>18</v>
@@ -11994,7 +12159,7 @@
         <v>550</v>
       </c>
       <c r="C283" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D283" t="s">
         <v>205</v>
@@ -12003,7 +12168,7 @@
         <v>14</v>
       </c>
       <c r="F283" t="s">
-        <v>801</v>
+        <v>827</v>
       </c>
       <c r="G283" t="s">
         <v>27</v>
@@ -12020,10 +12185,10 @@
     </row>
     <row r="284" spans="1:10">
       <c r="A284" t="s">
-        <v>874</v>
+        <v>900</v>
       </c>
       <c r="C284" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D284" t="s">
         <v>79</v>
@@ -12032,10 +12197,10 @@
         <v>14</v>
       </c>
       <c r="F284" t="s">
-        <v>875</v>
+        <v>901</v>
       </c>
       <c r="G284" t="s">
-        <v>876</v>
+        <v>902</v>
       </c>
       <c r="H284" t="s">
         <v>181</v>
@@ -12049,10 +12214,10 @@
     </row>
     <row r="285" spans="1:10">
       <c r="A285" t="s">
-        <v>877</v>
+        <v>903</v>
       </c>
       <c r="C285" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D285" t="s">
         <v>86</v>
@@ -12061,7 +12226,7 @@
         <v>14</v>
       </c>
       <c r="F285" t="s">
-        <v>801</v>
+        <v>827</v>
       </c>
       <c r="G285" t="s">
         <v>27</v>
@@ -12078,10 +12243,10 @@
     </row>
     <row r="286" spans="1:10">
       <c r="A286" t="s">
-        <v>878</v>
+        <v>904</v>
       </c>
       <c r="C286" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D286" t="s">
         <v>205</v>
@@ -12090,7 +12255,7 @@
         <v>14</v>
       </c>
       <c r="F286" t="s">
-        <v>879</v>
+        <v>905</v>
       </c>
       <c r="G286" t="s">
         <v>27</v>
@@ -12107,10 +12272,10 @@
     </row>
     <row r="287" spans="1:10">
       <c r="A287" t="s">
-        <v>880</v>
+        <v>906</v>
       </c>
       <c r="C287" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D287" t="s">
         <v>171</v>
@@ -12119,10 +12284,10 @@
         <v>14</v>
       </c>
       <c r="F287" t="s">
-        <v>881</v>
+        <v>907</v>
       </c>
       <c r="G287" t="s">
-        <v>882</v>
+        <v>908</v>
       </c>
       <c r="H287" t="s">
         <v>18</v>
@@ -12136,10 +12301,10 @@
     </row>
     <row r="288" spans="1:10">
       <c r="A288" t="s">
-        <v>883</v>
+        <v>909</v>
       </c>
       <c r="C288" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D288" t="s">
         <v>66</v>
@@ -12165,10 +12330,10 @@
     </row>
     <row r="289" spans="1:10">
       <c r="A289" t="s">
-        <v>884</v>
+        <v>910</v>
       </c>
       <c r="C289" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D289" t="s">
         <v>53</v>
@@ -12177,10 +12342,10 @@
         <v>14</v>
       </c>
       <c r="F289" t="s">
-        <v>885</v>
+        <v>911</v>
       </c>
       <c r="G289" t="s">
-        <v>886</v>
+        <v>912</v>
       </c>
       <c r="H289" t="s">
         <v>18</v>
@@ -12194,10 +12359,10 @@
     </row>
     <row r="290" spans="1:10">
       <c r="A290" t="s">
-        <v>887</v>
+        <v>913</v>
       </c>
       <c r="C290" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D290" t="s">
         <v>184</v>
@@ -12206,16 +12371,16 @@
         <v>14</v>
       </c>
       <c r="F290" t="s">
-        <v>888</v>
+        <v>914</v>
       </c>
       <c r="G290" t="s">
-        <v>889</v>
+        <v>915</v>
       </c>
       <c r="H290" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="I290" t="s">
-        <v>890</v>
+        <v>916</v>
       </c>
       <c r="J290" t="s">
         <v>82</v>
@@ -12223,10 +12388,10 @@
     </row>
     <row r="291" spans="1:10">
       <c r="A291" t="s">
-        <v>891</v>
+        <v>917</v>
       </c>
       <c r="C291" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D291" t="s">
         <v>79</v>
@@ -12235,10 +12400,10 @@
         <v>14</v>
       </c>
       <c r="F291" t="s">
-        <v>892</v>
+        <v>918</v>
       </c>
       <c r="G291" t="s">
-        <v>893</v>
+        <v>919</v>
       </c>
       <c r="H291" t="s">
         <v>23</v>
@@ -12252,10 +12417,10 @@
     </row>
     <row r="292" spans="1:10">
       <c r="A292" t="s">
-        <v>894</v>
+        <v>920</v>
       </c>
       <c r="C292" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D292" t="s">
         <v>112</v>
@@ -12264,7 +12429,7 @@
         <v>14</v>
       </c>
       <c r="F292" t="s">
-        <v>895</v>
+        <v>921</v>
       </c>
       <c r="G292" t="s">
         <v>27</v>
@@ -12273,7 +12438,7 @@
         <v>181</v>
       </c>
       <c r="I292" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="J292" t="s">
         <v>17</v>
@@ -12281,10 +12446,10 @@
     </row>
     <row r="293" spans="1:10">
       <c r="A293" t="s">
-        <v>896</v>
+        <v>922</v>
       </c>
       <c r="C293" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D293" t="s">
         <v>79</v>
@@ -12293,7 +12458,7 @@
         <v>14</v>
       </c>
       <c r="F293" t="s">
-        <v>897</v>
+        <v>923</v>
       </c>
       <c r="G293" t="s">
         <v>27</v>
@@ -12313,7 +12478,7 @@
         <v>461</v>
       </c>
       <c r="C294" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D294" t="s">
         <v>158</v>
@@ -12322,7 +12487,7 @@
         <v>14</v>
       </c>
       <c r="F294" t="s">
-        <v>801</v>
+        <v>827</v>
       </c>
       <c r="G294" t="s">
         <v>27</v>
@@ -12339,10 +12504,10 @@
     </row>
     <row r="295" spans="1:10">
       <c r="A295" t="s">
-        <v>898</v>
+        <v>924</v>
       </c>
       <c r="C295" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D295" t="s">
         <v>79</v>
@@ -12351,7 +12516,7 @@
         <v>14</v>
       </c>
       <c r="F295" t="s">
-        <v>801</v>
+        <v>827</v>
       </c>
       <c r="G295" t="s">
         <v>27</v>
@@ -12368,10 +12533,10 @@
     </row>
     <row r="296" spans="1:10">
       <c r="A296" t="s">
+        <v>925</v>
+      </c>
+      <c r="C296" t="s">
         <v>899</v>
-      </c>
-      <c r="C296" t="s">
-        <v>873</v>
       </c>
       <c r="D296" t="s">
         <v>205</v>
@@ -12380,16 +12545,16 @@
         <v>14</v>
       </c>
       <c r="F296" t="s">
-        <v>900</v>
+        <v>926</v>
       </c>
       <c r="G296" t="s">
         <v>47</v>
       </c>
       <c r="H296" t="s">
-        <v>710</v>
+        <v>732</v>
       </c>
       <c r="I296" t="s">
-        <v>711</v>
+        <v>733</v>
       </c>
       <c r="J296" t="s">
         <v>50</v>
@@ -12400,7 +12565,7 @@
         <v>406</v>
       </c>
       <c r="C297" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D297" t="s">
         <v>248</v>
@@ -12409,7 +12574,7 @@
         <v>14</v>
       </c>
       <c r="F297" t="s">
-        <v>801</v>
+        <v>827</v>
       </c>
       <c r="G297" t="s">
         <v>27</v>
@@ -12426,10 +12591,10 @@
     </row>
     <row r="298" spans="1:10">
       <c r="A298" t="s">
-        <v>901</v>
+        <v>927</v>
       </c>
       <c r="C298" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D298" t="s">
         <v>91</v>
@@ -12438,10 +12603,10 @@
         <v>14</v>
       </c>
       <c r="F298" t="s">
-        <v>902</v>
+        <v>928</v>
       </c>
       <c r="G298" t="s">
-        <v>903</v>
+        <v>929</v>
       </c>
       <c r="H298" t="s">
         <v>562</v>
@@ -12455,10 +12620,10 @@
     </row>
     <row r="299" spans="1:10">
       <c r="A299" t="s">
-        <v>904</v>
+        <v>930</v>
       </c>
       <c r="C299" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D299" t="s">
         <v>205</v>
@@ -12467,16 +12632,16 @@
         <v>14</v>
       </c>
       <c r="F299" t="s">
-        <v>905</v>
+        <v>931</v>
       </c>
       <c r="G299" t="s">
-        <v>906</v>
+        <v>932</v>
       </c>
       <c r="H299" t="s">
-        <v>710</v>
+        <v>732</v>
       </c>
       <c r="I299" t="s">
-        <v>816</v>
+        <v>842</v>
       </c>
       <c r="J299" t="s">
         <v>82</v>
@@ -12484,10 +12649,10 @@
     </row>
     <row r="300" spans="1:10">
       <c r="A300" t="s">
-        <v>907</v>
+        <v>933</v>
       </c>
       <c r="C300" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D300" t="s">
         <v>122</v>
@@ -12496,16 +12661,16 @@
         <v>14</v>
       </c>
       <c r="F300" t="s">
-        <v>905</v>
+        <v>931</v>
       </c>
       <c r="G300" t="s">
         <v>109</v>
       </c>
       <c r="H300" t="s">
-        <v>710</v>
+        <v>732</v>
       </c>
       <c r="I300" t="s">
-        <v>816</v>
+        <v>842</v>
       </c>
       <c r="J300" t="s">
         <v>82</v>
@@ -12513,10 +12678,10 @@
     </row>
     <row r="301" spans="1:10">
       <c r="A301" t="s">
-        <v>908</v>
+        <v>934</v>
       </c>
       <c r="C301" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D301" t="s">
         <v>248</v>
@@ -12525,7 +12690,7 @@
         <v>14</v>
       </c>
       <c r="F301" t="s">
-        <v>909</v>
+        <v>935</v>
       </c>
       <c r="G301" t="s">
         <v>109</v>
@@ -12542,10 +12707,10 @@
     </row>
     <row r="302" spans="1:10">
       <c r="A302" t="s">
-        <v>910</v>
+        <v>936</v>
       </c>
       <c r="C302" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D302" t="s">
         <v>45</v>
@@ -12554,10 +12719,10 @@
         <v>14</v>
       </c>
       <c r="F302" t="s">
-        <v>911</v>
+        <v>937</v>
       </c>
       <c r="G302" t="s">
-        <v>862</v>
+        <v>888</v>
       </c>
       <c r="H302" t="s">
         <v>562</v>
@@ -12571,10 +12736,10 @@
     </row>
     <row r="303" spans="1:10">
       <c r="A303" t="s">
-        <v>912</v>
+        <v>938</v>
       </c>
       <c r="C303" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D303" t="s">
         <v>195</v>
@@ -12583,7 +12748,7 @@
         <v>14</v>
       </c>
       <c r="F303" t="s">
-        <v>913</v>
+        <v>939</v>
       </c>
       <c r="G303" t="s">
         <v>47</v>
@@ -12600,10 +12765,10 @@
     </row>
     <row r="304" spans="1:10">
       <c r="A304" t="s">
-        <v>914</v>
+        <v>940</v>
       </c>
       <c r="C304" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D304" t="s">
         <v>248</v>
@@ -12612,10 +12777,10 @@
         <v>14</v>
       </c>
       <c r="F304" t="s">
-        <v>915</v>
+        <v>941</v>
       </c>
       <c r="G304" t="s">
-        <v>862</v>
+        <v>888</v>
       </c>
       <c r="H304" t="s">
         <v>69</v>
@@ -12629,10 +12794,10 @@
     </row>
     <row r="305" spans="1:10">
       <c r="A305" t="s">
-        <v>916</v>
+        <v>942</v>
       </c>
       <c r="C305" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D305" t="s">
         <v>158</v>
@@ -12641,16 +12806,16 @@
         <v>14</v>
       </c>
       <c r="F305" t="s">
-        <v>917</v>
+        <v>943</v>
       </c>
       <c r="G305" t="s">
         <v>47</v>
       </c>
       <c r="H305" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="I305" t="s">
-        <v>890</v>
+        <v>916</v>
       </c>
       <c r="J305" t="s">
         <v>50</v>
@@ -12658,10 +12823,10 @@
     </row>
     <row r="306" spans="1:10">
       <c r="A306" t="s">
-        <v>918</v>
+        <v>944</v>
       </c>
       <c r="C306" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D306" t="s">
         <v>66</v>
@@ -12670,16 +12835,16 @@
         <v>14</v>
       </c>
       <c r="F306" t="s">
-        <v>919</v>
+        <v>945</v>
       </c>
       <c r="G306" t="s">
-        <v>920</v>
+        <v>946</v>
       </c>
       <c r="H306" t="s">
         <v>181</v>
       </c>
       <c r="I306" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="J306" t="s">
         <v>82</v>
@@ -12687,10 +12852,10 @@
     </row>
     <row r="307" spans="1:10">
       <c r="A307" t="s">
-        <v>921</v>
+        <v>947</v>
       </c>
       <c r="C307" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D307" t="s">
         <v>86</v>
@@ -12699,16 +12864,16 @@
         <v>14</v>
       </c>
       <c r="F307" t="s">
-        <v>922</v>
+        <v>948</v>
       </c>
       <c r="G307" t="s">
-        <v>923</v>
+        <v>949</v>
       </c>
       <c r="H307" t="s">
         <v>181</v>
       </c>
       <c r="I307" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="J307" t="s">
         <v>450</v>
@@ -12716,10 +12881,10 @@
     </row>
     <row r="308" spans="1:10">
       <c r="A308" t="s">
-        <v>924</v>
+        <v>950</v>
       </c>
       <c r="C308" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D308" t="s">
         <v>91</v>
@@ -12728,10 +12893,10 @@
         <v>14</v>
       </c>
       <c r="F308" t="s">
-        <v>876</v>
+        <v>902</v>
       </c>
       <c r="G308" t="s">
-        <v>663</v>
+        <v>951</v>
       </c>
       <c r="H308" t="s">
         <v>23</v>
@@ -12745,10 +12910,10 @@
     </row>
     <row r="309" spans="1:10">
       <c r="A309" t="s">
-        <v>925</v>
+        <v>952</v>
       </c>
       <c r="C309" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D309" t="s">
         <v>66</v>
@@ -12757,10 +12922,10 @@
         <v>14</v>
       </c>
       <c r="F309" t="s">
-        <v>926</v>
+        <v>953</v>
       </c>
       <c r="G309" t="s">
-        <v>927</v>
+        <v>954</v>
       </c>
       <c r="H309" t="s">
         <v>181</v>
@@ -12774,10 +12939,10 @@
     </row>
     <row r="310" spans="1:10">
       <c r="A310" t="s">
-        <v>928</v>
+        <v>955</v>
       </c>
       <c r="C310" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D310" t="s">
         <v>143</v>
@@ -12786,7 +12951,7 @@
         <v>14</v>
       </c>
       <c r="F310" t="s">
-        <v>929</v>
+        <v>956</v>
       </c>
       <c r="G310" t="s">
         <v>27</v>
@@ -12803,10 +12968,10 @@
     </row>
     <row r="311" spans="1:10">
       <c r="A311" t="s">
-        <v>930</v>
+        <v>957</v>
       </c>
       <c r="C311" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D311" t="s">
         <v>91</v>
@@ -12815,10 +12980,10 @@
         <v>14</v>
       </c>
       <c r="F311" t="s">
-        <v>931</v>
+        <v>958</v>
       </c>
       <c r="G311" t="s">
-        <v>909</v>
+        <v>935</v>
       </c>
       <c r="H311" t="s">
         <v>18</v>
@@ -12832,10 +12997,10 @@
     </row>
     <row r="312" spans="1:10">
       <c r="A312" t="s">
-        <v>932</v>
+        <v>959</v>
       </c>
       <c r="C312" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D312" t="s">
         <v>79</v>
@@ -12844,10 +13009,10 @@
         <v>14</v>
       </c>
       <c r="F312" t="s">
-        <v>933</v>
+        <v>960</v>
       </c>
       <c r="G312" t="s">
-        <v>934</v>
+        <v>961</v>
       </c>
       <c r="H312" t="s">
         <v>18</v>
@@ -12861,10 +13026,10 @@
     </row>
     <row r="313" spans="1:10">
       <c r="A313" t="s">
-        <v>935</v>
+        <v>962</v>
       </c>
       <c r="C313" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D313" t="s">
         <v>91</v>
@@ -12873,7 +13038,7 @@
         <v>14</v>
       </c>
       <c r="F313" t="s">
-        <v>886</v>
+        <v>912</v>
       </c>
       <c r="G313" t="s">
         <v>27</v>
@@ -12890,10 +13055,10 @@
     </row>
     <row r="314" spans="1:10">
       <c r="A314" t="s">
-        <v>936</v>
+        <v>963</v>
       </c>
       <c r="C314" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D314" t="s">
         <v>112</v>
@@ -12902,10 +13067,10 @@
         <v>14</v>
       </c>
       <c r="F314" t="s">
-        <v>937</v>
+        <v>964</v>
       </c>
       <c r="G314" t="s">
-        <v>938</v>
+        <v>965</v>
       </c>
       <c r="H314" t="s">
         <v>23</v>
@@ -12919,10 +13084,10 @@
     </row>
     <row r="315" spans="1:10">
       <c r="A315" t="s">
-        <v>939</v>
+        <v>966</v>
       </c>
       <c r="C315" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D315" t="s">
         <v>91</v>
@@ -12931,7 +13096,7 @@
         <v>14</v>
       </c>
       <c r="F315" t="s">
-        <v>940</v>
+        <v>967</v>
       </c>
       <c r="G315" t="s">
         <v>27</v>
@@ -12948,10 +13113,10 @@
     </row>
     <row r="316" spans="1:10">
       <c r="A316" t="s">
-        <v>941</v>
+        <v>968</v>
       </c>
       <c r="C316" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D316" t="s">
         <v>91</v>
@@ -12960,10 +13125,10 @@
         <v>14</v>
       </c>
       <c r="F316" t="s">
-        <v>942</v>
+        <v>969</v>
       </c>
       <c r="G316" t="s">
-        <v>943</v>
+        <v>970</v>
       </c>
       <c r="H316" t="s">
         <v>23</v>
@@ -12977,10 +13142,10 @@
     </row>
     <row r="317" spans="1:10">
       <c r="A317" t="s">
-        <v>944</v>
+        <v>971</v>
       </c>
       <c r="C317" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D317" t="s">
         <v>122</v>
@@ -12989,7 +13154,7 @@
         <v>14</v>
       </c>
       <c r="F317" t="s">
-        <v>801</v>
+        <v>827</v>
       </c>
       <c r="G317" t="s">
         <v>27</v>
@@ -13006,10 +13171,10 @@
     </row>
     <row r="318" spans="1:10">
       <c r="A318" t="s">
-        <v>945</v>
+        <v>972</v>
       </c>
       <c r="C318" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D318" t="s">
         <v>158</v>
@@ -13018,10 +13183,10 @@
         <v>14</v>
       </c>
       <c r="F318" t="s">
-        <v>897</v>
+        <v>923</v>
       </c>
       <c r="G318" t="s">
-        <v>946</v>
+        <v>973</v>
       </c>
       <c r="H318" t="s">
         <v>23</v>
@@ -13035,10 +13200,10 @@
     </row>
     <row r="319" spans="1:10">
       <c r="A319" t="s">
-        <v>947</v>
+        <v>974</v>
       </c>
       <c r="C319" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D319" t="s">
         <v>86</v>
@@ -13047,10 +13212,10 @@
         <v>14</v>
       </c>
       <c r="F319" t="s">
-        <v>948</v>
+        <v>975</v>
       </c>
       <c r="G319" t="s">
-        <v>949</v>
+        <v>976</v>
       </c>
       <c r="H319" t="s">
         <v>562</v>
@@ -13064,10 +13229,10 @@
     </row>
     <row r="320" spans="1:10">
       <c r="A320" t="s">
-        <v>950</v>
+        <v>977</v>
       </c>
       <c r="C320" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D320" t="s">
         <v>79</v>
@@ -13076,10 +13241,10 @@
         <v>14</v>
       </c>
       <c r="F320" t="s">
-        <v>951</v>
+        <v>978</v>
       </c>
       <c r="G320" t="s">
-        <v>897</v>
+        <v>923</v>
       </c>
       <c r="H320" t="s">
         <v>18</v>
@@ -13093,10 +13258,10 @@
     </row>
     <row r="321" spans="1:10">
       <c r="A321" t="s">
-        <v>952</v>
+        <v>979</v>
       </c>
       <c r="C321" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D321" t="s">
         <v>112</v>
@@ -13105,16 +13270,16 @@
         <v>14</v>
       </c>
       <c r="F321" t="s">
-        <v>922</v>
+        <v>948</v>
       </c>
       <c r="G321" t="s">
-        <v>953</v>
+        <v>980</v>
       </c>
       <c r="H321" t="s">
         <v>181</v>
       </c>
       <c r="I321" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="J321" t="s">
         <v>82</v>
@@ -13122,10 +13287,10 @@
     </row>
     <row r="322" spans="1:10">
       <c r="A322" t="s">
-        <v>954</v>
+        <v>981</v>
       </c>
       <c r="C322" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D322" t="s">
         <v>143</v>
@@ -13134,7 +13299,7 @@
         <v>14</v>
       </c>
       <c r="F322" t="s">
-        <v>823</v>
+        <v>849</v>
       </c>
       <c r="G322" t="s">
         <v>27</v>
@@ -13151,10 +13316,10 @@
     </row>
     <row r="323" spans="1:10">
       <c r="A323" t="s">
-        <v>955</v>
+        <v>982</v>
       </c>
       <c r="C323" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D323" t="s">
         <v>143</v>
@@ -13163,7 +13328,7 @@
         <v>14</v>
       </c>
       <c r="F323" t="s">
-        <v>956</v>
+        <v>983</v>
       </c>
       <c r="G323" t="s">
         <v>109</v>
@@ -13180,10 +13345,10 @@
     </row>
     <row r="324" spans="1:10">
       <c r="A324" t="s">
-        <v>957</v>
+        <v>984</v>
       </c>
       <c r="C324" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D324" t="s">
         <v>158</v>
@@ -13192,16 +13357,16 @@
         <v>14</v>
       </c>
       <c r="F324" t="s">
-        <v>958</v>
+        <v>985</v>
       </c>
       <c r="G324" t="s">
-        <v>862</v>
+        <v>888</v>
       </c>
       <c r="H324" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="I324" t="s">
-        <v>796</v>
+        <v>822</v>
       </c>
       <c r="J324" t="s">
         <v>229</v>
@@ -13209,10 +13374,10 @@
     </row>
     <row r="325" spans="1:10">
       <c r="A325" t="s">
-        <v>959</v>
+        <v>986</v>
       </c>
       <c r="C325" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D325" t="s">
         <v>66</v>
@@ -13224,7 +13389,7 @@
         <v>113</v>
       </c>
       <c r="G325" t="s">
-        <v>961</v>
+        <v>988</v>
       </c>
       <c r="H325" t="s">
         <v>69</v>
@@ -13238,10 +13403,10 @@
     </row>
     <row r="326" spans="1:10">
       <c r="A326" t="s">
-        <v>962</v>
+        <v>989</v>
       </c>
       <c r="C326" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D326" t="s">
         <v>184</v>
@@ -13250,16 +13415,16 @@
         <v>14</v>
       </c>
       <c r="F326" t="s">
-        <v>963</v>
+        <v>990</v>
       </c>
       <c r="G326" t="s">
         <v>27</v>
       </c>
       <c r="H326" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="I326" t="s">
-        <v>796</v>
+        <v>822</v>
       </c>
       <c r="J326" t="s">
         <v>17</v>
@@ -13267,10 +13432,10 @@
     </row>
     <row r="327" spans="1:10">
       <c r="A327" t="s">
-        <v>964</v>
+        <v>991</v>
       </c>
       <c r="C327" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D327" t="s">
         <v>86</v>
@@ -13279,16 +13444,16 @@
         <v>14</v>
       </c>
       <c r="F327" t="s">
-        <v>965</v>
+        <v>992</v>
       </c>
       <c r="G327" t="s">
         <v>27</v>
       </c>
       <c r="H327" t="s">
-        <v>710</v>
+        <v>732</v>
       </c>
       <c r="I327" t="s">
-        <v>711</v>
+        <v>733</v>
       </c>
       <c r="J327" t="s">
         <v>17</v>
@@ -13296,10 +13461,10 @@
     </row>
     <row r="328" spans="1:10">
       <c r="A328" t="s">
-        <v>966</v>
+        <v>993</v>
       </c>
       <c r="C328" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D328" t="s">
         <v>53</v>
@@ -13308,16 +13473,16 @@
         <v>14</v>
       </c>
       <c r="F328" t="s">
-        <v>967</v>
+        <v>994</v>
       </c>
       <c r="G328" t="s">
         <v>27</v>
       </c>
       <c r="H328" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="I328" t="s">
-        <v>796</v>
+        <v>822</v>
       </c>
       <c r="J328" t="s">
         <v>17</v>
@@ -13325,10 +13490,10 @@
     </row>
     <row r="329" spans="1:10">
       <c r="A329" t="s">
-        <v>968</v>
+        <v>995</v>
       </c>
       <c r="C329" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D329" t="s">
         <v>171</v>
@@ -13337,7 +13502,7 @@
         <v>14</v>
       </c>
       <c r="F329" t="s">
-        <v>709</v>
+        <v>731</v>
       </c>
       <c r="G329" t="s">
         <v>27</v>
@@ -13351,10 +13516,10 @@
     </row>
     <row r="330" spans="1:10">
       <c r="A330" t="s">
-        <v>969</v>
+        <v>996</v>
       </c>
       <c r="C330" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D330" t="s">
         <v>86</v>
@@ -13363,16 +13528,16 @@
         <v>14</v>
       </c>
       <c r="F330" t="s">
-        <v>970</v>
+        <v>997</v>
       </c>
       <c r="G330" t="s">
-        <v>971</v>
+        <v>998</v>
       </c>
       <c r="H330" t="s">
         <v>229</v>
       </c>
       <c r="I330" t="s">
-        <v>972</v>
+        <v>999</v>
       </c>
       <c r="J330" t="s">
         <v>450</v>
@@ -13380,10 +13545,10 @@
     </row>
     <row r="331" spans="1:10">
       <c r="A331" t="s">
-        <v>973</v>
+        <v>1000</v>
       </c>
       <c r="C331" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D331" t="s">
         <v>91</v>
@@ -13392,10 +13557,10 @@
         <v>14</v>
       </c>
       <c r="F331" t="s">
-        <v>974</v>
+        <v>1001</v>
       </c>
       <c r="G331" t="s">
-        <v>975</v>
+        <v>1002</v>
       </c>
       <c r="H331" t="s">
         <v>48</v>
@@ -13409,10 +13574,10 @@
     </row>
     <row r="332" spans="1:10">
       <c r="A332" t="s">
-        <v>976</v>
+        <v>1003</v>
       </c>
       <c r="C332" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D332" t="s">
         <v>79</v>
@@ -13424,13 +13589,13 @@
         <v>259</v>
       </c>
       <c r="G332" t="s">
-        <v>977</v>
+        <v>1004</v>
       </c>
       <c r="H332" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="I332" t="s">
-        <v>722</v>
+        <v>744</v>
       </c>
       <c r="J332" t="s">
         <v>450</v>
@@ -13438,10 +13603,10 @@
     </row>
     <row r="333" spans="1:10">
       <c r="A333" t="s">
-        <v>978</v>
+        <v>1005</v>
       </c>
       <c r="C333" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D333" t="s">
         <v>79</v>
@@ -13450,16 +13615,16 @@
         <v>14</v>
       </c>
       <c r="F333" t="s">
-        <v>979</v>
+        <v>1006</v>
       </c>
       <c r="G333" t="s">
-        <v>980</v>
+        <v>1007</v>
       </c>
       <c r="H333" t="s">
-        <v>710</v>
+        <v>732</v>
       </c>
       <c r="I333" t="s">
-        <v>711</v>
+        <v>733</v>
       </c>
       <c r="J333" t="s">
         <v>450</v>
@@ -13467,10 +13632,10 @@
     </row>
     <row r="334" spans="1:10">
       <c r="A334" t="s">
-        <v>981</v>
+        <v>1008</v>
       </c>
       <c r="C334" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D334" t="s">
         <v>86</v>
@@ -13496,10 +13661,10 @@
     </row>
     <row r="335" spans="1:10">
       <c r="A335" t="s">
-        <v>982</v>
+        <v>1009</v>
       </c>
       <c r="C335" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D335" t="s">
         <v>184</v>
@@ -13508,7 +13673,7 @@
         <v>14</v>
       </c>
       <c r="F335" t="s">
-        <v>875</v>
+        <v>901</v>
       </c>
       <c r="G335" t="s">
         <v>251</v>
@@ -13520,15 +13685,15 @@
         <v>75</v>
       </c>
       <c r="J335" t="s">
-        <v>711</v>
+        <v>733</v>
       </c>
     </row>
     <row r="336" spans="1:10">
       <c r="A336" t="s">
-        <v>983</v>
+        <v>1010</v>
       </c>
       <c r="C336" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D336" t="s">
         <v>195</v>
@@ -13537,7 +13702,7 @@
         <v>14</v>
       </c>
       <c r="F336" t="s">
-        <v>984</v>
+        <v>1011</v>
       </c>
       <c r="G336" t="s">
         <v>109</v>
@@ -13546,7 +13711,7 @@
         <v>48</v>
       </c>
       <c r="I336" t="s">
-        <v>985</v>
+        <v>1012</v>
       </c>
       <c r="J336" t="s">
         <v>450</v>
@@ -13554,10 +13719,10 @@
     </row>
     <row r="337" spans="1:10">
       <c r="A337" t="s">
-        <v>986</v>
+        <v>1013</v>
       </c>
       <c r="C337" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D337" t="s">
         <v>122</v>
@@ -13566,10 +13731,10 @@
         <v>14</v>
       </c>
       <c r="F337" t="s">
-        <v>987</v>
+        <v>1014</v>
       </c>
       <c r="G337" t="s">
-        <v>988</v>
+        <v>1015</v>
       </c>
       <c r="H337" t="s">
         <v>48</v>
@@ -13583,10 +13748,10 @@
     </row>
     <row r="338" spans="1:10">
       <c r="A338" t="s">
-        <v>989</v>
+        <v>1016</v>
       </c>
       <c r="C338" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D338" t="s">
         <v>205</v>
@@ -13612,10 +13777,10 @@
     </row>
     <row r="339" spans="1:10">
       <c r="A339" t="s">
-        <v>990</v>
+        <v>1017</v>
       </c>
       <c r="C339" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D339" t="s">
         <v>171</v>
@@ -13633,7 +13798,7 @@
         <v>241</v>
       </c>
       <c r="I339" t="s">
-        <v>991</v>
+        <v>1018</v>
       </c>
       <c r="J339" t="s">
         <v>58</v>
@@ -13641,10 +13806,10 @@
     </row>
     <row r="340" spans="1:10">
       <c r="A340" t="s">
-        <v>992</v>
+        <v>1019</v>
       </c>
       <c r="C340" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D340" t="s">
         <v>91</v>
@@ -13653,16 +13818,16 @@
         <v>14</v>
       </c>
       <c r="F340" t="s">
-        <v>993</v>
+        <v>1020</v>
       </c>
       <c r="G340" t="s">
-        <v>994</v>
+        <v>1021</v>
       </c>
       <c r="H340" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="I340" t="s">
-        <v>722</v>
+        <v>744</v>
       </c>
       <c r="J340" t="s">
         <v>450</v>
@@ -13670,10 +13835,10 @@
     </row>
     <row r="341" spans="1:10">
       <c r="A341" t="s">
-        <v>995</v>
+        <v>1022</v>
       </c>
       <c r="C341" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D341" t="s">
         <v>45</v>
@@ -13685,13 +13850,13 @@
         <v>54</v>
       </c>
       <c r="G341" t="s">
-        <v>996</v>
+        <v>1023</v>
       </c>
       <c r="H341" t="s">
         <v>229</v>
       </c>
       <c r="I341" t="s">
-        <v>972</v>
+        <v>999</v>
       </c>
       <c r="J341" t="s">
         <v>450</v>
@@ -13699,10 +13864,10 @@
     </row>
     <row r="342" spans="1:10">
       <c r="A342" t="s">
-        <v>997</v>
+        <v>1024</v>
       </c>
       <c r="C342" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D342" t="s">
         <v>91</v>
@@ -13711,7 +13876,7 @@
         <v>14</v>
       </c>
       <c r="F342" t="s">
-        <v>709</v>
+        <v>731</v>
       </c>
       <c r="G342" t="s">
         <v>27</v>
@@ -13728,10 +13893,10 @@
     </row>
     <row r="343" spans="1:10">
       <c r="A343" t="s">
-        <v>998</v>
+        <v>1025</v>
       </c>
       <c r="C343" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D343" t="s">
         <v>91</v>
@@ -13743,13 +13908,13 @@
         <v>251</v>
       </c>
       <c r="G343" t="s">
-        <v>999</v>
+        <v>1026</v>
       </c>
       <c r="H343" t="s">
-        <v>710</v>
+        <v>732</v>
       </c>
       <c r="I343" t="s">
-        <v>711</v>
+        <v>733</v>
       </c>
       <c r="J343" t="s">
         <v>450</v>
@@ -13757,10 +13922,10 @@
     </row>
     <row r="344" spans="1:10">
       <c r="A344" t="s">
-        <v>1000</v>
+        <v>1027</v>
       </c>
       <c r="C344" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D344" t="s">
         <v>79</v>
@@ -13769,16 +13934,16 @@
         <v>14</v>
       </c>
       <c r="F344" t="s">
-        <v>1001</v>
+        <v>1028</v>
       </c>
       <c r="G344" t="s">
         <v>47</v>
       </c>
       <c r="H344" t="s">
-        <v>710</v>
+        <v>732</v>
       </c>
       <c r="I344" t="s">
-        <v>711</v>
+        <v>733</v>
       </c>
       <c r="J344" t="s">
         <v>50</v>
@@ -13786,10 +13951,10 @@
     </row>
     <row r="345" spans="1:10">
       <c r="A345" t="s">
-        <v>1002</v>
+        <v>1029</v>
       </c>
       <c r="C345" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D345" t="s">
         <v>112</v>
@@ -13798,16 +13963,16 @@
         <v>14</v>
       </c>
       <c r="F345" t="s">
-        <v>1003</v>
+        <v>1030</v>
       </c>
       <c r="G345" t="s">
-        <v>862</v>
+        <v>888</v>
       </c>
       <c r="H345" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="I345" t="s">
-        <v>722</v>
+        <v>744</v>
       </c>
       <c r="J345" t="s">
         <v>229</v>
@@ -13815,10 +13980,10 @@
     </row>
     <row r="346" spans="1:10">
       <c r="A346" t="s">
-        <v>1004</v>
+        <v>1031</v>
       </c>
       <c r="C346" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D346" t="s">
         <v>195</v>
@@ -13830,7 +13995,7 @@
         <v>54</v>
       </c>
       <c r="G346" t="s">
-        <v>996</v>
+        <v>1023</v>
       </c>
       <c r="H346" t="s">
         <v>114</v>
@@ -13844,10 +14009,10 @@
     </row>
     <row r="347" spans="1:10">
       <c r="A347" t="s">
-        <v>1005</v>
+        <v>1032</v>
       </c>
       <c r="C347" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D347" t="s">
         <v>122</v>
@@ -13856,7 +14021,7 @@
         <v>14</v>
       </c>
       <c r="F347" t="s">
-        <v>1006</v>
+        <v>1033</v>
       </c>
       <c r="G347" t="s">
         <v>27</v>
@@ -13873,10 +14038,10 @@
     </row>
     <row r="348" spans="1:10">
       <c r="A348" t="s">
-        <v>1007</v>
+        <v>1034</v>
       </c>
       <c r="C348" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D348" t="s">
         <v>112</v>
@@ -13885,10 +14050,10 @@
         <v>14</v>
       </c>
       <c r="F348" t="s">
-        <v>1008</v>
+        <v>1035</v>
       </c>
       <c r="G348" t="s">
-        <v>1009</v>
+        <v>1036</v>
       </c>
       <c r="H348" t="s">
         <v>241</v>
@@ -13902,10 +14067,10 @@
     </row>
     <row r="349" spans="1:10">
       <c r="A349" t="s">
-        <v>1010</v>
+        <v>1037</v>
       </c>
       <c r="C349" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D349" t="s">
         <v>143</v>
@@ -13914,10 +14079,10 @@
         <v>14</v>
       </c>
       <c r="F349" t="s">
-        <v>1011</v>
+        <v>1038</v>
       </c>
       <c r="G349" t="s">
-        <v>852</v>
+        <v>878</v>
       </c>
       <c r="H349" t="s">
         <v>241</v>
@@ -13931,10 +14096,10 @@
     </row>
     <row r="350" spans="1:10">
       <c r="A350" t="s">
-        <v>1012</v>
+        <v>1039</v>
       </c>
       <c r="C350" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D350" t="s">
         <v>45</v>
@@ -13943,16 +14108,16 @@
         <v>14</v>
       </c>
       <c r="F350" t="s">
-        <v>963</v>
+        <v>990</v>
       </c>
       <c r="G350" t="s">
-        <v>1013</v>
+        <v>1040</v>
       </c>
       <c r="H350" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="I350" t="s">
-        <v>796</v>
+        <v>822</v>
       </c>
       <c r="J350" t="s">
         <v>450</v>
@@ -13960,10 +14125,10 @@
     </row>
     <row r="351" spans="1:10">
       <c r="A351" t="s">
-        <v>1014</v>
+        <v>1041</v>
       </c>
       <c r="C351" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D351" t="s">
         <v>91</v>
@@ -13972,16 +14137,16 @@
         <v>14</v>
       </c>
       <c r="F351" t="s">
-        <v>1015</v>
+        <v>1042</v>
       </c>
       <c r="G351" t="s">
         <v>27</v>
       </c>
       <c r="H351" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="I351" t="s">
-        <v>796</v>
+        <v>822</v>
       </c>
       <c r="J351" t="s">
         <v>17</v>
@@ -13989,10 +14154,10 @@
     </row>
     <row r="352" spans="1:10">
       <c r="A352" t="s">
-        <v>1016</v>
+        <v>1043</v>
       </c>
       <c r="C352" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D352" t="s">
         <v>122</v>
@@ -14007,10 +14172,10 @@
         <v>109</v>
       </c>
       <c r="H352" t="s">
-        <v>710</v>
+        <v>732</v>
       </c>
       <c r="I352" t="s">
-        <v>711</v>
+        <v>733</v>
       </c>
       <c r="J352" t="s">
         <v>450</v>
@@ -14018,10 +14183,10 @@
     </row>
     <row r="353" spans="1:10">
       <c r="A353" t="s">
-        <v>1017</v>
+        <v>1044</v>
       </c>
       <c r="C353" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D353" t="s">
         <v>112</v>
@@ -14030,16 +14195,16 @@
         <v>14</v>
       </c>
       <c r="F353" t="s">
-        <v>1018</v>
+        <v>1045</v>
       </c>
       <c r="G353" t="s">
         <v>27</v>
       </c>
       <c r="H353" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="I353" t="s">
-        <v>796</v>
+        <v>822</v>
       </c>
       <c r="J353" t="s">
         <v>17</v>
@@ -14047,10 +14212,10 @@
     </row>
     <row r="354" spans="1:10">
       <c r="A354" t="s">
-        <v>1019</v>
+        <v>1046</v>
       </c>
       <c r="C354" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D354" t="s">
         <v>86</v>
@@ -14059,10 +14224,10 @@
         <v>14</v>
       </c>
       <c r="F354" t="s">
-        <v>1020</v>
+        <v>1047</v>
       </c>
       <c r="G354" t="s">
-        <v>1021</v>
+        <v>1048</v>
       </c>
       <c r="H354" t="s">
         <v>69</v>
@@ -14076,10 +14241,10 @@
     </row>
     <row r="355" spans="1:10">
       <c r="A355" t="s">
-        <v>1022</v>
+        <v>1049</v>
       </c>
       <c r="C355" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D355" t="s">
         <v>248</v>
@@ -14088,7 +14253,7 @@
         <v>14</v>
       </c>
       <c r="F355" t="s">
-        <v>1023</v>
+        <v>1050</v>
       </c>
       <c r="G355" t="s">
         <v>27</v>
@@ -14105,10 +14270,10 @@
     </row>
     <row r="356" spans="1:10">
       <c r="A356" t="s">
-        <v>1024</v>
+        <v>1051</v>
       </c>
       <c r="C356" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D356" t="s">
         <v>195</v>
@@ -14134,10 +14299,10 @@
     </row>
     <row r="357" spans="1:10">
       <c r="A357" t="s">
-        <v>1025</v>
+        <v>1052</v>
       </c>
       <c r="C357" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D357" t="s">
         <v>79</v>
@@ -14146,7 +14311,7 @@
         <v>14</v>
       </c>
       <c r="F357" t="s">
-        <v>1026</v>
+        <v>1053</v>
       </c>
       <c r="G357" t="s">
         <v>47</v>
@@ -14163,10 +14328,10 @@
     </row>
     <row r="358" spans="1:10">
       <c r="A358" t="s">
-        <v>1027</v>
+        <v>1054</v>
       </c>
       <c r="C358" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D358" t="s">
         <v>79</v>
@@ -14175,16 +14340,16 @@
         <v>14</v>
       </c>
       <c r="F358" t="s">
-        <v>1028</v>
+        <v>1055</v>
       </c>
       <c r="G358" t="s">
-        <v>1029</v>
+        <v>1056</v>
       </c>
       <c r="H358" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="I358" t="s">
-        <v>796</v>
+        <v>822</v>
       </c>
       <c r="J358" t="s">
         <v>450</v>
@@ -14195,7 +14360,7 @@
         <v>141</v>
       </c>
       <c r="C359" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D359" t="s">
         <v>143</v>
@@ -14204,16 +14369,16 @@
         <v>14</v>
       </c>
       <c r="F359" t="s">
-        <v>1015</v>
+        <v>1042</v>
       </c>
       <c r="G359" t="s">
-        <v>1030</v>
+        <v>1057</v>
       </c>
       <c r="H359" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="I359" t="s">
-        <v>796</v>
+        <v>822</v>
       </c>
       <c r="J359" t="s">
         <v>450</v>
@@ -14221,10 +14386,10 @@
     </row>
     <row r="360" spans="1:10">
       <c r="A360" t="s">
-        <v>1031</v>
+        <v>1058</v>
       </c>
       <c r="C360" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D360" t="s">
         <v>205</v>
@@ -14233,7 +14398,7 @@
         <v>14</v>
       </c>
       <c r="F360" t="s">
-        <v>1032</v>
+        <v>1059</v>
       </c>
       <c r="G360" t="s">
         <v>47</v>
@@ -14242,7 +14407,7 @@
         <v>229</v>
       </c>
       <c r="I360" t="s">
-        <v>1033</v>
+        <v>1060</v>
       </c>
       <c r="J360" t="s">
         <v>50</v>
@@ -14250,10 +14415,10 @@
     </row>
     <row r="361" spans="1:10">
       <c r="A361" t="s">
-        <v>1034</v>
+        <v>1061</v>
       </c>
       <c r="C361" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D361" t="s">
         <v>79</v>
@@ -14262,7 +14427,7 @@
         <v>14</v>
       </c>
       <c r="F361" t="s">
-        <v>1035</v>
+        <v>1062</v>
       </c>
       <c r="G361" t="s">
         <v>47</v>
@@ -14279,10 +14444,10 @@
     </row>
     <row r="362" spans="1:10">
       <c r="A362" t="s">
-        <v>1036</v>
+        <v>1063</v>
       </c>
       <c r="C362" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D362" t="s">
         <v>171</v>
@@ -14291,16 +14456,16 @@
         <v>14</v>
       </c>
       <c r="F362" t="s">
-        <v>1037</v>
+        <v>1064</v>
       </c>
       <c r="G362" t="s">
         <v>27</v>
       </c>
       <c r="H362" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="I362" t="s">
-        <v>796</v>
+        <v>822</v>
       </c>
       <c r="J362" t="s">
         <v>17</v>
@@ -14308,10 +14473,10 @@
     </row>
     <row r="363" spans="1:10">
       <c r="A363" t="s">
-        <v>1038</v>
+        <v>1065</v>
       </c>
       <c r="C363" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D363" t="s">
         <v>205</v>
@@ -14320,7 +14485,7 @@
         <v>14</v>
       </c>
       <c r="F363" t="s">
-        <v>1039</v>
+        <v>1066</v>
       </c>
       <c r="G363" t="s">
         <v>27</v>
@@ -14337,10 +14502,10 @@
     </row>
     <row r="364" spans="1:10">
       <c r="A364" t="s">
-        <v>1040</v>
+        <v>1067</v>
       </c>
       <c r="C364" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D364" t="s">
         <v>66</v>
@@ -14349,16 +14514,16 @@
         <v>14</v>
       </c>
       <c r="F364" t="s">
-        <v>1037</v>
+        <v>1064</v>
       </c>
       <c r="G364" t="s">
-        <v>1041</v>
+        <v>1068</v>
       </c>
       <c r="H364" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="I364" t="s">
-        <v>796</v>
+        <v>822</v>
       </c>
       <c r="J364" t="s">
         <v>450</v>
@@ -14366,10 +14531,10 @@
     </row>
     <row r="365" spans="1:10">
       <c r="A365" t="s">
-        <v>1042</v>
+        <v>1069</v>
       </c>
       <c r="C365" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D365" t="s">
         <v>248</v>
@@ -14378,16 +14543,16 @@
         <v>14</v>
       </c>
       <c r="F365" t="s">
-        <v>993</v>
+        <v>1020</v>
       </c>
       <c r="G365" t="s">
         <v>27</v>
       </c>
       <c r="H365" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="I365" t="s">
-        <v>722</v>
+        <v>744</v>
       </c>
       <c r="J365" t="s">
         <v>17</v>
@@ -14395,10 +14560,10 @@
     </row>
     <row r="366" spans="1:10">
       <c r="A366" t="s">
-        <v>1043</v>
+        <v>1070</v>
       </c>
       <c r="C366" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D366" t="s">
         <v>248</v>
@@ -14407,7 +14572,7 @@
         <v>14</v>
       </c>
       <c r="F366" t="s">
-        <v>1044</v>
+        <v>1071</v>
       </c>
       <c r="G366" t="s">
         <v>180</v>
@@ -14424,10 +14589,10 @@
     </row>
     <row r="367" spans="1:10">
       <c r="A367" t="s">
-        <v>1045</v>
+        <v>1072</v>
       </c>
       <c r="C367" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D367" t="s">
         <v>158</v>
@@ -14436,16 +14601,16 @@
         <v>14</v>
       </c>
       <c r="F367" t="s">
-        <v>1001</v>
+        <v>1028</v>
       </c>
       <c r="G367" t="s">
-        <v>1046</v>
+        <v>1073</v>
       </c>
       <c r="H367" t="s">
-        <v>710</v>
+        <v>732</v>
       </c>
       <c r="I367" t="s">
-        <v>711</v>
+        <v>733</v>
       </c>
       <c r="J367" t="s">
         <v>450</v>
@@ -14453,10 +14618,10 @@
     </row>
     <row r="368" spans="1:10">
       <c r="A368" t="s">
-        <v>1047</v>
+        <v>1074</v>
       </c>
       <c r="C368" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="D368" t="s">
         <v>143</v>
@@ -14465,7 +14630,7 @@
         <v>14</v>
       </c>
       <c r="F368" t="s">
-        <v>1048</v>
+        <v>1075</v>
       </c>
       <c r="G368" t="s">
         <v>109</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3423" uniqueCount="1076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3505" uniqueCount="1149">
   <si>
     <t>questName</t>
   </si>
@@ -2209,931 +2209,1150 @@
     <t>雷電</t>
   </si>
   <si>
+    <t>뇌전</t>
+  </si>
+  <si>
     <t>마을★6</t>
   </si>
   <si>
+    <t>키린(キリン) 토벌</t>
+  </si>
+  <si>
+    <t>700z</t>
+  </si>
+  <si>
+    <t>6600z</t>
+  </si>
+  <si>
+    <t>白き霊獣</t>
+  </si>
+  <si>
+    <t>하얀 영수</t>
+  </si>
+  <si>
+    <t>길드플래그(ギルドフラッグ)를 산정상에 설치</t>
+  </si>
+  <si>
+    <t>高難度：一対の巨影</t>
+  </si>
+  <si>
+    <t>고난도 : 한쌍의 거대한 그림자</t>
+  </si>
+  <si>
+    <t>리오레우스(リオレウス) 1마리와 리오레이아(リオレイア) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>高難度：最後の招待状</t>
+  </si>
+  <si>
+    <t>고난도 : 최후의 초대장</t>
+  </si>
+  <si>
+    <t>투기장(闘技場)</t>
+  </si>
+  <si>
+    <t>라쟌(ラージャン) 2마리 수렵</t>
+  </si>
+  <si>
+    <t>廻り集いて回帰せん</t>
+  </si>
+  <si>
+    <t>돌고 모여서 회귀하다</t>
+  </si>
+  <si>
+    <t>금족지(禁足地)</t>
+  </si>
+  <si>
+    <t>샤갈마가라(シャガルマガラ) 1마리 토벌</t>
+  </si>
+  <si>
+    <t>샤갈마가라(シャガルマガラ)의 뿔 파괴</t>
+  </si>
+  <si>
+    <t>800z</t>
+  </si>
+  <si>
+    <t>7200z</t>
+  </si>
+  <si>
+    <t>ハンティングナイト！</t>
+  </si>
+  <si>
+    <t>헌팅 나이트!</t>
+  </si>
+  <si>
+    <t>高難度：吹雪の召還者</t>
+  </si>
+  <si>
+    <t>고난도 : 눈보라의 소환자</t>
+  </si>
+  <si>
+    <t>쿠샬다오라(クシャルダオラ) 토벌 혹은 격퇴</t>
+  </si>
+  <si>
+    <t>高難度：食は渓流にあり！</t>
+  </si>
+  <si>
+    <t>고난도 : 음식은 계류에 있다!</t>
+  </si>
+  <si>
+    <t>특산 버섯(特産キノコ) 20개 납품</t>
+  </si>
+  <si>
+    <t>高難度：四天王の凱歌</t>
+  </si>
+  <si>
+    <t>고난도 : 사천왕의 개가</t>
+  </si>
+  <si>
+    <t>27000z</t>
+  </si>
+  <si>
+    <t>轟竜ティガレックス</t>
+  </si>
+  <si>
+    <t>굉룡 티가렉스</t>
+  </si>
+  <si>
+    <t>티가렉스(ティガレックス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>剛拳爆砕！ブラキディオス！</t>
+  </si>
+  <si>
+    <t>강권폭쇄! 브라키디오스!</t>
+  </si>
+  <si>
+    <t>브라키디오스(ブラキディオス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>브라키디오스(ブラキディオス)의 꼬리 절단</t>
+  </si>
+  <si>
+    <t>縄張りに進入するべからず</t>
+  </si>
+  <si>
+    <t>영역에 진입하지 말 것</t>
+  </si>
+  <si>
+    <t>진오우가(ジンオウガ) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>진오우가(ジンオウガ)의 등 파괴</t>
+  </si>
+  <si>
+    <t>4800z</t>
+  </si>
+  <si>
+    <t>英雄への道</t>
+  </si>
+  <si>
+    <t>영웅의 길</t>
+  </si>
+  <si>
+    <t>티가렉스(ティガレックス)의 머리 파괴</t>
+  </si>
+  <si>
+    <t>盾蟹のヤド破壊に挑戦！</t>
+  </si>
+  <si>
+    <t>순해의 등껍질 파괴에 도전!</t>
+  </si>
+  <si>
+    <t>다이묘자자미(ダイミョウザザミ)의 등껍질 파괴</t>
+  </si>
+  <si>
+    <t>高難度：炎王の帰還</t>
+  </si>
+  <si>
+    <t>고난도 : 염왕의 귀환</t>
+  </si>
+  <si>
+    <t>테오・카스카토르(テオ・テスカトル) 토벌 혹은 격퇴</t>
+  </si>
+  <si>
+    <t>牙と毒の沼地</t>
+  </si>
+  <si>
+    <t>어금니와 독의 늪지</t>
+  </si>
+  <si>
+    <t>도스 팡고(ドスファンゴ) 1마리와 도스이오스(ドスイーオス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>高難度：渾身のドボルベルク</t>
+  </si>
+  <si>
+    <t>고난도 : 혼신의 도볼베르크</t>
+  </si>
+  <si>
+    <t>도볼베르크(ドボルベルク) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>高難度：異常震域</t>
+  </si>
+  <si>
+    <t>고난도 : 이상진역</t>
+  </si>
+  <si>
+    <t>티가렉스(ティガレックス) 2마리 수렵</t>
+  </si>
+  <si>
+    <t>14700z</t>
+  </si>
+  <si>
+    <t>高難度：赤の猛攻！</t>
+  </si>
+  <si>
+    <t>고난도 : 빨강의 맹공!</t>
+  </si>
+  <si>
+    <t>宿命の四天王</t>
+  </si>
+  <si>
+    <t>숙명의 사천왕</t>
+  </si>
+  <si>
+    <t>高難度：黒狼鳥は舞い降りた</t>
+  </si>
+  <si>
+    <t>고난도 : 흑랑조는 내려앉았다</t>
+  </si>
+  <si>
+    <t>剛毛フカフカの牙獣達</t>
+  </si>
+  <si>
+    <t>강모 폭신폭신한 아수들</t>
+  </si>
+  <si>
+    <t>粉骨砕竜！</t>
+  </si>
+  <si>
+    <t>분골쇄룡!</t>
+  </si>
+  <si>
+    <t>브라키디오스(ブラキディオス) 1마리 포획</t>
+  </si>
+  <si>
+    <t>砂漠の彼方から</t>
+  </si>
+  <si>
+    <t>사막의 저편에서</t>
+  </si>
+  <si>
+    <t>디노발드(ディノバルド) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>高難度：青の連撃！</t>
+  </si>
+  <si>
+    <t>고난도 : 파랑의 연격!</t>
+  </si>
+  <si>
+    <t>雷狼竜はかく吠えり</t>
+  </si>
+  <si>
+    <t>뇌랑룡은 이렇게 울었다</t>
+  </si>
+  <si>
+    <t>恐るべき火山の魔球</t>
+  </si>
+  <si>
+    <t>두려운 화산의 마구</t>
+  </si>
+  <si>
+    <t>青と緑の波状包囲網</t>
+  </si>
+  <si>
+    <t>파랑과 녹색의 파상포위망</t>
+  </si>
+  <si>
+    <t>도스란포스(ドスランポス), 도스마콰(ドスマッカォ) 수렵</t>
+  </si>
+  <si>
+    <t>高難度：天と地の怒り</t>
+  </si>
+  <si>
+    <t>고난도 : 하늘과 땅의 분노</t>
+  </si>
+  <si>
+    <t>리오레우스 희소종(リオレウス希少種) 1마리와 리오레이아 희소종(リオレイア希少種) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>2300z</t>
+  </si>
+  <si>
+    <t>22800z</t>
+  </si>
+  <si>
+    <t>千刃、襲来</t>
+  </si>
+  <si>
+    <t>천인, 습래</t>
+  </si>
+  <si>
+    <t>셀레기오스(セルレギオス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>天下分け目の大合戦</t>
+  </si>
+  <si>
+    <t>천하를 가르는 대전투</t>
+  </si>
+  <si>
+    <t>쇼군기자미(ショウグンギザミ) 2마리 수렵</t>
+  </si>
+  <si>
+    <t>高難度：対霞龍防衛作戦！</t>
+  </si>
+  <si>
+    <t>고난도 : 대하룡방위작전!</t>
+  </si>
+  <si>
+    <t>오나즈치(オオナズチ) 토벌 혹은 격퇴</t>
+  </si>
+  <si>
+    <t>渓流の覇権争いニャ！！</t>
+  </si>
+  <si>
+    <t>계류의 패권다툼이다냐!!</t>
+  </si>
+  <si>
+    <t>8400z</t>
+  </si>
+  <si>
+    <t>灼熱の刃</t>
+  </si>
+  <si>
+    <t>작열의 칼</t>
+  </si>
+  <si>
+    <t>디노발드(ディノバルド)의 꼬리 절단</t>
+  </si>
+  <si>
+    <t>黒き衣を纏う竜</t>
+  </si>
+  <si>
+    <t>검은 옷을 입은 용</t>
+  </si>
+  <si>
+    <t>고어・마가라(ゴア・マガラ) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>고어･마가라(ゴア･マガラ)의 더듬이 파괴</t>
+  </si>
+  <si>
+    <t>高難度：強者たちの祭典！</t>
+  </si>
+  <si>
+    <t>고난도 : 강자들의 제전!</t>
+  </si>
+  <si>
+    <t>30000z</t>
+  </si>
+  <si>
+    <t>高難度：廻帰せし災厄の古龍</t>
+  </si>
+  <si>
+    <t>고난도 : 회귀하다 재앙의 고룡</t>
+  </si>
+  <si>
+    <t>予想外！つがいの妨害！</t>
+  </si>
+  <si>
+    <t>예상외! 부부의 방해!</t>
+  </si>
+  <si>
+    <t>高難度：重甲虫と腕試し！</t>
+  </si>
+  <si>
+    <t>고난도 : 중갑충과 실력시험!</t>
+  </si>
+  <si>
+    <t>원시림(原生林)</t>
+  </si>
+  <si>
+    <t>게넬・셀타스(ゲネル・セルタス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>高難度：終焉を喰らう者</t>
+  </si>
+  <si>
+    <t>고난도 : 종언을 먹는 자</t>
+  </si>
+  <si>
+    <t>2200z</t>
+  </si>
+  <si>
+    <t>21600z</t>
+  </si>
+  <si>
+    <t>紅葉に散るは、熊か猫か</t>
+  </si>
+  <si>
+    <t>단풍에 지는 것은, 곰인가 고양이인가</t>
+  </si>
+  <si>
+    <t>毒まみれの沼地</t>
+  </si>
+  <si>
+    <t>독투성이의 늪지</t>
+  </si>
+  <si>
+    <t>高難度：非情に波状な状態異常</t>
+  </si>
+  <si>
+    <t>고난도 : 비정하게 파상한 상태이상</t>
+  </si>
+  <si>
+    <t>32400z</t>
+  </si>
+  <si>
+    <t>高難度：天地征服せし強者</t>
+  </si>
+  <si>
+    <t>고난도 : 천지를 정복한 강자</t>
+  </si>
+  <si>
+    <t>20100z</t>
+  </si>
+  <si>
+    <t>高難度：古代林のトレジャー！</t>
+  </si>
+  <si>
+    <t>고난도 : 고대림의 트레져!</t>
+  </si>
+  <si>
+    <t>7500z</t>
+  </si>
+  <si>
+    <t>挑発上手の跳狗竜</t>
+  </si>
+  <si>
+    <t>도발이 능숙한 도구룡</t>
+  </si>
+  <si>
+    <t>마을★7</t>
+  </si>
+  <si>
+    <t>유군령(遺群嶺)</t>
+  </si>
+  <si>
+    <t>도스마콰(ドスマッカォ) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>도스마콰(ドスマッカォ)의 머리 파괴</t>
+  </si>
+  <si>
+    <t>ぱっくん！テツカブラ</t>
+  </si>
+  <si>
+    <t>팟쿤! 테츠카브라</t>
+  </si>
+  <si>
+    <t>友に迫る土砂竜</t>
+  </si>
+  <si>
+    <t>동료에게 다가오는 토사룡</t>
+  </si>
+  <si>
+    <t>사막(砂漠)</t>
+  </si>
+  <si>
+    <t>볼보로스(ボルボロス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>砂漠の採集ツアー</t>
+  </si>
+  <si>
+    <t>사막 채집 투어</t>
+  </si>
+  <si>
+    <t>疾走するドスランポス</t>
+  </si>
+  <si>
+    <t>질주하는 도스란포스</t>
+  </si>
+  <si>
+    <t>青熊獣、出没中につき</t>
+  </si>
+  <si>
+    <t>청웅수, 출몰중에 대하여</t>
+  </si>
+  <si>
+    <t>これが本当のダイミョウ行列？</t>
+  </si>
+  <si>
+    <t>이것이 진정한 다이묘 행렬?</t>
+  </si>
+  <si>
+    <t>다이묘자자미(ダイミョウザザミ) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>ボルボロスを捕獲せよ！</t>
+  </si>
+  <si>
+    <t>볼보로스를 포획해라!</t>
+  </si>
+  <si>
+    <t>볼보로스(ボルボロス) 1마리 포획</t>
+  </si>
+  <si>
+    <t>6300z</t>
+  </si>
+  <si>
+    <t>原生林の採集ツアー</t>
+  </si>
+  <si>
+    <t>원시림 채집 투어</t>
+  </si>
+  <si>
+    <t>不潔ものの大集会</t>
+  </si>
+  <si>
+    <t>불결한것의 대집회</t>
+  </si>
+  <si>
+    <t>콩가(コンガ) 10마리 토벌</t>
+  </si>
+  <si>
+    <t>바바콩가(ババコンガ) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>遺群嶺の採集ツアー</t>
+  </si>
+  <si>
+    <t>유군령 채집 투어</t>
+  </si>
+  <si>
+    <t>ババコンガを狩猟せよ</t>
+  </si>
+  <si>
+    <t>바바콩가를 수렵해라</t>
+  </si>
+  <si>
+    <t>바바콩가(ババコンガ)의 볏 파괴</t>
+  </si>
+  <si>
+    <t>ニャンター、お使い再び</t>
+  </si>
+  <si>
+    <t>냥타, 심부름 다시</t>
+  </si>
+  <si>
+    <t>고층새송이버섯(高層エリンギ) 9개 납품</t>
+  </si>
+  <si>
+    <t>彗星のカケラはどこに？</t>
+  </si>
+  <si>
+    <t>혜성의 조각은 어디에?</t>
+  </si>
+  <si>
+    <t>탄 갑각(灼けた甲殻) 5개 납품</t>
+  </si>
+  <si>
+    <t>森丘の怪</t>
+  </si>
+  <si>
+    <t>숲과언덕의 괴이</t>
+  </si>
+  <si>
+    <t>얀쿡(イャンクック) 1마리와 게료스(ゲリョス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>용의 굵은 눈물(竜の大粒ナミダ) 1개 납품</t>
+  </si>
+  <si>
+    <t>ゲネポス行進曲</t>
+  </si>
+  <si>
+    <t>게네포스 행진곡</t>
+  </si>
+  <si>
+    <t>게네포스(ゲネポス) 12마리 토벌</t>
+  </si>
+  <si>
+    <t>氷雪に舞う白うさぎ</t>
+  </si>
+  <si>
+    <t>빙설에 춤추는 흰토끼</t>
+  </si>
+  <si>
+    <t>가우시카(ガウシカ) 5마리 토벌</t>
+  </si>
+  <si>
+    <t>調査隊初陣！遺群嶺の桃毛獣</t>
+  </si>
+  <si>
+    <t>조사대 첫 출전! 유군령의 도모수</t>
+  </si>
+  <si>
+    <t>怪鳥の憂鬱</t>
+  </si>
+  <si>
+    <t>괴조의 우울</t>
+  </si>
+  <si>
+    <t>遺群嶺の不思議な石</t>
+  </si>
+  <si>
+    <t>유군령의 이상한 돌</t>
+  </si>
+  <si>
+    <t>혁성석(赫星石) 10개 납품</t>
+  </si>
+  <si>
+    <t>商売ガタキのドスギアノス</t>
+  </si>
+  <si>
+    <t>장사경쟁상대의 도스기아노스</t>
+  </si>
+  <si>
+    <t>도스기아노스(ドスギアノス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>기아노스(ギアノス) 8마리 토벌</t>
+  </si>
+  <si>
+    <t>竜の卵の納品・モーニング</t>
+  </si>
+  <si>
+    <t>용의 알 납품・모닝</t>
+  </si>
+  <si>
+    <t>용의 알(竜の卵) 2개 납품</t>
+  </si>
+  <si>
+    <t>熱帯イチゴはカネの味？</t>
+  </si>
+  <si>
+    <t>열대 딸기는 돈맛?</t>
+  </si>
+  <si>
+    <t>열대 딸기(熱帯イチゴ) 10개 납품</t>
+  </si>
+  <si>
+    <t>야오자미(ヤオザミ) 6마리 토벌</t>
+  </si>
+  <si>
+    <t>珍味アルセルタスをもう一度</t>
+  </si>
+  <si>
+    <t>진미 아르셀타스를 다시 한번</t>
+  </si>
+  <si>
+    <t>유적평원(遺跡平原)</t>
+  </si>
+  <si>
+    <t>아르셀타스(アルセルタス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>아르셀타스(アルセルタス)의 뿔 파괴</t>
+  </si>
+  <si>
+    <t>旬な食材を採らせておくれ！</t>
+  </si>
+  <si>
+    <t>제철 식재를  채집해주게!</t>
+  </si>
+  <si>
+    <t>아오아시라(アオアシラ) 2마리 수렵</t>
+  </si>
+  <si>
+    <t>아수의 굵은 눈물(牙獣の大粒ナミダ) 1개 납품</t>
+  </si>
+  <si>
+    <t>イタズラ猿に制裁を</t>
+  </si>
+  <si>
+    <t>장난꾸러기 원숭이에게 제재를</t>
+  </si>
+  <si>
+    <t>케챠와챠(ケチャワチャ) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>遺跡平原の採集ツアー</t>
+  </si>
+  <si>
+    <t>유적평원 채집 투어</t>
+  </si>
+  <si>
+    <t>旧砂漠横断のお荷物</t>
+  </si>
+  <si>
+    <t>구사막횡단의 짐</t>
+  </si>
+  <si>
+    <t>다이묘자자미(ダイミョウザザミ) 1마리와 볼보로스(ボルボロス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>芳香せしコンガ</t>
+  </si>
+  <si>
+    <t>방향해라 콩가</t>
+  </si>
+  <si>
+    <t>콩가(コンガ) 11마리 토벌</t>
+  </si>
+  <si>
+    <t>20z</t>
+  </si>
+  <si>
+    <t>180z</t>
+  </si>
+  <si>
+    <t>毒怪鳥活用計画</t>
+  </si>
+  <si>
+    <t>독괴조 활용 계획</t>
+  </si>
+  <si>
+    <t>渓流に棲む水獣</t>
+  </si>
+  <si>
+    <t>계류에 사는 수수</t>
+  </si>
+  <si>
+    <t>砂中から忍び寄る影</t>
+  </si>
+  <si>
+    <t>모래속에서 살며시 다가오는 그림자</t>
+  </si>
+  <si>
+    <t>마을★8</t>
+  </si>
+  <si>
+    <t>タイムアップもしくはネコタクチケットの納品</t>
+  </si>
+  <si>
+    <t>竜の卵の納品・ランチ</t>
+  </si>
+  <si>
+    <t>竜の卵２個の納品</t>
+  </si>
+  <si>
+    <t>リオレイア１頭の狩猟</t>
+  </si>
+  <si>
+    <t>氷海の採集ツアー</t>
+  </si>
+  <si>
+    <t>龍識船強化！【溶岩竜編】</t>
+  </si>
+  <si>
+    <t>ヴォルガノス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>珍肥料を手に入れるのニャ！</t>
+  </si>
+  <si>
+    <t>不老蛾１０匹の納品</t>
+  </si>
+  <si>
+    <t>久遠の化石１個の納品</t>
+  </si>
+  <si>
+    <t>ナイショのお仕事</t>
+  </si>
+  <si>
+    <t>たまには釣りでもいかが？</t>
+  </si>
+  <si>
+    <t>黄金魚３匹の納品</t>
+  </si>
+  <si>
+    <t>ガノトトス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>宣伝ネコの受難</t>
+  </si>
+  <si>
+    <t>ガララアジャラ１頭の狩猟</t>
+  </si>
+  <si>
+    <t>ガララアジャラの頭部破壊</t>
+  </si>
+  <si>
+    <t>7800z</t>
+  </si>
+  <si>
+    <t>なんと、黒狼鳥でした！</t>
+  </si>
+  <si>
+    <t>イャンガルルガ１頭の狩猟</t>
+  </si>
+  <si>
+    <t>イャンガルルガの頭部破壊</t>
+  </si>
+  <si>
+    <t>冷血なるドスギアノス！</t>
+  </si>
+  <si>
+    <t>ドスギアノス２頭の狩猟</t>
+  </si>
+  <si>
+    <t>龍識船強化！【迅竜編】</t>
+  </si>
+  <si>
+    <t>ナルガクルガ１頭の狩猟</t>
+  </si>
+  <si>
+    <t>密林の採集ツアー</t>
+  </si>
+  <si>
+    <t>火山の厄介者たち</t>
+  </si>
+  <si>
+    <t>バサルモス１頭とドスイーオス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>道化師は斯く嘲る</t>
+  </si>
+  <si>
+    <t>ホロロホルル１頭の狩猟</t>
+  </si>
+  <si>
+    <t>ホロロホルルの尻尾破壊</t>
+  </si>
+  <si>
+    <t>熱地に現る、ウラガンキン！</t>
+  </si>
+  <si>
+    <t>ウラガンキン１頭の狩猟</t>
+  </si>
+  <si>
+    <t>ウラガンキンの尻尾切断</t>
+  </si>
+  <si>
+    <t>ものぐさには爆鎚竜で喝！</t>
+  </si>
+  <si>
+    <t>でっかい岩だと思ったら…？</t>
+  </si>
+  <si>
+    <t>バサルモス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>飛んで跳ねて無我夢中</t>
+  </si>
+  <si>
+    <t>ケチャワチャ１頭とドスマッカォ１頭の狩猟</t>
+  </si>
+  <si>
+    <t>龍歴院ポイント５００pts入手</t>
+  </si>
+  <si>
+    <t>砂まみれですな</t>
+  </si>
+  <si>
+    <t>ハプルボッカ１頭とドスガレオス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>沼地の恐怖体験</t>
+  </si>
+  <si>
+    <t>ショウグンギザミ１匹とババコンガ１頭の狩猟</t>
+  </si>
+  <si>
+    <t>陸の女王、捕獲作戦！</t>
+  </si>
+  <si>
+    <t>リオレイア１頭の捕獲</t>
+  </si>
+  <si>
+    <t>喰われる前にヤレ！</t>
+  </si>
+  <si>
+    <t>ハプルボッカ１頭の狩猟</t>
+  </si>
+  <si>
+    <t>ハプルボッカのエラ破壊</t>
+  </si>
+  <si>
+    <t>狩人のための舞台～氷海～</t>
+  </si>
+  <si>
+    <t>フルフル１頭の狩猟</t>
+  </si>
+  <si>
+    <t>スクアギル６頭の討伐</t>
+  </si>
+  <si>
+    <t>山嶺を舞うリオレイア</t>
+  </si>
+  <si>
+    <t>リオレイアの尻尾切断</t>
+  </si>
+  <si>
+    <t>転がれ！転がせ！赤い牙獣</t>
+  </si>
+  <si>
+    <t>ラングロトラ１頭の狩猟</t>
+  </si>
+  <si>
+    <t>ラングロトラの背中破壊</t>
+  </si>
+  <si>
+    <t>原生林に巣食う蜘蛛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ネルスキュラ１匹の狩猟 </t>
+  </si>
+  <si>
+    <t>おやつは高層エリンギ</t>
+  </si>
+  <si>
+    <t>高層エリンギ１０個の納品</t>
+  </si>
+  <si>
+    <t>はじける貝殻マネー</t>
+  </si>
+  <si>
+    <t>きれいな貝殻１０個の納品</t>
+  </si>
+  <si>
+    <t>ブルファンゴ８頭の討伐</t>
+  </si>
+  <si>
+    <t>龍識船強化！【水竜編】</t>
+  </si>
+  <si>
+    <t>ホワイトアウト</t>
+  </si>
+  <si>
+    <t>ドドブランゴ１頭の狩猟</t>
+  </si>
+  <si>
+    <t>ブランゴ６頭の討伐</t>
+  </si>
+  <si>
+    <t>美しき、遺群嶺</t>
+  </si>
+  <si>
+    <t>クンチュウとオルタロス合計２０匹の討伐</t>
+  </si>
+  <si>
+    <t>切り裂かれた誇り</t>
+  </si>
+  <si>
+    <t>ショウグンギザミ１匹の狩猟</t>
+  </si>
+  <si>
+    <t>ショウグンギザミのヤド破壊</t>
+  </si>
+  <si>
+    <t>地底火山の採集ツアー</t>
+  </si>
+  <si>
+    <t>ナルガクルガのお手本</t>
+  </si>
+  <si>
+    <t>ルドロス５頭の討伐</t>
+  </si>
+  <si>
+    <t>ぷくぅーっ！ザボアザギル！</t>
+  </si>
+  <si>
+    <t>ザボアザギル１頭の狩猟</t>
+  </si>
+  <si>
+    <t>ザボアザギルの頭部破壊</t>
+  </si>
+  <si>
+    <t>雷光の先の面影</t>
+  </si>
+  <si>
+    <t>大雷光虫１５匹の討伐</t>
+  </si>
+  <si>
+    <t>フルフルのまごころ診療所</t>
+  </si>
+  <si>
+    <t>フルフルの胴体破壊</t>
+  </si>
+  <si>
+    <t>桃毛獣のトサカ破壊に挑戦！</t>
+  </si>
+  <si>
+    <t>ババコンガのトサカ破壊</t>
+  </si>
+  <si>
+    <t>嗚呼素晴らしき也、絞蛇竜</t>
+  </si>
+  <si>
+    <t>ガララアジャラ１頭の捕獲</t>
+  </si>
+  <si>
+    <t>孤島からの伝書</t>
+  </si>
+  <si>
+    <t>ホロロホルル１頭とテツカブラ１頭の狩猟</t>
+  </si>
+  <si>
+    <t>轟竜の狩猟をさせてやるぜ！</t>
+  </si>
+  <si>
+    <t>마을★9</t>
+  </si>
+  <si>
+    <t>ティガレックスの尻尾切断</t>
+  </si>
+  <si>
+    <t>ライゼクス、再び！</t>
+  </si>
+  <si>
+    <t>ライゼクス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>龍識船強化！【氷牙竜編】</t>
+  </si>
+  <si>
+    <t>ベリオロス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>タマミツネ、再び！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タマミツネ１頭の狩猟 </t>
+  </si>
+  <si>
+    <t>騎士と古代林の挑戦</t>
+  </si>
+  <si>
     <t>キリンの討伐</t>
   </si>
   <si>
-    <t>700z</t>
-  </si>
-  <si>
-    <t>6600z</t>
-  </si>
-  <si>
-    <t>白き霊獣</t>
-  </si>
-  <si>
-    <t>ギルドフラッグを山頂に設置</t>
-  </si>
-  <si>
-    <t>高難度：一対の巨影</t>
-  </si>
-  <si>
-    <t>リオレウス1頭とリオレイア1頭の狩猟</t>
-  </si>
-  <si>
-    <t>高難度：最後の招待状</t>
-  </si>
-  <si>
-    <t>ラージャン2頭の狩猟</t>
-  </si>
-  <si>
-    <t>廻り集いて回帰せん</t>
-  </si>
-  <si>
-    <t>シャガルマガラ1頭の討伐</t>
-  </si>
-  <si>
-    <t>シャガルマガラの角破壊</t>
-  </si>
-  <si>
-    <t>800z</t>
-  </si>
-  <si>
-    <t>7200z</t>
-  </si>
-  <si>
-    <t>ハンティングナイト！</t>
-  </si>
-  <si>
-    <t>龍歴院ポイント700pts入手</t>
-  </si>
-  <si>
-    <t>高難度：吹雪の召還者</t>
-  </si>
-  <si>
-    <t>高難度：食は渓流にあり！</t>
-  </si>
-  <si>
-    <t>特産キノコ20個の納品</t>
-  </si>
-  <si>
-    <t>高難度：四天王の凱歌</t>
-  </si>
-  <si>
-    <t>27000z</t>
-  </si>
-  <si>
-    <t>轟竜ティガレックス</t>
-  </si>
-  <si>
-    <t>ティガレックス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>乗りによるダウンを2回成功</t>
-  </si>
-  <si>
-    <t>剛拳爆砕！ブラキディオス！</t>
-  </si>
-  <si>
-    <t>ブラキディオス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ブラキディオスの尻尾切断</t>
-  </si>
-  <si>
-    <t>縄張りに進入するべからず</t>
-  </si>
-  <si>
-    <t>ジンオウガ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ジンオウガの背中破壊</t>
-  </si>
-  <si>
-    <t>4800z</t>
-  </si>
-  <si>
-    <t>英雄への道</t>
-  </si>
-  <si>
-    <t>ティガレックスの頭部破壊</t>
-  </si>
-  <si>
-    <t>盾蟹のヤド破壊に挑戦！</t>
-  </si>
-  <si>
-    <t>ダイミョウザザミのヤド破壊</t>
-  </si>
-  <si>
-    <t>高難度：炎王の帰還</t>
-  </si>
-  <si>
-    <t>牙と毒の沼地</t>
-  </si>
-  <si>
-    <t>ドスファンゴ1頭とドスイーオス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>高難度：渾身のドボルベルク</t>
-  </si>
-  <si>
-    <t>ドボルベルク1頭の狩猟</t>
-  </si>
-  <si>
-    <t>高難度：異常震域</t>
-  </si>
-  <si>
-    <t>ティガレックス2頭の狩猟</t>
-  </si>
-  <si>
-    <t>14700z</t>
-  </si>
-  <si>
-    <t>高難度：赤の猛攻！</t>
-  </si>
-  <si>
-    <t>宿命の四天王</t>
-  </si>
-  <si>
-    <t>高難度：黒狼鳥は舞い降りた</t>
-  </si>
-  <si>
-    <t>イャンガルルガ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>剛毛フカフカの牙獣達</t>
-  </si>
-  <si>
-    <t>粉骨砕竜！</t>
-  </si>
-  <si>
-    <t>ブラキディオス1頭の捕獲</t>
-  </si>
-  <si>
-    <t>竜のナミダ1個の納品</t>
-  </si>
-  <si>
-    <t>砂漠の彼方から</t>
-  </si>
-  <si>
-    <t>ディノバルド1頭の狩猟</t>
-  </si>
-  <si>
-    <t>高難度：青の連撃！</t>
-  </si>
-  <si>
-    <t>雷狼竜はかく吠えり</t>
-  </si>
-  <si>
-    <t>恐るべき火山の魔球</t>
-  </si>
-  <si>
-    <t>青と緑の波状包囲網</t>
-  </si>
-  <si>
-    <t>ドスランポス、ドスマッカォの狩猟</t>
-  </si>
-  <si>
-    <t>高難度：天と地の怒り</t>
-  </si>
-  <si>
-    <t>リオレウス希少種1頭とリオレイア希少種1頭の狩猟</t>
-  </si>
-  <si>
-    <t>2300z</t>
-  </si>
-  <si>
-    <t>22800z</t>
-  </si>
-  <si>
-    <t>千刃、襲来</t>
-  </si>
-  <si>
-    <t>セルレギオス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>天下分け目の大合戦</t>
-  </si>
-  <si>
-    <t>ショウグンギザミ2匹の狩猟</t>
-  </si>
-  <si>
-    <t>高難度：対霞龍防衛作戦！</t>
-  </si>
-  <si>
-    <t>渓流の覇権争いニャ！！</t>
-  </si>
-  <si>
-    <t>8400z</t>
-  </si>
-  <si>
-    <t>灼熱の刃</t>
-  </si>
-  <si>
-    <t>ディノバルドの尻尾切断</t>
-  </si>
-  <si>
-    <t>黒き衣を纏う竜</t>
-  </si>
-  <si>
-    <t>ゴア・マガラ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ゴア･マガラの触角破壊</t>
-  </si>
-  <si>
-    <t>高難度：強者たちの祭典！</t>
-  </si>
-  <si>
-    <t>30000z</t>
-  </si>
-  <si>
-    <t>高難度：廻帰せし災厄の古龍</t>
-  </si>
-  <si>
-    <t>予想外！つがいの妨害！</t>
-  </si>
-  <si>
-    <t>高難度：重甲虫と腕試し！</t>
-  </si>
-  <si>
-    <t>ゲネル・セルタス1匹の狩猟</t>
-  </si>
-  <si>
-    <t>高難度：終焉を喰らう者</t>
-  </si>
-  <si>
-    <t>2200z</t>
-  </si>
-  <si>
-    <t>21600z</t>
-  </si>
-  <si>
-    <t>紅葉に散るは、熊か猫か</t>
-  </si>
-  <si>
-    <t>アオアシラ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>毒まみれの沼地</t>
-  </si>
-  <si>
-    <t>高難度：非情に波状な状態異常</t>
-  </si>
-  <si>
-    <t>32400z</t>
-  </si>
-  <si>
-    <t>高難度：天地征服せし強者</t>
-  </si>
-  <si>
-    <t>20100z</t>
-  </si>
-  <si>
-    <t>高難度：古代林のトレジャー！</t>
-  </si>
-  <si>
-    <t>7500z</t>
-  </si>
-  <si>
-    <t>挑発上手の跳狗竜</t>
-  </si>
-  <si>
-    <t>마을★7</t>
-  </si>
-  <si>
-    <t>ドスマッカォ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ドスマッカォの頭部破壊</t>
-  </si>
-  <si>
-    <t>タイムアップもしくはネコタクチケットの納品</t>
-  </si>
-  <si>
-    <t>ぱっくん！テツカブラ</t>
-  </si>
-  <si>
-    <t>テツカブラ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>古代木の実３個の納品</t>
-  </si>
-  <si>
-    <t>友に迫る土砂竜</t>
-  </si>
-  <si>
-    <t>ボルボロス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>砂漠の採集ツアー</t>
-  </si>
-  <si>
-    <t>疾走するドスランポス</t>
-  </si>
-  <si>
-    <t>ドスランポス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>青熊獣、出没中につき</t>
-  </si>
-  <si>
-    <t>アオアシラの前脚破壊</t>
-  </si>
-  <si>
-    <t>これが本当のダイミョウ行列？</t>
-  </si>
-  <si>
-    <t>ダイミョウザザミ１匹の狩猟</t>
-  </si>
-  <si>
-    <t>ボルボロスを捕獲せよ！</t>
-  </si>
-  <si>
-    <t>ボルボロス１頭の捕獲</t>
-  </si>
-  <si>
-    <t>6300z</t>
-  </si>
-  <si>
-    <t>原生林の採集ツアー</t>
-  </si>
-  <si>
-    <t>不潔ものの大集会</t>
-  </si>
-  <si>
-    <t>コンガ10頭の討伐</t>
-  </si>
-  <si>
-    <t>ババコンガ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>遺群嶺の採集ツアー</t>
-  </si>
-  <si>
-    <t>ババコンガを狩猟せよ</t>
-  </si>
-  <si>
-    <t>ババコンガのトサカ破壊</t>
-  </si>
-  <si>
-    <t>ニャンター、お使い再び</t>
-  </si>
-  <si>
-    <t>高層エリンギ9個の納品</t>
-  </si>
-  <si>
-    <t>彗星のカケラはどこに？</t>
-  </si>
-  <si>
-    <t>灼けた甲殻５個の納品</t>
-  </si>
-  <si>
-    <t>森丘の怪</t>
-  </si>
-  <si>
-    <t>イャンクック１頭とゲリョス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ゲネポス行進曲</t>
-  </si>
-  <si>
-    <t>ゲネポス１２頭の討伐</t>
-  </si>
-  <si>
-    <t>ドスゲネポス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>氷雪に舞う白うさぎ</t>
-  </si>
-  <si>
-    <t>ウルクスス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ガウシカ５頭の討伐</t>
-  </si>
-  <si>
-    <t>調査隊初陣！遺群嶺の桃毛獣</t>
-  </si>
-  <si>
-    <t>ババコンガ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>怪鳥の憂鬱</t>
-  </si>
-  <si>
-    <t>イャンクック1頭の狩猟</t>
-  </si>
-  <si>
-    <t>遺群嶺の不思議な石</t>
-  </si>
-  <si>
-    <t>赫星石１０個の納品</t>
-  </si>
-  <si>
-    <t>商売ガタキのドスギアノス</t>
-  </si>
-  <si>
-    <t>ドスギアノス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ギアノス８頭の討伐</t>
-  </si>
-  <si>
-    <t>竜の卵の納品・モーニング</t>
-  </si>
-  <si>
-    <t>竜の卵2個の納品</t>
-  </si>
-  <si>
-    <t>ロアルドロス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>熱帯イチゴはカネの味？</t>
-  </si>
-  <si>
-    <t>熱帯イチゴ１０個の納品</t>
-  </si>
-  <si>
-    <t>ヤオザミ６匹の討伐</t>
-  </si>
-  <si>
-    <t>珍味アルセルタスをもう一度</t>
+    <t>ガムートの強さは世界一</t>
+  </si>
+  <si>
+    <t>ガムート１頭の捕獲</t>
+  </si>
+  <si>
+    <t>ガムートの頭部破壊</t>
+  </si>
+  <si>
+    <t>11400z</t>
+  </si>
+  <si>
+    <t>嗚呼素晴らしき也、雷狼竜</t>
+  </si>
+  <si>
+    <t>ジンオウガ１頭の捕獲</t>
+  </si>
+  <si>
+    <t>ガブラス５頭の討伐</t>
+  </si>
+  <si>
+    <t>犯人はキミだ、雷狼竜</t>
+  </si>
+  <si>
+    <t>ジンオウガの頭部破壊</t>
+  </si>
+  <si>
+    <t>突撃取材！巨大甲虫を追え！</t>
+  </si>
+  <si>
+    <t>ゲネル・セルタス１匹の狩猟</t>
+  </si>
+  <si>
+    <t>ゲネル・セルタスの尻尾破壊</t>
+  </si>
+  <si>
+    <t>氷海に君臨する者</t>
+  </si>
+  <si>
+    <t>割り込み受注：卵納品</t>
+  </si>
+  <si>
+    <t>轟竜と赤甲獣のデュエット</t>
+  </si>
+  <si>
+    <t>ティガレックス１頭とラングロトラ１頭の狩猟</t>
+  </si>
+  <si>
+    <t>10500z</t>
+  </si>
+  <si>
+    <t>アグナコトルの捕獲</t>
+  </si>
+  <si>
+    <t>アグナコトル１頭の捕獲</t>
+  </si>
+  <si>
+    <t>ウロコトル５頭の討伐</t>
+  </si>
+  <si>
+    <t>火山の迷惑集団襲来！</t>
+  </si>
+  <si>
+    <t>古代林の大運動会</t>
+  </si>
+  <si>
+    <t>9300z</t>
+  </si>
+  <si>
+    <t>鎧竜は、とってもグルメ？</t>
+  </si>
+  <si>
+    <t>グラビモス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>グラビモスの頭部破壊</t>
+  </si>
+  <si>
+    <t>凶運の遺跡平原</t>
+  </si>
+  <si>
+    <t>乗りによるダウンを４回成功</t>
+  </si>
+  <si>
+    <t>美しき幻獣</t>
+  </si>
+  <si>
+    <t>遺群嶺の火竜</t>
+  </si>
+  <si>
+    <t>リオレウスの翼破壊</t>
+  </si>
+  <si>
+    <t>海竜、沈降開始</t>
+  </si>
+  <si>
+    <t>ラギアクルス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>雪山、雪玉、雪合戦！！</t>
+  </si>
+  <si>
+    <t>ドドブランゴ１頭とウルクスス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>旧砂漠でゆらめく蜃気楼</t>
+  </si>
+  <si>
+    <t>狩場の光はすべて虫</t>
+  </si>
+  <si>
+    <t>大雷光虫１３匹の討伐</t>
+  </si>
+  <si>
+    <t>ベリオロスを捕獲せよ！</t>
+  </si>
+  <si>
+    <t>ベリオロス１頭の捕獲</t>
+  </si>
+  <si>
+    <t>ベリオロスの頭部破壊</t>
+  </si>
+  <si>
+    <t>ジャングル・フェロモン</t>
+  </si>
+  <si>
+    <t>ゲネル・セルタス１匹の捕獲</t>
   </si>
   <si>
     <t>アルセルタス１匹の狩猟</t>
-  </si>
-  <si>
-    <t>アルセルタスの角破壊</t>
-  </si>
-  <si>
-    <t>旬な食材を採らせておくれ！</t>
-  </si>
-  <si>
-    <t>アオアシラ２頭の狩猟</t>
-  </si>
-  <si>
-    <t>牙獣の大粒ナミダ１個の納品</t>
-  </si>
-  <si>
-    <t>イタズラ猿に制裁を</t>
-  </si>
-  <si>
-    <t>ケチャワチャ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>遺跡平原の採集ツアー</t>
-  </si>
-  <si>
-    <t>旧砂漠横断のお荷物</t>
-  </si>
-  <si>
-    <t>ダイミョウザザミ１匹とボルボロス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>龍歴院ポイント５００pts入手</t>
-  </si>
-  <si>
-    <t>芳香せしコンガ</t>
-  </si>
-  <si>
-    <t>コンガ１１頭の討伐</t>
-  </si>
-  <si>
-    <t>20z</t>
-  </si>
-  <si>
-    <t>180z</t>
-  </si>
-  <si>
-    <t>毒怪鳥活用計画</t>
-  </si>
-  <si>
-    <t>ゲリョス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>渓流に棲む水獣</t>
-  </si>
-  <si>
-    <t>砂中から忍び寄る影</t>
-  </si>
-  <si>
-    <t>ガレオス５頭の討伐</t>
-  </si>
-  <si>
-    <t>ドスガレオス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>마을★8</t>
-  </si>
-  <si>
-    <t>竜の卵の納品・ランチ</t>
-  </si>
-  <si>
-    <t>竜の卵２個の納品</t>
-  </si>
-  <si>
-    <t>リオレイア１頭の狩猟</t>
-  </si>
-  <si>
-    <t>氷海の採集ツアー</t>
-  </si>
-  <si>
-    <t>龍識船強化！【溶岩竜編】</t>
-  </si>
-  <si>
-    <t>ヴォルガノス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>珍肥料を手に入れるのニャ！</t>
-  </si>
-  <si>
-    <t>不老蛾１０匹の納品</t>
-  </si>
-  <si>
-    <t>久遠の化石１個の納品</t>
-  </si>
-  <si>
-    <t>ナイショのお仕事</t>
-  </si>
-  <si>
-    <t>たまには釣りでもいかが？</t>
-  </si>
-  <si>
-    <t>黄金魚３匹の納品</t>
-  </si>
-  <si>
-    <t>ガノトトス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>宣伝ネコの受難</t>
-  </si>
-  <si>
-    <t>ガララアジャラ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ガララアジャラの頭部破壊</t>
-  </si>
-  <si>
-    <t>7800z</t>
-  </si>
-  <si>
-    <t>なんと、黒狼鳥でした！</t>
-  </si>
-  <si>
-    <t>イャンガルルガ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>イャンガルルガの頭部破壊</t>
-  </si>
-  <si>
-    <t>冷血なるドスギアノス！</t>
-  </si>
-  <si>
-    <t>ドスギアノス２頭の狩猟</t>
-  </si>
-  <si>
-    <t>龍識船強化！【迅竜編】</t>
-  </si>
-  <si>
-    <t>ナルガクルガ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>密林の採集ツアー</t>
-  </si>
-  <si>
-    <t>火山の厄介者たち</t>
-  </si>
-  <si>
-    <t>バサルモス１頭とドスイーオス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>道化師は斯く嘲る</t>
-  </si>
-  <si>
-    <t>ホロロホルル１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ホロロホルルの尻尾破壊</t>
-  </si>
-  <si>
-    <t>熱地に現る、ウラガンキン！</t>
-  </si>
-  <si>
-    <t>ウラガンキン１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ウラガンキンの尻尾切断</t>
-  </si>
-  <si>
-    <t>ものぐさには爆鎚竜で喝！</t>
-  </si>
-  <si>
-    <t>でっかい岩だと思ったら…？</t>
-  </si>
-  <si>
-    <t>バサルモス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>飛んで跳ねて無我夢中</t>
-  </si>
-  <si>
-    <t>ケチャワチャ１頭とドスマッカォ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>砂まみれですな</t>
-  </si>
-  <si>
-    <t>ハプルボッカ１頭とドスガレオス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>沼地の恐怖体験</t>
-  </si>
-  <si>
-    <t>ショウグンギザミ１匹とババコンガ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>陸の女王、捕獲作戦！</t>
-  </si>
-  <si>
-    <t>リオレイア１頭の捕獲</t>
-  </si>
-  <si>
-    <t>喰われる前にヤレ！</t>
-  </si>
-  <si>
-    <t>ハプルボッカ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ハプルボッカのエラ破壊</t>
-  </si>
-  <si>
-    <t>狩人のための舞台～氷海～</t>
-  </si>
-  <si>
-    <t>フルフル１頭の狩猟</t>
-  </si>
-  <si>
-    <t>スクアギル６頭の討伐</t>
-  </si>
-  <si>
-    <t>山嶺を舞うリオレイア</t>
-  </si>
-  <si>
-    <t>リオレイアの尻尾切断</t>
-  </si>
-  <si>
-    <t>転がれ！転がせ！赤い牙獣</t>
-  </si>
-  <si>
-    <t>ラングロトラ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ラングロトラの背中破壊</t>
-  </si>
-  <si>
-    <t>原生林に巣食う蜘蛛</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネルスキュラ１匹の狩猟 </t>
-  </si>
-  <si>
-    <t>おやつは高層エリンギ</t>
-  </si>
-  <si>
-    <t>高層エリンギ１０個の納品</t>
-  </si>
-  <si>
-    <t>はじける貝殻マネー</t>
-  </si>
-  <si>
-    <t>きれいな貝殻１０個の納品</t>
-  </si>
-  <si>
-    <t>ブルファンゴ８頭の討伐</t>
-  </si>
-  <si>
-    <t>龍識船強化！【水竜編】</t>
-  </si>
-  <si>
-    <t>ホワイトアウト</t>
-  </si>
-  <si>
-    <t>ドドブランゴ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ブランゴ６頭の討伐</t>
-  </si>
-  <si>
-    <t>美しき、遺群嶺</t>
-  </si>
-  <si>
-    <t>クンチュウとオルタロス合計２０匹の討伐</t>
-  </si>
-  <si>
-    <t>切り裂かれた誇り</t>
-  </si>
-  <si>
-    <t>ショウグンギザミ１匹の狩猟</t>
-  </si>
-  <si>
-    <t>ショウグンギザミのヤド破壊</t>
-  </si>
-  <si>
-    <t>地底火山の採集ツアー</t>
-  </si>
-  <si>
-    <t>ナルガクルガのお手本</t>
-  </si>
-  <si>
-    <t>ルドロス５頭の討伐</t>
-  </si>
-  <si>
-    <t>ぷくぅーっ！ザボアザギル！</t>
-  </si>
-  <si>
-    <t>ザボアザギル１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ザボアザギルの頭部破壊</t>
-  </si>
-  <si>
-    <t>雷光の先の面影</t>
-  </si>
-  <si>
-    <t>大雷光虫１５匹の討伐</t>
-  </si>
-  <si>
-    <t>フルフルのまごころ診療所</t>
-  </si>
-  <si>
-    <t>フルフルの胴体破壊</t>
-  </si>
-  <si>
-    <t>桃毛獣のトサカ破壊に挑戦！</t>
-  </si>
-  <si>
-    <t>嗚呼素晴らしき也、絞蛇竜</t>
-  </si>
-  <si>
-    <t>ガララアジャラ１頭の捕獲</t>
-  </si>
-  <si>
-    <t>孤島からの伝書</t>
-  </si>
-  <si>
-    <t>ホロロホルル１頭とテツカブラ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>轟竜の狩猟をさせてやるぜ！</t>
-  </si>
-  <si>
-    <t>마을★9</t>
-  </si>
-  <si>
-    <t>ティガレックスの尻尾切断</t>
-  </si>
-  <si>
-    <t>ライゼクス、再び！</t>
-  </si>
-  <si>
-    <t>ライゼクス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>龍識船強化！【氷牙竜編】</t>
-  </si>
-  <si>
-    <t>ベリオロス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>タマミツネ、再び！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タマミツネ１頭の狩猟 </t>
-  </si>
-  <si>
-    <t>騎士と古代林の挑戦</t>
-  </si>
-  <si>
-    <t>ガムートの強さは世界一</t>
-  </si>
-  <si>
-    <t>ガムート１頭の捕獲</t>
-  </si>
-  <si>
-    <t>ガムートの頭部破壊</t>
-  </si>
-  <si>
-    <t>11400z</t>
-  </si>
-  <si>
-    <t>嗚呼素晴らしき也、雷狼竜</t>
-  </si>
-  <si>
-    <t>ジンオウガ１頭の捕獲</t>
-  </si>
-  <si>
-    <t>ガブラス５頭の討伐</t>
-  </si>
-  <si>
-    <t>犯人はキミだ、雷狼竜</t>
-  </si>
-  <si>
-    <t>ジンオウガの頭部破壊</t>
-  </si>
-  <si>
-    <t>突撃取材！巨大甲虫を追え！</t>
-  </si>
-  <si>
-    <t>ゲネル・セルタス１匹の狩猟</t>
-  </si>
-  <si>
-    <t>ゲネル・セルタスの尻尾破壊</t>
-  </si>
-  <si>
-    <t>氷海に君臨する者</t>
-  </si>
-  <si>
-    <t>割り込み受注：卵納品</t>
-  </si>
-  <si>
-    <t>轟竜と赤甲獣のデュエット</t>
-  </si>
-  <si>
-    <t>ティガレックス１頭とラングロトラ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>10500z</t>
-  </si>
-  <si>
-    <t>アグナコトルの捕獲</t>
-  </si>
-  <si>
-    <t>アグナコトル１頭の捕獲</t>
-  </si>
-  <si>
-    <t>ウロコトル５頭の討伐</t>
-  </si>
-  <si>
-    <t>火山の迷惑集団襲来！</t>
-  </si>
-  <si>
-    <t>古代林の大運動会</t>
-  </si>
-  <si>
-    <t>9300z</t>
-  </si>
-  <si>
-    <t>鎧竜は、とってもグルメ？</t>
-  </si>
-  <si>
-    <t>グラビモス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>グラビモスの頭部破壊</t>
-  </si>
-  <si>
-    <t>凶運の遺跡平原</t>
-  </si>
-  <si>
-    <t>乗りによるダウンを４回成功</t>
-  </si>
-  <si>
-    <t>美しき幻獣</t>
-  </si>
-  <si>
-    <t>遺群嶺の火竜</t>
-  </si>
-  <si>
-    <t>リオレウスの翼破壊</t>
-  </si>
-  <si>
-    <t>海竜、沈降開始</t>
-  </si>
-  <si>
-    <t>ラギアクルス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>雪山、雪玉、雪合戦！！</t>
-  </si>
-  <si>
-    <t>ドドブランゴ１頭とウルクスス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>旧砂漠でゆらめく蜃気楼</t>
-  </si>
-  <si>
-    <t>狩場の光はすべて虫</t>
-  </si>
-  <si>
-    <t>大雷光虫１３匹の討伐</t>
-  </si>
-  <si>
-    <t>ベリオロスを捕獲せよ！</t>
-  </si>
-  <si>
-    <t>ベリオロス１頭の捕獲</t>
-  </si>
-  <si>
-    <t>ベリオロスの頭部破壊</t>
-  </si>
-  <si>
-    <t>ジャングル・フェロモン</t>
-  </si>
-  <si>
-    <t>ゲネル・セルタス１匹の捕獲</t>
   </si>
   <si>
     <t>空路を阻む電竜退治！</t>
@@ -3622,8 +3841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B176" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="G198" sqref="G198"/>
+    <sheetView tabSelected="1" topLeftCell="B272" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="G281" sqref="G281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9861,52 +10080,58 @@
       <c r="A201" t="s">
         <v>729</v>
       </c>
+      <c r="B201" t="s">
+        <v>730</v>
+      </c>
       <c r="C201" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D201" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="E201" t="s">
         <v>14</v>
       </c>
       <c r="F201" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G201" t="s">
         <v>27</v>
       </c>
       <c r="H201" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="I201" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="202" spans="1:10">
       <c r="A202" t="s">
+        <v>735</v>
+      </c>
+      <c r="B202" t="s">
+        <v>736</v>
+      </c>
+      <c r="C202" t="s">
+        <v>731</v>
+      </c>
+      <c r="D202" t="s">
+        <v>278</v>
+      </c>
+      <c r="E202" t="s">
+        <v>14</v>
+      </c>
+      <c r="F202" t="s">
+        <v>732</v>
+      </c>
+      <c r="G202" t="s">
+        <v>737</v>
+      </c>
+      <c r="H202" t="s">
+        <v>733</v>
+      </c>
+      <c r="I202" t="s">
         <v>734</v>
-      </c>
-      <c r="C202" t="s">
-        <v>730</v>
-      </c>
-      <c r="D202" t="s">
-        <v>112</v>
-      </c>
-      <c r="E202" t="s">
-        <v>14</v>
-      </c>
-      <c r="F202" t="s">
-        <v>731</v>
-      </c>
-      <c r="G202" t="s">
-        <v>735</v>
-      </c>
-      <c r="H202" t="s">
-        <v>732</v>
-      </c>
-      <c r="I202" t="s">
-        <v>733</v>
       </c>
       <c r="J202" t="s">
         <v>229</v>
@@ -9914,19 +10139,22 @@
     </row>
     <row r="203" spans="1:10">
       <c r="A203" t="s">
-        <v>736</v>
+        <v>738</v>
+      </c>
+      <c r="B203" t="s">
+        <v>739</v>
       </c>
       <c r="C203" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D203" t="s">
-        <v>184</v>
+        <v>267</v>
       </c>
       <c r="E203" t="s">
         <v>14</v>
       </c>
       <c r="F203" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="G203" t="s">
         <v>27</v>
@@ -9940,19 +10168,22 @@
     </row>
     <row r="204" spans="1:10">
       <c r="A204" t="s">
-        <v>738</v>
+        <v>741</v>
+      </c>
+      <c r="B204" t="s">
+        <v>742</v>
       </c>
       <c r="C204" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D204" t="s">
-        <v>74</v>
+        <v>743</v>
       </c>
       <c r="E204" t="s">
         <v>14</v>
       </c>
       <c r="F204" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="G204" t="s">
         <v>27</v>
@@ -9966,28 +10197,31 @@
     </row>
     <row r="205" spans="1:10">
       <c r="A205" t="s">
-        <v>740</v>
+        <v>745</v>
+      </c>
+      <c r="B205" t="s">
+        <v>746</v>
       </c>
       <c r="C205" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D205" t="s">
-        <v>118</v>
+        <v>747</v>
       </c>
       <c r="E205" t="s">
         <v>14</v>
       </c>
       <c r="F205" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="G205" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="H205" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="I205" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="J205" t="s">
         <v>229</v>
@@ -9995,22 +10229,25 @@
     </row>
     <row r="206" spans="1:10">
       <c r="A206" t="s">
-        <v>745</v>
+        <v>752</v>
+      </c>
+      <c r="B206" t="s">
+        <v>753</v>
       </c>
       <c r="C206" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D206" t="s">
-        <v>184</v>
+        <v>267</v>
       </c>
       <c r="E206" t="s">
         <v>14</v>
       </c>
       <c r="F206" t="s">
-        <v>54</v>
+        <v>646</v>
       </c>
       <c r="G206" t="s">
-        <v>746</v>
+        <v>647</v>
       </c>
       <c r="H206" t="s">
         <v>23</v>
@@ -10024,19 +10261,22 @@
     </row>
     <row r="207" spans="1:10">
       <c r="A207" t="s">
-        <v>747</v>
+        <v>754</v>
+      </c>
+      <c r="B207" t="s">
+        <v>755</v>
       </c>
       <c r="C207" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D207" t="s">
-        <v>112</v>
+        <v>278</v>
       </c>
       <c r="E207" t="s">
         <v>80</v>
       </c>
       <c r="F207" t="s">
-        <v>81</v>
+        <v>756</v>
       </c>
       <c r="G207" t="s">
         <v>27</v>
@@ -10050,19 +10290,22 @@
     </row>
     <row r="208" spans="1:10">
       <c r="A208" t="s">
-        <v>748</v>
+        <v>757</v>
+      </c>
+      <c r="B208" t="s">
+        <v>758</v>
       </c>
       <c r="C208" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D208" t="s">
-        <v>53</v>
+        <v>286</v>
       </c>
       <c r="E208" t="s">
         <v>14</v>
       </c>
       <c r="F208" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="G208" t="s">
         <v>27</v>
@@ -10076,19 +10319,22 @@
     </row>
     <row r="209" spans="1:10">
       <c r="A209" t="s">
-        <v>750</v>
+        <v>760</v>
+      </c>
+      <c r="B209" t="s">
+        <v>761</v>
       </c>
       <c r="C209" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D209" t="s">
-        <v>74</v>
+        <v>743</v>
       </c>
       <c r="E209" t="s">
         <v>14</v>
       </c>
       <c r="F209" t="s">
-        <v>54</v>
+        <v>646</v>
       </c>
       <c r="G209" t="s">
         <v>27</v>
@@ -10097,27 +10343,30 @@
         <v>50</v>
       </c>
       <c r="I209" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
     </row>
     <row r="210" spans="1:10">
       <c r="A210" t="s">
-        <v>752</v>
+        <v>763</v>
+      </c>
+      <c r="B210" t="s">
+        <v>764</v>
       </c>
       <c r="C210" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D210" t="s">
-        <v>195</v>
+        <v>309</v>
       </c>
       <c r="E210" t="s">
         <v>14</v>
       </c>
       <c r="F210" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="G210" t="s">
-        <v>754</v>
+        <v>288</v>
       </c>
       <c r="H210" t="s">
         <v>23</v>
@@ -10131,22 +10380,25 @@
     </row>
     <row r="211" spans="1:10">
       <c r="A211" t="s">
-        <v>755</v>
+        <v>766</v>
+      </c>
+      <c r="B211" t="s">
+        <v>767</v>
       </c>
       <c r="C211" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D211" t="s">
-        <v>158</v>
+        <v>413</v>
       </c>
       <c r="E211" t="s">
         <v>14</v>
       </c>
       <c r="F211" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="G211" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="H211" t="s">
         <v>23</v>
@@ -10160,28 +10412,31 @@
     </row>
     <row r="212" spans="1:10">
       <c r="A212" t="s">
-        <v>758</v>
+        <v>770</v>
+      </c>
+      <c r="B212" t="s">
+        <v>771</v>
       </c>
       <c r="C212" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D212" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="E212" t="s">
         <v>14</v>
       </c>
       <c r="F212" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
       <c r="G212" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="H212" t="s">
         <v>562</v>
       </c>
       <c r="I212" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
       <c r="J212" t="s">
         <v>229</v>
@@ -10189,22 +10444,25 @@
     </row>
     <row r="213" spans="1:10">
       <c r="A213" t="s">
-        <v>762</v>
+        <v>775</v>
+      </c>
+      <c r="B213" t="s">
+        <v>776</v>
       </c>
       <c r="C213" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D213" t="s">
-        <v>112</v>
+        <v>278</v>
       </c>
       <c r="E213" t="s">
         <v>14</v>
       </c>
       <c r="F213" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="G213" t="s">
-        <v>763</v>
+        <v>777</v>
       </c>
       <c r="H213" t="s">
         <v>23</v>
@@ -10218,19 +10476,22 @@
     </row>
     <row r="214" spans="1:10">
       <c r="A214" t="s">
-        <v>764</v>
+        <v>778</v>
+      </c>
+      <c r="B214" t="s">
+        <v>779</v>
       </c>
       <c r="C214" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D214" t="s">
-        <v>195</v>
+        <v>309</v>
       </c>
       <c r="E214" t="s">
         <v>14</v>
       </c>
       <c r="F214" t="s">
-        <v>765</v>
+        <v>780</v>
       </c>
       <c r="G214" t="s">
         <v>27</v>
@@ -10244,19 +10505,22 @@
     </row>
     <row r="215" spans="1:10">
       <c r="A215" t="s">
-        <v>766</v>
+        <v>781</v>
+      </c>
+      <c r="B215" t="s">
+        <v>782</v>
       </c>
       <c r="C215" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D215" t="s">
-        <v>205</v>
+        <v>535</v>
       </c>
       <c r="E215" t="s">
         <v>80</v>
       </c>
       <c r="F215" t="s">
-        <v>199</v>
+        <v>783</v>
       </c>
       <c r="G215" t="s">
         <v>27</v>
@@ -10270,19 +10534,22 @@
     </row>
     <row r="216" spans="1:10">
       <c r="A216" t="s">
-        <v>767</v>
+        <v>784</v>
+      </c>
+      <c r="B216" t="s">
+        <v>785</v>
       </c>
       <c r="C216" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D216" t="s">
-        <v>248</v>
+        <v>389</v>
       </c>
       <c r="E216" t="s">
         <v>14</v>
       </c>
       <c r="F216" t="s">
-        <v>768</v>
+        <v>786</v>
       </c>
       <c r="G216" t="s">
         <v>27</v>
@@ -10296,19 +10563,22 @@
     </row>
     <row r="217" spans="1:10">
       <c r="A217" t="s">
-        <v>769</v>
+        <v>787</v>
+      </c>
+      <c r="B217" t="s">
+        <v>788</v>
       </c>
       <c r="C217" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D217" t="s">
-        <v>53</v>
+        <v>286</v>
       </c>
       <c r="E217" t="s">
         <v>14</v>
       </c>
       <c r="F217" t="s">
-        <v>770</v>
+        <v>789</v>
       </c>
       <c r="G217" t="s">
         <v>27</v>
@@ -10322,19 +10592,22 @@
     </row>
     <row r="218" spans="1:10">
       <c r="A218" t="s">
-        <v>771</v>
+        <v>790</v>
+      </c>
+      <c r="B218" t="s">
+        <v>791</v>
       </c>
       <c r="C218" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D218" t="s">
-        <v>112</v>
+        <v>278</v>
       </c>
       <c r="E218" t="s">
         <v>14</v>
       </c>
       <c r="F218" t="s">
-        <v>772</v>
+        <v>792</v>
       </c>
       <c r="G218" t="s">
         <v>27</v>
@@ -10343,24 +10616,27 @@
         <v>219</v>
       </c>
       <c r="I218" t="s">
-        <v>773</v>
+        <v>793</v>
       </c>
     </row>
     <row r="219" spans="1:10">
       <c r="A219" t="s">
-        <v>774</v>
+        <v>794</v>
+      </c>
+      <c r="B219" t="s">
+        <v>795</v>
       </c>
       <c r="C219" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D219" t="s">
-        <v>74</v>
+        <v>743</v>
       </c>
       <c r="E219" t="s">
         <v>14</v>
       </c>
       <c r="F219" t="s">
-        <v>54</v>
+        <v>646</v>
       </c>
       <c r="G219" t="s">
         <v>27</v>
@@ -10374,10 +10650,13 @@
     </row>
     <row r="220" spans="1:10">
       <c r="A220" t="s">
-        <v>775</v>
+        <v>796</v>
+      </c>
+      <c r="B220" t="s">
+        <v>797</v>
       </c>
       <c r="C220" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D220" t="s">
         <v>103</v>
@@ -10386,7 +10665,7 @@
         <v>14</v>
       </c>
       <c r="F220" t="s">
-        <v>54</v>
+        <v>646</v>
       </c>
       <c r="G220" t="s">
         <v>27</v>
@@ -10400,19 +10679,22 @@
     </row>
     <row r="221" spans="1:10">
       <c r="A221" t="s">
-        <v>776</v>
+        <v>798</v>
+      </c>
+      <c r="B221" t="s">
+        <v>799</v>
       </c>
       <c r="C221" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D221" t="s">
-        <v>184</v>
+        <v>267</v>
       </c>
       <c r="E221" t="s">
         <v>14</v>
       </c>
       <c r="F221" t="s">
-        <v>777</v>
+        <v>694</v>
       </c>
       <c r="G221" t="s">
         <v>27</v>
@@ -10426,22 +10708,25 @@
     </row>
     <row r="222" spans="1:10">
       <c r="A222" t="s">
-        <v>778</v>
+        <v>800</v>
+      </c>
+      <c r="B222" t="s">
+        <v>801</v>
       </c>
       <c r="C222" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D222" t="s">
-        <v>112</v>
+        <v>278</v>
       </c>
       <c r="E222" t="s">
         <v>14</v>
       </c>
       <c r="F222" t="s">
-        <v>54</v>
+        <v>646</v>
       </c>
       <c r="G222" t="s">
-        <v>746</v>
+        <v>647</v>
       </c>
       <c r="H222" t="s">
         <v>23</v>
@@ -10455,22 +10740,25 @@
     </row>
     <row r="223" spans="1:10">
       <c r="A223" t="s">
-        <v>779</v>
+        <v>802</v>
+      </c>
+      <c r="B223" t="s">
+        <v>803</v>
       </c>
       <c r="C223" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D223" t="s">
-        <v>205</v>
+        <v>535</v>
       </c>
       <c r="E223" t="s">
         <v>14</v>
       </c>
       <c r="F223" t="s">
-        <v>780</v>
+        <v>804</v>
       </c>
       <c r="G223" t="s">
-        <v>781</v>
+        <v>529</v>
       </c>
       <c r="H223" t="s">
         <v>69</v>
@@ -10484,22 +10772,25 @@
     </row>
     <row r="224" spans="1:10">
       <c r="A224" t="s">
-        <v>782</v>
+        <v>805</v>
+      </c>
+      <c r="B224" t="s">
+        <v>806</v>
       </c>
       <c r="C224" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D224" t="s">
-        <v>195</v>
+        <v>309</v>
       </c>
       <c r="E224" t="s">
         <v>14</v>
       </c>
       <c r="F224" t="s">
-        <v>783</v>
+        <v>807</v>
       </c>
       <c r="G224" t="s">
-        <v>754</v>
+        <v>288</v>
       </c>
       <c r="H224" t="s">
         <v>23</v>
@@ -10513,19 +10804,22 @@
     </row>
     <row r="225" spans="1:10">
       <c r="A225" t="s">
-        <v>784</v>
+        <v>808</v>
+      </c>
+      <c r="B225" t="s">
+        <v>809</v>
       </c>
       <c r="C225" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D225" t="s">
-        <v>74</v>
+        <v>743</v>
       </c>
       <c r="E225" t="s">
         <v>14</v>
       </c>
       <c r="F225" t="s">
-        <v>54</v>
+        <v>646</v>
       </c>
       <c r="G225" t="s">
         <v>27</v>
@@ -10539,28 +10833,31 @@
     </row>
     <row r="226" spans="1:10">
       <c r="A226" t="s">
-        <v>785</v>
+        <v>810</v>
+      </c>
+      <c r="B226" t="s">
+        <v>811</v>
       </c>
       <c r="C226" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D226" t="s">
-        <v>53</v>
+        <v>286</v>
       </c>
       <c r="E226" t="s">
         <v>14</v>
       </c>
       <c r="F226" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
       <c r="G226" t="s">
-        <v>754</v>
+        <v>288</v>
       </c>
       <c r="H226" t="s">
         <v>562</v>
       </c>
       <c r="I226" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
       <c r="J226" t="s">
         <v>229</v>
@@ -10568,22 +10865,25 @@
     </row>
     <row r="227" spans="1:10">
       <c r="A227" t="s">
-        <v>786</v>
+        <v>812</v>
+      </c>
+      <c r="B227" t="s">
+        <v>813</v>
       </c>
       <c r="C227" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D227" t="s">
-        <v>205</v>
+        <v>535</v>
       </c>
       <c r="E227" t="s">
         <v>14</v>
       </c>
       <c r="F227" t="s">
-        <v>54</v>
+        <v>646</v>
       </c>
       <c r="G227" t="s">
-        <v>746</v>
+        <v>647</v>
       </c>
       <c r="H227" t="s">
         <v>69</v>
@@ -10597,19 +10897,22 @@
     </row>
     <row r="228" spans="1:10">
       <c r="A228" t="s">
-        <v>787</v>
+        <v>814</v>
+      </c>
+      <c r="B228" t="s">
+        <v>815</v>
       </c>
       <c r="C228" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D228" t="s">
-        <v>74</v>
+        <v>743</v>
       </c>
       <c r="E228" t="s">
         <v>14</v>
       </c>
       <c r="F228" t="s">
-        <v>788</v>
+        <v>816</v>
       </c>
       <c r="G228" t="s">
         <v>27</v>
@@ -10623,48 +10926,54 @@
     </row>
     <row r="229" spans="1:10">
       <c r="A229" t="s">
-        <v>789</v>
+        <v>817</v>
+      </c>
+      <c r="B229" t="s">
+        <v>818</v>
       </c>
       <c r="C229" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D229" t="s">
-        <v>74</v>
+        <v>743</v>
       </c>
       <c r="E229" t="s">
         <v>14</v>
       </c>
       <c r="F229" t="s">
-        <v>790</v>
+        <v>819</v>
       </c>
       <c r="G229" t="s">
         <v>27</v>
       </c>
       <c r="H229" t="s">
-        <v>791</v>
+        <v>820</v>
       </c>
       <c r="I229" t="s">
-        <v>792</v>
+        <v>821</v>
       </c>
     </row>
     <row r="230" spans="1:10">
       <c r="A230" t="s">
-        <v>793</v>
+        <v>822</v>
+      </c>
+      <c r="B230" t="s">
+        <v>823</v>
       </c>
       <c r="C230" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D230" t="s">
-        <v>195</v>
+        <v>309</v>
       </c>
       <c r="E230" t="s">
         <v>14</v>
       </c>
       <c r="F230" t="s">
-        <v>794</v>
+        <v>824</v>
       </c>
       <c r="G230" t="s">
-        <v>781</v>
+        <v>529</v>
       </c>
       <c r="H230" t="s">
         <v>23</v>
@@ -10678,19 +10987,22 @@
     </row>
     <row r="231" spans="1:10">
       <c r="A231" t="s">
-        <v>795</v>
+        <v>825</v>
+      </c>
+      <c r="B231" t="s">
+        <v>826</v>
       </c>
       <c r="C231" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D231" t="s">
-        <v>248</v>
+        <v>389</v>
       </c>
       <c r="E231" t="s">
         <v>14</v>
       </c>
       <c r="F231" t="s">
-        <v>796</v>
+        <v>827</v>
       </c>
       <c r="G231" t="s">
         <v>27</v>
@@ -10704,19 +11016,22 @@
     </row>
     <row r="232" spans="1:10">
       <c r="A232" t="s">
-        <v>797</v>
+        <v>828</v>
+      </c>
+      <c r="B232" t="s">
+        <v>829</v>
       </c>
       <c r="C232" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D232" t="s">
-        <v>184</v>
+        <v>267</v>
       </c>
       <c r="E232" t="s">
         <v>80</v>
       </c>
       <c r="F232" t="s">
-        <v>92</v>
+        <v>830</v>
       </c>
       <c r="G232" t="s">
         <v>27</v>
@@ -10730,28 +11045,31 @@
     </row>
     <row r="233" spans="1:10">
       <c r="A233" t="s">
-        <v>798</v>
+        <v>831</v>
+      </c>
+      <c r="B233" t="s">
+        <v>832</v>
       </c>
       <c r="C233" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D233" t="s">
-        <v>53</v>
+        <v>286</v>
       </c>
       <c r="E233" t="s">
         <v>14</v>
       </c>
       <c r="F233" t="s">
-        <v>54</v>
+        <v>646</v>
       </c>
       <c r="G233" t="s">
-        <v>746</v>
+        <v>647</v>
       </c>
       <c r="H233" t="s">
         <v>69</v>
       </c>
       <c r="I233" t="s">
-        <v>799</v>
+        <v>833</v>
       </c>
       <c r="J233" t="s">
         <v>450</v>
@@ -10759,22 +11077,25 @@
     </row>
     <row r="234" spans="1:10">
       <c r="A234" t="s">
-        <v>800</v>
+        <v>834</v>
+      </c>
+      <c r="B234" t="s">
+        <v>835</v>
       </c>
       <c r="C234" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D234" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="E234" t="s">
         <v>14</v>
       </c>
       <c r="F234" t="s">
-        <v>783</v>
+        <v>807</v>
       </c>
       <c r="G234" t="s">
-        <v>801</v>
+        <v>836</v>
       </c>
       <c r="H234" t="s">
         <v>23</v>
@@ -10788,22 +11109,25 @@
     </row>
     <row r="235" spans="1:10">
       <c r="A235" t="s">
-        <v>802</v>
+        <v>837</v>
+      </c>
+      <c r="B235" t="s">
+        <v>838</v>
       </c>
       <c r="C235" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D235" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="E235" t="s">
         <v>14</v>
       </c>
       <c r="F235" t="s">
-        <v>803</v>
+        <v>839</v>
       </c>
       <c r="G235" t="s">
-        <v>804</v>
+        <v>840</v>
       </c>
       <c r="H235" t="s">
         <v>23</v>
@@ -10817,19 +11141,22 @@
     </row>
     <row r="236" spans="1:10">
       <c r="A236" t="s">
-        <v>805</v>
+        <v>841</v>
+      </c>
+      <c r="B236" t="s">
+        <v>842</v>
       </c>
       <c r="C236" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D236" t="s">
-        <v>74</v>
+        <v>743</v>
       </c>
       <c r="E236" t="s">
         <v>14</v>
       </c>
       <c r="F236" t="s">
-        <v>54</v>
+        <v>646</v>
       </c>
       <c r="G236" t="s">
         <v>27</v>
@@ -10838,24 +11165,27 @@
         <v>71</v>
       </c>
       <c r="I236" t="s">
-        <v>806</v>
+        <v>843</v>
       </c>
     </row>
     <row r="237" spans="1:10">
       <c r="A237" t="s">
-        <v>807</v>
+        <v>844</v>
+      </c>
+      <c r="B237" t="s">
+        <v>845</v>
       </c>
       <c r="C237" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D237" t="s">
-        <v>118</v>
+        <v>747</v>
       </c>
       <c r="E237" t="s">
         <v>14</v>
       </c>
       <c r="F237" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="G237" t="s">
         <v>27</v>
@@ -10869,97 +11199,109 @@
     </row>
     <row r="238" spans="1:10">
       <c r="A238" t="s">
-        <v>808</v>
+        <v>846</v>
+      </c>
+      <c r="B238" t="s">
+        <v>847</v>
       </c>
       <c r="C238" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D238" t="s">
-        <v>184</v>
+        <v>267</v>
       </c>
       <c r="E238" t="s">
         <v>14</v>
       </c>
       <c r="F238" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="G238" t="s">
         <v>27</v>
       </c>
       <c r="H238" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="I238" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
     </row>
     <row r="239" spans="1:10">
       <c r="A239" t="s">
-        <v>809</v>
+        <v>848</v>
+      </c>
+      <c r="B239" t="s">
+        <v>849</v>
       </c>
       <c r="C239" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D239" t="s">
-        <v>143</v>
+        <v>850</v>
       </c>
       <c r="E239" t="s">
         <v>14</v>
       </c>
       <c r="F239" t="s">
-        <v>810</v>
+        <v>851</v>
       </c>
       <c r="G239" t="s">
         <v>27</v>
       </c>
       <c r="H239" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="I239" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="240" spans="1:10">
       <c r="A240" t="s">
-        <v>811</v>
+        <v>852</v>
+      </c>
+      <c r="B240" t="s">
+        <v>853</v>
       </c>
       <c r="C240" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D240" t="s">
-        <v>74</v>
+        <v>743</v>
       </c>
       <c r="E240" t="s">
         <v>14</v>
       </c>
       <c r="F240" t="s">
-        <v>54</v>
+        <v>646</v>
       </c>
       <c r="G240" t="s">
         <v>27</v>
       </c>
       <c r="H240" t="s">
-        <v>812</v>
+        <v>854</v>
       </c>
       <c r="I240" t="s">
-        <v>813</v>
+        <v>855</v>
       </c>
     </row>
     <row r="241" spans="1:10">
       <c r="A241" t="s">
-        <v>814</v>
+        <v>856</v>
+      </c>
+      <c r="B241" t="s">
+        <v>857</v>
       </c>
       <c r="C241" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D241" t="s">
-        <v>53</v>
+        <v>286</v>
       </c>
       <c r="E241" t="s">
         <v>14</v>
       </c>
       <c r="F241" t="s">
-        <v>815</v>
+        <v>287</v>
       </c>
       <c r="G241" t="s">
         <v>27</v>
@@ -10973,28 +11315,31 @@
     </row>
     <row r="242" spans="1:10">
       <c r="A242" t="s">
-        <v>816</v>
+        <v>858</v>
+      </c>
+      <c r="B242" t="s">
+        <v>859</v>
       </c>
       <c r="C242" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D242" t="s">
-        <v>248</v>
+        <v>389</v>
       </c>
       <c r="E242" t="s">
         <v>14</v>
       </c>
       <c r="F242" t="s">
-        <v>54</v>
+        <v>646</v>
       </c>
       <c r="G242" t="s">
-        <v>746</v>
+        <v>647</v>
       </c>
       <c r="H242" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="I242" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="J242" t="s">
         <v>450</v>
@@ -11002,19 +11347,22 @@
     </row>
     <row r="243" spans="1:10">
       <c r="A243" t="s">
-        <v>817</v>
+        <v>860</v>
+      </c>
+      <c r="B243" t="s">
+        <v>861</v>
       </c>
       <c r="C243" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D243" t="s">
-        <v>74</v>
+        <v>743</v>
       </c>
       <c r="E243" t="s">
         <v>14</v>
       </c>
       <c r="F243" t="s">
-        <v>54</v>
+        <v>646</v>
       </c>
       <c r="G243" t="s">
         <v>27</v>
@@ -11023,33 +11371,36 @@
         <v>540</v>
       </c>
       <c r="I243" t="s">
-        <v>818</v>
+        <v>862</v>
       </c>
     </row>
     <row r="244" spans="1:10">
       <c r="A244" t="s">
-        <v>819</v>
+        <v>863</v>
+      </c>
+      <c r="B244" t="s">
+        <v>864</v>
       </c>
       <c r="C244" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D244" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="E244" t="s">
         <v>14</v>
       </c>
       <c r="F244" t="s">
-        <v>54</v>
+        <v>646</v>
       </c>
       <c r="G244" t="s">
-        <v>746</v>
+        <v>647</v>
       </c>
       <c r="H244" t="s">
         <v>58</v>
       </c>
       <c r="I244" t="s">
-        <v>820</v>
+        <v>865</v>
       </c>
       <c r="J244" t="s">
         <v>71</v>
@@ -11057,48 +11408,54 @@
     </row>
     <row r="245" spans="1:10">
       <c r="A245" t="s">
-        <v>821</v>
+        <v>866</v>
+      </c>
+      <c r="B245" t="s">
+        <v>867</v>
       </c>
       <c r="C245" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D245" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="E245" t="s">
         <v>14</v>
       </c>
       <c r="F245" t="s">
-        <v>783</v>
+        <v>807</v>
       </c>
       <c r="G245" t="s">
         <v>27</v>
       </c>
       <c r="H245" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="I245" t="s">
-        <v>822</v>
+        <v>868</v>
       </c>
     </row>
     <row r="246" spans="1:10">
       <c r="A246" t="s">
-        <v>823</v>
+        <v>869</v>
+      </c>
+      <c r="B246" t="s">
+        <v>870</v>
       </c>
       <c r="C246" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="D246" t="s">
-        <v>91</v>
+        <v>872</v>
       </c>
       <c r="E246" t="s">
         <v>14</v>
       </c>
       <c r="F246" t="s">
-        <v>825</v>
+        <v>873</v>
       </c>
       <c r="G246" t="s">
-        <v>826</v>
+        <v>874</v>
       </c>
       <c r="H246" t="s">
         <v>275</v>
@@ -11114,17 +11471,20 @@
       <c r="A247" t="s">
         <v>335</v>
       </c>
+      <c r="B247" t="s">
+        <v>336</v>
+      </c>
       <c r="C247" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="D247" t="s">
-        <v>195</v>
+        <v>309</v>
       </c>
       <c r="E247" t="s">
         <v>14</v>
       </c>
       <c r="F247" t="s">
-        <v>827</v>
+        <v>305</v>
       </c>
       <c r="G247" t="s">
         <v>27</v>
@@ -11141,22 +11501,25 @@
     </row>
     <row r="248" spans="1:10">
       <c r="A248" t="s">
-        <v>828</v>
+        <v>875</v>
+      </c>
+      <c r="B248" t="s">
+        <v>876</v>
       </c>
       <c r="C248" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="D248" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="E248" t="s">
         <v>14</v>
       </c>
       <c r="F248" t="s">
-        <v>829</v>
+        <v>486</v>
       </c>
       <c r="G248" t="s">
-        <v>830</v>
+        <v>316</v>
       </c>
       <c r="H248" t="s">
         <v>181</v>
@@ -11170,19 +11533,22 @@
     </row>
     <row r="249" spans="1:10">
       <c r="A249" t="s">
-        <v>831</v>
+        <v>877</v>
+      </c>
+      <c r="B249" t="s">
+        <v>878</v>
       </c>
       <c r="C249" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="D249" t="s">
-        <v>66</v>
+        <v>879</v>
       </c>
       <c r="E249" t="s">
         <v>14</v>
       </c>
       <c r="F249" t="s">
-        <v>832</v>
+        <v>880</v>
       </c>
       <c r="G249" t="s">
         <v>27</v>
@@ -11199,19 +11565,22 @@
     </row>
     <row r="250" spans="1:10">
       <c r="A250" t="s">
-        <v>833</v>
+        <v>881</v>
+      </c>
+      <c r="B250" t="s">
+        <v>882</v>
       </c>
       <c r="C250" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="D250" t="s">
-        <v>66</v>
+        <v>879</v>
       </c>
       <c r="E250" t="s">
         <v>14</v>
       </c>
       <c r="F250" t="s">
-        <v>827</v>
+        <v>305</v>
       </c>
       <c r="G250" t="s">
         <v>27</v>
@@ -11228,19 +11597,22 @@
     </row>
     <row r="251" spans="1:10">
       <c r="A251" t="s">
-        <v>834</v>
+        <v>883</v>
+      </c>
+      <c r="B251" t="s">
+        <v>884</v>
       </c>
       <c r="C251" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="D251" t="s">
-        <v>143</v>
+        <v>850</v>
       </c>
       <c r="E251" t="s">
         <v>14</v>
       </c>
       <c r="F251" t="s">
-        <v>835</v>
+        <v>268</v>
       </c>
       <c r="G251" t="s">
         <v>27</v>
@@ -11257,22 +11629,25 @@
     </row>
     <row r="252" spans="1:10">
       <c r="A252" t="s">
-        <v>836</v>
+        <v>885</v>
+      </c>
+      <c r="B252" t="s">
+        <v>886</v>
       </c>
       <c r="C252" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="D252" t="s">
-        <v>91</v>
+        <v>872</v>
       </c>
       <c r="E252" t="s">
         <v>14</v>
       </c>
       <c r="F252" t="s">
-        <v>815</v>
+        <v>287</v>
       </c>
       <c r="G252" t="s">
-        <v>837</v>
+        <v>295</v>
       </c>
       <c r="H252" t="s">
         <v>275</v>
@@ -11286,22 +11661,25 @@
     </row>
     <row r="253" spans="1:10">
       <c r="A253" t="s">
-        <v>838</v>
+        <v>887</v>
+      </c>
+      <c r="B253" t="s">
+        <v>888</v>
       </c>
       <c r="C253" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="D253" t="s">
-        <v>66</v>
+        <v>879</v>
       </c>
       <c r="E253" t="s">
         <v>14</v>
       </c>
       <c r="F253" t="s">
-        <v>839</v>
+        <v>889</v>
       </c>
       <c r="G253" t="s">
-        <v>765</v>
+        <v>780</v>
       </c>
       <c r="H253" t="s">
         <v>181</v>
@@ -11315,28 +11693,31 @@
     </row>
     <row r="254" spans="1:10">
       <c r="A254" t="s">
-        <v>840</v>
+        <v>890</v>
+      </c>
+      <c r="B254" t="s">
+        <v>891</v>
       </c>
       <c r="C254" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="D254" t="s">
-        <v>195</v>
+        <v>309</v>
       </c>
       <c r="E254" t="s">
         <v>14</v>
       </c>
       <c r="F254" t="s">
-        <v>841</v>
+        <v>892</v>
       </c>
       <c r="G254" t="s">
-        <v>109</v>
+        <v>288</v>
       </c>
       <c r="H254" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="I254" t="s">
-        <v>842</v>
+        <v>893</v>
       </c>
       <c r="J254" t="s">
         <v>219</v>
@@ -11346,17 +11727,20 @@
       <c r="A255" t="s">
         <v>318</v>
       </c>
+      <c r="B255" t="s">
+        <v>319</v>
+      </c>
       <c r="C255" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="D255" t="s">
-        <v>112</v>
+        <v>278</v>
       </c>
       <c r="E255" t="s">
         <v>14</v>
       </c>
       <c r="F255" t="s">
-        <v>827</v>
+        <v>305</v>
       </c>
       <c r="G255" t="s">
         <v>27</v>
@@ -11373,19 +11757,22 @@
     </row>
     <row r="256" spans="1:10">
       <c r="A256" t="s">
-        <v>843</v>
+        <v>894</v>
+      </c>
+      <c r="B256" t="s">
+        <v>895</v>
       </c>
       <c r="C256" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="D256" t="s">
-        <v>143</v>
+        <v>850</v>
       </c>
       <c r="E256" t="s">
         <v>14</v>
       </c>
       <c r="F256" t="s">
-        <v>827</v>
+        <v>305</v>
       </c>
       <c r="G256" t="s">
         <v>27</v>
@@ -11402,22 +11789,25 @@
     </row>
     <row r="257" spans="1:10">
       <c r="A257" t="s">
-        <v>844</v>
+        <v>896</v>
+      </c>
+      <c r="B257" t="s">
+        <v>897</v>
       </c>
       <c r="C257" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="D257" t="s">
-        <v>91</v>
+        <v>872</v>
       </c>
       <c r="E257" t="s">
         <v>14</v>
       </c>
       <c r="F257" t="s">
-        <v>845</v>
+        <v>898</v>
       </c>
       <c r="G257" t="s">
-        <v>846</v>
+        <v>899</v>
       </c>
       <c r="H257" t="s">
         <v>275</v>
@@ -11431,19 +11821,22 @@
     </row>
     <row r="258" spans="1:10">
       <c r="A258" t="s">
-        <v>847</v>
+        <v>900</v>
+      </c>
+      <c r="B258" t="s">
+        <v>901</v>
       </c>
       <c r="C258" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="D258" t="s">
-        <v>91</v>
+        <v>872</v>
       </c>
       <c r="E258" t="s">
         <v>14</v>
       </c>
       <c r="F258" t="s">
-        <v>827</v>
+        <v>305</v>
       </c>
       <c r="G258" t="s">
         <v>27</v>
@@ -11460,22 +11853,25 @@
     </row>
     <row r="259" spans="1:10">
       <c r="A259" t="s">
-        <v>848</v>
+        <v>902</v>
+      </c>
+      <c r="B259" t="s">
+        <v>903</v>
       </c>
       <c r="C259" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="D259" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="E259" t="s">
         <v>14</v>
       </c>
       <c r="F259" t="s">
-        <v>846</v>
+        <v>899</v>
       </c>
       <c r="G259" t="s">
-        <v>849</v>
+        <v>904</v>
       </c>
       <c r="H259" t="s">
         <v>181</v>
@@ -11489,19 +11885,22 @@
     </row>
     <row r="260" spans="1:10">
       <c r="A260" t="s">
-        <v>850</v>
+        <v>905</v>
+      </c>
+      <c r="B260" t="s">
+        <v>906</v>
       </c>
       <c r="C260" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="D260" t="s">
-        <v>91</v>
+        <v>872</v>
       </c>
       <c r="E260" t="s">
         <v>14</v>
       </c>
       <c r="F260" t="s">
-        <v>851</v>
+        <v>907</v>
       </c>
       <c r="G260" t="s">
         <v>27</v>
@@ -11518,19 +11917,22 @@
     </row>
     <row r="261" spans="1:10">
       <c r="A261" t="s">
-        <v>852</v>
+        <v>908</v>
+      </c>
+      <c r="B261" t="s">
+        <v>909</v>
       </c>
       <c r="C261" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="D261" t="s">
-        <v>91</v>
+        <v>872</v>
       </c>
       <c r="E261" t="s">
         <v>14</v>
       </c>
       <c r="F261" t="s">
-        <v>853</v>
+        <v>910</v>
       </c>
       <c r="G261" t="s">
         <v>27</v>
@@ -11549,17 +11951,20 @@
       <c r="A262" t="s">
         <v>303</v>
       </c>
+      <c r="B262" t="s">
+        <v>304</v>
+      </c>
       <c r="C262" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="D262" t="s">
-        <v>53</v>
+        <v>286</v>
       </c>
       <c r="E262" t="s">
         <v>14</v>
       </c>
       <c r="F262" t="s">
-        <v>827</v>
+        <v>305</v>
       </c>
       <c r="G262" t="s">
         <v>27</v>
@@ -11578,17 +11983,20 @@
       <c r="A263" t="s">
         <v>354</v>
       </c>
+      <c r="B263" t="s">
+        <v>355</v>
+      </c>
       <c r="C263" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="D263" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="E263" t="s">
         <v>14</v>
       </c>
       <c r="F263" t="s">
-        <v>827</v>
+        <v>305</v>
       </c>
       <c r="G263" t="s">
         <v>27</v>
@@ -11605,22 +12013,25 @@
     </row>
     <row r="264" spans="1:10">
       <c r="A264" t="s">
-        <v>854</v>
+        <v>911</v>
+      </c>
+      <c r="B264" t="s">
+        <v>912</v>
       </c>
       <c r="C264" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="D264" t="s">
-        <v>184</v>
+        <v>267</v>
       </c>
       <c r="E264" t="s">
         <v>14</v>
       </c>
       <c r="F264" t="s">
-        <v>855</v>
+        <v>913</v>
       </c>
       <c r="G264" t="s">
-        <v>47</v>
+        <v>914</v>
       </c>
       <c r="H264" t="s">
         <v>23</v>
@@ -11634,22 +12045,25 @@
     </row>
     <row r="265" spans="1:10">
       <c r="A265" t="s">
-        <v>856</v>
+        <v>915</v>
+      </c>
+      <c r="B265" t="s">
+        <v>916</v>
       </c>
       <c r="C265" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="D265" t="s">
-        <v>66</v>
+        <v>879</v>
       </c>
       <c r="E265" t="s">
         <v>14</v>
       </c>
       <c r="F265" t="s">
-        <v>857</v>
+        <v>917</v>
       </c>
       <c r="G265" t="s">
-        <v>858</v>
+        <v>310</v>
       </c>
       <c r="H265" t="s">
         <v>18</v>
@@ -11663,22 +12077,25 @@
     </row>
     <row r="266" spans="1:10">
       <c r="A266" t="s">
-        <v>859</v>
+        <v>918</v>
+      </c>
+      <c r="B266" t="s">
+        <v>919</v>
       </c>
       <c r="C266" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="D266" t="s">
-        <v>112</v>
+        <v>278</v>
       </c>
       <c r="E266" t="s">
         <v>14</v>
       </c>
       <c r="F266" t="s">
-        <v>860</v>
+        <v>422</v>
       </c>
       <c r="G266" t="s">
-        <v>861</v>
+        <v>920</v>
       </c>
       <c r="H266" t="s">
         <v>18</v>
@@ -11692,19 +12109,22 @@
     </row>
     <row r="267" spans="1:10">
       <c r="A267" t="s">
-        <v>862</v>
+        <v>921</v>
+      </c>
+      <c r="B267" t="s">
+        <v>922</v>
       </c>
       <c r="C267" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="D267" t="s">
-        <v>91</v>
+        <v>872</v>
       </c>
       <c r="E267" t="s">
         <v>14</v>
       </c>
       <c r="F267" t="s">
-        <v>863</v>
+        <v>899</v>
       </c>
       <c r="G267" t="s">
         <v>27</v>
@@ -11721,22 +12141,25 @@
     </row>
     <row r="268" spans="1:10">
       <c r="A268" t="s">
-        <v>864</v>
+        <v>923</v>
+      </c>
+      <c r="B268" t="s">
+        <v>924</v>
       </c>
       <c r="C268" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="D268" t="s">
-        <v>91</v>
+        <v>872</v>
       </c>
       <c r="E268" t="s">
         <v>14</v>
       </c>
       <c r="F268" t="s">
-        <v>865</v>
+        <v>390</v>
       </c>
       <c r="G268" t="s">
-        <v>47</v>
+        <v>914</v>
       </c>
       <c r="H268" t="s">
         <v>18</v>
@@ -11752,17 +12175,20 @@
       <c r="A269" t="s">
         <v>333</v>
       </c>
+      <c r="B269" t="s">
+        <v>334</v>
+      </c>
       <c r="C269" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="D269" t="s">
-        <v>184</v>
+        <v>267</v>
       </c>
       <c r="E269" t="s">
         <v>14</v>
       </c>
       <c r="F269" t="s">
-        <v>827</v>
+        <v>305</v>
       </c>
       <c r="G269" t="s">
         <v>27</v>
@@ -11779,22 +12205,25 @@
     </row>
     <row r="270" spans="1:10">
       <c r="A270" t="s">
-        <v>866</v>
+        <v>925</v>
+      </c>
+      <c r="B270" t="s">
+        <v>926</v>
       </c>
       <c r="C270" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="D270" t="s">
-        <v>91</v>
+        <v>872</v>
       </c>
       <c r="E270" t="s">
         <v>14</v>
       </c>
       <c r="F270" t="s">
-        <v>867</v>
+        <v>927</v>
       </c>
       <c r="G270" t="s">
-        <v>55</v>
+        <v>273</v>
       </c>
       <c r="H270" t="s">
         <v>18</v>
@@ -11808,22 +12237,25 @@
     </row>
     <row r="271" spans="1:10">
       <c r="A271" t="s">
-        <v>868</v>
+        <v>928</v>
+      </c>
+      <c r="B271" t="s">
+        <v>929</v>
       </c>
       <c r="C271" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="D271" t="s">
-        <v>112</v>
+        <v>278</v>
       </c>
       <c r="E271" t="s">
         <v>14</v>
       </c>
       <c r="F271" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
       <c r="G271" t="s">
-        <v>870</v>
+        <v>931</v>
       </c>
       <c r="H271" t="s">
         <v>275</v>
@@ -11837,22 +12269,25 @@
     </row>
     <row r="272" spans="1:10">
       <c r="A272" t="s">
+        <v>932</v>
+      </c>
+      <c r="B272" t="s">
+        <v>933</v>
+      </c>
+      <c r="C272" t="s">
         <v>871</v>
       </c>
-      <c r="C272" t="s">
-        <v>824</v>
-      </c>
       <c r="D272" t="s">
-        <v>91</v>
+        <v>872</v>
       </c>
       <c r="E272" t="s">
         <v>14</v>
       </c>
       <c r="F272" t="s">
-        <v>872</v>
+        <v>934</v>
       </c>
       <c r="G272" t="s">
-        <v>873</v>
+        <v>448</v>
       </c>
       <c r="H272" t="s">
         <v>18</v>
@@ -11866,22 +12301,25 @@
     </row>
     <row r="273" spans="1:10">
       <c r="A273" t="s">
-        <v>874</v>
+        <v>935</v>
+      </c>
+      <c r="B273" t="s">
+        <v>936</v>
       </c>
       <c r="C273" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="D273" t="s">
-        <v>66</v>
+        <v>879</v>
       </c>
       <c r="E273" t="s">
         <v>14</v>
       </c>
       <c r="F273" t="s">
-        <v>875</v>
+        <v>937</v>
       </c>
       <c r="G273" t="s">
-        <v>876</v>
+        <v>938</v>
       </c>
       <c r="H273" t="s">
         <v>275</v>
@@ -11895,22 +12333,25 @@
     </row>
     <row r="274" spans="1:10">
       <c r="A274" t="s">
-        <v>877</v>
+        <v>939</v>
+      </c>
+      <c r="B274" t="s">
+        <v>940</v>
       </c>
       <c r="C274" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="D274" t="s">
-        <v>45</v>
+        <v>941</v>
       </c>
       <c r="E274" t="s">
         <v>14</v>
       </c>
       <c r="F274" t="s">
-        <v>878</v>
+        <v>942</v>
       </c>
       <c r="G274" t="s">
-        <v>879</v>
+        <v>943</v>
       </c>
       <c r="H274" t="s">
         <v>275</v>
@@ -11924,22 +12365,25 @@
     </row>
     <row r="275" spans="1:10">
       <c r="A275" t="s">
-        <v>880</v>
+        <v>944</v>
+      </c>
+      <c r="B275" t="s">
+        <v>945</v>
       </c>
       <c r="C275" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="D275" t="s">
-        <v>53</v>
+        <v>286</v>
       </c>
       <c r="E275" t="s">
         <v>14</v>
       </c>
       <c r="F275" t="s">
-        <v>881</v>
+        <v>946</v>
       </c>
       <c r="G275" t="s">
-        <v>882</v>
+        <v>947</v>
       </c>
       <c r="H275" t="s">
         <v>181</v>
@@ -11953,22 +12397,25 @@
     </row>
     <row r="276" spans="1:10">
       <c r="A276" t="s">
-        <v>883</v>
+        <v>948</v>
+      </c>
+      <c r="B276" t="s">
+        <v>949</v>
       </c>
       <c r="C276" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="D276" t="s">
-        <v>45</v>
+        <v>941</v>
       </c>
       <c r="E276" t="s">
         <v>14</v>
       </c>
       <c r="F276" t="s">
-        <v>884</v>
+        <v>950</v>
       </c>
       <c r="G276" t="s">
-        <v>109</v>
+        <v>288</v>
       </c>
       <c r="H276" t="s">
         <v>181</v>
@@ -11982,19 +12429,22 @@
     </row>
     <row r="277" spans="1:10">
       <c r="A277" t="s">
-        <v>885</v>
+        <v>951</v>
+      </c>
+      <c r="B277" t="s">
+        <v>952</v>
       </c>
       <c r="C277" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="D277" t="s">
-        <v>45</v>
+        <v>941</v>
       </c>
       <c r="E277" t="s">
         <v>14</v>
       </c>
       <c r="F277" t="s">
-        <v>827</v>
+        <v>305</v>
       </c>
       <c r="G277" t="s">
         <v>27</v>
@@ -12011,28 +12461,31 @@
     </row>
     <row r="278" spans="1:10">
       <c r="A278" t="s">
-        <v>886</v>
+        <v>953</v>
+      </c>
+      <c r="B278" t="s">
+        <v>954</v>
       </c>
       <c r="C278" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="D278" t="s">
-        <v>195</v>
+        <v>309</v>
       </c>
       <c r="E278" t="s">
         <v>14</v>
       </c>
       <c r="F278" t="s">
-        <v>887</v>
+        <v>955</v>
       </c>
       <c r="G278" t="s">
-        <v>888</v>
+        <v>369</v>
       </c>
       <c r="H278" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="I278" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="J278" t="s">
         <v>229</v>
@@ -12040,28 +12493,31 @@
     </row>
     <row r="279" spans="1:10">
       <c r="A279" t="s">
-        <v>889</v>
+        <v>956</v>
+      </c>
+      <c r="B279" t="s">
+        <v>957</v>
       </c>
       <c r="C279" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="D279" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="E279" t="s">
         <v>14</v>
       </c>
       <c r="F279" t="s">
-        <v>890</v>
+        <v>958</v>
       </c>
       <c r="G279" t="s">
         <v>27</v>
       </c>
       <c r="H279" t="s">
-        <v>891</v>
+        <v>959</v>
       </c>
       <c r="I279" t="s">
-        <v>892</v>
+        <v>960</v>
       </c>
       <c r="J279" t="s">
         <v>17</v>
@@ -12069,22 +12525,25 @@
     </row>
     <row r="280" spans="1:10">
       <c r="A280" t="s">
-        <v>893</v>
+        <v>961</v>
+      </c>
+      <c r="B280" t="s">
+        <v>962</v>
       </c>
       <c r="C280" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="D280" t="s">
-        <v>143</v>
+        <v>850</v>
       </c>
       <c r="E280" t="s">
         <v>14</v>
       </c>
       <c r="F280" t="s">
-        <v>894</v>
+        <v>429</v>
       </c>
       <c r="G280" t="s">
-        <v>109</v>
+        <v>288</v>
       </c>
       <c r="H280" t="s">
         <v>181</v>
@@ -12098,19 +12557,22 @@
     </row>
     <row r="281" spans="1:10">
       <c r="A281" t="s">
-        <v>895</v>
+        <v>963</v>
+      </c>
+      <c r="B281" t="s">
+        <v>964</v>
       </c>
       <c r="C281" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="D281" t="s">
-        <v>53</v>
+        <v>286</v>
       </c>
       <c r="E281" t="s">
         <v>14</v>
       </c>
       <c r="F281" t="s">
-        <v>873</v>
+        <v>448</v>
       </c>
       <c r="G281" t="s">
         <v>27</v>
@@ -12127,22 +12589,25 @@
     </row>
     <row r="282" spans="1:10">
       <c r="A282" t="s">
-        <v>896</v>
+        <v>965</v>
+      </c>
+      <c r="B282" t="s">
+        <v>966</v>
       </c>
       <c r="C282" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="D282" t="s">
-        <v>66</v>
+        <v>879</v>
       </c>
       <c r="E282" t="s">
         <v>14</v>
       </c>
       <c r="F282" t="s">
-        <v>897</v>
+        <v>359</v>
       </c>
       <c r="G282" t="s">
-        <v>898</v>
+        <v>339</v>
       </c>
       <c r="H282" t="s">
         <v>18</v>
@@ -12159,7 +12624,7 @@
         <v>550</v>
       </c>
       <c r="C283" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D283" t="s">
         <v>205</v>
@@ -12168,7 +12633,7 @@
         <v>14</v>
       </c>
       <c r="F283" t="s">
-        <v>827</v>
+        <v>968</v>
       </c>
       <c r="G283" t="s">
         <v>27</v>
@@ -12185,10 +12650,10 @@
     </row>
     <row r="284" spans="1:10">
       <c r="A284" t="s">
-        <v>900</v>
+        <v>969</v>
       </c>
       <c r="C284" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D284" t="s">
         <v>79</v>
@@ -12197,10 +12662,10 @@
         <v>14</v>
       </c>
       <c r="F284" t="s">
-        <v>901</v>
+        <v>970</v>
       </c>
       <c r="G284" t="s">
-        <v>902</v>
+        <v>971</v>
       </c>
       <c r="H284" t="s">
         <v>181</v>
@@ -12214,10 +12679,10 @@
     </row>
     <row r="285" spans="1:10">
       <c r="A285" t="s">
-        <v>903</v>
+        <v>972</v>
       </c>
       <c r="C285" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D285" t="s">
         <v>86</v>
@@ -12226,7 +12691,7 @@
         <v>14</v>
       </c>
       <c r="F285" t="s">
-        <v>827</v>
+        <v>968</v>
       </c>
       <c r="G285" t="s">
         <v>27</v>
@@ -12243,10 +12708,10 @@
     </row>
     <row r="286" spans="1:10">
       <c r="A286" t="s">
-        <v>904</v>
+        <v>973</v>
       </c>
       <c r="C286" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D286" t="s">
         <v>205</v>
@@ -12255,7 +12720,7 @@
         <v>14</v>
       </c>
       <c r="F286" t="s">
-        <v>905</v>
+        <v>974</v>
       </c>
       <c r="G286" t="s">
         <v>27</v>
@@ -12272,10 +12737,10 @@
     </row>
     <row r="287" spans="1:10">
       <c r="A287" t="s">
-        <v>906</v>
+        <v>975</v>
       </c>
       <c r="C287" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D287" t="s">
         <v>171</v>
@@ -12284,10 +12749,10 @@
         <v>14</v>
       </c>
       <c r="F287" t="s">
-        <v>907</v>
+        <v>976</v>
       </c>
       <c r="G287" t="s">
-        <v>908</v>
+        <v>977</v>
       </c>
       <c r="H287" t="s">
         <v>18</v>
@@ -12301,10 +12766,10 @@
     </row>
     <row r="288" spans="1:10">
       <c r="A288" t="s">
-        <v>909</v>
+        <v>978</v>
       </c>
       <c r="C288" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D288" t="s">
         <v>66</v>
@@ -12330,10 +12795,10 @@
     </row>
     <row r="289" spans="1:10">
       <c r="A289" t="s">
-        <v>910</v>
+        <v>979</v>
       </c>
       <c r="C289" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D289" t="s">
         <v>53</v>
@@ -12342,10 +12807,10 @@
         <v>14</v>
       </c>
       <c r="F289" t="s">
-        <v>911</v>
+        <v>980</v>
       </c>
       <c r="G289" t="s">
-        <v>912</v>
+        <v>981</v>
       </c>
       <c r="H289" t="s">
         <v>18</v>
@@ -12359,10 +12824,10 @@
     </row>
     <row r="290" spans="1:10">
       <c r="A290" t="s">
-        <v>913</v>
+        <v>982</v>
       </c>
       <c r="C290" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D290" t="s">
         <v>184</v>
@@ -12371,16 +12836,16 @@
         <v>14</v>
       </c>
       <c r="F290" t="s">
-        <v>914</v>
+        <v>983</v>
       </c>
       <c r="G290" t="s">
-        <v>915</v>
+        <v>984</v>
       </c>
       <c r="H290" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="I290" t="s">
-        <v>916</v>
+        <v>985</v>
       </c>
       <c r="J290" t="s">
         <v>82</v>
@@ -12388,10 +12853,10 @@
     </row>
     <row r="291" spans="1:10">
       <c r="A291" t="s">
-        <v>917</v>
+        <v>986</v>
       </c>
       <c r="C291" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D291" t="s">
         <v>79</v>
@@ -12400,10 +12865,10 @@
         <v>14</v>
       </c>
       <c r="F291" t="s">
-        <v>918</v>
+        <v>987</v>
       </c>
       <c r="G291" t="s">
-        <v>919</v>
+        <v>988</v>
       </c>
       <c r="H291" t="s">
         <v>23</v>
@@ -12417,10 +12882,10 @@
     </row>
     <row r="292" spans="1:10">
       <c r="A292" t="s">
-        <v>920</v>
+        <v>989</v>
       </c>
       <c r="C292" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D292" t="s">
         <v>112</v>
@@ -12429,7 +12894,7 @@
         <v>14</v>
       </c>
       <c r="F292" t="s">
-        <v>921</v>
+        <v>990</v>
       </c>
       <c r="G292" t="s">
         <v>27</v>
@@ -12446,10 +12911,10 @@
     </row>
     <row r="293" spans="1:10">
       <c r="A293" t="s">
-        <v>922</v>
+        <v>991</v>
       </c>
       <c r="C293" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D293" t="s">
         <v>79</v>
@@ -12458,7 +12923,7 @@
         <v>14</v>
       </c>
       <c r="F293" t="s">
-        <v>923</v>
+        <v>992</v>
       </c>
       <c r="G293" t="s">
         <v>27</v>
@@ -12478,7 +12943,7 @@
         <v>461</v>
       </c>
       <c r="C294" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D294" t="s">
         <v>158</v>
@@ -12487,7 +12952,7 @@
         <v>14</v>
       </c>
       <c r="F294" t="s">
-        <v>827</v>
+        <v>968</v>
       </c>
       <c r="G294" t="s">
         <v>27</v>
@@ -12504,10 +12969,10 @@
     </row>
     <row r="295" spans="1:10">
       <c r="A295" t="s">
-        <v>924</v>
+        <v>993</v>
       </c>
       <c r="C295" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D295" t="s">
         <v>79</v>
@@ -12516,7 +12981,7 @@
         <v>14</v>
       </c>
       <c r="F295" t="s">
-        <v>827</v>
+        <v>968</v>
       </c>
       <c r="G295" t="s">
         <v>27</v>
@@ -12533,10 +12998,10 @@
     </row>
     <row r="296" spans="1:10">
       <c r="A296" t="s">
-        <v>925</v>
+        <v>994</v>
       </c>
       <c r="C296" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D296" t="s">
         <v>205</v>
@@ -12545,16 +13010,16 @@
         <v>14</v>
       </c>
       <c r="F296" t="s">
-        <v>926</v>
+        <v>995</v>
       </c>
       <c r="G296" t="s">
         <v>47</v>
       </c>
       <c r="H296" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="I296" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="J296" t="s">
         <v>50</v>
@@ -12565,7 +13030,7 @@
         <v>406</v>
       </c>
       <c r="C297" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D297" t="s">
         <v>248</v>
@@ -12574,7 +13039,7 @@
         <v>14</v>
       </c>
       <c r="F297" t="s">
-        <v>827</v>
+        <v>968</v>
       </c>
       <c r="G297" t="s">
         <v>27</v>
@@ -12591,10 +13056,10 @@
     </row>
     <row r="298" spans="1:10">
       <c r="A298" t="s">
-        <v>927</v>
+        <v>996</v>
       </c>
       <c r="C298" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D298" t="s">
         <v>91</v>
@@ -12603,10 +13068,10 @@
         <v>14</v>
       </c>
       <c r="F298" t="s">
-        <v>928</v>
+        <v>997</v>
       </c>
       <c r="G298" t="s">
-        <v>929</v>
+        <v>998</v>
       </c>
       <c r="H298" t="s">
         <v>562</v>
@@ -12620,10 +13085,10 @@
     </row>
     <row r="299" spans="1:10">
       <c r="A299" t="s">
-        <v>930</v>
+        <v>999</v>
       </c>
       <c r="C299" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D299" t="s">
         <v>205</v>
@@ -12632,16 +13097,16 @@
         <v>14</v>
       </c>
       <c r="F299" t="s">
-        <v>931</v>
+        <v>1000</v>
       </c>
       <c r="G299" t="s">
-        <v>932</v>
+        <v>1001</v>
       </c>
       <c r="H299" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="I299" t="s">
-        <v>842</v>
+        <v>893</v>
       </c>
       <c r="J299" t="s">
         <v>82</v>
@@ -12649,10 +13114,10 @@
     </row>
     <row r="300" spans="1:10">
       <c r="A300" t="s">
-        <v>933</v>
+        <v>1002</v>
       </c>
       <c r="C300" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D300" t="s">
         <v>122</v>
@@ -12661,16 +13126,16 @@
         <v>14</v>
       </c>
       <c r="F300" t="s">
-        <v>931</v>
+        <v>1000</v>
       </c>
       <c r="G300" t="s">
         <v>109</v>
       </c>
       <c r="H300" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="I300" t="s">
-        <v>842</v>
+        <v>893</v>
       </c>
       <c r="J300" t="s">
         <v>82</v>
@@ -12678,10 +13143,10 @@
     </row>
     <row r="301" spans="1:10">
       <c r="A301" t="s">
-        <v>934</v>
+        <v>1003</v>
       </c>
       <c r="C301" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D301" t="s">
         <v>248</v>
@@ -12690,7 +13155,7 @@
         <v>14</v>
       </c>
       <c r="F301" t="s">
-        <v>935</v>
+        <v>1004</v>
       </c>
       <c r="G301" t="s">
         <v>109</v>
@@ -12707,10 +13172,10 @@
     </row>
     <row r="302" spans="1:10">
       <c r="A302" t="s">
-        <v>936</v>
+        <v>1005</v>
       </c>
       <c r="C302" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D302" t="s">
         <v>45</v>
@@ -12719,10 +13184,10 @@
         <v>14</v>
       </c>
       <c r="F302" t="s">
-        <v>937</v>
+        <v>1006</v>
       </c>
       <c r="G302" t="s">
-        <v>888</v>
+        <v>1007</v>
       </c>
       <c r="H302" t="s">
         <v>562</v>
@@ -12736,10 +13201,10 @@
     </row>
     <row r="303" spans="1:10">
       <c r="A303" t="s">
-        <v>938</v>
+        <v>1008</v>
       </c>
       <c r="C303" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D303" t="s">
         <v>195</v>
@@ -12748,7 +13213,7 @@
         <v>14</v>
       </c>
       <c r="F303" t="s">
-        <v>939</v>
+        <v>1009</v>
       </c>
       <c r="G303" t="s">
         <v>47</v>
@@ -12765,10 +13230,10 @@
     </row>
     <row r="304" spans="1:10">
       <c r="A304" t="s">
-        <v>940</v>
+        <v>1010</v>
       </c>
       <c r="C304" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D304" t="s">
         <v>248</v>
@@ -12777,10 +13242,10 @@
         <v>14</v>
       </c>
       <c r="F304" t="s">
-        <v>941</v>
+        <v>1011</v>
       </c>
       <c r="G304" t="s">
-        <v>888</v>
+        <v>1007</v>
       </c>
       <c r="H304" t="s">
         <v>69</v>
@@ -12794,10 +13259,10 @@
     </row>
     <row r="305" spans="1:10">
       <c r="A305" t="s">
-        <v>942</v>
+        <v>1012</v>
       </c>
       <c r="C305" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D305" t="s">
         <v>158</v>
@@ -12806,16 +13271,16 @@
         <v>14</v>
       </c>
       <c r="F305" t="s">
-        <v>943</v>
+        <v>1013</v>
       </c>
       <c r="G305" t="s">
         <v>47</v>
       </c>
       <c r="H305" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="I305" t="s">
-        <v>916</v>
+        <v>985</v>
       </c>
       <c r="J305" t="s">
         <v>50</v>
@@ -12823,10 +13288,10 @@
     </row>
     <row r="306" spans="1:10">
       <c r="A306" t="s">
-        <v>944</v>
+        <v>1014</v>
       </c>
       <c r="C306" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D306" t="s">
         <v>66</v>
@@ -12835,10 +13300,10 @@
         <v>14</v>
       </c>
       <c r="F306" t="s">
-        <v>945</v>
+        <v>1015</v>
       </c>
       <c r="G306" t="s">
-        <v>946</v>
+        <v>1016</v>
       </c>
       <c r="H306" t="s">
         <v>181</v>
@@ -12852,10 +13317,10 @@
     </row>
     <row r="307" spans="1:10">
       <c r="A307" t="s">
-        <v>947</v>
+        <v>1017</v>
       </c>
       <c r="C307" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D307" t="s">
         <v>86</v>
@@ -12864,10 +13329,10 @@
         <v>14</v>
       </c>
       <c r="F307" t="s">
-        <v>948</v>
+        <v>1018</v>
       </c>
       <c r="G307" t="s">
-        <v>949</v>
+        <v>1019</v>
       </c>
       <c r="H307" t="s">
         <v>181</v>
@@ -12881,10 +13346,10 @@
     </row>
     <row r="308" spans="1:10">
       <c r="A308" t="s">
-        <v>950</v>
+        <v>1020</v>
       </c>
       <c r="C308" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D308" t="s">
         <v>91</v>
@@ -12893,10 +13358,10 @@
         <v>14</v>
       </c>
       <c r="F308" t="s">
-        <v>902</v>
+        <v>971</v>
       </c>
       <c r="G308" t="s">
-        <v>951</v>
+        <v>1021</v>
       </c>
       <c r="H308" t="s">
         <v>23</v>
@@ -12910,10 +13375,10 @@
     </row>
     <row r="309" spans="1:10">
       <c r="A309" t="s">
-        <v>952</v>
+        <v>1022</v>
       </c>
       <c r="C309" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D309" t="s">
         <v>66</v>
@@ -12922,10 +13387,10 @@
         <v>14</v>
       </c>
       <c r="F309" t="s">
-        <v>953</v>
+        <v>1023</v>
       </c>
       <c r="G309" t="s">
-        <v>954</v>
+        <v>1024</v>
       </c>
       <c r="H309" t="s">
         <v>181</v>
@@ -12939,10 +13404,10 @@
     </row>
     <row r="310" spans="1:10">
       <c r="A310" t="s">
-        <v>955</v>
+        <v>1025</v>
       </c>
       <c r="C310" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D310" t="s">
         <v>143</v>
@@ -12951,7 +13416,7 @@
         <v>14</v>
       </c>
       <c r="F310" t="s">
-        <v>956</v>
+        <v>1026</v>
       </c>
       <c r="G310" t="s">
         <v>27</v>
@@ -12968,10 +13433,10 @@
     </row>
     <row r="311" spans="1:10">
       <c r="A311" t="s">
-        <v>957</v>
+        <v>1027</v>
       </c>
       <c r="C311" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D311" t="s">
         <v>91</v>
@@ -12980,10 +13445,10 @@
         <v>14</v>
       </c>
       <c r="F311" t="s">
-        <v>958</v>
+        <v>1028</v>
       </c>
       <c r="G311" t="s">
-        <v>935</v>
+        <v>1004</v>
       </c>
       <c r="H311" t="s">
         <v>18</v>
@@ -12997,10 +13462,10 @@
     </row>
     <row r="312" spans="1:10">
       <c r="A312" t="s">
-        <v>959</v>
+        <v>1029</v>
       </c>
       <c r="C312" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D312" t="s">
         <v>79</v>
@@ -13009,10 +13474,10 @@
         <v>14</v>
       </c>
       <c r="F312" t="s">
-        <v>960</v>
+        <v>1030</v>
       </c>
       <c r="G312" t="s">
-        <v>961</v>
+        <v>1031</v>
       </c>
       <c r="H312" t="s">
         <v>18</v>
@@ -13026,10 +13491,10 @@
     </row>
     <row r="313" spans="1:10">
       <c r="A313" t="s">
-        <v>962</v>
+        <v>1032</v>
       </c>
       <c r="C313" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D313" t="s">
         <v>91</v>
@@ -13038,7 +13503,7 @@
         <v>14</v>
       </c>
       <c r="F313" t="s">
-        <v>912</v>
+        <v>981</v>
       </c>
       <c r="G313" t="s">
         <v>27</v>
@@ -13055,10 +13520,10 @@
     </row>
     <row r="314" spans="1:10">
       <c r="A314" t="s">
-        <v>963</v>
+        <v>1033</v>
       </c>
       <c r="C314" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D314" t="s">
         <v>112</v>
@@ -13067,10 +13532,10 @@
         <v>14</v>
       </c>
       <c r="F314" t="s">
-        <v>964</v>
+        <v>1034</v>
       </c>
       <c r="G314" t="s">
-        <v>965</v>
+        <v>1035</v>
       </c>
       <c r="H314" t="s">
         <v>23</v>
@@ -13084,10 +13549,10 @@
     </row>
     <row r="315" spans="1:10">
       <c r="A315" t="s">
-        <v>966</v>
+        <v>1036</v>
       </c>
       <c r="C315" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D315" t="s">
         <v>91</v>
@@ -13096,7 +13561,7 @@
         <v>14</v>
       </c>
       <c r="F315" t="s">
-        <v>967</v>
+        <v>1037</v>
       </c>
       <c r="G315" t="s">
         <v>27</v>
@@ -13113,10 +13578,10 @@
     </row>
     <row r="316" spans="1:10">
       <c r="A316" t="s">
-        <v>968</v>
+        <v>1038</v>
       </c>
       <c r="C316" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D316" t="s">
         <v>91</v>
@@ -13125,10 +13590,10 @@
         <v>14</v>
       </c>
       <c r="F316" t="s">
-        <v>969</v>
+        <v>1039</v>
       </c>
       <c r="G316" t="s">
-        <v>970</v>
+        <v>1040</v>
       </c>
       <c r="H316" t="s">
         <v>23</v>
@@ -13142,10 +13607,10 @@
     </row>
     <row r="317" spans="1:10">
       <c r="A317" t="s">
-        <v>971</v>
+        <v>1041</v>
       </c>
       <c r="C317" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D317" t="s">
         <v>122</v>
@@ -13154,7 +13619,7 @@
         <v>14</v>
       </c>
       <c r="F317" t="s">
-        <v>827</v>
+        <v>968</v>
       </c>
       <c r="G317" t="s">
         <v>27</v>
@@ -13171,10 +13636,10 @@
     </row>
     <row r="318" spans="1:10">
       <c r="A318" t="s">
-        <v>972</v>
+        <v>1042</v>
       </c>
       <c r="C318" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D318" t="s">
         <v>158</v>
@@ -13183,10 +13648,10 @@
         <v>14</v>
       </c>
       <c r="F318" t="s">
-        <v>923</v>
+        <v>992</v>
       </c>
       <c r="G318" t="s">
-        <v>973</v>
+        <v>1043</v>
       </c>
       <c r="H318" t="s">
         <v>23</v>
@@ -13200,10 +13665,10 @@
     </row>
     <row r="319" spans="1:10">
       <c r="A319" t="s">
-        <v>974</v>
+        <v>1044</v>
       </c>
       <c r="C319" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D319" t="s">
         <v>86</v>
@@ -13212,10 +13677,10 @@
         <v>14</v>
       </c>
       <c r="F319" t="s">
-        <v>975</v>
+        <v>1045</v>
       </c>
       <c r="G319" t="s">
-        <v>976</v>
+        <v>1046</v>
       </c>
       <c r="H319" t="s">
         <v>562</v>
@@ -13229,10 +13694,10 @@
     </row>
     <row r="320" spans="1:10">
       <c r="A320" t="s">
-        <v>977</v>
+        <v>1047</v>
       </c>
       <c r="C320" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D320" t="s">
         <v>79</v>
@@ -13241,10 +13706,10 @@
         <v>14</v>
       </c>
       <c r="F320" t="s">
-        <v>978</v>
+        <v>1048</v>
       </c>
       <c r="G320" t="s">
-        <v>923</v>
+        <v>992</v>
       </c>
       <c r="H320" t="s">
         <v>18</v>
@@ -13258,10 +13723,10 @@
     </row>
     <row r="321" spans="1:10">
       <c r="A321" t="s">
-        <v>979</v>
+        <v>1049</v>
       </c>
       <c r="C321" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D321" t="s">
         <v>112</v>
@@ -13270,10 +13735,10 @@
         <v>14</v>
       </c>
       <c r="F321" t="s">
-        <v>948</v>
+        <v>1018</v>
       </c>
       <c r="G321" t="s">
-        <v>980</v>
+        <v>1050</v>
       </c>
       <c r="H321" t="s">
         <v>181</v>
@@ -13287,10 +13752,10 @@
     </row>
     <row r="322" spans="1:10">
       <c r="A322" t="s">
-        <v>981</v>
+        <v>1051</v>
       </c>
       <c r="C322" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D322" t="s">
         <v>143</v>
@@ -13299,7 +13764,7 @@
         <v>14</v>
       </c>
       <c r="F322" t="s">
-        <v>849</v>
+        <v>1052</v>
       </c>
       <c r="G322" t="s">
         <v>27</v>
@@ -13316,10 +13781,10 @@
     </row>
     <row r="323" spans="1:10">
       <c r="A323" t="s">
-        <v>982</v>
+        <v>1053</v>
       </c>
       <c r="C323" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D323" t="s">
         <v>143</v>
@@ -13328,7 +13793,7 @@
         <v>14</v>
       </c>
       <c r="F323" t="s">
-        <v>983</v>
+        <v>1054</v>
       </c>
       <c r="G323" t="s">
         <v>109</v>
@@ -13345,10 +13810,10 @@
     </row>
     <row r="324" spans="1:10">
       <c r="A324" t="s">
-        <v>984</v>
+        <v>1055</v>
       </c>
       <c r="C324" t="s">
-        <v>899</v>
+        <v>967</v>
       </c>
       <c r="D324" t="s">
         <v>158</v>
@@ -13357,16 +13822,16 @@
         <v>14</v>
       </c>
       <c r="F324" t="s">
-        <v>985</v>
+        <v>1056</v>
       </c>
       <c r="G324" t="s">
-        <v>888</v>
+        <v>1007</v>
       </c>
       <c r="H324" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="I324" t="s">
-        <v>822</v>
+        <v>868</v>
       </c>
       <c r="J324" t="s">
         <v>229</v>
@@ -13374,10 +13839,10 @@
     </row>
     <row r="325" spans="1:10">
       <c r="A325" t="s">
-        <v>986</v>
+        <v>1057</v>
       </c>
       <c r="C325" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D325" t="s">
         <v>66</v>
@@ -13389,7 +13854,7 @@
         <v>113</v>
       </c>
       <c r="G325" t="s">
-        <v>988</v>
+        <v>1059</v>
       </c>
       <c r="H325" t="s">
         <v>69</v>
@@ -13403,10 +13868,10 @@
     </row>
     <row r="326" spans="1:10">
       <c r="A326" t="s">
-        <v>989</v>
+        <v>1060</v>
       </c>
       <c r="C326" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D326" t="s">
         <v>184</v>
@@ -13415,16 +13880,16 @@
         <v>14</v>
       </c>
       <c r="F326" t="s">
-        <v>990</v>
+        <v>1061</v>
       </c>
       <c r="G326" t="s">
         <v>27</v>
       </c>
       <c r="H326" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="I326" t="s">
-        <v>822</v>
+        <v>868</v>
       </c>
       <c r="J326" t="s">
         <v>17</v>
@@ -13432,10 +13897,10 @@
     </row>
     <row r="327" spans="1:10">
       <c r="A327" t="s">
-        <v>991</v>
+        <v>1062</v>
       </c>
       <c r="C327" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D327" t="s">
         <v>86</v>
@@ -13444,16 +13909,16 @@
         <v>14</v>
       </c>
       <c r="F327" t="s">
-        <v>992</v>
+        <v>1063</v>
       </c>
       <c r="G327" t="s">
         <v>27</v>
       </c>
       <c r="H327" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="I327" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="J327" t="s">
         <v>17</v>
@@ -13461,10 +13926,10 @@
     </row>
     <row r="328" spans="1:10">
       <c r="A328" t="s">
-        <v>993</v>
+        <v>1064</v>
       </c>
       <c r="C328" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D328" t="s">
         <v>53</v>
@@ -13473,16 +13938,16 @@
         <v>14</v>
       </c>
       <c r="F328" t="s">
-        <v>994</v>
+        <v>1065</v>
       </c>
       <c r="G328" t="s">
         <v>27</v>
       </c>
       <c r="H328" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="I328" t="s">
-        <v>822</v>
+        <v>868</v>
       </c>
       <c r="J328" t="s">
         <v>17</v>
@@ -13490,10 +13955,10 @@
     </row>
     <row r="329" spans="1:10">
       <c r="A329" t="s">
-        <v>995</v>
+        <v>1066</v>
       </c>
       <c r="C329" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D329" t="s">
         <v>171</v>
@@ -13502,7 +13967,7 @@
         <v>14</v>
       </c>
       <c r="F329" t="s">
-        <v>731</v>
+        <v>1067</v>
       </c>
       <c r="G329" t="s">
         <v>27</v>
@@ -13516,10 +13981,10 @@
     </row>
     <row r="330" spans="1:10">
       <c r="A330" t="s">
-        <v>996</v>
+        <v>1068</v>
       </c>
       <c r="C330" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D330" t="s">
         <v>86</v>
@@ -13528,16 +13993,16 @@
         <v>14</v>
       </c>
       <c r="F330" t="s">
-        <v>997</v>
+        <v>1069</v>
       </c>
       <c r="G330" t="s">
-        <v>998</v>
+        <v>1070</v>
       </c>
       <c r="H330" t="s">
         <v>229</v>
       </c>
       <c r="I330" t="s">
-        <v>999</v>
+        <v>1071</v>
       </c>
       <c r="J330" t="s">
         <v>450</v>
@@ -13545,10 +14010,10 @@
     </row>
     <row r="331" spans="1:10">
       <c r="A331" t="s">
-        <v>1000</v>
+        <v>1072</v>
       </c>
       <c r="C331" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D331" t="s">
         <v>91</v>
@@ -13557,10 +14022,10 @@
         <v>14</v>
       </c>
       <c r="F331" t="s">
-        <v>1001</v>
+        <v>1073</v>
       </c>
       <c r="G331" t="s">
-        <v>1002</v>
+        <v>1074</v>
       </c>
       <c r="H331" t="s">
         <v>48</v>
@@ -13574,10 +14039,10 @@
     </row>
     <row r="332" spans="1:10">
       <c r="A332" t="s">
-        <v>1003</v>
+        <v>1075</v>
       </c>
       <c r="C332" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D332" t="s">
         <v>79</v>
@@ -13589,13 +14054,13 @@
         <v>259</v>
       </c>
       <c r="G332" t="s">
-        <v>1004</v>
+        <v>1076</v>
       </c>
       <c r="H332" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="I332" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="J332" t="s">
         <v>450</v>
@@ -13603,10 +14068,10 @@
     </row>
     <row r="333" spans="1:10">
       <c r="A333" t="s">
-        <v>1005</v>
+        <v>1077</v>
       </c>
       <c r="C333" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D333" t="s">
         <v>79</v>
@@ -13615,16 +14080,16 @@
         <v>14</v>
       </c>
       <c r="F333" t="s">
-        <v>1006</v>
+        <v>1078</v>
       </c>
       <c r="G333" t="s">
-        <v>1007</v>
+        <v>1079</v>
       </c>
       <c r="H333" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="I333" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="J333" t="s">
         <v>450</v>
@@ -13632,10 +14097,10 @@
     </row>
     <row r="334" spans="1:10">
       <c r="A334" t="s">
-        <v>1008</v>
+        <v>1080</v>
       </c>
       <c r="C334" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D334" t="s">
         <v>86</v>
@@ -13661,10 +14126,10 @@
     </row>
     <row r="335" spans="1:10">
       <c r="A335" t="s">
-        <v>1009</v>
+        <v>1081</v>
       </c>
       <c r="C335" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D335" t="s">
         <v>184</v>
@@ -13673,7 +14138,7 @@
         <v>14</v>
       </c>
       <c r="F335" t="s">
-        <v>901</v>
+        <v>970</v>
       </c>
       <c r="G335" t="s">
         <v>251</v>
@@ -13685,15 +14150,15 @@
         <v>75</v>
       </c>
       <c r="J335" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="336" spans="1:10">
       <c r="A336" t="s">
-        <v>1010</v>
+        <v>1082</v>
       </c>
       <c r="C336" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D336" t="s">
         <v>195</v>
@@ -13702,7 +14167,7 @@
         <v>14</v>
       </c>
       <c r="F336" t="s">
-        <v>1011</v>
+        <v>1083</v>
       </c>
       <c r="G336" t="s">
         <v>109</v>
@@ -13711,7 +14176,7 @@
         <v>48</v>
       </c>
       <c r="I336" t="s">
-        <v>1012</v>
+        <v>1084</v>
       </c>
       <c r="J336" t="s">
         <v>450</v>
@@ -13719,10 +14184,10 @@
     </row>
     <row r="337" spans="1:10">
       <c r="A337" t="s">
-        <v>1013</v>
+        <v>1085</v>
       </c>
       <c r="C337" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D337" t="s">
         <v>122</v>
@@ -13731,10 +14196,10 @@
         <v>14</v>
       </c>
       <c r="F337" t="s">
-        <v>1014</v>
+        <v>1086</v>
       </c>
       <c r="G337" t="s">
-        <v>1015</v>
+        <v>1087</v>
       </c>
       <c r="H337" t="s">
         <v>48</v>
@@ -13748,10 +14213,10 @@
     </row>
     <row r="338" spans="1:10">
       <c r="A338" t="s">
-        <v>1016</v>
+        <v>1088</v>
       </c>
       <c r="C338" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D338" t="s">
         <v>205</v>
@@ -13777,10 +14242,10 @@
     </row>
     <row r="339" spans="1:10">
       <c r="A339" t="s">
-        <v>1017</v>
+        <v>1089</v>
       </c>
       <c r="C339" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D339" t="s">
         <v>171</v>
@@ -13798,7 +14263,7 @@
         <v>241</v>
       </c>
       <c r="I339" t="s">
-        <v>1018</v>
+        <v>1090</v>
       </c>
       <c r="J339" t="s">
         <v>58</v>
@@ -13806,10 +14271,10 @@
     </row>
     <row r="340" spans="1:10">
       <c r="A340" t="s">
-        <v>1019</v>
+        <v>1091</v>
       </c>
       <c r="C340" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D340" t="s">
         <v>91</v>
@@ -13818,16 +14283,16 @@
         <v>14</v>
       </c>
       <c r="F340" t="s">
-        <v>1020</v>
+        <v>1092</v>
       </c>
       <c r="G340" t="s">
-        <v>1021</v>
+        <v>1093</v>
       </c>
       <c r="H340" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="I340" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="J340" t="s">
         <v>450</v>
@@ -13835,10 +14300,10 @@
     </row>
     <row r="341" spans="1:10">
       <c r="A341" t="s">
-        <v>1022</v>
+        <v>1094</v>
       </c>
       <c r="C341" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D341" t="s">
         <v>45</v>
@@ -13850,13 +14315,13 @@
         <v>54</v>
       </c>
       <c r="G341" t="s">
-        <v>1023</v>
+        <v>1095</v>
       </c>
       <c r="H341" t="s">
         <v>229</v>
       </c>
       <c r="I341" t="s">
-        <v>999</v>
+        <v>1071</v>
       </c>
       <c r="J341" t="s">
         <v>450</v>
@@ -13864,10 +14329,10 @@
     </row>
     <row r="342" spans="1:10">
       <c r="A342" t="s">
-        <v>1024</v>
+        <v>1096</v>
       </c>
       <c r="C342" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D342" t="s">
         <v>91</v>
@@ -13876,7 +14341,7 @@
         <v>14</v>
       </c>
       <c r="F342" t="s">
-        <v>731</v>
+        <v>1067</v>
       </c>
       <c r="G342" t="s">
         <v>27</v>
@@ -13893,10 +14358,10 @@
     </row>
     <row r="343" spans="1:10">
       <c r="A343" t="s">
-        <v>1025</v>
+        <v>1097</v>
       </c>
       <c r="C343" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D343" t="s">
         <v>91</v>
@@ -13908,13 +14373,13 @@
         <v>251</v>
       </c>
       <c r="G343" t="s">
-        <v>1026</v>
+        <v>1098</v>
       </c>
       <c r="H343" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="I343" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="J343" t="s">
         <v>450</v>
@@ -13922,10 +14387,10 @@
     </row>
     <row r="344" spans="1:10">
       <c r="A344" t="s">
-        <v>1027</v>
+        <v>1099</v>
       </c>
       <c r="C344" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D344" t="s">
         <v>79</v>
@@ -13934,16 +14399,16 @@
         <v>14</v>
       </c>
       <c r="F344" t="s">
-        <v>1028</v>
+        <v>1100</v>
       </c>
       <c r="G344" t="s">
         <v>47</v>
       </c>
       <c r="H344" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="I344" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="J344" t="s">
         <v>50</v>
@@ -13951,10 +14416,10 @@
     </row>
     <row r="345" spans="1:10">
       <c r="A345" t="s">
-        <v>1029</v>
+        <v>1101</v>
       </c>
       <c r="C345" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D345" t="s">
         <v>112</v>
@@ -13963,16 +14428,16 @@
         <v>14</v>
       </c>
       <c r="F345" t="s">
-        <v>1030</v>
+        <v>1102</v>
       </c>
       <c r="G345" t="s">
-        <v>888</v>
+        <v>1007</v>
       </c>
       <c r="H345" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="I345" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="J345" t="s">
         <v>229</v>
@@ -13980,10 +14445,10 @@
     </row>
     <row r="346" spans="1:10">
       <c r="A346" t="s">
-        <v>1031</v>
+        <v>1103</v>
       </c>
       <c r="C346" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D346" t="s">
         <v>195</v>
@@ -13995,7 +14460,7 @@
         <v>54</v>
       </c>
       <c r="G346" t="s">
-        <v>1023</v>
+        <v>1095</v>
       </c>
       <c r="H346" t="s">
         <v>114</v>
@@ -14009,10 +14474,10 @@
     </row>
     <row r="347" spans="1:10">
       <c r="A347" t="s">
-        <v>1032</v>
+        <v>1104</v>
       </c>
       <c r="C347" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D347" t="s">
         <v>122</v>
@@ -14021,7 +14486,7 @@
         <v>14</v>
       </c>
       <c r="F347" t="s">
-        <v>1033</v>
+        <v>1105</v>
       </c>
       <c r="G347" t="s">
         <v>27</v>
@@ -14038,10 +14503,10 @@
     </row>
     <row r="348" spans="1:10">
       <c r="A348" t="s">
-        <v>1034</v>
+        <v>1106</v>
       </c>
       <c r="C348" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D348" t="s">
         <v>112</v>
@@ -14050,10 +14515,10 @@
         <v>14</v>
       </c>
       <c r="F348" t="s">
-        <v>1035</v>
+        <v>1107</v>
       </c>
       <c r="G348" t="s">
-        <v>1036</v>
+        <v>1108</v>
       </c>
       <c r="H348" t="s">
         <v>241</v>
@@ -14067,10 +14532,10 @@
     </row>
     <row r="349" spans="1:10">
       <c r="A349" t="s">
-        <v>1037</v>
+        <v>1109</v>
       </c>
       <c r="C349" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D349" t="s">
         <v>143</v>
@@ -14079,10 +14544,10 @@
         <v>14</v>
       </c>
       <c r="F349" t="s">
-        <v>1038</v>
+        <v>1110</v>
       </c>
       <c r="G349" t="s">
-        <v>878</v>
+        <v>1111</v>
       </c>
       <c r="H349" t="s">
         <v>241</v>
@@ -14096,10 +14561,10 @@
     </row>
     <row r="350" spans="1:10">
       <c r="A350" t="s">
-        <v>1039</v>
+        <v>1112</v>
       </c>
       <c r="C350" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D350" t="s">
         <v>45</v>
@@ -14108,16 +14573,16 @@
         <v>14</v>
       </c>
       <c r="F350" t="s">
-        <v>990</v>
+        <v>1061</v>
       </c>
       <c r="G350" t="s">
-        <v>1040</v>
+        <v>1113</v>
       </c>
       <c r="H350" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="I350" t="s">
-        <v>822</v>
+        <v>868</v>
       </c>
       <c r="J350" t="s">
         <v>450</v>
@@ -14125,10 +14590,10 @@
     </row>
     <row r="351" spans="1:10">
       <c r="A351" t="s">
-        <v>1041</v>
+        <v>1114</v>
       </c>
       <c r="C351" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D351" t="s">
         <v>91</v>
@@ -14137,16 +14602,16 @@
         <v>14</v>
       </c>
       <c r="F351" t="s">
-        <v>1042</v>
+        <v>1115</v>
       </c>
       <c r="G351" t="s">
         <v>27</v>
       </c>
       <c r="H351" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="I351" t="s">
-        <v>822</v>
+        <v>868</v>
       </c>
       <c r="J351" t="s">
         <v>17</v>
@@ -14154,10 +14619,10 @@
     </row>
     <row r="352" spans="1:10">
       <c r="A352" t="s">
-        <v>1043</v>
+        <v>1116</v>
       </c>
       <c r="C352" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D352" t="s">
         <v>122</v>
@@ -14172,10 +14637,10 @@
         <v>109</v>
       </c>
       <c r="H352" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="I352" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="J352" t="s">
         <v>450</v>
@@ -14183,10 +14648,10 @@
     </row>
     <row r="353" spans="1:10">
       <c r="A353" t="s">
-        <v>1044</v>
+        <v>1117</v>
       </c>
       <c r="C353" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D353" t="s">
         <v>112</v>
@@ -14195,16 +14660,16 @@
         <v>14</v>
       </c>
       <c r="F353" t="s">
-        <v>1045</v>
+        <v>1118</v>
       </c>
       <c r="G353" t="s">
         <v>27</v>
       </c>
       <c r="H353" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="I353" t="s">
-        <v>822</v>
+        <v>868</v>
       </c>
       <c r="J353" t="s">
         <v>17</v>
@@ -14212,10 +14677,10 @@
     </row>
     <row r="354" spans="1:10">
       <c r="A354" t="s">
-        <v>1046</v>
+        <v>1119</v>
       </c>
       <c r="C354" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D354" t="s">
         <v>86</v>
@@ -14224,10 +14689,10 @@
         <v>14</v>
       </c>
       <c r="F354" t="s">
-        <v>1047</v>
+        <v>1120</v>
       </c>
       <c r="G354" t="s">
-        <v>1048</v>
+        <v>1121</v>
       </c>
       <c r="H354" t="s">
         <v>69</v>
@@ -14241,10 +14706,10 @@
     </row>
     <row r="355" spans="1:10">
       <c r="A355" t="s">
-        <v>1049</v>
+        <v>1122</v>
       </c>
       <c r="C355" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D355" t="s">
         <v>248</v>
@@ -14253,7 +14718,7 @@
         <v>14</v>
       </c>
       <c r="F355" t="s">
-        <v>1050</v>
+        <v>1123</v>
       </c>
       <c r="G355" t="s">
         <v>27</v>
@@ -14270,10 +14735,10 @@
     </row>
     <row r="356" spans="1:10">
       <c r="A356" t="s">
-        <v>1051</v>
+        <v>1124</v>
       </c>
       <c r="C356" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D356" t="s">
         <v>195</v>
@@ -14299,10 +14764,10 @@
     </row>
     <row r="357" spans="1:10">
       <c r="A357" t="s">
-        <v>1052</v>
+        <v>1125</v>
       </c>
       <c r="C357" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D357" t="s">
         <v>79</v>
@@ -14311,7 +14776,7 @@
         <v>14</v>
       </c>
       <c r="F357" t="s">
-        <v>1053</v>
+        <v>1126</v>
       </c>
       <c r="G357" t="s">
         <v>47</v>
@@ -14328,10 +14793,10 @@
     </row>
     <row r="358" spans="1:10">
       <c r="A358" t="s">
-        <v>1054</v>
+        <v>1127</v>
       </c>
       <c r="C358" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D358" t="s">
         <v>79</v>
@@ -14340,16 +14805,16 @@
         <v>14</v>
       </c>
       <c r="F358" t="s">
-        <v>1055</v>
+        <v>1128</v>
       </c>
       <c r="G358" t="s">
-        <v>1056</v>
+        <v>1129</v>
       </c>
       <c r="H358" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="I358" t="s">
-        <v>822</v>
+        <v>868</v>
       </c>
       <c r="J358" t="s">
         <v>450</v>
@@ -14360,7 +14825,7 @@
         <v>141</v>
       </c>
       <c r="C359" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D359" t="s">
         <v>143</v>
@@ -14369,16 +14834,16 @@
         <v>14</v>
       </c>
       <c r="F359" t="s">
-        <v>1042</v>
+        <v>1115</v>
       </c>
       <c r="G359" t="s">
-        <v>1057</v>
+        <v>1130</v>
       </c>
       <c r="H359" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="I359" t="s">
-        <v>822</v>
+        <v>868</v>
       </c>
       <c r="J359" t="s">
         <v>450</v>
@@ -14386,10 +14851,10 @@
     </row>
     <row r="360" spans="1:10">
       <c r="A360" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C360" t="s">
         <v>1058</v>
-      </c>
-      <c r="C360" t="s">
-        <v>987</v>
       </c>
       <c r="D360" t="s">
         <v>205</v>
@@ -14398,7 +14863,7 @@
         <v>14</v>
       </c>
       <c r="F360" t="s">
-        <v>1059</v>
+        <v>1132</v>
       </c>
       <c r="G360" t="s">
         <v>47</v>
@@ -14407,7 +14872,7 @@
         <v>229</v>
       </c>
       <c r="I360" t="s">
-        <v>1060</v>
+        <v>1133</v>
       </c>
       <c r="J360" t="s">
         <v>50</v>
@@ -14415,10 +14880,10 @@
     </row>
     <row r="361" spans="1:10">
       <c r="A361" t="s">
-        <v>1061</v>
+        <v>1134</v>
       </c>
       <c r="C361" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D361" t="s">
         <v>79</v>
@@ -14427,7 +14892,7 @@
         <v>14</v>
       </c>
       <c r="F361" t="s">
-        <v>1062</v>
+        <v>1135</v>
       </c>
       <c r="G361" t="s">
         <v>47</v>
@@ -14444,10 +14909,10 @@
     </row>
     <row r="362" spans="1:10">
       <c r="A362" t="s">
-        <v>1063</v>
+        <v>1136</v>
       </c>
       <c r="C362" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D362" t="s">
         <v>171</v>
@@ -14456,16 +14921,16 @@
         <v>14</v>
       </c>
       <c r="F362" t="s">
-        <v>1064</v>
+        <v>1137</v>
       </c>
       <c r="G362" t="s">
         <v>27</v>
       </c>
       <c r="H362" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="I362" t="s">
-        <v>822</v>
+        <v>868</v>
       </c>
       <c r="J362" t="s">
         <v>17</v>
@@ -14473,10 +14938,10 @@
     </row>
     <row r="363" spans="1:10">
       <c r="A363" t="s">
-        <v>1065</v>
+        <v>1138</v>
       </c>
       <c r="C363" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D363" t="s">
         <v>205</v>
@@ -14485,7 +14950,7 @@
         <v>14</v>
       </c>
       <c r="F363" t="s">
-        <v>1066</v>
+        <v>1139</v>
       </c>
       <c r="G363" t="s">
         <v>27</v>
@@ -14502,10 +14967,10 @@
     </row>
     <row r="364" spans="1:10">
       <c r="A364" t="s">
-        <v>1067</v>
+        <v>1140</v>
       </c>
       <c r="C364" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D364" t="s">
         <v>66</v>
@@ -14514,16 +14979,16 @@
         <v>14</v>
       </c>
       <c r="F364" t="s">
-        <v>1064</v>
+        <v>1137</v>
       </c>
       <c r="G364" t="s">
-        <v>1068</v>
+        <v>1141</v>
       </c>
       <c r="H364" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="I364" t="s">
-        <v>822</v>
+        <v>868</v>
       </c>
       <c r="J364" t="s">
         <v>450</v>
@@ -14531,10 +14996,10 @@
     </row>
     <row r="365" spans="1:10">
       <c r="A365" t="s">
-        <v>1069</v>
+        <v>1142</v>
       </c>
       <c r="C365" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D365" t="s">
         <v>248</v>
@@ -14543,16 +15008,16 @@
         <v>14</v>
       </c>
       <c r="F365" t="s">
-        <v>1020</v>
+        <v>1092</v>
       </c>
       <c r="G365" t="s">
         <v>27</v>
       </c>
       <c r="H365" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="I365" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="J365" t="s">
         <v>17</v>
@@ -14560,10 +15025,10 @@
     </row>
     <row r="366" spans="1:10">
       <c r="A366" t="s">
-        <v>1070</v>
+        <v>1143</v>
       </c>
       <c r="C366" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D366" t="s">
         <v>248</v>
@@ -14572,7 +15037,7 @@
         <v>14</v>
       </c>
       <c r="F366" t="s">
-        <v>1071</v>
+        <v>1144</v>
       </c>
       <c r="G366" t="s">
         <v>180</v>
@@ -14589,10 +15054,10 @@
     </row>
     <row r="367" spans="1:10">
       <c r="A367" t="s">
-        <v>1072</v>
+        <v>1145</v>
       </c>
       <c r="C367" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D367" t="s">
         <v>158</v>
@@ -14601,16 +15066,16 @@
         <v>14</v>
       </c>
       <c r="F367" t="s">
-        <v>1028</v>
+        <v>1100</v>
       </c>
       <c r="G367" t="s">
-        <v>1073</v>
+        <v>1146</v>
       </c>
       <c r="H367" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="I367" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="J367" t="s">
         <v>450</v>
@@ -14618,10 +15083,10 @@
     </row>
     <row r="368" spans="1:10">
       <c r="A368" t="s">
-        <v>1074</v>
+        <v>1147</v>
       </c>
       <c r="C368" t="s">
-        <v>987</v>
+        <v>1058</v>
       </c>
       <c r="D368" t="s">
         <v>143</v>
@@ -14630,7 +15095,7 @@
         <v>14</v>
       </c>
       <c r="F368" t="s">
-        <v>1075</v>
+        <v>1148</v>
       </c>
       <c r="G368" t="s">
         <v>109</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18920"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3505" uniqueCount="1149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3552" uniqueCount="1184">
   <si>
     <t>questName</t>
   </si>
@@ -64,7 +64,7 @@
     <t>50분</t>
   </si>
   <si>
-    <t>불로나방(不老蛾) 3마리 납품</t>
+    <t>불로아(不老蛾) 3마리 납품</t>
   </si>
   <si>
     <t>부나하부라(ブナハブラ) 3마리 토벌</t>
@@ -2923,409 +2923,514 @@
     <t>마을★8</t>
   </si>
   <si>
-    <t>タイムアップもしくはネコタクチケットの納品</t>
-  </si>
-  <si>
     <t>竜の卵の納品・ランチ</t>
   </si>
   <si>
+    <t>용의 알 납품・런치</t>
+  </si>
+  <si>
+    <t>밀림(密林)</t>
+  </si>
+  <si>
+    <t>氷海の採集ツアー</t>
+  </si>
+  <si>
+    <t>빙해 채집 투어</t>
+  </si>
+  <si>
+    <t>빙해(氷海)</t>
+  </si>
+  <si>
+    <t>龍識船強化！【溶岩竜編】</t>
+  </si>
+  <si>
+    <t>용식선강화! [용암룡편]</t>
+  </si>
+  <si>
+    <t>볼가노스(ヴォルガノス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>珍肥料を手に入れるのニャ！</t>
+  </si>
+  <si>
+    <t>진비료를 손에 넣는거다냐!</t>
+  </si>
+  <si>
+    <t>불로아(不老蛾) 10마리 납품</t>
+  </si>
+  <si>
+    <t>영원의 화석(久遠の化石) 1개 납품</t>
+  </si>
+  <si>
+    <t>ナイショのお仕事</t>
+  </si>
+  <si>
+    <t>비밀스런 일</t>
+  </si>
+  <si>
+    <t>초식룡의 알(草食竜の卵) 2개 납품</t>
+  </si>
+  <si>
+    <t>たまには釣りでもいかが？</t>
+  </si>
+  <si>
+    <t>가끔씩은 낚시라도 하는게 어때?</t>
+  </si>
+  <si>
+    <t>가노토토스(ガノトトス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>宣伝ネコの受難</t>
+  </si>
+  <si>
+    <t>선전고양이의 수난</t>
+  </si>
+  <si>
+    <t>가라라아쟈라(ガララアジャラ) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>가라라아쟈라(ガララアジャラ)의 머리 파괴</t>
+  </si>
+  <si>
+    <t>7800z</t>
+  </si>
+  <si>
+    <t>なんと、黒狼鳥でした！</t>
+  </si>
+  <si>
+    <t>무려, 흑랑조였습니다!</t>
+  </si>
+  <si>
+    <t>얀가루루가(イャンガルルガ)의 머리 파괴</t>
+  </si>
+  <si>
+    <t>冷血なるドスギアノス！</t>
+  </si>
+  <si>
+    <t>냉혈한 도스기아노스!</t>
+  </si>
+  <si>
+    <t>도스기아노스(ドスギアノス) 2마리 수렵</t>
+  </si>
+  <si>
+    <t>龍識船強化！【迅竜編】</t>
+  </si>
+  <si>
+    <t>욕식선강화! [신룡편]</t>
+  </si>
+  <si>
+    <t>나루가크루가(ナルガクルガ) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>密林の採集ツアー</t>
+  </si>
+  <si>
+    <t>밀림 채집 투어</t>
+  </si>
+  <si>
+    <t>火山の厄介者たち</t>
+  </si>
+  <si>
+    <t>화산의 골칫거리들</t>
+  </si>
+  <si>
+    <t>바살모스(バサルモス) 1마리와 도스이오스(ドスイーオス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>道化師は斯く嘲る</t>
+  </si>
+  <si>
+    <t>광대는 이렇게 비웃는다</t>
+  </si>
+  <si>
+    <t>호로로호루루(ホロロホルル)의 꼬리 파괴</t>
+  </si>
+  <si>
+    <t>熱地に現る、ウラガンキン！</t>
+  </si>
+  <si>
+    <t>열대에 나타나다, 우라간킨!</t>
+  </si>
+  <si>
+    <t>우라간킨(ウラガンキン)의 꼬리 절단</t>
+  </si>
+  <si>
+    <t>ものぐさには爆鎚竜で喝！</t>
+  </si>
+  <si>
+    <t>게으름뱅이에게는 폭추룡으로 갈!</t>
+  </si>
+  <si>
+    <t>지저화산(地底火山)</t>
+  </si>
+  <si>
+    <t>でっかい岩だと思ったら…？</t>
+  </si>
+  <si>
+    <t>커다란 바위라고 생각했더니...?</t>
+  </si>
+  <si>
+    <t>바살모스(バサルモス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>飛んで跳ねて無我夢中</t>
+  </si>
+  <si>
+    <t>날고 뛰어오르며 무아무중</t>
+  </si>
+  <si>
+    <t>케챠와챠(ケチャワチャ) 1마리와 도스마콰(ドスマッカォ) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>砂まみれですな</t>
+  </si>
+  <si>
+    <t>모래투성이군요</t>
+  </si>
+  <si>
+    <t>하플봇카(ハプルボッカ) 1마리와 도스가레오스(ドスガレオス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>沼地の恐怖体験</t>
+  </si>
+  <si>
+    <t>늪지의 공포체험</t>
+  </si>
+  <si>
+    <t>쇼군기자미(ショウグンギザミ) 1마리와 바바콩가(ババコンガ) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>陸の女王、捕獲作戦！</t>
+  </si>
+  <si>
+    <t>육지의 여왕, 포획작전!</t>
+  </si>
+  <si>
+    <t>리오레이아(リオレイア) 1마리 포획</t>
+  </si>
+  <si>
+    <t>喰われる前にヤレ！</t>
+  </si>
+  <si>
+    <t>먹히기 전에 해치워라!</t>
+  </si>
+  <si>
+    <t>하플봇카(ハプルボッカ)의 아가미 파괴</t>
+  </si>
+  <si>
+    <t>狩人のための舞台～氷海～</t>
+  </si>
+  <si>
+    <t>사냥꾼을 위한 무대 ~빙해~</t>
+  </si>
+  <si>
+    <t>푸르푸르(フルフル) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>스쿠아길(スクアギル) 6마리 토벌</t>
+  </si>
+  <si>
+    <t>山嶺を舞うリオレイア</t>
+  </si>
+  <si>
+    <t>산봉우리에서 춤추는 리오레이아</t>
+  </si>
+  <si>
+    <t>転がれ！転がせ！赤い牙獣</t>
+  </si>
+  <si>
+    <t>굴러라! 굴려라! 붉은 아수</t>
+  </si>
+  <si>
+    <t>랑그로토라(ラングロトラ)의 등 파괴</t>
+  </si>
+  <si>
+    <t>原生林に巣食う蜘蛛</t>
+  </si>
+  <si>
+    <t>원시림에 둥지를 튼 거미</t>
+  </si>
+  <si>
+    <t>네르스큐라(ネルスキュラ) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>おやつは高層エリンギ</t>
+  </si>
+  <si>
+    <t>간식은 고층새송이버섯</t>
+  </si>
+  <si>
+    <t>고층새송이버섯(高層エリンギ) 10개 납품</t>
+  </si>
+  <si>
+    <t>はじける貝殻マネー</t>
+  </si>
+  <si>
+    <t>여물어서 터지는 조개 껍데기 흉내</t>
+  </si>
+  <si>
+    <t>예쁜 조개껍데기(きれいな貝殻) 10개 납품</t>
+  </si>
+  <si>
+    <t>블루팡고(ブルファンゴ) 8마리 토벌</t>
+  </si>
+  <si>
+    <t>龍識船強化！【水竜編】</t>
+  </si>
+  <si>
+    <t>용식선강화! [수룡편]</t>
+  </si>
+  <si>
+    <t>ホワイトアウト</t>
+  </si>
+  <si>
+    <t>화이트 아웃</t>
+  </si>
+  <si>
+    <t>블랑고(ブランゴ) 6마리 토벌</t>
+  </si>
+  <si>
+    <t>美しき、遺群嶺</t>
+  </si>
+  <si>
+    <t>아름다운 유군령</t>
+  </si>
+  <si>
+    <t>쿤츄(クンチュウ)와 오르타로스(オルタロス) 합계 20마리 토벌</t>
+  </si>
+  <si>
+    <t>切り裂かれた誇り</t>
+  </si>
+  <si>
+    <t>찢어발겨진 긍지</t>
+  </si>
+  <si>
+    <t>地底火山の採集ツアー</t>
+  </si>
+  <si>
+    <t>지저화산 채집 투어</t>
+  </si>
+  <si>
+    <t>ナルガクルガのお手本</t>
+  </si>
+  <si>
+    <t>나루가크루가의 본보기</t>
+  </si>
+  <si>
+    <t>루도로스(ルドロス) 6마리 토벌</t>
+  </si>
+  <si>
+    <t>ぷくぅーっ！ザボアザギル！</t>
+  </si>
+  <si>
+    <t>퓨우웃! 자보아자길</t>
+  </si>
+  <si>
+    <t>자보아자길(ザボアザギル) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>자보아자길(ザボアザギル)의 머리 파과</t>
+  </si>
+  <si>
+    <t>雷光の先の面影</t>
+  </si>
+  <si>
+    <t>뇌광 앞의 모습</t>
+  </si>
+  <si>
+    <t>대뇌광충(大雷光虫) 15마리 토벌</t>
+  </si>
+  <si>
+    <t>フルフルのまごころ診療所</t>
+  </si>
+  <si>
+    <t>푸르푸르의 진심 진료소</t>
+  </si>
+  <si>
+    <t>푸르푸르(フルフル)의 몸통 파괴</t>
+  </si>
+  <si>
+    <t>桃毛獣のトサカ破壊に挑戦！</t>
+  </si>
+  <si>
+    <t>도모수의 볏 파괴 도전!</t>
+  </si>
+  <si>
+    <t>嗚呼素晴らしき也、絞蛇竜</t>
+  </si>
+  <si>
+    <t>아아 훌륭하도다, 교사룡</t>
+  </si>
+  <si>
+    <t>가라라아쟈라(ガララアジャラ) 1마리 포획</t>
+  </si>
+  <si>
+    <t>孤島からの伝書</t>
+  </si>
+  <si>
+    <t>고도로부터의 전서</t>
+  </si>
+  <si>
+    <t>호로로호루루(ホロロホルル) 1마리와 테츠카브라(テツカブラ) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>轟竜の狩猟をさせてやるぜ！</t>
+  </si>
+  <si>
+    <t>굉룡 수렵을 시켜주지!</t>
+  </si>
+  <si>
+    <t>마을★9</t>
+  </si>
+  <si>
+    <t>ティガレックスの尻尾切断</t>
+  </si>
+  <si>
+    <t>ライゼクス、再び！</t>
+  </si>
+  <si>
+    <t>라이젝스, 다시한번!</t>
+  </si>
+  <si>
+    <t>ライゼクス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>龍識船強化！【氷牙竜編】</t>
+  </si>
+  <si>
+    <t>용식선강화! [빙아룡편]</t>
+  </si>
+  <si>
+    <t>ベリオロス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>タマミツネ、再び！</t>
+  </si>
+  <si>
+    <t>타마미츠네, 다시한번!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タマミツネ１頭の狩猟 </t>
+  </si>
+  <si>
+    <t>騎士と古代林の挑戦</t>
+  </si>
+  <si>
+    <t>기사와 고대림의 도전</t>
+  </si>
+  <si>
+    <t>キリンの討伐</t>
+  </si>
+  <si>
+    <t>ガムートの強さは世界一</t>
+  </si>
+  <si>
+    <t>ガムート１頭の捕獲</t>
+  </si>
+  <si>
+    <t>ガムートの頭部破壊</t>
+  </si>
+  <si>
+    <t>11400z</t>
+  </si>
+  <si>
+    <t>嗚呼素晴らしき也、雷狼竜</t>
+  </si>
+  <si>
+    <t>ジンオウガ１頭の捕獲</t>
+  </si>
+  <si>
+    <t>ガブラス５頭の討伐</t>
+  </si>
+  <si>
+    <t>犯人はキミだ、雷狼竜</t>
+  </si>
+  <si>
+    <t>ジンオウガの頭部破壊</t>
+  </si>
+  <si>
+    <t>突撃取材！巨大甲虫を追え！</t>
+  </si>
+  <si>
+    <t>ゲネル・セルタス１匹の狩猟</t>
+  </si>
+  <si>
+    <t>ゲネル・セルタスの尻尾破壊</t>
+  </si>
+  <si>
+    <t>氷海に君臨する者</t>
+  </si>
+  <si>
+    <t>割り込み受注：卵納品</t>
+  </si>
+  <si>
     <t>竜の卵２個の納品</t>
   </si>
   <si>
-    <t>リオレイア１頭の狩猟</t>
-  </si>
-  <si>
-    <t>氷海の採集ツアー</t>
-  </si>
-  <si>
-    <t>龍識船強化！【溶岩竜編】</t>
-  </si>
-  <si>
-    <t>ヴォルガノス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>珍肥料を手に入れるのニャ！</t>
-  </si>
-  <si>
-    <t>不老蛾１０匹の納品</t>
-  </si>
-  <si>
-    <t>久遠の化石１個の納品</t>
-  </si>
-  <si>
-    <t>ナイショのお仕事</t>
-  </si>
-  <si>
-    <t>たまには釣りでもいかが？</t>
-  </si>
-  <si>
-    <t>黄金魚３匹の納品</t>
-  </si>
-  <si>
-    <t>ガノトトス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>宣伝ネコの受難</t>
-  </si>
-  <si>
-    <t>ガララアジャラ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ガララアジャラの頭部破壊</t>
-  </si>
-  <si>
-    <t>7800z</t>
-  </si>
-  <si>
-    <t>なんと、黒狼鳥でした！</t>
-  </si>
-  <si>
-    <t>イャンガルルガ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>イャンガルルガの頭部破壊</t>
-  </si>
-  <si>
-    <t>冷血なるドスギアノス！</t>
-  </si>
-  <si>
-    <t>ドスギアノス２頭の狩猟</t>
-  </si>
-  <si>
-    <t>龍識船強化！【迅竜編】</t>
-  </si>
-  <si>
-    <t>ナルガクルガ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>密林の採集ツアー</t>
-  </si>
-  <si>
-    <t>火山の厄介者たち</t>
-  </si>
-  <si>
-    <t>バサルモス１頭とドスイーオス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>道化師は斯く嘲る</t>
-  </si>
-  <si>
-    <t>ホロロホルル１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ホロロホルルの尻尾破壊</t>
-  </si>
-  <si>
-    <t>熱地に現る、ウラガンキン！</t>
-  </si>
-  <si>
-    <t>ウラガンキン１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ウラガンキンの尻尾切断</t>
-  </si>
-  <si>
-    <t>ものぐさには爆鎚竜で喝！</t>
-  </si>
-  <si>
-    <t>でっかい岩だと思ったら…？</t>
-  </si>
-  <si>
-    <t>バサルモス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>飛んで跳ねて無我夢中</t>
-  </si>
-  <si>
-    <t>ケチャワチャ１頭とドスマッカォ１頭の狩猟</t>
+    <t>轟竜と赤甲獣のデュエット</t>
+  </si>
+  <si>
+    <t>ティガレックス１頭とラングロトラ１頭の狩猟</t>
+  </si>
+  <si>
+    <t>10500z</t>
+  </si>
+  <si>
+    <t>アグナコトルの捕獲</t>
+  </si>
+  <si>
+    <t>アグナコトル１頭の捕獲</t>
+  </si>
+  <si>
+    <t>ウロコトル５頭の討伐</t>
+  </si>
+  <si>
+    <t>火山の迷惑集団襲来！</t>
+  </si>
+  <si>
+    <t>古代林の大運動会</t>
+  </si>
+  <si>
+    <t>9300z</t>
+  </si>
+  <si>
+    <t>鎧竜は、とってもグルメ？</t>
+  </si>
+  <si>
+    <t>グラビモス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>グラビモスの頭部破壊</t>
+  </si>
+  <si>
+    <t>凶運の遺跡平原</t>
+  </si>
+  <si>
+    <t>乗りによるダウンを４回成功</t>
+  </si>
+  <si>
+    <t>美しき幻獣</t>
+  </si>
+  <si>
+    <t>遺群嶺の火竜</t>
+  </si>
+  <si>
+    <t>リオレウスの翼破壊</t>
+  </si>
+  <si>
+    <t>海竜、沈降開始</t>
+  </si>
+  <si>
+    <t>ラギアクルス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>雪山、雪玉、雪合戦！！</t>
+  </si>
+  <si>
+    <t>ドドブランゴ１頭とウルクスス１頭の狩猟</t>
   </si>
   <si>
     <t>龍歴院ポイント５００pts入手</t>
-  </si>
-  <si>
-    <t>砂まみれですな</t>
-  </si>
-  <si>
-    <t>ハプルボッカ１頭とドスガレオス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>沼地の恐怖体験</t>
-  </si>
-  <si>
-    <t>ショウグンギザミ１匹とババコンガ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>陸の女王、捕獲作戦！</t>
-  </si>
-  <si>
-    <t>リオレイア１頭の捕獲</t>
-  </si>
-  <si>
-    <t>喰われる前にヤレ！</t>
-  </si>
-  <si>
-    <t>ハプルボッカ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ハプルボッカのエラ破壊</t>
-  </si>
-  <si>
-    <t>狩人のための舞台～氷海～</t>
-  </si>
-  <si>
-    <t>フルフル１頭の狩猟</t>
-  </si>
-  <si>
-    <t>スクアギル６頭の討伐</t>
-  </si>
-  <si>
-    <t>山嶺を舞うリオレイア</t>
-  </si>
-  <si>
-    <t>リオレイアの尻尾切断</t>
-  </si>
-  <si>
-    <t>転がれ！転がせ！赤い牙獣</t>
-  </si>
-  <si>
-    <t>ラングロトラ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ラングロトラの背中破壊</t>
-  </si>
-  <si>
-    <t>原生林に巣食う蜘蛛</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネルスキュラ１匹の狩猟 </t>
-  </si>
-  <si>
-    <t>おやつは高層エリンギ</t>
-  </si>
-  <si>
-    <t>高層エリンギ１０個の納品</t>
-  </si>
-  <si>
-    <t>はじける貝殻マネー</t>
-  </si>
-  <si>
-    <t>きれいな貝殻１０個の納品</t>
-  </si>
-  <si>
-    <t>ブルファンゴ８頭の討伐</t>
-  </si>
-  <si>
-    <t>龍識船強化！【水竜編】</t>
-  </si>
-  <si>
-    <t>ホワイトアウト</t>
-  </si>
-  <si>
-    <t>ドドブランゴ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ブランゴ６頭の討伐</t>
-  </si>
-  <si>
-    <t>美しき、遺群嶺</t>
-  </si>
-  <si>
-    <t>クンチュウとオルタロス合計２０匹の討伐</t>
-  </si>
-  <si>
-    <t>切り裂かれた誇り</t>
-  </si>
-  <si>
-    <t>ショウグンギザミ１匹の狩猟</t>
-  </si>
-  <si>
-    <t>ショウグンギザミのヤド破壊</t>
-  </si>
-  <si>
-    <t>地底火山の採集ツアー</t>
-  </si>
-  <si>
-    <t>ナルガクルガのお手本</t>
-  </si>
-  <si>
-    <t>ルドロス５頭の討伐</t>
-  </si>
-  <si>
-    <t>ぷくぅーっ！ザボアザギル！</t>
-  </si>
-  <si>
-    <t>ザボアザギル１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ザボアザギルの頭部破壊</t>
-  </si>
-  <si>
-    <t>雷光の先の面影</t>
-  </si>
-  <si>
-    <t>大雷光虫１５匹の討伐</t>
-  </si>
-  <si>
-    <t>フルフルのまごころ診療所</t>
-  </si>
-  <si>
-    <t>フルフルの胴体破壊</t>
-  </si>
-  <si>
-    <t>桃毛獣のトサカ破壊に挑戦！</t>
-  </si>
-  <si>
-    <t>ババコンガのトサカ破壊</t>
-  </si>
-  <si>
-    <t>嗚呼素晴らしき也、絞蛇竜</t>
-  </si>
-  <si>
-    <t>ガララアジャラ１頭の捕獲</t>
-  </si>
-  <si>
-    <t>孤島からの伝書</t>
-  </si>
-  <si>
-    <t>ホロロホルル１頭とテツカブラ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>轟竜の狩猟をさせてやるぜ！</t>
-  </si>
-  <si>
-    <t>마을★9</t>
-  </si>
-  <si>
-    <t>ティガレックスの尻尾切断</t>
-  </si>
-  <si>
-    <t>ライゼクス、再び！</t>
-  </si>
-  <si>
-    <t>ライゼクス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>龍識船強化！【氷牙竜編】</t>
-  </si>
-  <si>
-    <t>ベリオロス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>タマミツネ、再び！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タマミツネ１頭の狩猟 </t>
-  </si>
-  <si>
-    <t>騎士と古代林の挑戦</t>
-  </si>
-  <si>
-    <t>キリンの討伐</t>
-  </si>
-  <si>
-    <t>ガムートの強さは世界一</t>
-  </si>
-  <si>
-    <t>ガムート１頭の捕獲</t>
-  </si>
-  <si>
-    <t>ガムートの頭部破壊</t>
-  </si>
-  <si>
-    <t>11400z</t>
-  </si>
-  <si>
-    <t>嗚呼素晴らしき也、雷狼竜</t>
-  </si>
-  <si>
-    <t>ジンオウガ１頭の捕獲</t>
-  </si>
-  <si>
-    <t>ガブラス５頭の討伐</t>
-  </si>
-  <si>
-    <t>犯人はキミだ、雷狼竜</t>
-  </si>
-  <si>
-    <t>ジンオウガの頭部破壊</t>
-  </si>
-  <si>
-    <t>突撃取材！巨大甲虫を追え！</t>
-  </si>
-  <si>
-    <t>ゲネル・セルタス１匹の狩猟</t>
-  </si>
-  <si>
-    <t>ゲネル・セルタスの尻尾破壊</t>
-  </si>
-  <si>
-    <t>氷海に君臨する者</t>
-  </si>
-  <si>
-    <t>割り込み受注：卵納品</t>
-  </si>
-  <si>
-    <t>轟竜と赤甲獣のデュエット</t>
-  </si>
-  <si>
-    <t>ティガレックス１頭とラングロトラ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>10500z</t>
-  </si>
-  <si>
-    <t>アグナコトルの捕獲</t>
-  </si>
-  <si>
-    <t>アグナコトル１頭の捕獲</t>
-  </si>
-  <si>
-    <t>ウロコトル５頭の討伐</t>
-  </si>
-  <si>
-    <t>火山の迷惑集団襲来！</t>
-  </si>
-  <si>
-    <t>古代林の大運動会</t>
-  </si>
-  <si>
-    <t>9300z</t>
-  </si>
-  <si>
-    <t>鎧竜は、とってもグルメ？</t>
-  </si>
-  <si>
-    <t>グラビモス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>グラビモスの頭部破壊</t>
-  </si>
-  <si>
-    <t>凶運の遺跡平原</t>
-  </si>
-  <si>
-    <t>乗りによるダウンを４回成功</t>
-  </si>
-  <si>
-    <t>美しき幻獣</t>
-  </si>
-  <si>
-    <t>遺群嶺の火竜</t>
-  </si>
-  <si>
-    <t>リオレウスの翼破壊</t>
-  </si>
-  <si>
-    <t>海竜、沈降開始</t>
-  </si>
-  <si>
-    <t>ラギアクルス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>雪山、雪玉、雪合戦！！</t>
-  </si>
-  <si>
-    <t>ドドブランゴ１頭とウルクスス１頭の狩猟</t>
   </si>
   <si>
     <t>旧砂漠でゆらめく蜃気楼</t>
@@ -3841,8 +3946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B272" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="G281" sqref="G281"/>
+    <sheetView tabSelected="1" topLeftCell="F313" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="G324" sqref="G324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12623,17 +12728,20 @@
       <c r="A283" t="s">
         <v>550</v>
       </c>
+      <c r="B283" t="s">
+        <v>551</v>
+      </c>
       <c r="C283" t="s">
         <v>967</v>
       </c>
       <c r="D283" t="s">
-        <v>205</v>
+        <v>535</v>
       </c>
       <c r="E283" t="s">
         <v>14</v>
       </c>
       <c r="F283" t="s">
-        <v>968</v>
+        <v>305</v>
       </c>
       <c r="G283" t="s">
         <v>27</v>
@@ -12650,22 +12758,25 @@
     </row>
     <row r="284" spans="1:10">
       <c r="A284" t="s">
+        <v>968</v>
+      </c>
+      <c r="B284" t="s">
         <v>969</v>
       </c>
       <c r="C284" t="s">
         <v>967</v>
       </c>
       <c r="D284" t="s">
-        <v>79</v>
+        <v>970</v>
       </c>
       <c r="E284" t="s">
         <v>14</v>
       </c>
       <c r="F284" t="s">
-        <v>970</v>
+        <v>934</v>
       </c>
       <c r="G284" t="s">
-        <v>971</v>
+        <v>619</v>
       </c>
       <c r="H284" t="s">
         <v>181</v>
@@ -12679,19 +12790,22 @@
     </row>
     <row r="285" spans="1:10">
       <c r="A285" t="s">
+        <v>971</v>
+      </c>
+      <c r="B285" t="s">
         <v>972</v>
       </c>
       <c r="C285" t="s">
         <v>967</v>
       </c>
       <c r="D285" t="s">
-        <v>86</v>
+        <v>973</v>
       </c>
       <c r="E285" t="s">
         <v>14</v>
       </c>
       <c r="F285" t="s">
-        <v>968</v>
+        <v>305</v>
       </c>
       <c r="G285" t="s">
         <v>27</v>
@@ -12708,19 +12822,22 @@
     </row>
     <row r="286" spans="1:10">
       <c r="A286" t="s">
-        <v>973</v>
+        <v>974</v>
+      </c>
+      <c r="B286" t="s">
+        <v>975</v>
       </c>
       <c r="C286" t="s">
         <v>967</v>
       </c>
       <c r="D286" t="s">
-        <v>205</v>
+        <v>535</v>
       </c>
       <c r="E286" t="s">
         <v>14</v>
       </c>
       <c r="F286" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="G286" t="s">
         <v>27</v>
@@ -12737,22 +12854,25 @@
     </row>
     <row r="287" spans="1:10">
       <c r="A287" t="s">
-        <v>975</v>
+        <v>977</v>
+      </c>
+      <c r="B287" t="s">
+        <v>978</v>
       </c>
       <c r="C287" t="s">
         <v>967</v>
       </c>
       <c r="D287" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="E287" t="s">
         <v>14</v>
       </c>
       <c r="F287" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="G287" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="H287" t="s">
         <v>18</v>
@@ -12766,19 +12886,22 @@
     </row>
     <row r="288" spans="1:10">
       <c r="A288" t="s">
-        <v>978</v>
+        <v>981</v>
+      </c>
+      <c r="B288" t="s">
+        <v>982</v>
       </c>
       <c r="C288" t="s">
         <v>967</v>
       </c>
       <c r="D288" t="s">
-        <v>66</v>
+        <v>879</v>
       </c>
       <c r="E288" t="s">
         <v>14</v>
       </c>
       <c r="F288" t="s">
-        <v>167</v>
+        <v>983</v>
       </c>
       <c r="G288" t="s">
         <v>27</v>
@@ -12795,22 +12918,25 @@
     </row>
     <row r="289" spans="1:10">
       <c r="A289" t="s">
-        <v>979</v>
+        <v>984</v>
+      </c>
+      <c r="B289" t="s">
+        <v>985</v>
       </c>
       <c r="C289" t="s">
         <v>967</v>
       </c>
       <c r="D289" t="s">
-        <v>53</v>
+        <v>286</v>
       </c>
       <c r="E289" t="s">
         <v>14</v>
       </c>
       <c r="F289" t="s">
-        <v>980</v>
+        <v>627</v>
       </c>
       <c r="G289" t="s">
-        <v>981</v>
+        <v>986</v>
       </c>
       <c r="H289" t="s">
         <v>18</v>
@@ -12824,28 +12950,31 @@
     </row>
     <row r="290" spans="1:10">
       <c r="A290" t="s">
-        <v>982</v>
+        <v>987</v>
+      </c>
+      <c r="B290" t="s">
+        <v>988</v>
       </c>
       <c r="C290" t="s">
         <v>967</v>
       </c>
       <c r="D290" t="s">
-        <v>184</v>
+        <v>267</v>
       </c>
       <c r="E290" t="s">
         <v>14</v>
       </c>
       <c r="F290" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="G290" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="H290" t="s">
         <v>750</v>
       </c>
       <c r="I290" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="J290" t="s">
         <v>82</v>
@@ -12853,22 +12982,25 @@
     </row>
     <row r="291" spans="1:10">
       <c r="A291" t="s">
-        <v>986</v>
+        <v>992</v>
+      </c>
+      <c r="B291" t="s">
+        <v>993</v>
       </c>
       <c r="C291" t="s">
         <v>967</v>
       </c>
       <c r="D291" t="s">
-        <v>79</v>
+        <v>970</v>
       </c>
       <c r="E291" t="s">
         <v>14</v>
       </c>
       <c r="F291" t="s">
-        <v>987</v>
+        <v>694</v>
       </c>
       <c r="G291" t="s">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="H291" t="s">
         <v>23</v>
@@ -12882,19 +13014,22 @@
     </row>
     <row r="292" spans="1:10">
       <c r="A292" t="s">
-        <v>989</v>
+        <v>995</v>
+      </c>
+      <c r="B292" t="s">
+        <v>996</v>
       </c>
       <c r="C292" t="s">
         <v>967</v>
       </c>
       <c r="D292" t="s">
-        <v>112</v>
+        <v>278</v>
       </c>
       <c r="E292" t="s">
         <v>14</v>
       </c>
       <c r="F292" t="s">
-        <v>990</v>
+        <v>997</v>
       </c>
       <c r="G292" t="s">
         <v>27</v>
@@ -12911,19 +13046,22 @@
     </row>
     <row r="293" spans="1:10">
       <c r="A293" t="s">
-        <v>991</v>
+        <v>998</v>
+      </c>
+      <c r="B293" t="s">
+        <v>999</v>
       </c>
       <c r="C293" t="s">
         <v>967</v>
       </c>
       <c r="D293" t="s">
-        <v>79</v>
+        <v>970</v>
       </c>
       <c r="E293" t="s">
         <v>14</v>
       </c>
       <c r="F293" t="s">
-        <v>992</v>
+        <v>1000</v>
       </c>
       <c r="G293" t="s">
         <v>27</v>
@@ -12942,17 +13080,20 @@
       <c r="A294" t="s">
         <v>461</v>
       </c>
+      <c r="B294" t="s">
+        <v>462</v>
+      </c>
       <c r="C294" t="s">
         <v>967</v>
       </c>
       <c r="D294" t="s">
-        <v>158</v>
+        <v>413</v>
       </c>
       <c r="E294" t="s">
         <v>14</v>
       </c>
       <c r="F294" t="s">
-        <v>968</v>
+        <v>305</v>
       </c>
       <c r="G294" t="s">
         <v>27</v>
@@ -12969,19 +13110,22 @@
     </row>
     <row r="295" spans="1:10">
       <c r="A295" t="s">
-        <v>993</v>
+        <v>1001</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1002</v>
       </c>
       <c r="C295" t="s">
         <v>967</v>
       </c>
       <c r="D295" t="s">
-        <v>79</v>
+        <v>970</v>
       </c>
       <c r="E295" t="s">
         <v>14</v>
       </c>
       <c r="F295" t="s">
-        <v>968</v>
+        <v>305</v>
       </c>
       <c r="G295" t="s">
         <v>27</v>
@@ -12998,22 +13142,25 @@
     </row>
     <row r="296" spans="1:10">
       <c r="A296" t="s">
-        <v>994</v>
+        <v>1003</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1004</v>
       </c>
       <c r="C296" t="s">
         <v>967</v>
       </c>
       <c r="D296" t="s">
-        <v>205</v>
+        <v>535</v>
       </c>
       <c r="E296" t="s">
         <v>14</v>
       </c>
       <c r="F296" t="s">
-        <v>995</v>
+        <v>1005</v>
       </c>
       <c r="G296" t="s">
-        <v>47</v>
+        <v>914</v>
       </c>
       <c r="H296" t="s">
         <v>733</v>
@@ -13029,17 +13176,20 @@
       <c r="A297" t="s">
         <v>406</v>
       </c>
+      <c r="B297" t="s">
+        <v>407</v>
+      </c>
       <c r="C297" t="s">
         <v>967</v>
       </c>
       <c r="D297" t="s">
-        <v>248</v>
+        <v>389</v>
       </c>
       <c r="E297" t="s">
         <v>14</v>
       </c>
       <c r="F297" t="s">
-        <v>968</v>
+        <v>305</v>
       </c>
       <c r="G297" t="s">
         <v>27</v>
@@ -13056,22 +13206,25 @@
     </row>
     <row r="298" spans="1:10">
       <c r="A298" t="s">
-        <v>996</v>
+        <v>1006</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1007</v>
       </c>
       <c r="C298" t="s">
         <v>967</v>
       </c>
       <c r="D298" t="s">
-        <v>91</v>
+        <v>872</v>
       </c>
       <c r="E298" t="s">
         <v>14</v>
       </c>
       <c r="F298" t="s">
-        <v>997</v>
+        <v>592</v>
       </c>
       <c r="G298" t="s">
-        <v>998</v>
+        <v>1008</v>
       </c>
       <c r="H298" t="s">
         <v>562</v>
@@ -13085,22 +13238,25 @@
     </row>
     <row r="299" spans="1:10">
       <c r="A299" t="s">
-        <v>999</v>
+        <v>1009</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1010</v>
       </c>
       <c r="C299" t="s">
         <v>967</v>
       </c>
       <c r="D299" t="s">
-        <v>205</v>
+        <v>535</v>
       </c>
       <c r="E299" t="s">
         <v>14</v>
       </c>
       <c r="F299" t="s">
-        <v>1000</v>
+        <v>710</v>
       </c>
       <c r="G299" t="s">
-        <v>1001</v>
+        <v>1011</v>
       </c>
       <c r="H299" t="s">
         <v>733</v>
@@ -13114,22 +13270,25 @@
     </row>
     <row r="300" spans="1:10">
       <c r="A300" t="s">
-        <v>1002</v>
+        <v>1012</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1013</v>
       </c>
       <c r="C300" t="s">
         <v>967</v>
       </c>
       <c r="D300" t="s">
-        <v>122</v>
+        <v>1014</v>
       </c>
       <c r="E300" t="s">
         <v>14</v>
       </c>
       <c r="F300" t="s">
-        <v>1000</v>
+        <v>710</v>
       </c>
       <c r="G300" t="s">
-        <v>109</v>
+        <v>288</v>
       </c>
       <c r="H300" t="s">
         <v>733</v>
@@ -13143,22 +13302,25 @@
     </row>
     <row r="301" spans="1:10">
       <c r="A301" t="s">
-        <v>1003</v>
+        <v>1015</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1016</v>
       </c>
       <c r="C301" t="s">
         <v>967</v>
       </c>
       <c r="D301" t="s">
-        <v>248</v>
+        <v>389</v>
       </c>
       <c r="E301" t="s">
         <v>14</v>
       </c>
       <c r="F301" t="s">
-        <v>1004</v>
+        <v>1017</v>
       </c>
       <c r="G301" t="s">
-        <v>109</v>
+        <v>288</v>
       </c>
       <c r="H301" t="s">
         <v>562</v>
@@ -13172,22 +13334,25 @@
     </row>
     <row r="302" spans="1:10">
       <c r="A302" t="s">
-        <v>1005</v>
+        <v>1018</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1019</v>
       </c>
       <c r="C302" t="s">
         <v>967</v>
       </c>
       <c r="D302" t="s">
-        <v>45</v>
+        <v>941</v>
       </c>
       <c r="E302" t="s">
         <v>14</v>
       </c>
       <c r="F302" t="s">
-        <v>1006</v>
+        <v>1020</v>
       </c>
       <c r="G302" t="s">
-        <v>1007</v>
+        <v>369</v>
       </c>
       <c r="H302" t="s">
         <v>562</v>
@@ -13201,22 +13366,25 @@
     </row>
     <row r="303" spans="1:10">
       <c r="A303" t="s">
-        <v>1008</v>
+        <v>1021</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1022</v>
       </c>
       <c r="C303" t="s">
         <v>967</v>
       </c>
       <c r="D303" t="s">
-        <v>195</v>
+        <v>309</v>
       </c>
       <c r="E303" t="s">
         <v>14</v>
       </c>
       <c r="F303" t="s">
-        <v>1009</v>
+        <v>1023</v>
       </c>
       <c r="G303" t="s">
-        <v>47</v>
+        <v>914</v>
       </c>
       <c r="H303" t="s">
         <v>23</v>
@@ -13230,22 +13398,25 @@
     </row>
     <row r="304" spans="1:10">
       <c r="A304" t="s">
-        <v>1010</v>
+        <v>1024</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1025</v>
       </c>
       <c r="C304" t="s">
         <v>967</v>
       </c>
       <c r="D304" t="s">
-        <v>248</v>
+        <v>389</v>
       </c>
       <c r="E304" t="s">
         <v>14</v>
       </c>
       <c r="F304" t="s">
-        <v>1011</v>
+        <v>1026</v>
       </c>
       <c r="G304" t="s">
-        <v>1007</v>
+        <v>369</v>
       </c>
       <c r="H304" t="s">
         <v>69</v>
@@ -13259,28 +13430,31 @@
     </row>
     <row r="305" spans="1:10">
       <c r="A305" t="s">
-        <v>1012</v>
+        <v>1027</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1028</v>
       </c>
       <c r="C305" t="s">
         <v>967</v>
       </c>
       <c r="D305" t="s">
-        <v>158</v>
+        <v>413</v>
       </c>
       <c r="E305" t="s">
         <v>14</v>
       </c>
       <c r="F305" t="s">
-        <v>1013</v>
+        <v>1029</v>
       </c>
       <c r="G305" t="s">
-        <v>47</v>
+        <v>914</v>
       </c>
       <c r="H305" t="s">
         <v>750</v>
       </c>
       <c r="I305" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="J305" t="s">
         <v>50</v>
@@ -13288,22 +13462,25 @@
     </row>
     <row r="306" spans="1:10">
       <c r="A306" t="s">
-        <v>1014</v>
+        <v>1030</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1031</v>
       </c>
       <c r="C306" t="s">
         <v>967</v>
       </c>
       <c r="D306" t="s">
-        <v>66</v>
+        <v>879</v>
       </c>
       <c r="E306" t="s">
         <v>14</v>
       </c>
       <c r="F306" t="s">
-        <v>1015</v>
+        <v>513</v>
       </c>
       <c r="G306" t="s">
-        <v>1016</v>
+        <v>1032</v>
       </c>
       <c r="H306" t="s">
         <v>181</v>
@@ -13317,22 +13494,25 @@
     </row>
     <row r="307" spans="1:10">
       <c r="A307" t="s">
-        <v>1017</v>
+        <v>1033</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1034</v>
       </c>
       <c r="C307" t="s">
         <v>967</v>
       </c>
       <c r="D307" t="s">
-        <v>86</v>
+        <v>973</v>
       </c>
       <c r="E307" t="s">
         <v>14</v>
       </c>
       <c r="F307" t="s">
-        <v>1018</v>
+        <v>1035</v>
       </c>
       <c r="G307" t="s">
-        <v>1019</v>
+        <v>1036</v>
       </c>
       <c r="H307" t="s">
         <v>181</v>
@@ -13346,22 +13526,25 @@
     </row>
     <row r="308" spans="1:10">
       <c r="A308" t="s">
-        <v>1020</v>
+        <v>1037</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1038</v>
       </c>
       <c r="C308" t="s">
         <v>967</v>
       </c>
       <c r="D308" t="s">
-        <v>91</v>
+        <v>872</v>
       </c>
       <c r="E308" t="s">
         <v>14</v>
       </c>
       <c r="F308" t="s">
-        <v>971</v>
+        <v>619</v>
       </c>
       <c r="G308" t="s">
-        <v>1021</v>
+        <v>603</v>
       </c>
       <c r="H308" t="s">
         <v>23</v>
@@ -13375,22 +13558,25 @@
     </row>
     <row r="309" spans="1:10">
       <c r="A309" t="s">
-        <v>1022</v>
+        <v>1039</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1040</v>
       </c>
       <c r="C309" t="s">
         <v>967</v>
       </c>
       <c r="D309" t="s">
-        <v>66</v>
+        <v>879</v>
       </c>
       <c r="E309" t="s">
         <v>14</v>
       </c>
       <c r="F309" t="s">
-        <v>1023</v>
+        <v>575</v>
       </c>
       <c r="G309" t="s">
-        <v>1024</v>
+        <v>1041</v>
       </c>
       <c r="H309" t="s">
         <v>181</v>
@@ -13404,19 +13590,22 @@
     </row>
     <row r="310" spans="1:10">
       <c r="A310" t="s">
-        <v>1025</v>
+        <v>1042</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1043</v>
       </c>
       <c r="C310" t="s">
         <v>967</v>
       </c>
       <c r="D310" t="s">
-        <v>143</v>
+        <v>850</v>
       </c>
       <c r="E310" t="s">
         <v>14</v>
       </c>
       <c r="F310" t="s">
-        <v>1026</v>
+        <v>1044</v>
       </c>
       <c r="G310" t="s">
         <v>27</v>
@@ -13433,22 +13622,25 @@
     </row>
     <row r="311" spans="1:10">
       <c r="A311" t="s">
-        <v>1027</v>
+        <v>1045</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1046</v>
       </c>
       <c r="C311" t="s">
         <v>967</v>
       </c>
       <c r="D311" t="s">
-        <v>91</v>
+        <v>872</v>
       </c>
       <c r="E311" t="s">
         <v>14</v>
       </c>
       <c r="F311" t="s">
-        <v>1028</v>
+        <v>1047</v>
       </c>
       <c r="G311" t="s">
-        <v>1004</v>
+        <v>1017</v>
       </c>
       <c r="H311" t="s">
         <v>18</v>
@@ -13462,22 +13654,25 @@
     </row>
     <row r="312" spans="1:10">
       <c r="A312" t="s">
-        <v>1029</v>
+        <v>1048</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1049</v>
       </c>
       <c r="C312" t="s">
         <v>967</v>
       </c>
       <c r="D312" t="s">
-        <v>79</v>
+        <v>970</v>
       </c>
       <c r="E312" t="s">
         <v>14</v>
       </c>
       <c r="F312" t="s">
-        <v>1030</v>
+        <v>1050</v>
       </c>
       <c r="G312" t="s">
-        <v>1031</v>
+        <v>1051</v>
       </c>
       <c r="H312" t="s">
         <v>18</v>
@@ -13491,19 +13686,22 @@
     </row>
     <row r="313" spans="1:10">
       <c r="A313" t="s">
-        <v>1032</v>
+        <v>1052</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1053</v>
       </c>
       <c r="C313" t="s">
         <v>967</v>
       </c>
       <c r="D313" t="s">
-        <v>91</v>
+        <v>872</v>
       </c>
       <c r="E313" t="s">
         <v>14</v>
       </c>
       <c r="F313" t="s">
-        <v>981</v>
+        <v>986</v>
       </c>
       <c r="G313" t="s">
         <v>27</v>
@@ -13520,22 +13718,25 @@
     </row>
     <row r="314" spans="1:10">
       <c r="A314" t="s">
-        <v>1033</v>
+        <v>1054</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1055</v>
       </c>
       <c r="C314" t="s">
         <v>967</v>
       </c>
       <c r="D314" t="s">
-        <v>112</v>
+        <v>278</v>
       </c>
       <c r="E314" t="s">
         <v>14</v>
       </c>
       <c r="F314" t="s">
-        <v>1034</v>
+        <v>554</v>
       </c>
       <c r="G314" t="s">
-        <v>1035</v>
+        <v>1056</v>
       </c>
       <c r="H314" t="s">
         <v>23</v>
@@ -13549,19 +13750,22 @@
     </row>
     <row r="315" spans="1:10">
       <c r="A315" t="s">
-        <v>1036</v>
+        <v>1057</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1058</v>
       </c>
       <c r="C315" t="s">
         <v>967</v>
       </c>
       <c r="D315" t="s">
-        <v>91</v>
+        <v>872</v>
       </c>
       <c r="E315" t="s">
         <v>14</v>
       </c>
       <c r="F315" t="s">
-        <v>1037</v>
+        <v>1059</v>
       </c>
       <c r="G315" t="s">
         <v>27</v>
@@ -13578,22 +13782,25 @@
     </row>
     <row r="316" spans="1:10">
       <c r="A316" t="s">
-        <v>1038</v>
+        <v>1060</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1061</v>
       </c>
       <c r="C316" t="s">
         <v>967</v>
       </c>
       <c r="D316" t="s">
-        <v>91</v>
+        <v>872</v>
       </c>
       <c r="E316" t="s">
         <v>14</v>
       </c>
       <c r="F316" t="s">
-        <v>1039</v>
+        <v>538</v>
       </c>
       <c r="G316" t="s">
-        <v>1040</v>
+        <v>624</v>
       </c>
       <c r="H316" t="s">
         <v>23</v>
@@ -13607,19 +13814,22 @@
     </row>
     <row r="317" spans="1:10">
       <c r="A317" t="s">
-        <v>1041</v>
+        <v>1062</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1063</v>
       </c>
       <c r="C317" t="s">
         <v>967</v>
       </c>
       <c r="D317" t="s">
-        <v>122</v>
+        <v>1014</v>
       </c>
       <c r="E317" t="s">
         <v>14</v>
       </c>
       <c r="F317" t="s">
-        <v>968</v>
+        <v>305</v>
       </c>
       <c r="G317" t="s">
         <v>27</v>
@@ -13636,22 +13846,25 @@
     </row>
     <row r="318" spans="1:10">
       <c r="A318" t="s">
-        <v>1042</v>
+        <v>1064</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1065</v>
       </c>
       <c r="C318" t="s">
         <v>967</v>
       </c>
       <c r="D318" t="s">
-        <v>158</v>
+        <v>413</v>
       </c>
       <c r="E318" t="s">
         <v>14</v>
       </c>
       <c r="F318" t="s">
-        <v>992</v>
+        <v>1000</v>
       </c>
       <c r="G318" t="s">
-        <v>1043</v>
+        <v>1066</v>
       </c>
       <c r="H318" t="s">
         <v>23</v>
@@ -13665,22 +13878,25 @@
     </row>
     <row r="319" spans="1:10">
       <c r="A319" t="s">
-        <v>1044</v>
+        <v>1067</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1068</v>
       </c>
       <c r="C319" t="s">
         <v>967</v>
       </c>
       <c r="D319" t="s">
-        <v>86</v>
+        <v>973</v>
       </c>
       <c r="E319" t="s">
         <v>14</v>
       </c>
       <c r="F319" t="s">
-        <v>1045</v>
+        <v>1069</v>
       </c>
       <c r="G319" t="s">
-        <v>1046</v>
+        <v>1070</v>
       </c>
       <c r="H319" t="s">
         <v>562</v>
@@ -13694,22 +13910,25 @@
     </row>
     <row r="320" spans="1:10">
       <c r="A320" t="s">
-        <v>1047</v>
+        <v>1071</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1072</v>
       </c>
       <c r="C320" t="s">
         <v>967</v>
       </c>
       <c r="D320" t="s">
-        <v>79</v>
+        <v>970</v>
       </c>
       <c r="E320" t="s">
         <v>14</v>
       </c>
       <c r="F320" t="s">
-        <v>1048</v>
+        <v>1073</v>
       </c>
       <c r="G320" t="s">
-        <v>992</v>
+        <v>1000</v>
       </c>
       <c r="H320" t="s">
         <v>18</v>
@@ -13723,22 +13942,25 @@
     </row>
     <row r="321" spans="1:10">
       <c r="A321" t="s">
-        <v>1049</v>
+        <v>1074</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1075</v>
       </c>
       <c r="C321" t="s">
         <v>967</v>
       </c>
       <c r="D321" t="s">
-        <v>112</v>
+        <v>278</v>
       </c>
       <c r="E321" t="s">
         <v>14</v>
       </c>
       <c r="F321" t="s">
-        <v>1018</v>
+        <v>1035</v>
       </c>
       <c r="G321" t="s">
-        <v>1050</v>
+        <v>1076</v>
       </c>
       <c r="H321" t="s">
         <v>181</v>
@@ -13752,19 +13974,22 @@
     </row>
     <row r="322" spans="1:10">
       <c r="A322" t="s">
-        <v>1051</v>
+        <v>1077</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1078</v>
       </c>
       <c r="C322" t="s">
         <v>967</v>
       </c>
       <c r="D322" t="s">
-        <v>143</v>
+        <v>850</v>
       </c>
       <c r="E322" t="s">
         <v>14</v>
       </c>
       <c r="F322" t="s">
-        <v>1052</v>
+        <v>904</v>
       </c>
       <c r="G322" t="s">
         <v>27</v>
@@ -13781,22 +14006,25 @@
     </row>
     <row r="323" spans="1:10">
       <c r="A323" t="s">
-        <v>1053</v>
+        <v>1079</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1080</v>
       </c>
       <c r="C323" t="s">
         <v>967</v>
       </c>
       <c r="D323" t="s">
-        <v>143</v>
+        <v>850</v>
       </c>
       <c r="E323" t="s">
         <v>14</v>
       </c>
       <c r="F323" t="s">
-        <v>1054</v>
+        <v>1081</v>
       </c>
       <c r="G323" t="s">
-        <v>109</v>
+        <v>288</v>
       </c>
       <c r="H323" t="s">
         <v>69</v>
@@ -13810,22 +14038,25 @@
     </row>
     <row r="324" spans="1:10">
       <c r="A324" t="s">
-        <v>1055</v>
+        <v>1082</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1083</v>
       </c>
       <c r="C324" t="s">
         <v>967</v>
       </c>
       <c r="D324" t="s">
-        <v>158</v>
+        <v>413</v>
       </c>
       <c r="E324" t="s">
         <v>14</v>
       </c>
       <c r="F324" t="s">
-        <v>1056</v>
+        <v>1084</v>
       </c>
       <c r="G324" t="s">
-        <v>1007</v>
+        <v>369</v>
       </c>
       <c r="H324" t="s">
         <v>750</v>
@@ -13839,13 +14070,16 @@
     </row>
     <row r="325" spans="1:10">
       <c r="A325" t="s">
-        <v>1057</v>
+        <v>1085</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1086</v>
       </c>
       <c r="C325" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D325" t="s">
-        <v>66</v>
+        <v>879</v>
       </c>
       <c r="E325" t="s">
         <v>14</v>
@@ -13854,7 +14088,7 @@
         <v>113</v>
       </c>
       <c r="G325" t="s">
-        <v>1059</v>
+        <v>1088</v>
       </c>
       <c r="H325" t="s">
         <v>69</v>
@@ -13868,19 +14102,22 @@
     </row>
     <row r="326" spans="1:10">
       <c r="A326" t="s">
-        <v>1060</v>
+        <v>1089</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1090</v>
       </c>
       <c r="C326" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D326" t="s">
-        <v>184</v>
+        <v>267</v>
       </c>
       <c r="E326" t="s">
         <v>14</v>
       </c>
       <c r="F326" t="s">
-        <v>1061</v>
+        <v>1091</v>
       </c>
       <c r="G326" t="s">
         <v>27</v>
@@ -13897,19 +14134,22 @@
     </row>
     <row r="327" spans="1:10">
       <c r="A327" t="s">
-        <v>1062</v>
+        <v>1092</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1093</v>
       </c>
       <c r="C327" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D327" t="s">
-        <v>86</v>
+        <v>973</v>
       </c>
       <c r="E327" t="s">
         <v>14</v>
       </c>
       <c r="F327" t="s">
-        <v>1063</v>
+        <v>1094</v>
       </c>
       <c r="G327" t="s">
         <v>27</v>
@@ -13926,10 +14166,13 @@
     </row>
     <row r="328" spans="1:10">
       <c r="A328" t="s">
-        <v>1064</v>
+        <v>1095</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1096</v>
       </c>
       <c r="C328" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D328" t="s">
         <v>53</v>
@@ -13938,7 +14181,7 @@
         <v>14</v>
       </c>
       <c r="F328" t="s">
-        <v>1065</v>
+        <v>1097</v>
       </c>
       <c r="G328" t="s">
         <v>27</v>
@@ -13955,10 +14198,13 @@
     </row>
     <row r="329" spans="1:10">
       <c r="A329" t="s">
-        <v>1066</v>
+        <v>1098</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1099</v>
       </c>
       <c r="C329" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D329" t="s">
         <v>171</v>
@@ -13967,7 +14213,7 @@
         <v>14</v>
       </c>
       <c r="F329" t="s">
-        <v>1067</v>
+        <v>1100</v>
       </c>
       <c r="G329" t="s">
         <v>27</v>
@@ -13981,10 +14227,10 @@
     </row>
     <row r="330" spans="1:10">
       <c r="A330" t="s">
-        <v>1068</v>
+        <v>1101</v>
       </c>
       <c r="C330" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D330" t="s">
         <v>86</v>
@@ -13993,16 +14239,16 @@
         <v>14</v>
       </c>
       <c r="F330" t="s">
-        <v>1069</v>
+        <v>1102</v>
       </c>
       <c r="G330" t="s">
-        <v>1070</v>
+        <v>1103</v>
       </c>
       <c r="H330" t="s">
         <v>229</v>
       </c>
       <c r="I330" t="s">
-        <v>1071</v>
+        <v>1104</v>
       </c>
       <c r="J330" t="s">
         <v>450</v>
@@ -14010,10 +14256,10 @@
     </row>
     <row r="331" spans="1:10">
       <c r="A331" t="s">
-        <v>1072</v>
+        <v>1105</v>
       </c>
       <c r="C331" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D331" t="s">
         <v>91</v>
@@ -14022,10 +14268,10 @@
         <v>14</v>
       </c>
       <c r="F331" t="s">
-        <v>1073</v>
+        <v>1106</v>
       </c>
       <c r="G331" t="s">
-        <v>1074</v>
+        <v>1107</v>
       </c>
       <c r="H331" t="s">
         <v>48</v>
@@ -14039,10 +14285,10 @@
     </row>
     <row r="332" spans="1:10">
       <c r="A332" t="s">
-        <v>1075</v>
+        <v>1108</v>
       </c>
       <c r="C332" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D332" t="s">
         <v>79</v>
@@ -14054,7 +14300,7 @@
         <v>259</v>
       </c>
       <c r="G332" t="s">
-        <v>1076</v>
+        <v>1109</v>
       </c>
       <c r="H332" t="s">
         <v>750</v>
@@ -14068,10 +14314,10 @@
     </row>
     <row r="333" spans="1:10">
       <c r="A333" t="s">
-        <v>1077</v>
+        <v>1110</v>
       </c>
       <c r="C333" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D333" t="s">
         <v>79</v>
@@ -14080,10 +14326,10 @@
         <v>14</v>
       </c>
       <c r="F333" t="s">
-        <v>1078</v>
+        <v>1111</v>
       </c>
       <c r="G333" t="s">
-        <v>1079</v>
+        <v>1112</v>
       </c>
       <c r="H333" t="s">
         <v>733</v>
@@ -14097,10 +14343,10 @@
     </row>
     <row r="334" spans="1:10">
       <c r="A334" t="s">
-        <v>1080</v>
+        <v>1113</v>
       </c>
       <c r="C334" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D334" t="s">
         <v>86</v>
@@ -14126,10 +14372,10 @@
     </row>
     <row r="335" spans="1:10">
       <c r="A335" t="s">
-        <v>1081</v>
+        <v>1114</v>
       </c>
       <c r="C335" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D335" t="s">
         <v>184</v>
@@ -14138,7 +14384,7 @@
         <v>14</v>
       </c>
       <c r="F335" t="s">
-        <v>970</v>
+        <v>1115</v>
       </c>
       <c r="G335" t="s">
         <v>251</v>
@@ -14155,10 +14401,10 @@
     </row>
     <row r="336" spans="1:10">
       <c r="A336" t="s">
-        <v>1082</v>
+        <v>1116</v>
       </c>
       <c r="C336" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D336" t="s">
         <v>195</v>
@@ -14167,7 +14413,7 @@
         <v>14</v>
       </c>
       <c r="F336" t="s">
-        <v>1083</v>
+        <v>1117</v>
       </c>
       <c r="G336" t="s">
         <v>109</v>
@@ -14176,7 +14422,7 @@
         <v>48</v>
       </c>
       <c r="I336" t="s">
-        <v>1084</v>
+        <v>1118</v>
       </c>
       <c r="J336" t="s">
         <v>450</v>
@@ -14184,10 +14430,10 @@
     </row>
     <row r="337" spans="1:10">
       <c r="A337" t="s">
-        <v>1085</v>
+        <v>1119</v>
       </c>
       <c r="C337" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D337" t="s">
         <v>122</v>
@@ -14196,10 +14442,10 @@
         <v>14</v>
       </c>
       <c r="F337" t="s">
-        <v>1086</v>
+        <v>1120</v>
       </c>
       <c r="G337" t="s">
-        <v>1087</v>
+        <v>1121</v>
       </c>
       <c r="H337" t="s">
         <v>48</v>
@@ -14213,10 +14459,10 @@
     </row>
     <row r="338" spans="1:10">
       <c r="A338" t="s">
-        <v>1088</v>
+        <v>1122</v>
       </c>
       <c r="C338" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D338" t="s">
         <v>205</v>
@@ -14242,10 +14488,10 @@
     </row>
     <row r="339" spans="1:10">
       <c r="A339" t="s">
-        <v>1089</v>
+        <v>1123</v>
       </c>
       <c r="C339" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D339" t="s">
         <v>171</v>
@@ -14263,7 +14509,7 @@
         <v>241</v>
       </c>
       <c r="I339" t="s">
-        <v>1090</v>
+        <v>1124</v>
       </c>
       <c r="J339" t="s">
         <v>58</v>
@@ -14271,10 +14517,10 @@
     </row>
     <row r="340" spans="1:10">
       <c r="A340" t="s">
-        <v>1091</v>
+        <v>1125</v>
       </c>
       <c r="C340" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D340" t="s">
         <v>91</v>
@@ -14283,10 +14529,10 @@
         <v>14</v>
       </c>
       <c r="F340" t="s">
-        <v>1092</v>
+        <v>1126</v>
       </c>
       <c r="G340" t="s">
-        <v>1093</v>
+        <v>1127</v>
       </c>
       <c r="H340" t="s">
         <v>750</v>
@@ -14300,10 +14546,10 @@
     </row>
     <row r="341" spans="1:10">
       <c r="A341" t="s">
-        <v>1094</v>
+        <v>1128</v>
       </c>
       <c r="C341" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D341" t="s">
         <v>45</v>
@@ -14315,13 +14561,13 @@
         <v>54</v>
       </c>
       <c r="G341" t="s">
-        <v>1095</v>
+        <v>1129</v>
       </c>
       <c r="H341" t="s">
         <v>229</v>
       </c>
       <c r="I341" t="s">
-        <v>1071</v>
+        <v>1104</v>
       </c>
       <c r="J341" t="s">
         <v>450</v>
@@ -14329,10 +14575,10 @@
     </row>
     <row r="342" spans="1:10">
       <c r="A342" t="s">
-        <v>1096</v>
+        <v>1130</v>
       </c>
       <c r="C342" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D342" t="s">
         <v>91</v>
@@ -14341,7 +14587,7 @@
         <v>14</v>
       </c>
       <c r="F342" t="s">
-        <v>1067</v>
+        <v>1100</v>
       </c>
       <c r="G342" t="s">
         <v>27</v>
@@ -14358,10 +14604,10 @@
     </row>
     <row r="343" spans="1:10">
       <c r="A343" t="s">
-        <v>1097</v>
+        <v>1131</v>
       </c>
       <c r="C343" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D343" t="s">
         <v>91</v>
@@ -14373,7 +14619,7 @@
         <v>251</v>
       </c>
       <c r="G343" t="s">
-        <v>1098</v>
+        <v>1132</v>
       </c>
       <c r="H343" t="s">
         <v>733</v>
@@ -14387,10 +14633,10 @@
     </row>
     <row r="344" spans="1:10">
       <c r="A344" t="s">
-        <v>1099</v>
+        <v>1133</v>
       </c>
       <c r="C344" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D344" t="s">
         <v>79</v>
@@ -14399,7 +14645,7 @@
         <v>14</v>
       </c>
       <c r="F344" t="s">
-        <v>1100</v>
+        <v>1134</v>
       </c>
       <c r="G344" t="s">
         <v>47</v>
@@ -14416,10 +14662,10 @@
     </row>
     <row r="345" spans="1:10">
       <c r="A345" t="s">
-        <v>1101</v>
+        <v>1135</v>
       </c>
       <c r="C345" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D345" t="s">
         <v>112</v>
@@ -14428,10 +14674,10 @@
         <v>14</v>
       </c>
       <c r="F345" t="s">
-        <v>1102</v>
+        <v>1136</v>
       </c>
       <c r="G345" t="s">
-        <v>1007</v>
+        <v>1137</v>
       </c>
       <c r="H345" t="s">
         <v>750</v>
@@ -14445,10 +14691,10 @@
     </row>
     <row r="346" spans="1:10">
       <c r="A346" t="s">
-        <v>1103</v>
+        <v>1138</v>
       </c>
       <c r="C346" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D346" t="s">
         <v>195</v>
@@ -14460,7 +14706,7 @@
         <v>54</v>
       </c>
       <c r="G346" t="s">
-        <v>1095</v>
+        <v>1129</v>
       </c>
       <c r="H346" t="s">
         <v>114</v>
@@ -14474,10 +14720,10 @@
     </row>
     <row r="347" spans="1:10">
       <c r="A347" t="s">
-        <v>1104</v>
+        <v>1139</v>
       </c>
       <c r="C347" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D347" t="s">
         <v>122</v>
@@ -14486,7 +14732,7 @@
         <v>14</v>
       </c>
       <c r="F347" t="s">
-        <v>1105</v>
+        <v>1140</v>
       </c>
       <c r="G347" t="s">
         <v>27</v>
@@ -14503,10 +14749,10 @@
     </row>
     <row r="348" spans="1:10">
       <c r="A348" t="s">
-        <v>1106</v>
+        <v>1141</v>
       </c>
       <c r="C348" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D348" t="s">
         <v>112</v>
@@ -14515,10 +14761,10 @@
         <v>14</v>
       </c>
       <c r="F348" t="s">
-        <v>1107</v>
+        <v>1142</v>
       </c>
       <c r="G348" t="s">
-        <v>1108</v>
+        <v>1143</v>
       </c>
       <c r="H348" t="s">
         <v>241</v>
@@ -14532,10 +14778,10 @@
     </row>
     <row r="349" spans="1:10">
       <c r="A349" t="s">
-        <v>1109</v>
+        <v>1144</v>
       </c>
       <c r="C349" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D349" t="s">
         <v>143</v>
@@ -14544,10 +14790,10 @@
         <v>14</v>
       </c>
       <c r="F349" t="s">
-        <v>1110</v>
+        <v>1145</v>
       </c>
       <c r="G349" t="s">
-        <v>1111</v>
+        <v>1146</v>
       </c>
       <c r="H349" t="s">
         <v>241</v>
@@ -14561,10 +14807,10 @@
     </row>
     <row r="350" spans="1:10">
       <c r="A350" t="s">
-        <v>1112</v>
+        <v>1147</v>
       </c>
       <c r="C350" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D350" t="s">
         <v>45</v>
@@ -14573,10 +14819,10 @@
         <v>14</v>
       </c>
       <c r="F350" t="s">
-        <v>1061</v>
+        <v>1091</v>
       </c>
       <c r="G350" t="s">
-        <v>1113</v>
+        <v>1148</v>
       </c>
       <c r="H350" t="s">
         <v>750</v>
@@ -14590,10 +14836,10 @@
     </row>
     <row r="351" spans="1:10">
       <c r="A351" t="s">
-        <v>1114</v>
+        <v>1149</v>
       </c>
       <c r="C351" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D351" t="s">
         <v>91</v>
@@ -14602,7 +14848,7 @@
         <v>14</v>
       </c>
       <c r="F351" t="s">
-        <v>1115</v>
+        <v>1150</v>
       </c>
       <c r="G351" t="s">
         <v>27</v>
@@ -14619,10 +14865,10 @@
     </row>
     <row r="352" spans="1:10">
       <c r="A352" t="s">
-        <v>1116</v>
+        <v>1151</v>
       </c>
       <c r="C352" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D352" t="s">
         <v>122</v>
@@ -14648,10 +14894,10 @@
     </row>
     <row r="353" spans="1:10">
       <c r="A353" t="s">
-        <v>1117</v>
+        <v>1152</v>
       </c>
       <c r="C353" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D353" t="s">
         <v>112</v>
@@ -14660,7 +14906,7 @@
         <v>14</v>
       </c>
       <c r="F353" t="s">
-        <v>1118</v>
+        <v>1153</v>
       </c>
       <c r="G353" t="s">
         <v>27</v>
@@ -14677,10 +14923,10 @@
     </row>
     <row r="354" spans="1:10">
       <c r="A354" t="s">
-        <v>1119</v>
+        <v>1154</v>
       </c>
       <c r="C354" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D354" t="s">
         <v>86</v>
@@ -14689,10 +14935,10 @@
         <v>14</v>
       </c>
       <c r="F354" t="s">
-        <v>1120</v>
+        <v>1155</v>
       </c>
       <c r="G354" t="s">
-        <v>1121</v>
+        <v>1156</v>
       </c>
       <c r="H354" t="s">
         <v>69</v>
@@ -14706,10 +14952,10 @@
     </row>
     <row r="355" spans="1:10">
       <c r="A355" t="s">
-        <v>1122</v>
+        <v>1157</v>
       </c>
       <c r="C355" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D355" t="s">
         <v>248</v>
@@ -14718,7 +14964,7 @@
         <v>14</v>
       </c>
       <c r="F355" t="s">
-        <v>1123</v>
+        <v>1158</v>
       </c>
       <c r="G355" t="s">
         <v>27</v>
@@ -14735,10 +14981,10 @@
     </row>
     <row r="356" spans="1:10">
       <c r="A356" t="s">
-        <v>1124</v>
+        <v>1159</v>
       </c>
       <c r="C356" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D356" t="s">
         <v>195</v>
@@ -14764,10 +15010,10 @@
     </row>
     <row r="357" spans="1:10">
       <c r="A357" t="s">
-        <v>1125</v>
+        <v>1160</v>
       </c>
       <c r="C357" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D357" t="s">
         <v>79</v>
@@ -14776,7 +15022,7 @@
         <v>14</v>
       </c>
       <c r="F357" t="s">
-        <v>1126</v>
+        <v>1161</v>
       </c>
       <c r="G357" t="s">
         <v>47</v>
@@ -14793,10 +15039,10 @@
     </row>
     <row r="358" spans="1:10">
       <c r="A358" t="s">
-        <v>1127</v>
+        <v>1162</v>
       </c>
       <c r="C358" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D358" t="s">
         <v>79</v>
@@ -14805,10 +15051,10 @@
         <v>14</v>
       </c>
       <c r="F358" t="s">
-        <v>1128</v>
+        <v>1163</v>
       </c>
       <c r="G358" t="s">
-        <v>1129</v>
+        <v>1164</v>
       </c>
       <c r="H358" t="s">
         <v>750</v>
@@ -14825,7 +15071,7 @@
         <v>141</v>
       </c>
       <c r="C359" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D359" t="s">
         <v>143</v>
@@ -14834,10 +15080,10 @@
         <v>14</v>
       </c>
       <c r="F359" t="s">
-        <v>1115</v>
+        <v>1150</v>
       </c>
       <c r="G359" t="s">
-        <v>1130</v>
+        <v>1165</v>
       </c>
       <c r="H359" t="s">
         <v>750</v>
@@ -14851,10 +15097,10 @@
     </row>
     <row r="360" spans="1:10">
       <c r="A360" t="s">
-        <v>1131</v>
+        <v>1166</v>
       </c>
       <c r="C360" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D360" t="s">
         <v>205</v>
@@ -14863,7 +15109,7 @@
         <v>14</v>
       </c>
       <c r="F360" t="s">
-        <v>1132</v>
+        <v>1167</v>
       </c>
       <c r="G360" t="s">
         <v>47</v>
@@ -14872,7 +15118,7 @@
         <v>229</v>
       </c>
       <c r="I360" t="s">
-        <v>1133</v>
+        <v>1168</v>
       </c>
       <c r="J360" t="s">
         <v>50</v>
@@ -14880,10 +15126,10 @@
     </row>
     <row r="361" spans="1:10">
       <c r="A361" t="s">
-        <v>1134</v>
+        <v>1169</v>
       </c>
       <c r="C361" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D361" t="s">
         <v>79</v>
@@ -14892,7 +15138,7 @@
         <v>14</v>
       </c>
       <c r="F361" t="s">
-        <v>1135</v>
+        <v>1170</v>
       </c>
       <c r="G361" t="s">
         <v>47</v>
@@ -14909,10 +15155,10 @@
     </row>
     <row r="362" spans="1:10">
       <c r="A362" t="s">
-        <v>1136</v>
+        <v>1171</v>
       </c>
       <c r="C362" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D362" t="s">
         <v>171</v>
@@ -14921,7 +15167,7 @@
         <v>14</v>
       </c>
       <c r="F362" t="s">
-        <v>1137</v>
+        <v>1172</v>
       </c>
       <c r="G362" t="s">
         <v>27</v>
@@ -14938,10 +15184,10 @@
     </row>
     <row r="363" spans="1:10">
       <c r="A363" t="s">
-        <v>1138</v>
+        <v>1173</v>
       </c>
       <c r="C363" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D363" t="s">
         <v>205</v>
@@ -14950,7 +15196,7 @@
         <v>14</v>
       </c>
       <c r="F363" t="s">
-        <v>1139</v>
+        <v>1174</v>
       </c>
       <c r="G363" t="s">
         <v>27</v>
@@ -14967,10 +15213,10 @@
     </row>
     <row r="364" spans="1:10">
       <c r="A364" t="s">
-        <v>1140</v>
+        <v>1175</v>
       </c>
       <c r="C364" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D364" t="s">
         <v>66</v>
@@ -14979,10 +15225,10 @@
         <v>14</v>
       </c>
       <c r="F364" t="s">
-        <v>1137</v>
+        <v>1172</v>
       </c>
       <c r="G364" t="s">
-        <v>1141</v>
+        <v>1176</v>
       </c>
       <c r="H364" t="s">
         <v>750</v>
@@ -14996,10 +15242,10 @@
     </row>
     <row r="365" spans="1:10">
       <c r="A365" t="s">
-        <v>1142</v>
+        <v>1177</v>
       </c>
       <c r="C365" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D365" t="s">
         <v>248</v>
@@ -15008,7 +15254,7 @@
         <v>14</v>
       </c>
       <c r="F365" t="s">
-        <v>1092</v>
+        <v>1126</v>
       </c>
       <c r="G365" t="s">
         <v>27</v>
@@ -15025,10 +15271,10 @@
     </row>
     <row r="366" spans="1:10">
       <c r="A366" t="s">
-        <v>1143</v>
+        <v>1178</v>
       </c>
       <c r="C366" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D366" t="s">
         <v>248</v>
@@ -15037,7 +15283,7 @@
         <v>14</v>
       </c>
       <c r="F366" t="s">
-        <v>1144</v>
+        <v>1179</v>
       </c>
       <c r="G366" t="s">
         <v>180</v>
@@ -15054,10 +15300,10 @@
     </row>
     <row r="367" spans="1:10">
       <c r="A367" t="s">
-        <v>1145</v>
+        <v>1180</v>
       </c>
       <c r="C367" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D367" t="s">
         <v>158</v>
@@ -15066,10 +15312,10 @@
         <v>14</v>
       </c>
       <c r="F367" t="s">
-        <v>1100</v>
+        <v>1134</v>
       </c>
       <c r="G367" t="s">
-        <v>1146</v>
+        <v>1181</v>
       </c>
       <c r="H367" t="s">
         <v>733</v>
@@ -15083,10 +15329,10 @@
     </row>
     <row r="368" spans="1:10">
       <c r="A368" t="s">
-        <v>1147</v>
+        <v>1182</v>
       </c>
       <c r="C368" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="D368" t="s">
         <v>143</v>
@@ -15095,7 +15341,7 @@
         <v>14</v>
       </c>
       <c r="F368" t="s">
-        <v>1148</v>
+        <v>1183</v>
       </c>
       <c r="G368" t="s">
         <v>109</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18920"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18927"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -847,7 +847,7 @@
     <t>도스팡고(ドスファンゴ) 1마리 수렵</t>
   </si>
   <si>
-    <t>블루팡고(ブルファンゴ) 3마리 토벌</t>
+    <t>불팡고(ブルファンゴ) 3마리 토벌</t>
   </si>
   <si>
     <t>ニャンター、はじめてのお使い</t>
@@ -1024,7 +1024,7 @@
     <t>숲의 팡고들</t>
   </si>
   <si>
-    <t>블루팡고(ブルファンゴ) 10마리 토벌</t>
+    <t>불팡고(ブルファンゴ) 10마리 토벌</t>
   </si>
   <si>
     <t>도스게네포스(ドスランボス)의 머리 파괴</t>
@@ -1267,10 +1267,10 @@
     <t>ブルファンゴを狩れ！</t>
   </si>
   <si>
-    <t>블루팡고를 사냥해라!</t>
-  </si>
-  <si>
-    <t>블루팡고(ブルファンゴ) 20마리 토벌</t>
+    <t>불팡고를 사냥해라!</t>
+  </si>
+  <si>
+    <t>불팡고(ブルファンゴ) 20마리 토벌</t>
   </si>
   <si>
     <t>毒怪鳥ゲリョスを追え！</t>
@@ -1972,10 +1972,10 @@
     <t>白昼のブルファンゴ討伐</t>
   </si>
   <si>
-    <t>대낮의 블루팡고 토벌</t>
-  </si>
-  <si>
-    <t>블루팡고(ブルファンゴ)를 10마리 이상 토벌하고 타임업 혹은 고양이택시티켓(ネコタクチケット) 납품</t>
+    <t>대낮의 불팡고 토벌</t>
+  </si>
+  <si>
+    <t>불팡고(ブルファンゴ)를 10마리 이상 토벌하고 타임업 혹은 고양이택시티켓(ネコタクチケット) 납품</t>
   </si>
   <si>
     <t>噴煙まとう王者</t>
@@ -1990,7 +1990,7 @@
     <t>再びキノコ探しで大もうけ！？</t>
   </si>
   <si>
-    <t>다시한번 버섯을 찾아서 큰 벌이!?</t>
+    <t>다시한번 버섯을 찾아서 큰벌이!?</t>
   </si>
   <si>
     <t>특산 버섯(特産キノコ) 10개 이상 납품 혹은 고양이택시티켓(ネコタクチケット) 납품</t>
@@ -3076,7 +3076,7 @@
     <t>예쁜 조개껍데기(きれいな貝殻) 10개 납품</t>
   </si>
   <si>
-    <t>블루팡고(ブルファンゴ) 8마리 토벌</t>
+    <t>불팡고(ブルファンゴ) 8마리 토벌</t>
   </si>
   <si>
     <t>龍識船強化！【水竜編】</t>
@@ -3931,8 +3931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="E233" sqref="E233"/>
+    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -2146,7 +2146,7 @@
     <t>ドス来い！真夜中の古代林</t>
   </si>
   <si>
-    <t>도스와라! 한밤중의 고대림</t>
+    <t>도스덤벼! 한밤중의 고대림</t>
   </si>
   <si>
     <t>混乱のホロロロホルルル</t>
@@ -2215,7 +2215,7 @@
     <t>廻り集いて回帰せん</t>
   </si>
   <si>
-    <t>돌고 모여서 회귀하다</t>
+    <t>돌고 울어서 회귀하리라</t>
   </si>
   <si>
     <t>샤갈마가라(シャガルマガラ) 1마리 토벌</t>
@@ -2278,7 +2278,7 @@
     <t>縄張りに進入するべからず</t>
   </si>
   <si>
-    <t>영역에 진입하지 말 것</t>
+    <t>영역에 진입하지 말지어니</t>
   </si>
   <si>
     <t>진오우가(ジンオウガ)의 등 파괴</t>
@@ -2425,7 +2425,7 @@
     <t>千刃、襲来</t>
   </si>
   <si>
-    <t>천인, 습래</t>
+    <t>천인, 내습</t>
   </si>
   <si>
     <t>天下分け目の大合戦</t>
@@ -3931,8 +3931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="B231" sqref="B231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -613,7 +613,7 @@
     <t>고난도 : 아지랑이의 제국</t>
   </si>
   <si>
-    <t>테오・카스카토르(テオ・テスカトル) 토벌 혹은 격퇴</t>
+    <t>테오・테스카토르(テオ・テスカトル) 토벌 혹은 격퇴</t>
   </si>
   <si>
     <t>高難度：喧嘩の仲裁は村を救う</t>

--- a/data.xlsx
+++ b/data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3592" uniqueCount="1179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3592" uniqueCount="1180">
   <si>
     <t>questName</t>
   </si>
@@ -106,10 +106,10 @@
     <t>マッカォの群れを討伐せよ！</t>
   </si>
   <si>
-    <t>마콰 무리를 토벌해라!</t>
-  </si>
-  <si>
-    <t>마콰(マッカォ) 10마리 토벌</t>
+    <t>마카오 무리를 토벌해라!</t>
+  </si>
+  <si>
+    <t>마카오(マッカォ) 10마리 토벌</t>
   </si>
   <si>
     <t>森の中のケルビ</t>
@@ -832,7 +832,7 @@
     <t>고대림의 정산 아이템 납품</t>
   </si>
   <si>
-    <t>도스마콰(ドスマッカォ) 수렵</t>
+    <t>도스마카오(ドスマッカォ) 수렵</t>
   </si>
   <si>
     <t>200z</t>
@@ -1036,7 +1036,7 @@
     <t>고대림의 망나니</t>
   </si>
   <si>
-    <t>마콰(マッカォ) 15마리 토벌</t>
+    <t>마카오(マッカォ) 15마리 토벌</t>
   </si>
   <si>
     <t>ゲネポス討伐作戦！</t>
@@ -1399,7 +1399,7 @@
     <t>재주좋은 꼬리에 매혹당해서</t>
   </si>
   <si>
-    <t>도스마콰(ドスマッカォ) 2마리 수렵</t>
+    <t>도스마카오(ドスマッカォ) 2마리 수렵</t>
   </si>
   <si>
     <t>용의눈물(竜のナミダ) 1개 납품</t>
@@ -1588,7 +1588,7 @@
     <t>도구룡의 머리파괴에 도전!</t>
   </si>
   <si>
-    <t>도스마콰(ドスマッカォ) 머리 파괴</t>
+    <t>도스마카오(ドスマッカォ) 머리 파괴</t>
   </si>
   <si>
     <t>火山の精算アイテム納品</t>
@@ -2407,7 +2407,7 @@
     <t>파랑과 녹색의 파상포위망</t>
   </si>
   <si>
-    <t>도스란포스(ドスランポス), 도스마콰(ドスマッカォ) 수렵</t>
+    <t>도스란포스(ドスランポス), 도스마카오(ドスマッカォ) 수렵</t>
   </si>
   <si>
     <t>高難度：天と地の怒り</t>
@@ -2500,6 +2500,9 @@
     <t>고난도 : 중갑충과 실력시험!</t>
   </si>
   <si>
+    <t>단차에 의한 다운을 5회 성공</t>
+  </si>
+  <si>
     <t>게넬・셀타스(ゲネル・セルタス) 1마리 수렵</t>
   </si>
   <si>
@@ -2563,10 +2566,10 @@
     <t>마을★7</t>
   </si>
   <si>
-    <t>도스마콰(ドスマッカォ) 1마리 수렵</t>
-  </si>
-  <si>
-    <t>도스마콰(ドスマッカォ)의 머리 파괴</t>
+    <t>도스마카오(ドスマッカォ) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>도스마카오(ドスマッカォ)의 머리 파괴</t>
   </si>
   <si>
     <t>ぱっくん！テツカブラ</t>
@@ -2983,7 +2986,7 @@
     <t>날고 뛰어오르며 무아무중</t>
   </si>
   <si>
-    <t>케챠와챠(ケチャワチャ) 1마리와 도스마콰(ドスマッカォ) 1마리 수렵</t>
+    <t>케챠와챠(ケチャワチャ) 1마리와 도스마카오(ドスマッカォ) 1마리 수렵</t>
   </si>
   <si>
     <t>砂まみれですな</t>
@@ -3163,7 +3166,7 @@
     <t>嗚呼素晴らしき也、絞蛇竜</t>
   </si>
   <si>
-    <t>아아 훌륭하도다, 교사룡</t>
+    <t>아아 훌륭하니라, 교사룡</t>
   </si>
   <si>
     <t>가라라아쟈라(ガララアジャラ) 1마리 포획</t>
@@ -3931,8 +3934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="B231" sqref="B231"/>
+    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="B324" sqref="B324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11327,13 +11330,13 @@
         <v>719</v>
       </c>
       <c r="D239" t="s">
-        <v>143</v>
+        <v>827</v>
       </c>
       <c r="E239" t="s">
         <v>14</v>
       </c>
       <c r="F239" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="G239" t="s">
         <v>27</v>
@@ -11347,10 +11350,10 @@
     </row>
     <row r="240" spans="1:10">
       <c r="A240" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B240" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C240" t="s">
         <v>719</v>
@@ -11368,18 +11371,18 @@
         <v>27</v>
       </c>
       <c r="H240" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="I240" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="241" spans="1:10">
       <c r="A241" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B241" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C241" t="s">
         <v>719</v>
@@ -11405,10 +11408,10 @@
     </row>
     <row r="242" spans="1:10">
       <c r="A242" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B242" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C242" t="s">
         <v>719</v>
@@ -11437,10 +11440,10 @@
     </row>
     <row r="243" spans="1:10">
       <c r="A243" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B243" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C243" t="s">
         <v>719</v>
@@ -11461,15 +11464,15 @@
         <v>530</v>
       </c>
       <c r="I243" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="244" spans="1:10">
       <c r="A244" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B244" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C244" t="s">
         <v>719</v>
@@ -11490,7 +11493,7 @@
         <v>58</v>
       </c>
       <c r="I244" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="J244" t="s">
         <v>71</v>
@@ -11498,10 +11501,10 @@
     </row>
     <row r="245" spans="1:10">
       <c r="A245" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B245" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C245" t="s">
         <v>719</v>
@@ -11522,18 +11525,18 @@
         <v>735</v>
       </c>
       <c r="I245" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="246" spans="1:10">
       <c r="A246" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B246" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C246" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D246" t="s">
         <v>91</v>
@@ -11542,10 +11545,10 @@
         <v>14</v>
       </c>
       <c r="F246" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="G246" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H246" t="s">
         <v>272</v>
@@ -11565,7 +11568,7 @@
         <v>329</v>
       </c>
       <c r="C247" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D247" t="s">
         <v>194</v>
@@ -11591,13 +11594,13 @@
     </row>
     <row r="248" spans="1:10">
       <c r="A248" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B248" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C248" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D248" t="s">
         <v>13</v>
@@ -11623,13 +11626,13 @@
     </row>
     <row r="249" spans="1:10">
       <c r="A249" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B249" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C249" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D249" t="s">
         <v>66</v>
@@ -11638,7 +11641,7 @@
         <v>14</v>
       </c>
       <c r="F249" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="G249" t="s">
         <v>27</v>
@@ -11655,13 +11658,13 @@
     </row>
     <row r="250" spans="1:10">
       <c r="A250" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B250" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C250" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D250" t="s">
         <v>66</v>
@@ -11687,13 +11690,13 @@
     </row>
     <row r="251" spans="1:10">
       <c r="A251" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B251" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C251" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D251" t="s">
         <v>143</v>
@@ -11719,13 +11722,13 @@
     </row>
     <row r="252" spans="1:10">
       <c r="A252" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B252" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C252" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D252" t="s">
         <v>91</v>
@@ -11751,13 +11754,13 @@
     </row>
     <row r="253" spans="1:10">
       <c r="A253" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B253" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C253" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D253" t="s">
         <v>66</v>
@@ -11766,7 +11769,7 @@
         <v>14</v>
       </c>
       <c r="F253" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="G253" t="s">
         <v>761</v>
@@ -11783,13 +11786,13 @@
     </row>
     <row r="254" spans="1:10">
       <c r="A254" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B254" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C254" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D254" t="s">
         <v>194</v>
@@ -11798,7 +11801,7 @@
         <v>14</v>
       </c>
       <c r="F254" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="G254" t="s">
         <v>109</v>
@@ -11807,7 +11810,7 @@
         <v>721</v>
       </c>
       <c r="I254" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="J254" t="s">
         <v>218</v>
@@ -11821,7 +11824,7 @@
         <v>312</v>
       </c>
       <c r="C255" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D255" t="s">
         <v>112</v>
@@ -11847,13 +11850,13 @@
     </row>
     <row r="256" spans="1:10">
       <c r="A256" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B256" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C256" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D256" t="s">
         <v>143</v>
@@ -11879,13 +11882,13 @@
     </row>
     <row r="257" spans="1:10">
       <c r="A257" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B257" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C257" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D257" t="s">
         <v>91</v>
@@ -11894,10 +11897,10 @@
         <v>14</v>
       </c>
       <c r="F257" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="G257" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H257" t="s">
         <v>272</v>
@@ -11911,13 +11914,13 @@
     </row>
     <row r="258" spans="1:10">
       <c r="A258" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B258" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C258" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D258" t="s">
         <v>91</v>
@@ -11943,13 +11946,13 @@
     </row>
     <row r="259" spans="1:10">
       <c r="A259" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B259" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C259" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D259" t="s">
         <v>13</v>
@@ -11958,10 +11961,10 @@
         <v>14</v>
       </c>
       <c r="F259" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G259" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H259" t="s">
         <v>180</v>
@@ -11975,13 +11978,13 @@
     </row>
     <row r="260" spans="1:10">
       <c r="A260" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B260" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C260" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D260" t="s">
         <v>91</v>
@@ -11990,7 +11993,7 @@
         <v>14</v>
       </c>
       <c r="F260" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="G260" t="s">
         <v>27</v>
@@ -12007,13 +12010,13 @@
     </row>
     <row r="261" spans="1:10">
       <c r="A261" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B261" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C261" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D261" t="s">
         <v>91</v>
@@ -12022,7 +12025,7 @@
         <v>14</v>
       </c>
       <c r="F261" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="G261" t="s">
         <v>27</v>
@@ -12045,7 +12048,7 @@
         <v>298</v>
       </c>
       <c r="C262" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D262" t="s">
         <v>53</v>
@@ -12077,7 +12080,7 @@
         <v>348</v>
       </c>
       <c r="C263" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D263" t="s">
         <v>13</v>
@@ -12103,13 +12106,13 @@
     </row>
     <row r="264" spans="1:10">
       <c r="A264" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B264" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C264" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D264" t="s">
         <v>183</v>
@@ -12118,7 +12121,7 @@
         <v>14</v>
       </c>
       <c r="F264" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="G264" t="s">
         <v>47</v>
@@ -12135,13 +12138,13 @@
     </row>
     <row r="265" spans="1:10">
       <c r="A265" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B265" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C265" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D265" t="s">
         <v>66</v>
@@ -12150,7 +12153,7 @@
         <v>14</v>
       </c>
       <c r="F265" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="G265" t="s">
         <v>303</v>
@@ -12167,13 +12170,13 @@
     </row>
     <row r="266" spans="1:10">
       <c r="A266" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B266" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C266" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D266" t="s">
         <v>112</v>
@@ -12185,7 +12188,7 @@
         <v>413</v>
       </c>
       <c r="G266" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H266" t="s">
         <v>18</v>
@@ -12199,13 +12202,13 @@
     </row>
     <row r="267" spans="1:10">
       <c r="A267" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B267" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C267" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D267" t="s">
         <v>91</v>
@@ -12214,7 +12217,7 @@
         <v>14</v>
       </c>
       <c r="F267" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G267" t="s">
         <v>27</v>
@@ -12231,13 +12234,13 @@
     </row>
     <row r="268" spans="1:10">
       <c r="A268" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B268" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C268" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D268" t="s">
         <v>91</v>
@@ -12269,7 +12272,7 @@
         <v>327</v>
       </c>
       <c r="C269" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D269" t="s">
         <v>183</v>
@@ -12295,13 +12298,13 @@
     </row>
     <row r="270" spans="1:10">
       <c r="A270" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B270" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C270" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D270" t="s">
         <v>91</v>
@@ -12310,7 +12313,7 @@
         <v>14</v>
       </c>
       <c r="F270" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="G270" t="s">
         <v>55</v>
@@ -12327,13 +12330,13 @@
     </row>
     <row r="271" spans="1:10">
       <c r="A271" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B271" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C271" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D271" t="s">
         <v>112</v>
@@ -12342,10 +12345,10 @@
         <v>14</v>
       </c>
       <c r="F271" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="G271" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H271" t="s">
         <v>272</v>
@@ -12359,13 +12362,13 @@
     </row>
     <row r="272" spans="1:10">
       <c r="A272" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B272" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C272" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D272" t="s">
         <v>91</v>
@@ -12374,7 +12377,7 @@
         <v>14</v>
       </c>
       <c r="F272" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="G272" t="s">
         <v>439</v>
@@ -12391,13 +12394,13 @@
     </row>
     <row r="273" spans="1:10">
       <c r="A273" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B273" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C273" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D273" t="s">
         <v>66</v>
@@ -12406,10 +12409,10 @@
         <v>14</v>
       </c>
       <c r="F273" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G273" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H273" t="s">
         <v>272</v>
@@ -12423,13 +12426,13 @@
     </row>
     <row r="274" spans="1:10">
       <c r="A274" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B274" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C274" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D274" t="s">
         <v>45</v>
@@ -12438,10 +12441,10 @@
         <v>14</v>
       </c>
       <c r="F274" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="G274" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H274" t="s">
         <v>272</v>
@@ -12455,13 +12458,13 @@
     </row>
     <row r="275" spans="1:10">
       <c r="A275" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B275" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C275" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D275" t="s">
         <v>53</v>
@@ -12470,10 +12473,10 @@
         <v>14</v>
       </c>
       <c r="F275" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="G275" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H275" t="s">
         <v>180</v>
@@ -12487,13 +12490,13 @@
     </row>
     <row r="276" spans="1:10">
       <c r="A276" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B276" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C276" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D276" t="s">
         <v>45</v>
@@ -12502,7 +12505,7 @@
         <v>14</v>
       </c>
       <c r="F276" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="G276" t="s">
         <v>109</v>
@@ -12519,13 +12522,13 @@
     </row>
     <row r="277" spans="1:10">
       <c r="A277" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B277" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C277" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D277" t="s">
         <v>45</v>
@@ -12551,13 +12554,13 @@
     </row>
     <row r="278" spans="1:10">
       <c r="A278" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B278" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C278" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D278" t="s">
         <v>194</v>
@@ -12566,7 +12569,7 @@
         <v>14</v>
       </c>
       <c r="F278" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="G278" t="s">
         <v>362</v>
@@ -12583,13 +12586,13 @@
     </row>
     <row r="279" spans="1:10">
       <c r="A279" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B279" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C279" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D279" t="s">
         <v>13</v>
@@ -12598,16 +12601,16 @@
         <v>14</v>
       </c>
       <c r="F279" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="G279" t="s">
         <v>27</v>
       </c>
       <c r="H279" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="I279" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="J279" t="s">
         <v>17</v>
@@ -12615,13 +12618,13 @@
     </row>
     <row r="280" spans="1:10">
       <c r="A280" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B280" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C280" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D280" t="s">
         <v>143</v>
@@ -12647,13 +12650,13 @@
     </row>
     <row r="281" spans="1:10">
       <c r="A281" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B281" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C281" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D281" t="s">
         <v>53</v>
@@ -12679,13 +12682,13 @@
     </row>
     <row r="282" spans="1:10">
       <c r="A282" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B282" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C282" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D282" t="s">
         <v>66</v>
@@ -12717,7 +12720,7 @@
         <v>541</v>
       </c>
       <c r="C283" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D283" t="s">
         <v>204</v>
@@ -12743,13 +12746,13 @@
     </row>
     <row r="284" spans="1:10">
       <c r="A284" t="s">
+        <v>941</v>
+      </c>
+      <c r="B284" t="s">
+        <v>942</v>
+      </c>
+      <c r="C284" t="s">
         <v>940</v>
-      </c>
-      <c r="B284" t="s">
-        <v>941</v>
-      </c>
-      <c r="C284" t="s">
-        <v>939</v>
       </c>
       <c r="D284" t="s">
         <v>79</v>
@@ -12758,7 +12761,7 @@
         <v>14</v>
       </c>
       <c r="F284" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="G284" t="s">
         <v>609</v>
@@ -12775,13 +12778,13 @@
     </row>
     <row r="285" spans="1:10">
       <c r="A285" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B285" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C285" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D285" t="s">
         <v>86</v>
@@ -12807,13 +12810,13 @@
     </row>
     <row r="286" spans="1:10">
       <c r="A286" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B286" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C286" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D286" t="s">
         <v>204</v>
@@ -12822,7 +12825,7 @@
         <v>14</v>
       </c>
       <c r="F286" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="G286" t="s">
         <v>27</v>
@@ -12839,13 +12842,13 @@
     </row>
     <row r="287" spans="1:10">
       <c r="A287" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B287" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C287" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D287" t="s">
         <v>13</v>
@@ -12854,10 +12857,10 @@
         <v>14</v>
       </c>
       <c r="F287" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="G287" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H287" t="s">
         <v>18</v>
@@ -12871,13 +12874,13 @@
     </row>
     <row r="288" spans="1:10">
       <c r="A288" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B288" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C288" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D288" t="s">
         <v>66</v>
@@ -12903,13 +12906,13 @@
     </row>
     <row r="289" spans="1:10">
       <c r="A289" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B289" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C289" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D289" t="s">
         <v>53</v>
@@ -12921,7 +12924,7 @@
         <v>617</v>
       </c>
       <c r="G289" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H289" t="s">
         <v>18</v>
@@ -12935,13 +12938,13 @@
     </row>
     <row r="290" spans="1:10">
       <c r="A290" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B290" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C290" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D290" t="s">
         <v>183</v>
@@ -12950,16 +12953,16 @@
         <v>14</v>
       </c>
       <c r="F290" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="G290" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H290" t="s">
         <v>735</v>
       </c>
       <c r="I290" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="J290" t="s">
         <v>82</v>
@@ -12967,13 +12970,13 @@
     </row>
     <row r="291" spans="1:10">
       <c r="A291" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B291" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C291" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D291" t="s">
         <v>79</v>
@@ -12985,7 +12988,7 @@
         <v>682</v>
       </c>
       <c r="G291" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H291" t="s">
         <v>23</v>
@@ -12999,13 +13002,13 @@
     </row>
     <row r="292" spans="1:10">
       <c r="A292" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B292" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C292" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D292" t="s">
         <v>112</v>
@@ -13014,7 +13017,7 @@
         <v>14</v>
       </c>
       <c r="F292" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="G292" t="s">
         <v>27</v>
@@ -13031,13 +13034,13 @@
     </row>
     <row r="293" spans="1:10">
       <c r="A293" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B293" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C293" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D293" t="s">
         <v>79</v>
@@ -13046,7 +13049,7 @@
         <v>14</v>
       </c>
       <c r="F293" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="G293" t="s">
         <v>27</v>
@@ -13069,7 +13072,7 @@
         <v>453</v>
       </c>
       <c r="C294" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D294" t="s">
         <v>158</v>
@@ -13095,13 +13098,13 @@
     </row>
     <row r="295" spans="1:10">
       <c r="A295" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B295" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C295" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D295" t="s">
         <v>79</v>
@@ -13127,13 +13130,13 @@
     </row>
     <row r="296" spans="1:10">
       <c r="A296" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B296" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C296" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D296" t="s">
         <v>204</v>
@@ -13142,7 +13145,7 @@
         <v>14</v>
       </c>
       <c r="F296" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="G296" t="s">
         <v>47</v>
@@ -13165,7 +13168,7 @@
         <v>399</v>
       </c>
       <c r="C297" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D297" t="s">
         <v>247</v>
@@ -13191,13 +13194,13 @@
     </row>
     <row r="298" spans="1:10">
       <c r="A298" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B298" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C298" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D298" t="s">
         <v>91</v>
@@ -13209,7 +13212,7 @@
         <v>582</v>
       </c>
       <c r="G298" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H298" t="s">
         <v>552</v>
@@ -13223,13 +13226,13 @@
     </row>
     <row r="299" spans="1:10">
       <c r="A299" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B299" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C299" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D299" t="s">
         <v>204</v>
@@ -13241,13 +13244,13 @@
         <v>698</v>
       </c>
       <c r="G299" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H299" t="s">
         <v>721</v>
       </c>
       <c r="I299" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="J299" t="s">
         <v>82</v>
@@ -13255,13 +13258,13 @@
     </row>
     <row r="300" spans="1:10">
       <c r="A300" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B300" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C300" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D300" t="s">
         <v>122</v>
@@ -13279,7 +13282,7 @@
         <v>721</v>
       </c>
       <c r="I300" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="J300" t="s">
         <v>82</v>
@@ -13287,13 +13290,13 @@
     </row>
     <row r="301" spans="1:10">
       <c r="A301" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B301" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C301" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D301" t="s">
         <v>247</v>
@@ -13302,7 +13305,7 @@
         <v>14</v>
       </c>
       <c r="F301" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="G301" t="s">
         <v>109</v>
@@ -13319,13 +13322,13 @@
     </row>
     <row r="302" spans="1:10">
       <c r="A302" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B302" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C302" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D302" t="s">
         <v>45</v>
@@ -13334,7 +13337,7 @@
         <v>14</v>
       </c>
       <c r="F302" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="G302" t="s">
         <v>362</v>
@@ -13351,13 +13354,13 @@
     </row>
     <row r="303" spans="1:10">
       <c r="A303" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B303" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C303" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D303" t="s">
         <v>194</v>
@@ -13366,7 +13369,7 @@
         <v>14</v>
       </c>
       <c r="F303" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="G303" t="s">
         <v>47</v>
@@ -13383,13 +13386,13 @@
     </row>
     <row r="304" spans="1:10">
       <c r="A304" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B304" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C304" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D304" t="s">
         <v>247</v>
@@ -13398,7 +13401,7 @@
         <v>14</v>
       </c>
       <c r="F304" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="G304" t="s">
         <v>362</v>
@@ -13415,13 +13418,13 @@
     </row>
     <row r="305" spans="1:10">
       <c r="A305" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B305" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C305" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D305" t="s">
         <v>158</v>
@@ -13430,7 +13433,7 @@
         <v>14</v>
       </c>
       <c r="F305" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="G305" t="s">
         <v>47</v>
@@ -13439,7 +13442,7 @@
         <v>735</v>
       </c>
       <c r="I305" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="J305" t="s">
         <v>50</v>
@@ -13447,13 +13450,13 @@
     </row>
     <row r="306" spans="1:10">
       <c r="A306" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B306" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C306" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D306" t="s">
         <v>66</v>
@@ -13465,7 +13468,7 @@
         <v>504</v>
       </c>
       <c r="G306" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H306" t="s">
         <v>180</v>
@@ -13479,13 +13482,13 @@
     </row>
     <row r="307" spans="1:10">
       <c r="A307" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B307" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C307" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D307" t="s">
         <v>86</v>
@@ -13494,10 +13497,10 @@
         <v>14</v>
       </c>
       <c r="F307" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="G307" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="H307" t="s">
         <v>180</v>
@@ -13511,13 +13514,13 @@
     </row>
     <row r="308" spans="1:10">
       <c r="A308" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B308" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C308" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D308" t="s">
         <v>91</v>
@@ -13543,13 +13546,13 @@
     </row>
     <row r="309" spans="1:10">
       <c r="A309" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B309" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C309" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D309" t="s">
         <v>66</v>
@@ -13561,7 +13564,7 @@
         <v>565</v>
       </c>
       <c r="G309" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H309" t="s">
         <v>180</v>
@@ -13575,13 +13578,13 @@
     </row>
     <row r="310" spans="1:10">
       <c r="A310" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B310" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C310" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D310" t="s">
         <v>143</v>
@@ -13590,7 +13593,7 @@
         <v>14</v>
       </c>
       <c r="F310" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="G310" t="s">
         <v>27</v>
@@ -13607,13 +13610,13 @@
     </row>
     <row r="311" spans="1:10">
       <c r="A311" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B311" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C311" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D311" t="s">
         <v>91</v>
@@ -13622,10 +13625,10 @@
         <v>14</v>
       </c>
       <c r="F311" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="G311" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H311" t="s">
         <v>18</v>
@@ -13639,13 +13642,13 @@
     </row>
     <row r="312" spans="1:10">
       <c r="A312" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B312" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C312" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D312" t="s">
         <v>79</v>
@@ -13654,10 +13657,10 @@
         <v>14</v>
       </c>
       <c r="F312" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="G312" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="H312" t="s">
         <v>18</v>
@@ -13671,13 +13674,13 @@
     </row>
     <row r="313" spans="1:10">
       <c r="A313" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B313" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C313" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D313" t="s">
         <v>91</v>
@@ -13686,7 +13689,7 @@
         <v>14</v>
       </c>
       <c r="F313" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="G313" t="s">
         <v>27</v>
@@ -13703,13 +13706,13 @@
     </row>
     <row r="314" spans="1:10">
       <c r="A314" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B314" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C314" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D314" t="s">
         <v>112</v>
@@ -13721,7 +13724,7 @@
         <v>544</v>
       </c>
       <c r="G314" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="H314" t="s">
         <v>23</v>
@@ -13735,13 +13738,13 @@
     </row>
     <row r="315" spans="1:10">
       <c r="A315" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B315" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C315" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D315" t="s">
         <v>91</v>
@@ -13750,7 +13753,7 @@
         <v>14</v>
       </c>
       <c r="F315" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="G315" t="s">
         <v>27</v>
@@ -13767,13 +13770,13 @@
     </row>
     <row r="316" spans="1:10">
       <c r="A316" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B316" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C316" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D316" t="s">
         <v>91</v>
@@ -13799,13 +13802,13 @@
     </row>
     <row r="317" spans="1:10">
       <c r="A317" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B317" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C317" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D317" t="s">
         <v>122</v>
@@ -13831,13 +13834,13 @@
     </row>
     <row r="318" spans="1:10">
       <c r="A318" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B318" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C318" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D318" t="s">
         <v>158</v>
@@ -13846,10 +13849,10 @@
         <v>14</v>
       </c>
       <c r="F318" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="G318" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H318" t="s">
         <v>23</v>
@@ -13863,13 +13866,13 @@
     </row>
     <row r="319" spans="1:10">
       <c r="A319" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B319" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C319" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D319" t="s">
         <v>86</v>
@@ -13878,10 +13881,10 @@
         <v>14</v>
       </c>
       <c r="F319" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="G319" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="H319" t="s">
         <v>552</v>
@@ -13895,13 +13898,13 @@
     </row>
     <row r="320" spans="1:10">
       <c r="A320" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B320" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C320" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D320" t="s">
         <v>79</v>
@@ -13910,10 +13913,10 @@
         <v>14</v>
       </c>
       <c r="F320" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="G320" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H320" t="s">
         <v>18</v>
@@ -13927,13 +13930,13 @@
     </row>
     <row r="321" spans="1:10">
       <c r="A321" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B321" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C321" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D321" t="s">
         <v>112</v>
@@ -13942,10 +13945,10 @@
         <v>14</v>
       </c>
       <c r="F321" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="G321" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H321" t="s">
         <v>180</v>
@@ -13959,13 +13962,13 @@
     </row>
     <row r="322" spans="1:10">
       <c r="A322" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B322" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C322" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D322" t="s">
         <v>143</v>
@@ -13974,7 +13977,7 @@
         <v>14</v>
       </c>
       <c r="F322" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G322" t="s">
         <v>27</v>
@@ -13991,13 +13994,13 @@
     </row>
     <row r="323" spans="1:10">
       <c r="A323" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B323" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C323" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D323" t="s">
         <v>143</v>
@@ -14006,7 +14009,7 @@
         <v>14</v>
       </c>
       <c r="F323" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="G323" t="s">
         <v>109</v>
@@ -14023,13 +14026,13 @@
     </row>
     <row r="324" spans="1:10">
       <c r="A324" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B324" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C324" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D324" t="s">
         <v>158</v>
@@ -14038,7 +14041,7 @@
         <v>14</v>
       </c>
       <c r="F324" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="G324" t="s">
         <v>362</v>
@@ -14047,7 +14050,7 @@
         <v>735</v>
       </c>
       <c r="I324" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="J324" t="s">
         <v>228</v>
@@ -14055,13 +14058,13 @@
     </row>
     <row r="325" spans="1:10">
       <c r="A325" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B325" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C325" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D325" t="s">
         <v>66</v>
@@ -14073,7 +14076,7 @@
         <v>113</v>
       </c>
       <c r="G325" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="H325" t="s">
         <v>69</v>
@@ -14087,13 +14090,13 @@
     </row>
     <row r="326" spans="1:10">
       <c r="A326" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B326" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C326" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D326" t="s">
         <v>183</v>
@@ -14111,7 +14114,7 @@
         <v>735</v>
       </c>
       <c r="I326" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="J326" t="s">
         <v>17</v>
@@ -14119,13 +14122,13 @@
     </row>
     <row r="327" spans="1:10">
       <c r="A327" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B327" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C327" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D327" t="s">
         <v>86</v>
@@ -14134,7 +14137,7 @@
         <v>14</v>
       </c>
       <c r="F327" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="G327" t="s">
         <v>27</v>
@@ -14151,13 +14154,13 @@
     </row>
     <row r="328" spans="1:10">
       <c r="A328" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B328" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C328" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D328" t="s">
         <v>53</v>
@@ -14175,7 +14178,7 @@
         <v>735</v>
       </c>
       <c r="I328" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="J328" t="s">
         <v>17</v>
@@ -14183,13 +14186,13 @@
     </row>
     <row r="329" spans="1:10">
       <c r="A329" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B329" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C329" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D329" t="s">
         <v>13</v>
@@ -14215,13 +14218,13 @@
     </row>
     <row r="330" spans="1:10">
       <c r="A330" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B330" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C330" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D330" t="s">
         <v>86</v>
@@ -14230,16 +14233,16 @@
         <v>14</v>
       </c>
       <c r="F330" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="G330" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H330" t="s">
         <v>228</v>
       </c>
       <c r="I330" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="J330" t="s">
         <v>441</v>
@@ -14247,13 +14250,13 @@
     </row>
     <row r="331" spans="1:10">
       <c r="A331" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B331" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C331" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D331" t="s">
         <v>91</v>
@@ -14262,10 +14265,10 @@
         <v>14</v>
       </c>
       <c r="F331" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="G331" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H331" t="s">
         <v>48</v>
@@ -14279,13 +14282,13 @@
     </row>
     <row r="332" spans="1:10">
       <c r="A332" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B332" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C332" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D332" t="s">
         <v>79</v>
@@ -14297,7 +14300,7 @@
         <v>258</v>
       </c>
       <c r="G332" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="H332" t="s">
         <v>735</v>
@@ -14311,13 +14314,13 @@
     </row>
     <row r="333" spans="1:10">
       <c r="A333" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B333" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C333" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D333" t="s">
         <v>79</v>
@@ -14326,10 +14329,10 @@
         <v>14</v>
       </c>
       <c r="F333" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="G333" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H333" t="s">
         <v>721</v>
@@ -14343,13 +14346,13 @@
     </row>
     <row r="334" spans="1:10">
       <c r="A334" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B334" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C334" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D334" t="s">
         <v>86</v>
@@ -14375,13 +14378,13 @@
     </row>
     <row r="335" spans="1:10">
       <c r="A335" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B335" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C335" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D335" t="s">
         <v>183</v>
@@ -14390,7 +14393,7 @@
         <v>14</v>
       </c>
       <c r="F335" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="G335" t="s">
         <v>250</v>
@@ -14407,13 +14410,13 @@
     </row>
     <row r="336" spans="1:10">
       <c r="A336" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B336" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C336" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D336" t="s">
         <v>194</v>
@@ -14422,7 +14425,7 @@
         <v>14</v>
       </c>
       <c r="F336" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="G336" t="s">
         <v>109</v>
@@ -14431,7 +14434,7 @@
         <v>48</v>
       </c>
       <c r="I336" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="J336" t="s">
         <v>441</v>
@@ -14439,13 +14442,13 @@
     </row>
     <row r="337" spans="1:10">
       <c r="A337" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B337" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C337" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D337" t="s">
         <v>122</v>
@@ -14454,10 +14457,10 @@
         <v>14</v>
       </c>
       <c r="F337" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="G337" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="H337" t="s">
         <v>48</v>
@@ -14471,13 +14474,13 @@
     </row>
     <row r="338" spans="1:10">
       <c r="A338" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B338" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C338" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D338" t="s">
         <v>204</v>
@@ -14503,13 +14506,13 @@
     </row>
     <row r="339" spans="1:10">
       <c r="A339" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B339" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C339" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D339" t="s">
         <v>13</v>
@@ -14527,7 +14530,7 @@
         <v>240</v>
       </c>
       <c r="I339" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="J339" t="s">
         <v>58</v>
@@ -14535,13 +14538,13 @@
     </row>
     <row r="340" spans="1:10">
       <c r="A340" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B340" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C340" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D340" t="s">
         <v>91</v>
@@ -14550,10 +14553,10 @@
         <v>14</v>
       </c>
       <c r="F340" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="G340" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H340" t="s">
         <v>735</v>
@@ -14567,13 +14570,13 @@
     </row>
     <row r="341" spans="1:10">
       <c r="A341" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B341" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C341" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D341" t="s">
         <v>45</v>
@@ -14585,13 +14588,13 @@
         <v>54</v>
       </c>
       <c r="G341" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="H341" t="s">
         <v>228</v>
       </c>
       <c r="I341" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="J341" t="s">
         <v>441</v>
@@ -14599,13 +14602,13 @@
     </row>
     <row r="342" spans="1:10">
       <c r="A342" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B342" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C342" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D342" t="s">
         <v>91</v>
@@ -14631,13 +14634,13 @@
     </row>
     <row r="343" spans="1:10">
       <c r="A343" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B343" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C343" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D343" t="s">
         <v>91</v>
@@ -14649,7 +14652,7 @@
         <v>250</v>
       </c>
       <c r="G343" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="H343" t="s">
         <v>721</v>
@@ -14663,13 +14666,13 @@
     </row>
     <row r="344" spans="1:10">
       <c r="A344" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B344" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C344" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D344" t="s">
         <v>79</v>
@@ -14695,13 +14698,13 @@
     </row>
     <row r="345" spans="1:10">
       <c r="A345" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B345" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C345" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D345" t="s">
         <v>112</v>
@@ -14710,7 +14713,7 @@
         <v>14</v>
       </c>
       <c r="F345" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="G345" t="s">
         <v>362</v>
@@ -14727,13 +14730,13 @@
     </row>
     <row r="346" spans="1:10">
       <c r="A346" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B346" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C346" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D346" t="s">
         <v>194</v>
@@ -14745,7 +14748,7 @@
         <v>54</v>
       </c>
       <c r="G346" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="H346" t="s">
         <v>114</v>
@@ -14759,13 +14762,13 @@
     </row>
     <row r="347" spans="1:10">
       <c r="A347" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B347" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C347" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D347" t="s">
         <v>122</v>
@@ -14774,7 +14777,7 @@
         <v>14</v>
       </c>
       <c r="F347" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="G347" t="s">
         <v>27</v>
@@ -14791,13 +14794,13 @@
     </row>
     <row r="348" spans="1:10">
       <c r="A348" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B348" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C348" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D348" t="s">
         <v>112</v>
@@ -14806,10 +14809,10 @@
         <v>14</v>
       </c>
       <c r="F348" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="G348" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="H348" t="s">
         <v>240</v>
@@ -14823,13 +14826,13 @@
     </row>
     <row r="349" spans="1:10">
       <c r="A349" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B349" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C349" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D349" t="s">
         <v>143</v>
@@ -14838,10 +14841,10 @@
         <v>14</v>
       </c>
       <c r="F349" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="G349" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H349" t="s">
         <v>240</v>
@@ -14855,13 +14858,13 @@
     </row>
     <row r="350" spans="1:10">
       <c r="A350" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B350" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="C350" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D350" t="s">
         <v>45</v>
@@ -14873,13 +14876,13 @@
         <v>663</v>
       </c>
       <c r="G350" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="H350" t="s">
         <v>735</v>
       </c>
       <c r="I350" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="J350" t="s">
         <v>441</v>
@@ -14887,13 +14890,13 @@
     </row>
     <row r="351" spans="1:10">
       <c r="A351" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B351" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C351" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D351" t="s">
         <v>91</v>
@@ -14911,7 +14914,7 @@
         <v>735</v>
       </c>
       <c r="I351" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="J351" t="s">
         <v>17</v>
@@ -14919,13 +14922,13 @@
     </row>
     <row r="352" spans="1:10">
       <c r="A352" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B352" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C352" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D352" t="s">
         <v>122</v>
@@ -14951,13 +14954,13 @@
     </row>
     <row r="353" spans="1:10">
       <c r="A353" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B353" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="C353" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D353" t="s">
         <v>112</v>
@@ -14975,7 +14978,7 @@
         <v>735</v>
       </c>
       <c r="I353" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="J353" t="s">
         <v>17</v>
@@ -14983,13 +14986,13 @@
     </row>
     <row r="354" spans="1:10">
       <c r="A354" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B354" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C354" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D354" t="s">
         <v>86</v>
@@ -14998,10 +15001,10 @@
         <v>14</v>
       </c>
       <c r="F354" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="G354" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H354" t="s">
         <v>69</v>
@@ -15015,13 +15018,13 @@
     </row>
     <row r="355" spans="1:10">
       <c r="A355" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B355" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C355" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D355" t="s">
         <v>247</v>
@@ -15030,7 +15033,7 @@
         <v>14</v>
       </c>
       <c r="F355" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="G355" t="s">
         <v>27</v>
@@ -15047,13 +15050,13 @@
     </row>
     <row r="356" spans="1:10">
       <c r="A356" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B356" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C356" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D356" t="s">
         <v>194</v>
@@ -15062,7 +15065,7 @@
         <v>14</v>
       </c>
       <c r="F356" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="G356" t="s">
         <v>27</v>
@@ -15079,13 +15082,13 @@
     </row>
     <row r="357" spans="1:10">
       <c r="A357" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B357" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="C357" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D357" t="s">
         <v>79</v>
@@ -15094,7 +15097,7 @@
         <v>14</v>
       </c>
       <c r="F357" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="G357" t="s">
         <v>47</v>
@@ -15111,13 +15114,13 @@
     </row>
     <row r="358" spans="1:10">
       <c r="A358" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B358" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C358" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D358" t="s">
         <v>79</v>
@@ -15129,13 +15132,13 @@
         <v>675</v>
       </c>
       <c r="G358" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="H358" t="s">
         <v>735</v>
       </c>
       <c r="I358" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="J358" t="s">
         <v>441</v>
@@ -15146,10 +15149,10 @@
         <v>141</v>
       </c>
       <c r="B359" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C359" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D359" t="s">
         <v>143</v>
@@ -15161,13 +15164,13 @@
         <v>816</v>
       </c>
       <c r="G359" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="H359" t="s">
         <v>735</v>
       </c>
       <c r="I359" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="J359" t="s">
         <v>441</v>
@@ -15175,13 +15178,13 @@
     </row>
     <row r="360" spans="1:10">
       <c r="A360" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B360" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C360" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D360" t="s">
         <v>204</v>
@@ -15190,7 +15193,7 @@
         <v>14</v>
       </c>
       <c r="F360" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="G360" t="s">
         <v>47</v>
@@ -15199,7 +15202,7 @@
         <v>228</v>
       </c>
       <c r="I360" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="J360" t="s">
         <v>50</v>
@@ -15207,13 +15210,13 @@
     </row>
     <row r="361" spans="1:10">
       <c r="A361" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B361" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C361" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D361" t="s">
         <v>79</v>
@@ -15222,7 +15225,7 @@
         <v>14</v>
       </c>
       <c r="F361" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="G361" t="s">
         <v>47</v>
@@ -15239,13 +15242,13 @@
     </row>
     <row r="362" spans="1:10">
       <c r="A362" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B362" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C362" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D362" t="s">
         <v>13</v>
@@ -15263,7 +15266,7 @@
         <v>735</v>
       </c>
       <c r="I362" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="J362" t="s">
         <v>17</v>
@@ -15271,13 +15274,13 @@
     </row>
     <row r="363" spans="1:10">
       <c r="A363" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B363" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C363" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D363" t="s">
         <v>204</v>
@@ -15286,7 +15289,7 @@
         <v>14</v>
       </c>
       <c r="F363" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="G363" t="s">
         <v>27</v>
@@ -15303,13 +15306,13 @@
     </row>
     <row r="364" spans="1:10">
       <c r="A364" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B364" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="C364" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D364" t="s">
         <v>66</v>
@@ -15321,13 +15324,13 @@
         <v>787</v>
       </c>
       <c r="G364" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="H364" t="s">
         <v>735</v>
       </c>
       <c r="I364" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="J364" t="s">
         <v>441</v>
@@ -15335,13 +15338,13 @@
     </row>
     <row r="365" spans="1:10">
       <c r="A365" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="B365" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="C365" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D365" t="s">
         <v>247</v>
@@ -15350,7 +15353,7 @@
         <v>14</v>
       </c>
       <c r="F365" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="G365" t="s">
         <v>27</v>
@@ -15367,13 +15370,13 @@
     </row>
     <row r="366" spans="1:10">
       <c r="A366" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B366" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="C366" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D366" t="s">
         <v>247</v>
@@ -15399,13 +15402,13 @@
     </row>
     <row r="367" spans="1:10">
       <c r="A367" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B367" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C367" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D367" t="s">
         <v>158</v>
@@ -15417,7 +15420,7 @@
         <v>667</v>
       </c>
       <c r="G367" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="H367" t="s">
         <v>721</v>
@@ -15431,13 +15434,13 @@
     </row>
     <row r="368" spans="1:10">
       <c r="A368" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B368" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="C368" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D368" t="s">
         <v>143</v>
@@ -15446,7 +15449,7 @@
         <v>14</v>
       </c>
       <c r="F368" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="G368" t="s">
         <v>109</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19007"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3592" uniqueCount="1180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3622" uniqueCount="1189">
   <si>
     <t>questName</t>
   </si>
@@ -2041,7 +2041,7 @@
     <t>淡紅の泡狐がたゆたうか</t>
   </si>
   <si>
-    <t>담홍의 호호가 흔들거리는가</t>
+    <t>담홍의 포호가 흔들거리는가</t>
   </si>
   <si>
     <t>타마미츠네(タマミツネ) 1마리 수렵</t>
@@ -2926,7 +2926,7 @@
     <t>龍識船強化！【迅竜編】</t>
   </si>
   <si>
-    <t>욕식선강화! [신룡편]</t>
+    <t>용식선강화! [신룡편]</t>
   </si>
   <si>
     <t>나루가크루가(ナルガクルガ) 1마리 수렵</t>
@@ -3557,6 +3557,33 @@
   </si>
   <si>
     <t>네르스큐라(ネルスキュラ) 2마리 수렵</t>
+  </si>
+  <si>
+    <t>跳躍のアウトロー</t>
+  </si>
+  <si>
+    <t>도약의 무법자</t>
+  </si>
+  <si>
+    <t>마카오(マッカォ) 5마리 토벌</t>
+  </si>
+  <si>
+    <t>古代林の大怪鳥</t>
+  </si>
+  <si>
+    <t>고대림의 대괴조</t>
+  </si>
+  <si>
+    <t>고대나무의 열매(古代木の実) 2개 납품</t>
+  </si>
+  <si>
+    <t>鬼面狩人を威す</t>
+  </si>
+  <si>
+    <t>귀면수인을 위협하다</t>
+  </si>
+  <si>
+    <t>테츠카브라(テツカブラ)의 혹 파괴</t>
   </si>
 </sst>
 </file>
@@ -3932,10 +3959,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J368"/>
+  <dimension ref="A1:J371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="B324" sqref="B324"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B291" sqref="B291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15464,6 +15492,102 @@
         <v>441</v>
       </c>
     </row>
+    <row r="369" spans="1:10">
+      <c r="A369" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C369" t="s">
+        <v>261</v>
+      </c>
+      <c r="D369" t="s">
+        <v>13</v>
+      </c>
+      <c r="E369" t="s">
+        <v>14</v>
+      </c>
+      <c r="F369" t="s">
+        <v>849</v>
+      </c>
+      <c r="G369" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H369" t="s">
+        <v>268</v>
+      </c>
+      <c r="I369" t="s">
+        <v>69</v>
+      </c>
+      <c r="J369" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10">
+      <c r="A370" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C370" t="s">
+        <v>381</v>
+      </c>
+      <c r="D370" t="s">
+        <v>13</v>
+      </c>
+      <c r="E370" t="s">
+        <v>14</v>
+      </c>
+      <c r="F370" t="s">
+        <v>382</v>
+      </c>
+      <c r="G370" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H370" t="s">
+        <v>272</v>
+      </c>
+      <c r="I370" t="s">
+        <v>82</v>
+      </c>
+      <c r="J370" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10">
+      <c r="A371" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C371" t="s">
+        <v>381</v>
+      </c>
+      <c r="D371" t="s">
+        <v>13</v>
+      </c>
+      <c r="E371" t="s">
+        <v>14</v>
+      </c>
+      <c r="F371" t="s">
+        <v>477</v>
+      </c>
+      <c r="G371" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H371" t="s">
+        <v>18</v>
+      </c>
+      <c r="I371" t="s">
+        <v>441</v>
+      </c>
+      <c r="J371" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J368" xr:uid="{864CE004-D11C-4921-BBE0-85FBA8C62B75}">
     <sortState ref="A2:J368">

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19007"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19024"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -1417,7 +1417,7 @@
     <t>ぽかぽかレスキュー隊出動！</t>
   </si>
   <si>
-    <t>폭신폭신레스큐대 출동!</t>
+    <t>따끈따끈 레스큐대 출동!</t>
   </si>
   <si>
     <t>이오스(イーオス) 12마리 토벌</t>
@@ -1555,7 +1555,7 @@
     <t>潜入！飛竜の巣！</t>
   </si>
   <si>
-    <t>잡입! 비룡의 둥지!</t>
+    <t>잠입! 비룡의 둥지!</t>
   </si>
   <si>
     <t>용의알(竜の卵) 2개 납품</t>
@@ -3274,7 +3274,7 @@
     <t>割り込み受注：卵納品</t>
   </si>
   <si>
-    <t>끼어들기 주의 : 알납품</t>
+    <t>새치기수주 : 알납품</t>
   </si>
   <si>
     <t>轟竜と赤甲獣のデュエット</t>
@@ -3962,8 +3962,8 @@
   <dimension ref="A1:J371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B291" sqref="B291"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
